--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2A890-BE0C-4EF9-9859-7E5494B3037A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51CA51-BBB3-4472-A9B1-A5770B7D4E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="375">
   <si>
     <t>Ranking</t>
   </si>
@@ -1135,6 +1135,42 @@
   </si>
   <si>
     <t>Jnr Champs</t>
+  </si>
+  <si>
+    <t>Grasby</t>
+  </si>
+  <si>
+    <t>Tembo</t>
+  </si>
+  <si>
+    <t>Kifaru</t>
+  </si>
+  <si>
+    <t>Fior</t>
+  </si>
+  <si>
+    <t>Walters</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Arcayo</t>
+  </si>
+  <si>
+    <t>Facundo</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Hamish</t>
   </si>
 </sst>
 </file>
@@ -1432,14 +1468,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O402" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:O402" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O359">
-    <sortCondition ref="E2:E359"/>
-    <sortCondition ref="H2:H359"/>
-    <sortCondition ref="I2:I359"/>
-    <sortCondition ref="J2:J359"/>
-    <sortCondition ref="C2:C359"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O437" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:O437" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O437">
+    <sortCondition ref="E2:E437"/>
+    <sortCondition ref="H2:H437"/>
+    <sortCondition ref="I2:I437"/>
+    <sortCondition ref="J2:J437"/>
+    <sortCondition ref="C2:C437"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{23BBF0BD-A33F-49F8-8541-D359B73C9AAA}" uniqueName="LastName" name="LastName">
@@ -1493,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H183" totalsRowShown="0">
-  <autoFilter ref="A1:H183" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H187" totalsRowShown="0">
+  <autoFilter ref="A1:H187" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H180">
     <sortCondition ref="A2:A180"/>
     <sortCondition ref="B2:B180"/>
@@ -1854,11 +1890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O402"/>
+  <dimension ref="A1:O437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21585,17 +21621,17 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>330</v>
+        <v>71</v>
       </c>
       <c r="C373" s="12">
         <v>1</v>
       </c>
       <c r="D373" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E373" s="5">
         <v>44255</v>
@@ -21610,7 +21646,7 @@
         <v>307</v>
       </c>
       <c r="I373" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J373" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21618,7 +21654,7 @@
       </c>
       <c r="K373" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L373" s="12">
         <v>0</v>
@@ -21638,17 +21674,17 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C374" s="12">
         <v>2</v>
       </c>
       <c r="D374" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E374" s="5">
         <v>44255</v>
@@ -21663,7 +21699,7 @@
         <v>307</v>
       </c>
       <c r="I374" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J374" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21691,17 +21727,17 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C375" s="12">
         <v>3</v>
       </c>
       <c r="D375" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E375" s="5">
         <v>44255</v>
@@ -21716,7 +21752,7 @@
         <v>307</v>
       </c>
       <c r="I375" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J375" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21724,7 +21760,7 @@
       </c>
       <c r="K375" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L375" s="12">
         <v>0</v>
@@ -21744,17 +21780,17 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>328</v>
+        <v>141</v>
       </c>
       <c r="C376" s="12">
         <v>3</v>
       </c>
       <c r="D376" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E376" s="5">
         <v>44255</v>
@@ -21769,7 +21805,7 @@
         <v>307</v>
       </c>
       <c r="I376" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J376" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21777,7 +21813,7 @@
       </c>
       <c r="K376" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AUFEC</v>
       </c>
       <c r="L376" s="12">
         <v>0</v>
@@ -21797,17 +21833,17 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C377" s="12">
         <v>5</v>
       </c>
       <c r="D377" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E377" s="5">
         <v>44255</v>
@@ -21822,7 +21858,7 @@
         <v>307</v>
       </c>
       <c r="I377" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J377" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21830,7 +21866,7 @@
       </c>
       <c r="K377" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>TPFC</v>
       </c>
       <c r="L377" s="12">
         <v>0</v>
@@ -21850,17 +21886,17 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="C378" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D378" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E378" s="5">
         <v>44255</v>
@@ -21875,30 +21911,30 @@
         <v>307</v>
       </c>
       <c r="I378" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J378" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K378" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L378" s="12">
         <v>0</v>
       </c>
       <c r="M378" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L378=0,VLOOKUP(C378,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C378,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N378" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O378" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>12</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
@@ -21909,11 +21945,11 @@
         <v>309</v>
       </c>
       <c r="C379" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D379" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E379" s="5">
         <v>44255</v>
@@ -21928,7 +21964,7 @@
         <v>307</v>
       </c>
       <c r="I379" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J379" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -21943,30 +21979,30 @@
       </c>
       <c r="M379" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L379=0,VLOOKUP(C379,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C379,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N379" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O379" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>2.4000000000000004</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C380" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D380" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E380" s="5">
         <v>44255</v>
@@ -21981,11 +22017,11 @@
         <v>307</v>
       </c>
       <c r="I380" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J380" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K380" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -21996,30 +22032,30 @@
       </c>
       <c r="M380" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L380=0,VLOOKUP(C380,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C380,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N380" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O380" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>12</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C381" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D381" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E381" s="5">
         <v>44255</v>
@@ -22034,11 +22070,11 @@
         <v>307</v>
       </c>
       <c r="I381" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J381" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K381" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -22049,30 +22085,30 @@
       </c>
       <c r="M381" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L381=0,VLOOKUP(C381,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C381,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N381" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O381" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>71</v>
+        <v>330</v>
       </c>
       <c r="C382" s="12">
         <v>1</v>
       </c>
       <c r="D382" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E382" s="5">
         <v>44255</v>
@@ -22087,7 +22123,7 @@
         <v>307</v>
       </c>
       <c r="I382" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J382" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22095,7 +22131,7 @@
       </c>
       <c r="K382" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L382" s="12">
         <v>0</v>
@@ -22115,17 +22151,17 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C383" s="12">
         <v>2</v>
       </c>
       <c r="D383" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E383" s="5">
         <v>44255</v>
@@ -22140,7 +22176,7 @@
         <v>307</v>
       </c>
       <c r="I383" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J383" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22168,17 +22204,17 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C384" s="12">
         <v>3</v>
       </c>
       <c r="D384" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E384" s="5">
         <v>44255</v>
@@ -22193,7 +22229,7 @@
         <v>307</v>
       </c>
       <c r="I384" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J384" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22201,7 +22237,7 @@
       </c>
       <c r="K384" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L384" s="12">
         <v>0</v>
@@ -22221,17 +22257,17 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="C385" s="12">
         <v>3</v>
       </c>
       <c r="D385" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E385" s="5">
         <v>44255</v>
@@ -22246,7 +22282,7 @@
         <v>307</v>
       </c>
       <c r="I385" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J385" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22254,7 +22290,7 @@
       </c>
       <c r="K385" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFEC</v>
+        <v>CSFC</v>
       </c>
       <c r="L385" s="12">
         <v>0</v>
@@ -22274,17 +22310,17 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C386" s="12">
         <v>5</v>
       </c>
       <c r="D386" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E386" s="5">
         <v>44255</v>
@@ -22299,7 +22335,7 @@
         <v>307</v>
       </c>
       <c r="I386" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J386" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22307,7 +22343,7 @@
       </c>
       <c r="K386" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L386" s="12">
         <v>0</v>
@@ -22327,17 +22363,17 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
-        <v>332</v>
+        <v>23</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="C387" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D387" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E387" s="5">
         <v>44255</v>
@@ -22352,45 +22388,45 @@
         <v>307</v>
       </c>
       <c r="I387" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J387" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K387" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFeC</v>
+        <v>CSFC</v>
       </c>
       <c r="L387" s="12">
         <v>0</v>
       </c>
       <c r="M387" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L387=0,VLOOKUP(C387,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C387,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N387" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O387" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>22.400000000000002</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="C388" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D388" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E388" s="5">
         <v>44255</v>
@@ -22405,45 +22441,45 @@
         <v>307</v>
       </c>
       <c r="I388" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J388" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K388" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFeC</v>
+        <v>CSFC</v>
       </c>
       <c r="L388" s="12">
         <v>0</v>
       </c>
       <c r="M388" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L388=0,VLOOKUP(C388,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C388,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N388" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O388" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>18.400000000000002</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C389" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D389" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E389" s="5">
         <v>44255</v>
@@ -22458,11 +22494,11 @@
         <v>307</v>
       </c>
       <c r="I389" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J389" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K389" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -22473,30 +22509,30 @@
       </c>
       <c r="M389" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L389=0,VLOOKUP(C389,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C389,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N389" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O389" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>14.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="C390" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D390" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E390" s="5">
         <v>44255</v>
@@ -22511,7 +22547,7 @@
         <v>307</v>
       </c>
       <c r="I390" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J390" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22519,22 +22555,22 @@
       </c>
       <c r="K390" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L390" s="12">
         <v>0</v>
       </c>
       <c r="M390" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L390=0,VLOOKUP(C390,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C390,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N390" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O390" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>14.4</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
@@ -22910,10 +22946,10 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C398" s="12" t="s">
         <v>17</v>
@@ -22935,7 +22971,7 @@
         <v>316</v>
       </c>
       <c r="I398" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J398" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22943,7 +22979,7 @@
       </c>
       <c r="K398" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AUFEC</v>
       </c>
       <c r="L398" s="12">
         <v>0</v>
@@ -22963,10 +22999,10 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C399" s="12" t="s">
         <v>17</v>
@@ -22988,7 +23024,7 @@
         <v>316</v>
       </c>
       <c r="I399" s="12" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J399" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -22996,7 +23032,7 @@
       </c>
       <c r="K399" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>TPFC</v>
       </c>
       <c r="L399" s="12">
         <v>0</v>
@@ -23016,17 +23052,17 @@
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="B400" s="12" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="C400" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D400" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E400" s="5">
         <v>44255</v>
@@ -23045,11 +23081,11 @@
       </c>
       <c r="J400" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K400" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFEC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L400" s="12">
         <v>0</v>
@@ -23069,10 +23105,10 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B401" s="12" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C401" s="12" t="s">
         <v>17</v>
@@ -23094,7 +23130,7 @@
         <v>316</v>
       </c>
       <c r="I401" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J401" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -23102,7 +23138,7 @@
       </c>
       <c r="K401" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L401" s="12">
         <v>0</v>
@@ -23122,17 +23158,17 @@
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
-        <v>332</v>
+        <v>23</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="C402" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D402" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E402" s="5">
         <v>44255</v>
@@ -23147,15 +23183,15 @@
         <v>316</v>
       </c>
       <c r="I402" s="12" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J402" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K402" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFeC</v>
+        <v>CSFC</v>
       </c>
       <c r="L402" s="12">
         <v>0</v>
@@ -23171,6 +23207,1861 @@
       <c r="O402" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A403" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C403" s="12">
+        <v>1</v>
+      </c>
+      <c r="D403" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E403" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G403" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H403" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J403" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K403" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L403" s="12">
+        <v>0</v>
+      </c>
+      <c r="M403" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L403=0,VLOOKUP(C403,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C403,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N403" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O403" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A404" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C404" s="12">
+        <v>2</v>
+      </c>
+      <c r="D404" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E404" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G404" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H404" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I404" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J404" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K404" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L404" s="12">
+        <v>0</v>
+      </c>
+      <c r="M404" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L404=0,VLOOKUP(C404,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C404,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N404" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O404" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A405" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C405" s="12">
+        <v>3</v>
+      </c>
+      <c r="D405" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E405" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G405" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I405" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J405" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K405" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L405" s="12">
+        <v>0</v>
+      </c>
+      <c r="M405" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L405=0,VLOOKUP(C405,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C405,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N405" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O405" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A406" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C406" s="12">
+        <v>3</v>
+      </c>
+      <c r="D406" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E406" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G406" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I406" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J406" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K406" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L406" s="12">
+        <v>0</v>
+      </c>
+      <c r="M406" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L406=0,VLOOKUP(C406,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C406,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N406" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O406" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A407" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C407" s="12">
+        <v>1</v>
+      </c>
+      <c r="D407" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E407" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G407" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H407" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I407" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J407" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K407" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L407" s="12">
+        <v>0</v>
+      </c>
+      <c r="M407" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L407=0,VLOOKUP(C407,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C407,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N407" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O407" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A408" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C408" s="12">
+        <v>2</v>
+      </c>
+      <c r="D408" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E408" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G408" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H408" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I408" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J408" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K408" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L408" s="12">
+        <v>0</v>
+      </c>
+      <c r="M408" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L408=0,VLOOKUP(C408,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C408,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N408" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O408" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A409" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C409" s="12">
+        <v>1</v>
+      </c>
+      <c r="D409" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E409" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G409" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I409" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J409" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K409" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L409" s="12">
+        <v>0</v>
+      </c>
+      <c r="M409" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L409=0,VLOOKUP(C409,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C409,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N409" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O409" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A410" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C410" s="12">
+        <v>2</v>
+      </c>
+      <c r="D410" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E410" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G410" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H410" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I410" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J410" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K410" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L410" s="12">
+        <v>0</v>
+      </c>
+      <c r="M410" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L410=0,VLOOKUP(C410,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C410,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N410" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O410" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A411" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C411" s="12">
+        <v>3</v>
+      </c>
+      <c r="D411" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E411" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G411" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H411" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I411" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J411" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K411" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>F4A</v>
+      </c>
+      <c r="L411" s="12">
+        <v>0</v>
+      </c>
+      <c r="M411" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L411=0,VLOOKUP(C411,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C411,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N411" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O411" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A412" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C412" s="12">
+        <v>1</v>
+      </c>
+      <c r="D412" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E412" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G412" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H412" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I412" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J412" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K412" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L412" s="12">
+        <v>0</v>
+      </c>
+      <c r="M412" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L412=0,VLOOKUP(C412,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C412,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N412" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O412" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A413" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C413" s="12">
+        <v>3</v>
+      </c>
+      <c r="D413" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E413" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F413" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G413" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H413" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I413" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J413" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K413" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L413" s="12">
+        <v>0</v>
+      </c>
+      <c r="M413" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L413=0,VLOOKUP(C413,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C413,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N413" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O413" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A414" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C414" s="12">
+        <v>5</v>
+      </c>
+      <c r="D414" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E414" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H414" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I414" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J414" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K414" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L414" s="12">
+        <v>0</v>
+      </c>
+      <c r="M414" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L414=0,VLOOKUP(C414,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C414,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N414" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O414" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A415" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C415" s="12">
+        <v>6</v>
+      </c>
+      <c r="D415" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E415" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F415" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H415" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I415" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J415" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K415" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L415" s="12">
+        <v>0</v>
+      </c>
+      <c r="M415" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L415=0,VLOOKUP(C415,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C415,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N415" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O415" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A416" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C416" s="12">
+        <v>2</v>
+      </c>
+      <c r="D416" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E416" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G416" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H416" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I416" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J416" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K416" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L416" s="12">
+        <v>0</v>
+      </c>
+      <c r="M416" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L416=0,VLOOKUP(C416,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C416,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N416" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O416" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A417" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C417" s="12">
+        <v>3</v>
+      </c>
+      <c r="D417" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E417" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F417" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G417" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H417" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I417" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J417" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K417" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L417" s="12">
+        <v>0</v>
+      </c>
+      <c r="M417" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L417=0,VLOOKUP(C417,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C417,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N417" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O417" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A418" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C418" s="12">
+        <v>1</v>
+      </c>
+      <c r="D418" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E418" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F418" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G418" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H418" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I418" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J418" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K418" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L418" s="12">
+        <v>0</v>
+      </c>
+      <c r="M418" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L418=0,VLOOKUP(C418,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C418,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N418" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O418" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A419" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C419" s="12">
+        <v>2</v>
+      </c>
+      <c r="D419" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E419" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F419" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G419" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H419" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I419" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J419" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K419" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L419" s="12">
+        <v>0</v>
+      </c>
+      <c r="M419" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L419=0,VLOOKUP(C419,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C419,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N419" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O419" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A420" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B420" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C420" s="12">
+        <v>3</v>
+      </c>
+      <c r="D420" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E420" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F420" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G420" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H420" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I420" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J420" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K420" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L420" s="12">
+        <v>0</v>
+      </c>
+      <c r="M420" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L420=0,VLOOKUP(C420,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C420,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N420" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O420" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A421" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C421" s="12">
+        <v>3</v>
+      </c>
+      <c r="D421" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E421" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F421" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G421" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H421" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I421" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J421" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K421" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L421" s="12">
+        <v>0</v>
+      </c>
+      <c r="M421" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L421=0,VLOOKUP(C421,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C421,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N421" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O421" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A422" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B422" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C422" s="12">
+        <v>5</v>
+      </c>
+      <c r="D422" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E422" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F422" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G422" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H422" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I422" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J422" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K422" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>F4A</v>
+      </c>
+      <c r="L422" s="12">
+        <v>0</v>
+      </c>
+      <c r="M422" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L422=0,VLOOKUP(C422,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C422,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N422" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O422" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A423" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B423" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C423" s="12">
+        <v>6</v>
+      </c>
+      <c r="D423" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E423" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F423" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G423" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H423" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I423" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J423" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K423" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L423" s="12">
+        <v>0</v>
+      </c>
+      <c r="M423" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L423=0,VLOOKUP(C423,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C423,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N423" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O423" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A424" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B424" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C424" s="12">
+        <v>1</v>
+      </c>
+      <c r="D424" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E424" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F424" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H424" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I424" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J424" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K424" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L424" s="12">
+        <v>0</v>
+      </c>
+      <c r="M424" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L424=0,VLOOKUP(C424,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C424,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N424" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O424" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A425" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B425" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C425" s="12">
+        <v>2</v>
+      </c>
+      <c r="D425" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E425" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F425" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H425" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I425" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J425" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K425" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L425" s="12">
+        <v>0</v>
+      </c>
+      <c r="M425" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L425=0,VLOOKUP(C425,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C425,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N425" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O425" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A426" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C426" s="12">
+        <v>3</v>
+      </c>
+      <c r="D426" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E426" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F426" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H426" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I426" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J426" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K426" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L426" s="12">
+        <v>0</v>
+      </c>
+      <c r="M426" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L426=0,VLOOKUP(C426,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C426,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N426" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O426" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A427" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C427" s="12">
+        <v>1</v>
+      </c>
+      <c r="D427" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E427" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F427" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G427" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H427" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I427" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J427" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K427" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L427" s="12">
+        <v>0</v>
+      </c>
+      <c r="M427" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L427=0,VLOOKUP(C427,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C427,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N427" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O427" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A428" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C428" s="12">
+        <v>2</v>
+      </c>
+      <c r="D428" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E428" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F428" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H428" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I428" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J428" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K428" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L428" s="12">
+        <v>0</v>
+      </c>
+      <c r="M428" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L428=0,VLOOKUP(C428,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C428,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N428" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O428" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A429" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C429" s="12">
+        <v>3</v>
+      </c>
+      <c r="D429" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E429" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F429" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G429" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H429" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I429" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J429" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K429" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L429" s="12">
+        <v>0</v>
+      </c>
+      <c r="M429" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L429=0,VLOOKUP(C429,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C429,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N429" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O429" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A430" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C430" s="12">
+        <v>3</v>
+      </c>
+      <c r="D430" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E430" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F430" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H430" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I430" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J430" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K430" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L430" s="12">
+        <v>0</v>
+      </c>
+      <c r="M430" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L430=0,VLOOKUP(C430,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C430,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N430" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O430" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A431" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C431" s="12">
+        <v>6</v>
+      </c>
+      <c r="D431" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E431" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F431" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H431" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I431" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J431" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K431" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L431" s="12">
+        <v>0</v>
+      </c>
+      <c r="M431" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L431=0,VLOOKUP(C431,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C431,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N431" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O431" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A432" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C432" s="12">
+        <v>7</v>
+      </c>
+      <c r="D432" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E432" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H432" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I432" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J432" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K432" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L432" s="12">
+        <v>0</v>
+      </c>
+      <c r="M432" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L432=0,VLOOKUP(C432,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C432,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N432" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O432" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A433" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C433" s="12">
+        <v>9</v>
+      </c>
+      <c r="D433" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E433" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F433" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G433" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H433" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I433" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J433" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K433" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L433" s="12">
+        <v>0</v>
+      </c>
+      <c r="M433" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L433=0,VLOOKUP(C433,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C433,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>7</v>
+      </c>
+      <c r="N433" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O433" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A434" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C434" s="12">
+        <v>1</v>
+      </c>
+      <c r="D434" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E434" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G434" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H434" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I434" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J434" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K434" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L434" s="12">
+        <v>0</v>
+      </c>
+      <c r="M434" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L434=0,VLOOKUP(C434,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C434,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N434" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O434" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A435" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B435" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C435" s="12">
+        <v>2</v>
+      </c>
+      <c r="D435" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E435" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G435" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H435" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I435" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J435" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K435" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L435" s="12">
+        <v>0</v>
+      </c>
+      <c r="M435" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L435=0,VLOOKUP(C435,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C435,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N435" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O435" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A436" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C436" s="12">
+        <v>5</v>
+      </c>
+      <c r="D436" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E436" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F436" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G436" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H436" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I436" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J436" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K436" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L436" s="12">
+        <v>0</v>
+      </c>
+      <c r="M436" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L436=0,VLOOKUP(C436,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C436,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N436" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O436" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A437" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C437" s="12">
+        <v>8</v>
+      </c>
+      <c r="D437" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E437" s="5">
+        <v>44269</v>
+      </c>
+      <c r="F437" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G437" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H437" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I437" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J437" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K437" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L437" s="12">
+        <v>0</v>
+      </c>
+      <c r="M437" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L437=0,VLOOKUP(C437,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C437,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N437" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O437" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.6000000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -23185,10 +25076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28841,7 +30732,7 @@
         <v>318</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" ref="K157:K183" si="3">$K$1</f>
+        <f t="shared" ref="K157:K187" si="3">$K$1</f>
         <v>44197</v>
       </c>
       <c r="L157" s="2">
@@ -29678,14 +31569,31 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
       <c r="C181" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D181" s="1"/>
+        <v>Grasby.Tembo</v>
+      </c>
+      <c r="D181" s="1">
+        <v>39668</v>
+      </c>
       <c r="E181" s="2">
         <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>49</v>
+      </c>
+      <c r="G181" t="s">
+        <v>198</v>
+      </c>
+      <c r="H181" t="s">
+        <v>317</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" si="3"/>
@@ -29693,18 +31601,35 @@
       </c>
       <c r="L181" s="2">
         <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" t="s">
+        <v>365</v>
+      </c>
       <c r="C182" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D182" s="1"/>
+        <v>Grasby.Kifaru</v>
+      </c>
+      <c r="D182" s="1">
+        <v>39016</v>
+      </c>
       <c r="E182" s="2">
         <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182" t="s">
+        <v>198</v>
+      </c>
+      <c r="H182" t="s">
+        <v>317</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" si="3"/>
@@ -29712,18 +31637,35 @@
       </c>
       <c r="L182" s="2">
         <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>326</v>
+      </c>
       <c r="C183" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D183" s="1"/>
+        <v>Fior.Sebastian</v>
+      </c>
+      <c r="D183" s="1">
+        <v>40781</v>
+      </c>
       <c r="E183" s="2">
         <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" t="s">
+        <v>198</v>
+      </c>
+      <c r="H183" t="s">
+        <v>318</v>
       </c>
       <c r="K183" s="1">
         <f t="shared" si="3"/>
@@ -29731,7 +31673,151 @@
       </c>
       <c r="L183" s="2">
         <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walters.Emma</v>
+      </c>
+      <c r="D184" s="1">
+        <v>38830</v>
+      </c>
+      <c r="E184" s="2">
+        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" t="s">
+        <v>198</v>
+      </c>
+      <c r="H184" t="s">
+        <v>317</v>
+      </c>
+      <c r="K184" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L184" s="2">
+        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Hyde.Kate</v>
+      </c>
+      <c r="D185" s="1">
+        <v>39264</v>
+      </c>
+      <c r="E185" s="2">
+        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" t="s">
+        <v>198</v>
+      </c>
+      <c r="H185" t="s">
+        <v>317</v>
+      </c>
+      <c r="K185" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L185" s="2">
+        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Arcayo.Facundo</v>
+      </c>
+      <c r="D186" s="1">
+        <v>40166</v>
+      </c>
+      <c r="E186" s="2">
+        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" t="s">
+        <v>198</v>
+      </c>
+      <c r="H186" t="s">
+        <v>318</v>
+      </c>
+      <c r="K186" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L186" s="2">
+        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C187" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Kennedy.Hamish</v>
+      </c>
+      <c r="D187" s="1">
+        <v>39119</v>
+      </c>
+      <c r="E187" s="2">
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>50</v>
+      </c>
+      <c r="G187" t="s">
+        <v>198</v>
+      </c>
+      <c r="H187" t="s">
+        <v>318</v>
+      </c>
+      <c r="K187" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L187" s="2">
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51CA51-BBB3-4472-A9B1-A5770B7D4E81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E0031-F9C7-4D62-A641-877E64278F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -1893,8 +1893,8 @@
   <dimension ref="A1:O437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23698,7 +23698,7 @@
       </c>
       <c r="D412" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E412" s="5">
         <v>44269</v>
@@ -23732,26 +23732,26 @@
       </c>
       <c r="N412" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O412" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>22.400000000000002</v>
+        <v>28</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="C413" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D413" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E413" s="5">
         <v>44269</v>
@@ -23774,37 +23774,37 @@
       </c>
       <c r="K413" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L413" s="12">
         <v>0</v>
       </c>
       <c r="M413" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L413=0,VLOOKUP(C413,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C413,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N413" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O413" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>14.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="C414" s="12">
+        <v>3</v>
+      </c>
+      <c r="D414" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>5</v>
-      </c>
-      <c r="D414" s="16">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
       </c>
       <c r="E414" s="5">
         <v>44269</v>
@@ -23827,37 +23827,37 @@
       </c>
       <c r="K414" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L414" s="12">
         <v>0</v>
       </c>
       <c r="M414" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L414=0,VLOOKUP(C414,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C414,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N414" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O414" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>9.6000000000000014</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="C415" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D415" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E415" s="5">
         <v>44269</v>
@@ -23891,26 +23891,26 @@
       </c>
       <c r="N415" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O415" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>9.6000000000000014</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C416" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D416" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E416" s="5">
         <v>44269</v>
@@ -23929,26 +23929,26 @@
       </c>
       <c r="J416" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K416" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L416" s="12">
         <v>0</v>
       </c>
       <c r="M416" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L416=0,VLOOKUP(C416,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C416,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N416" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O416" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>9.2000000000000011</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="D417" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E417" s="5">
         <v>44269</v>
@@ -23997,11 +23997,11 @@
       </c>
       <c r="N417" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O417" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="D427" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E427" s="5">
         <v>44269</v>
@@ -24546,7 +24546,7 @@
       </c>
       <c r="D428" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E428" s="5">
         <v>44269</v>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="D429" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E429" s="5">
         <v>44269</v>
@@ -24652,7 +24652,7 @@
       </c>
       <c r="D430" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E430" s="5">
         <v>44269</v>
@@ -24695,17 +24695,17 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="C431" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D431" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E431" s="5">
         <v>44269</v>
@@ -24728,7 +24728,7 @@
       </c>
       <c r="K431" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L431" s="12">
         <v>0</v>
@@ -24748,17 +24748,17 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B432" s="12" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C432" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D432" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E432" s="5">
         <v>44269</v>
@@ -24801,17 +24801,17 @@
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B433" s="12" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C433" s="12">
+        <v>7</v>
+      </c>
+      <c r="D433" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>9</v>
-      </c>
-      <c r="D433" s="16">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>7</v>
       </c>
       <c r="E433" s="5">
         <v>44269</v>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="M433" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L433=0,VLOOKUP(C433,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C433,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N433" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -24849,22 +24849,22 @@
       </c>
       <c r="O433" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="B434" s="12" t="s">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="C434" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D434" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E434" s="5">
         <v>44269</v>
@@ -24883,41 +24883,41 @@
       </c>
       <c r="J434" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K434" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L434" s="12">
         <v>0</v>
       </c>
       <c r="M434" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L434=0,VLOOKUP(C434,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C434,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N434" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O434" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>22.400000000000002</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="B435" s="12" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C435" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D435" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E435" s="5">
         <v>44269</v>
@@ -24936,41 +24936,41 @@
       </c>
       <c r="J435" s="21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K435" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L435" s="12">
         <v>0</v>
       </c>
       <c r="M435" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L435=0,VLOOKUP(C435,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C435,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N435" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O435" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>18.400000000000002</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="B436" s="12" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="C436" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D436" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E436" s="5">
         <v>44269</v>
@@ -24993,37 +24993,37 @@
       </c>
       <c r="K436" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L436" s="12">
         <v>0</v>
       </c>
       <c r="M436" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L436=0,VLOOKUP(C436,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C436,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N436" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O436" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>9.6000000000000014</v>
+        <v>11.200000000000001</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="B437" s="12" t="s">
-        <v>365</v>
+        <v>136</v>
       </c>
       <c r="C437" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D437" s="16">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E437" s="5">
         <v>44269</v>
@@ -25053,15 +25053,15 @@
       </c>
       <c r="M437" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L437=0,VLOOKUP(C437,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C437,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N437" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O437" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>9.6000000000000014</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -25079,7 +25079,7 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31593,7 +31593,7 @@
         <v>198</v>
       </c>
       <c r="H181" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" si="3"/>
@@ -31629,7 +31629,7 @@
         <v>198</v>
       </c>
       <c r="H182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" si="3"/>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E0031-F9C7-4D62-A641-877E64278F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CD068-4EA6-4DB5-AEEA-90B8955D916C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="377">
   <si>
     <t>Ranking</t>
   </si>
@@ -1171,6 +1171,12 @@
   </si>
   <si>
     <t>Hamish</t>
+  </si>
+  <si>
+    <t>Dzodzos</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O437" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:O437" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O475" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:O475" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O437">
     <sortCondition ref="E2:E437"/>
     <sortCondition ref="H2:H437"/>
@@ -1529,8 +1535,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H187" totalsRowShown="0">
-  <autoFilter ref="A1:H187" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H188" totalsRowShown="0">
+  <autoFilter ref="A1:H188" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H180">
     <sortCondition ref="A2:A180"/>
     <sortCondition ref="B2:B180"/>
@@ -1890,11 +1896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O437"/>
+  <dimension ref="A1:O475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25064,6 +25070,2020 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A438" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C438" s="12">
+        <v>1</v>
+      </c>
+      <c r="D438" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E438" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F438" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G438" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H438" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I438" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J438" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K438" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L438" s="12">
+        <v>0</v>
+      </c>
+      <c r="M438" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L438=0,VLOOKUP(C438,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C438,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N438" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O438" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A439" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C439" s="12">
+        <v>2</v>
+      </c>
+      <c r="D439" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E439" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F439" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G439" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H439" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I439" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J439" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K439" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L439" s="12">
+        <v>0</v>
+      </c>
+      <c r="M439" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L439=0,VLOOKUP(C439,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C439,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N439" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O439" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A440" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C440" s="12">
+        <v>3</v>
+      </c>
+      <c r="D440" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E440" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G440" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H440" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I440" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J440" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K440" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L440" s="12">
+        <v>0</v>
+      </c>
+      <c r="M440" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L440=0,VLOOKUP(C440,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C440,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N440" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O440" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A441" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C441" s="12">
+        <v>3</v>
+      </c>
+      <c r="D441" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E441" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F441" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G441" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H441" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I441" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J441" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K441" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L441" s="12">
+        <v>0</v>
+      </c>
+      <c r="M441" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L441=0,VLOOKUP(C441,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C441,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N441" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O441" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A442" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C442" s="12">
+        <v>1</v>
+      </c>
+      <c r="D442" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E442" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F442" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G442" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H442" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I442" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J442" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K442" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L442" s="12">
+        <v>0</v>
+      </c>
+      <c r="M442" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L442=0,VLOOKUP(C442,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C442,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N442" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O442" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A443" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C443" s="12">
+        <v>2</v>
+      </c>
+      <c r="D443" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E443" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F443" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G443" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H443" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I443" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J443" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K443" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L443" s="12">
+        <v>0</v>
+      </c>
+      <c r="M443" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L443=0,VLOOKUP(C443,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C443,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N443" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O443" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A444" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C444" s="12">
+        <v>3</v>
+      </c>
+      <c r="D444" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E444" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F444" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G444" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H444" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I444" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J444" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K444" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L444" s="12">
+        <v>0</v>
+      </c>
+      <c r="M444" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L444=0,VLOOKUP(C444,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C444,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N444" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O444" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A445" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C445" s="12">
+        <v>3</v>
+      </c>
+      <c r="D445" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E445" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F445" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H445" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I445" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J445" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K445" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L445" s="12">
+        <v>0</v>
+      </c>
+      <c r="M445" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L445=0,VLOOKUP(C445,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C445,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N445" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O445" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A446" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B446" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C446" s="12">
+        <v>5</v>
+      </c>
+      <c r="D446" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E446" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F446" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H446" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I446" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J446" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K446" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L446" s="12">
+        <v>0</v>
+      </c>
+      <c r="M446" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L446=0,VLOOKUP(C446,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C446,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N446" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O446" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A447" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C447" s="12">
+        <v>6</v>
+      </c>
+      <c r="D447" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E447" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F447" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H447" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I447" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J447" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K447" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L447" s="12">
+        <v>0</v>
+      </c>
+      <c r="M447" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L447=0,VLOOKUP(C447,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C447,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N447" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O447" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A448" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C448" s="12">
+        <v>7</v>
+      </c>
+      <c r="D448" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E448" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F448" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G448" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H448" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I448" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J448" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K448" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L448" s="12">
+        <v>0</v>
+      </c>
+      <c r="M448" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L448=0,VLOOKUP(C448,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C448,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N448" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O448" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A449" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B449" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C449" s="12">
+        <v>8</v>
+      </c>
+      <c r="D449" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E449" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F449" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G449" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H449" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I449" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J449" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K449" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L449" s="12">
+        <v>0</v>
+      </c>
+      <c r="M449" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L449=0,VLOOKUP(C449,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C449,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N449" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O449" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A450" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C450" s="12">
+        <v>1</v>
+      </c>
+      <c r="D450" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E450" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F450" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H450" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I450" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J450" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K450" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L450" s="12">
+        <v>0</v>
+      </c>
+      <c r="M450" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L450=0,VLOOKUP(C450,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C450,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N450" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O450" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A451" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B451" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C451" s="12">
+        <v>2</v>
+      </c>
+      <c r="D451" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E451" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F451" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G451" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H451" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I451" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J451" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K451" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L451" s="12">
+        <v>0</v>
+      </c>
+      <c r="M451" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L451=0,VLOOKUP(C451,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C451,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N451" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O451" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A452" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C452" s="12">
+        <v>3</v>
+      </c>
+      <c r="D452" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E452" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F452" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G452" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H452" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I452" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J452" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K452" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L452" s="12">
+        <v>0</v>
+      </c>
+      <c r="M452" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L452=0,VLOOKUP(C452,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C452,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N452" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O452" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A453" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C453" s="12">
+        <v>3</v>
+      </c>
+      <c r="D453" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E453" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F453" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G453" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H453" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I453" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J453" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K453" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L453" s="12">
+        <v>0</v>
+      </c>
+      <c r="M453" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L453=0,VLOOKUP(C453,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C453,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N453" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O453" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A454" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454" s="12">
+        <v>5</v>
+      </c>
+      <c r="D454" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E454" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F454" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G454" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H454" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I454" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J454" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K454" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L454" s="12">
+        <v>0</v>
+      </c>
+      <c r="M454" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L454=0,VLOOKUP(C454,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C454,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N454" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O454" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A455" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C455" s="12">
+        <v>6</v>
+      </c>
+      <c r="D455" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E455" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F455" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G455" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H455" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I455" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J455" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K455" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L455" s="12">
+        <v>0</v>
+      </c>
+      <c r="M455" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L455=0,VLOOKUP(C455,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C455,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N455" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O455" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A456" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C456" s="12">
+        <v>1</v>
+      </c>
+      <c r="D456" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E456" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F456" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H456" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I456" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J456" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K456" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L456" s="12">
+        <v>0</v>
+      </c>
+      <c r="M456" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L456=0,VLOOKUP(C456,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C456,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N456" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O456" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A457" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C457" s="12">
+        <v>2</v>
+      </c>
+      <c r="D457" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E457" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F457" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G457" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H457" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I457" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J457" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K457" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L457" s="12">
+        <v>0</v>
+      </c>
+      <c r="M457" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L457=0,VLOOKUP(C457,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C457,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N457" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O457" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A458" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C458" s="12">
+        <v>1</v>
+      </c>
+      <c r="D458" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E458" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F458" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H458" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I458" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J458" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K458" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L458" s="12">
+        <v>0</v>
+      </c>
+      <c r="M458" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L458=0,VLOOKUP(C458,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C458,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N458" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O458" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A459" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B459" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C459" s="12">
+        <v>2</v>
+      </c>
+      <c r="D459" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E459" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F459" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G459" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H459" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I459" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J459" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K459" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L459" s="12">
+        <v>0</v>
+      </c>
+      <c r="M459" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L459=0,VLOOKUP(C459,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C459,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N459" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O459" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A460" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C460" s="12">
+        <v>3</v>
+      </c>
+      <c r="D460" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E460" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F460" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G460" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H460" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I460" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J460" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K460" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L460" s="12">
+        <v>0</v>
+      </c>
+      <c r="M460" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L460=0,VLOOKUP(C460,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C460,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N460" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O460" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A461" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C461" s="12">
+        <v>3</v>
+      </c>
+      <c r="D461" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E461" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F461" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G461" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H461" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I461" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J461" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K461" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFEC</v>
+      </c>
+      <c r="L461" s="12">
+        <v>0</v>
+      </c>
+      <c r="M461" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L461=0,VLOOKUP(C461,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C461,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N461" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O461" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A462" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C462" s="12">
+        <v>5</v>
+      </c>
+      <c r="D462" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E462" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F462" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G462" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H462" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I462" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J462" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K462" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L462" s="12">
+        <v>0</v>
+      </c>
+      <c r="M462" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L462=0,VLOOKUP(C462,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C462,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N462" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O462" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A463" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B463" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C463" s="12">
+        <v>6</v>
+      </c>
+      <c r="D463" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>6</v>
+      </c>
+      <c r="E463" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F463" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G463" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H463" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I463" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J463" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K463" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L463" s="12">
+        <v>0</v>
+      </c>
+      <c r="M463" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L463=0,VLOOKUP(C463,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C463,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N463" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O463" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A464" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C464" s="12">
+        <v>1</v>
+      </c>
+      <c r="D464" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E464" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F464" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G464" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H464" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I464" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J464" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K464" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L464" s="12">
+        <v>0</v>
+      </c>
+      <c r="M464" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L464=0,VLOOKUP(C464,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C464,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N464" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O464" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A465" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C465" s="12">
+        <v>2</v>
+      </c>
+      <c r="D465" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E465" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F465" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G465" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H465" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I465" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J465" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K465" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L465" s="12">
+        <v>0</v>
+      </c>
+      <c r="M465" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L465=0,VLOOKUP(C465,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C465,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N465" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O465" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A466" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C466" s="12">
+        <v>3</v>
+      </c>
+      <c r="D466" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E466" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F466" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G466" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H466" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I466" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J466" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K466" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L466" s="12">
+        <v>0</v>
+      </c>
+      <c r="M466" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L466=0,VLOOKUP(C466,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C466,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N466" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O466" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A467" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C467" s="12">
+        <v>3</v>
+      </c>
+      <c r="D467" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E467" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F467" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G467" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H467" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I467" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J467" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K467" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L467" s="12">
+        <v>0</v>
+      </c>
+      <c r="M467" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L467=0,VLOOKUP(C467,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C467,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N467" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O467" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A468" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C468" s="12">
+        <v>1</v>
+      </c>
+      <c r="D468" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E468" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F468" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H468" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I468" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J468" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K468" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L468" s="12">
+        <v>0</v>
+      </c>
+      <c r="M468" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L468=0,VLOOKUP(C468,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C468,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N468" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O468" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A469" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C469" s="12">
+        <v>2</v>
+      </c>
+      <c r="D469" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E469" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F469" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G469" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H469" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I469" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J469" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K469" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L469" s="12">
+        <v>0</v>
+      </c>
+      <c r="M469" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L469=0,VLOOKUP(C469,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C469,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N469" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O469" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A470" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C470" s="12">
+        <v>3</v>
+      </c>
+      <c r="D470" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E470" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F470" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H470" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I470" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J470" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K470" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L470" s="12">
+        <v>0</v>
+      </c>
+      <c r="M470" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L470=0,VLOOKUP(C470,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C470,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N470" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.2</v>
+      </c>
+      <c r="O470" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A471" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B471" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C471" s="12">
+        <v>3</v>
+      </c>
+      <c r="D471" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E471" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F471" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G471" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H471" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I471" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J471" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K471" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L471" s="12">
+        <v>0</v>
+      </c>
+      <c r="M471" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L471=0,VLOOKUP(C471,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C471,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N471" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O471" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A472" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D472" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E472" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F472" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G472" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H472" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I472" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J472" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K472" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L472" s="12">
+        <v>0</v>
+      </c>
+      <c r="M472" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L472=0,VLOOKUP(C472,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C472,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N472" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O472" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A473" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D473" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E473" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F473" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G473" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H473" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I473" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J473" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K473" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L473" s="12">
+        <v>0</v>
+      </c>
+      <c r="M473" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L473=0,VLOOKUP(C473,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C473,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N473" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O473" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A474" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D474" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E474" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F474" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G474" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H474" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I474" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J474" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K474" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L474" s="12">
+        <v>0</v>
+      </c>
+      <c r="M474" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L474=0,VLOOKUP(C474,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C474,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N474" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O474" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A475" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B475" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D475" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E475" s="5">
+        <v>44276</v>
+      </c>
+      <c r="F475" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G475" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H475" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I475" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J475" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K475" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>TPFC</v>
+      </c>
+      <c r="L475" s="12">
+        <v>0</v>
+      </c>
+      <c r="M475" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L475=0,VLOOKUP(C475,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C475,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N475" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O475" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25076,10 +27096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30732,7 +32752,7 @@
         <v>318</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" ref="K157:K187" si="3">$K$1</f>
+        <f t="shared" ref="K157:K188" si="3">$K$1</f>
         <v>44197</v>
       </c>
       <c r="L157" s="2">
@@ -31818,6 +33838,42 @@
       <c r="L187" s="2">
         <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Dzodzos.Michael</v>
+      </c>
+      <c r="D188" s="1">
+        <v>34256</v>
+      </c>
+      <c r="E188" s="2">
+        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>198</v>
+      </c>
+      <c r="H188" t="s">
+        <v>318</v>
+      </c>
+      <c r="K188" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L188" s="2">
+        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CD068-4EA6-4DB5-AEEA-90B8955D916C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2751D0-8E15-4D00-BD4D-6253F5F7E2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="374">
   <si>
     <t>Ranking</t>
   </si>
@@ -1101,21 +1101,6 @@
     <t>Mulitplier</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>KBT</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -1177,6 +1162,12 @@
   </si>
   <si>
     <t>Michael</t>
+  </si>
+  <si>
+    <t>AFC1</t>
+  </si>
+  <si>
+    <t>Named</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O475" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:O475" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O485" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:O485" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O437">
     <sortCondition ref="E2:E437"/>
     <sortCondition ref="H2:H437"/>
@@ -1896,11 +1887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O475"/>
+  <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A477" sqref="A477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,10 +1980,10 @@
         <v>43834</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>322</v>
@@ -2041,10 +2032,10 @@
         <v>43841</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>307</v>
@@ -2093,10 +2084,10 @@
         <v>43870</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>307</v>
@@ -2145,10 +2136,10 @@
         <v>43876</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" t="s">
         <v>357</v>
-      </c>
-      <c r="G5" t="s">
-        <v>362</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>322</v>
@@ -2197,10 +2188,10 @@
         <v>43876</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" t="s">
         <v>357</v>
-      </c>
-      <c r="G6" t="s">
-        <v>362</v>
       </c>
       <c r="H6" t="s">
         <v>322</v>
@@ -2249,10 +2240,10 @@
         <v>43876</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" t="s">
         <v>357</v>
-      </c>
-      <c r="G7" t="s">
-        <v>362</v>
       </c>
       <c r="H7" t="s">
         <v>322</v>
@@ -2301,10 +2292,10 @@
         <v>43876</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" t="s">
         <v>357</v>
-      </c>
-      <c r="G8" t="s">
-        <v>362</v>
       </c>
       <c r="H8" t="s">
         <v>322</v>
@@ -2353,10 +2344,10 @@
         <v>43876</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" t="s">
         <v>357</v>
-      </c>
-      <c r="G9" t="s">
-        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -2405,10 +2396,10 @@
         <v>43876</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" t="s">
         <v>357</v>
-      </c>
-      <c r="G10" t="s">
-        <v>362</v>
       </c>
       <c r="H10" t="s">
         <v>322</v>
@@ -2458,7 +2449,7 @@
         <v>43891</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>284</v>
@@ -2511,7 +2502,7 @@
         <v>43891</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>284</v>
@@ -2564,7 +2555,7 @@
         <v>43891</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>284</v>
@@ -2617,7 +2608,7 @@
         <v>43891</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>284</v>
@@ -2670,7 +2661,7 @@
         <v>43891</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>284</v>
@@ -2723,7 +2714,7 @@
         <v>43891</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>284</v>
@@ -2776,7 +2767,7 @@
         <v>43891</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>284</v>
@@ -2829,7 +2820,7 @@
         <v>43891</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>284</v>
@@ -2882,7 +2873,7 @@
         <v>43891</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>284</v>
@@ -2935,7 +2926,7 @@
         <v>43891</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>284</v>
@@ -2988,7 +2979,7 @@
         <v>43891</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>284</v>
@@ -3041,7 +3032,7 @@
         <v>43891</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>284</v>
@@ -3094,7 +3085,7 @@
         <v>43891</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>284</v>
@@ -3147,7 +3138,7 @@
         <v>43891</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>284</v>
@@ -3200,7 +3191,7 @@
         <v>43891</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>284</v>
@@ -3253,7 +3244,7 @@
         <v>43891</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>284</v>
@@ -3306,7 +3297,7 @@
         <v>43891</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>284</v>
@@ -3359,7 +3350,7 @@
         <v>43891</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>284</v>
@@ -3412,7 +3403,7 @@
         <v>43891</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>284</v>
@@ -3465,7 +3456,7 @@
         <v>43891</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>284</v>
@@ -3518,7 +3509,7 @@
         <v>43891</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>284</v>
@@ -3571,7 +3562,7 @@
         <v>43891</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>284</v>
@@ -3624,7 +3615,7 @@
         <v>43891</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>284</v>
@@ -3677,7 +3668,7 @@
         <v>43891</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>284</v>
@@ -3730,7 +3721,7 @@
         <v>43891</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>284</v>
@@ -3783,7 +3774,7 @@
         <v>43891</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>284</v>
@@ -3836,7 +3827,7 @@
         <v>43891</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>284</v>
@@ -3889,7 +3880,7 @@
         <v>43891</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>284</v>
@@ -3942,7 +3933,7 @@
         <v>43891</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>284</v>
@@ -3995,7 +3986,7 @@
         <v>43891</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>284</v>
@@ -4048,7 +4039,7 @@
         <v>43891</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>284</v>
@@ -4101,7 +4092,7 @@
         <v>43891</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>284</v>
@@ -4154,7 +4145,7 @@
         <v>43891</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>284</v>
@@ -4207,7 +4198,7 @@
         <v>43891</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>284</v>
@@ -4260,7 +4251,7 @@
         <v>43891</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>284</v>
@@ -4313,7 +4304,7 @@
         <v>43891</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>284</v>
@@ -4366,7 +4357,7 @@
         <v>43891</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>284</v>
@@ -4419,7 +4410,7 @@
         <v>43891</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>284</v>
@@ -4472,7 +4463,7 @@
         <v>43891</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>284</v>
@@ -4525,7 +4516,7 @@
         <v>43891</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>284</v>
@@ -4578,7 +4569,7 @@
         <v>43891</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>284</v>
@@ -4630,10 +4621,10 @@
         <v>43893</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>322</v>
@@ -4683,7 +4674,7 @@
         <v>43905</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>284</v>
@@ -4736,7 +4727,7 @@
         <v>43905</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>284</v>
@@ -4789,7 +4780,7 @@
         <v>43905</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>284</v>
@@ -4842,7 +4833,7 @@
         <v>43905</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>284</v>
@@ -4895,7 +4886,7 @@
         <v>43905</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>284</v>
@@ -4948,7 +4939,7 @@
         <v>43905</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>284</v>
@@ -5001,7 +4992,7 @@
         <v>43905</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>284</v>
@@ -5054,7 +5045,7 @@
         <v>43905</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>284</v>
@@ -5107,7 +5098,7 @@
         <v>43905</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>284</v>
@@ -5160,7 +5151,7 @@
         <v>43905</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>284</v>
@@ -5213,7 +5204,7 @@
         <v>43905</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>284</v>
@@ -5266,7 +5257,7 @@
         <v>43905</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>284</v>
@@ -5319,7 +5310,7 @@
         <v>43905</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>284</v>
@@ -5372,7 +5363,7 @@
         <v>43905</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>284</v>
@@ -5425,7 +5416,7 @@
         <v>43905</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>284</v>
@@ -5478,7 +5469,7 @@
         <v>43905</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>284</v>
@@ -5531,7 +5522,7 @@
         <v>43905</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>284</v>
@@ -5584,7 +5575,7 @@
         <v>43905</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>284</v>
@@ -5637,7 +5628,7 @@
         <v>43905</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>284</v>
@@ -5690,7 +5681,7 @@
         <v>43905</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>284</v>
@@ -5743,7 +5734,7 @@
         <v>43905</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>284</v>
@@ -5796,7 +5787,7 @@
         <v>43905</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>284</v>
@@ -5849,7 +5840,7 @@
         <v>43905</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>284</v>
@@ -5902,7 +5893,7 @@
         <v>43905</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>284</v>
@@ -5955,7 +5946,7 @@
         <v>43905</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>284</v>
@@ -6008,7 +5999,7 @@
         <v>43905</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>284</v>
@@ -6061,7 +6052,7 @@
         <v>43905</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>284</v>
@@ -6114,7 +6105,7 @@
         <v>43905</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>284</v>
@@ -6167,7 +6158,7 @@
         <v>43905</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>284</v>
@@ -6220,7 +6211,7 @@
         <v>43905</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>284</v>
@@ -6273,7 +6264,7 @@
         <v>43905</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>284</v>
@@ -6326,7 +6317,7 @@
         <v>43905</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>284</v>
@@ -6379,7 +6370,7 @@
         <v>43905</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>284</v>
@@ -6432,7 +6423,7 @@
         <v>43905</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>284</v>
@@ -6485,7 +6476,7 @@
         <v>43905</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>284</v>
@@ -6538,7 +6529,7 @@
         <v>43905</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>284</v>
@@ -6591,7 +6582,7 @@
         <v>43905</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>284</v>
@@ -6644,7 +6635,7 @@
         <v>43905</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>284</v>
@@ -6697,7 +6688,7 @@
         <v>43905</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>284</v>
@@ -6750,7 +6741,7 @@
         <v>43905</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>284</v>
@@ -6803,7 +6794,7 @@
         <v>43905</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>284</v>
@@ -6856,7 +6847,7 @@
         <v>43905</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>284</v>
@@ -6909,7 +6900,7 @@
         <v>43905</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>284</v>
@@ -6962,7 +6953,7 @@
         <v>43905</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>284</v>
@@ -7015,7 +7006,7 @@
         <v>43905</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>284</v>
@@ -7068,7 +7059,7 @@
         <v>44038</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>284</v>
@@ -7121,7 +7112,7 @@
         <v>44038</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>284</v>
@@ -7174,7 +7165,7 @@
         <v>44038</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>284</v>
@@ -7227,7 +7218,7 @@
         <v>44038</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>284</v>
@@ -7280,7 +7271,7 @@
         <v>44038</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>284</v>
@@ -7333,7 +7324,7 @@
         <v>44038</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>284</v>
@@ -7386,7 +7377,7 @@
         <v>44038</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>284</v>
@@ -7439,7 +7430,7 @@
         <v>44038</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>284</v>
@@ -7492,7 +7483,7 @@
         <v>44038</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>284</v>
@@ -7545,7 +7536,7 @@
         <v>44038</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>284</v>
@@ -7598,7 +7589,7 @@
         <v>44038</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>284</v>
@@ -7651,7 +7642,7 @@
         <v>44038</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>284</v>
@@ -7704,7 +7695,7 @@
         <v>44038</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>284</v>
@@ -7757,7 +7748,7 @@
         <v>44038</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>284</v>
@@ -7810,7 +7801,7 @@
         <v>44038</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>284</v>
@@ -7863,7 +7854,7 @@
         <v>44038</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>284</v>
@@ -7916,7 +7907,7 @@
         <v>44038</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>284</v>
@@ -7969,7 +7960,7 @@
         <v>44038</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>284</v>
@@ -8022,7 +8013,7 @@
         <v>44038</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>284</v>
@@ -8075,7 +8066,7 @@
         <v>44038</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>284</v>
@@ -8128,7 +8119,7 @@
         <v>44038</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>284</v>
@@ -8181,7 +8172,7 @@
         <v>44038</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>284</v>
@@ -8234,7 +8225,7 @@
         <v>44038</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G120" s="13" t="s">
         <v>284</v>
@@ -8287,7 +8278,7 @@
         <v>44038</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>284</v>
@@ -8340,7 +8331,7 @@
         <v>44038</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>284</v>
@@ -8393,7 +8384,7 @@
         <v>44038</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>284</v>
@@ -8446,7 +8437,7 @@
         <v>44038</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G124" s="13" t="s">
         <v>284</v>
@@ -8499,7 +8490,7 @@
         <v>44038</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>284</v>
@@ -8552,7 +8543,7 @@
         <v>44038</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>284</v>
@@ -8605,7 +8596,7 @@
         <v>44038</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>284</v>
@@ -8658,7 +8649,7 @@
         <v>44038</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>284</v>
@@ -8711,7 +8702,7 @@
         <v>44038</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>284</v>
@@ -8764,7 +8755,7 @@
         <v>44038</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G130" s="13" t="s">
         <v>284</v>
@@ -8817,7 +8808,7 @@
         <v>44038</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G131" s="13" t="s">
         <v>284</v>
@@ -8870,7 +8861,7 @@
         <v>44038</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G132" s="13" t="s">
         <v>284</v>
@@ -8923,7 +8914,7 @@
         <v>44038</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G133" s="13" t="s">
         <v>284</v>
@@ -8976,7 +8967,7 @@
         <v>44038</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G134" s="13" t="s">
         <v>284</v>
@@ -9029,7 +9020,7 @@
         <v>44038</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>284</v>
@@ -9082,7 +9073,7 @@
         <v>44038</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G136" s="13" t="s">
         <v>284</v>
@@ -9135,7 +9126,7 @@
         <v>44038</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G137" s="13" t="s">
         <v>284</v>
@@ -9188,7 +9179,7 @@
         <v>44038</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G138" s="13" t="s">
         <v>284</v>
@@ -9241,7 +9232,7 @@
         <v>44059</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G139" s="13" t="s">
         <v>284</v>
@@ -9294,7 +9285,7 @@
         <v>44059</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G140" s="13" t="s">
         <v>284</v>
@@ -9347,7 +9338,7 @@
         <v>44059</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>284</v>
@@ -9400,7 +9391,7 @@
         <v>44059</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G142" s="13" t="s">
         <v>284</v>
@@ -9453,7 +9444,7 @@
         <v>44059</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G143" s="13" t="s">
         <v>284</v>
@@ -9506,7 +9497,7 @@
         <v>44059</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>284</v>
@@ -9559,7 +9550,7 @@
         <v>44059</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G145" s="13" t="s">
         <v>284</v>
@@ -9612,7 +9603,7 @@
         <v>44059</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>284</v>
@@ -9665,7 +9656,7 @@
         <v>44059</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>284</v>
@@ -9718,7 +9709,7 @@
         <v>44059</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G148" s="13" t="s">
         <v>284</v>
@@ -9771,7 +9762,7 @@
         <v>44059</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G149" s="13" t="s">
         <v>284</v>
@@ -9824,7 +9815,7 @@
         <v>44059</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>284</v>
@@ -9877,7 +9868,7 @@
         <v>44059</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G151" s="13" t="s">
         <v>284</v>
@@ -9930,7 +9921,7 @@
         <v>44059</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G152" s="13" t="s">
         <v>284</v>
@@ -9983,7 +9974,7 @@
         <v>44059</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G153" s="13" t="s">
         <v>284</v>
@@ -10036,7 +10027,7 @@
         <v>44059</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G154" s="13" t="s">
         <v>284</v>
@@ -10089,7 +10080,7 @@
         <v>44059</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G155" s="13" t="s">
         <v>284</v>
@@ -10142,7 +10133,7 @@
         <v>44059</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G156" s="13" t="s">
         <v>284</v>
@@ -10195,7 +10186,7 @@
         <v>44059</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G157" s="13" t="s">
         <v>284</v>
@@ -10248,7 +10239,7 @@
         <v>44059</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G158" s="13" t="s">
         <v>284</v>
@@ -10301,7 +10292,7 @@
         <v>44059</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G159" s="13" t="s">
         <v>284</v>
@@ -10354,7 +10345,7 @@
         <v>44059</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G160" s="13" t="s">
         <v>284</v>
@@ -10407,7 +10398,7 @@
         <v>44059</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G161" s="13" t="s">
         <v>284</v>
@@ -10460,7 +10451,7 @@
         <v>44059</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G162" s="13" t="s">
         <v>284</v>
@@ -10513,7 +10504,7 @@
         <v>44059</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G163" s="13" t="s">
         <v>284</v>
@@ -10566,7 +10557,7 @@
         <v>44059</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G164" s="13" t="s">
         <v>284</v>
@@ -10619,7 +10610,7 @@
         <v>44059</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G165" s="13" t="s">
         <v>284</v>
@@ -10672,7 +10663,7 @@
         <v>44059</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G166" s="13" t="s">
         <v>284</v>
@@ -10725,7 +10716,7 @@
         <v>44059</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>284</v>
@@ -10778,7 +10769,7 @@
         <v>44059</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G168" s="13" t="s">
         <v>284</v>
@@ -10831,7 +10822,7 @@
         <v>44059</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G169" s="13" t="s">
         <v>284</v>
@@ -10884,7 +10875,7 @@
         <v>44059</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G170" s="13" t="s">
         <v>284</v>
@@ -10937,7 +10928,7 @@
         <v>44059</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G171" s="13" t="s">
         <v>284</v>
@@ -10990,7 +10981,7 @@
         <v>44059</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>284</v>
@@ -11043,7 +11034,7 @@
         <v>44059</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G173" s="13" t="s">
         <v>284</v>
@@ -11096,7 +11087,7 @@
         <v>44059</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G174" s="13" t="s">
         <v>284</v>
@@ -11149,7 +11140,7 @@
         <v>44059</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G175" s="13" t="s">
         <v>284</v>
@@ -11202,7 +11193,7 @@
         <v>44059</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G176" s="13" t="s">
         <v>284</v>
@@ -11255,7 +11246,7 @@
         <v>44059</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G177" s="13" t="s">
         <v>284</v>
@@ -11308,7 +11299,7 @@
         <v>44059</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G178" s="13" t="s">
         <v>284</v>
@@ -11361,7 +11352,7 @@
         <v>44059</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G179" s="13" t="s">
         <v>284</v>
@@ -11414,7 +11405,7 @@
         <v>44087</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G180" s="13" t="s">
         <v>284</v>
@@ -11467,7 +11458,7 @@
         <v>44087</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G181" s="13" t="s">
         <v>284</v>
@@ -11520,7 +11511,7 @@
         <v>44087</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G182" s="13" t="s">
         <v>284</v>
@@ -11573,7 +11564,7 @@
         <v>44087</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G183" s="13" t="s">
         <v>284</v>
@@ -11626,7 +11617,7 @@
         <v>44087</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G184" s="13" t="s">
         <v>284</v>
@@ -11679,7 +11670,7 @@
         <v>44087</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G185" s="13" t="s">
         <v>284</v>
@@ -11732,7 +11723,7 @@
         <v>44087</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G186" s="13" t="s">
         <v>284</v>
@@ -11785,7 +11776,7 @@
         <v>44087</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G187" s="13" t="s">
         <v>284</v>
@@ -11838,7 +11829,7 @@
         <v>44087</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G188" s="13" t="s">
         <v>284</v>
@@ -11891,7 +11882,7 @@
         <v>44087</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G189" s="13" t="s">
         <v>284</v>
@@ -11944,7 +11935,7 @@
         <v>44087</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G190" s="13" t="s">
         <v>284</v>
@@ -11997,7 +11988,7 @@
         <v>44087</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G191" s="13" t="s">
         <v>284</v>
@@ -12050,7 +12041,7 @@
         <v>44087</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G192" s="13" t="s">
         <v>284</v>
@@ -12103,7 +12094,7 @@
         <v>44087</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G193" s="13" t="s">
         <v>284</v>
@@ -12156,7 +12147,7 @@
         <v>44087</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G194" s="13" t="s">
         <v>284</v>
@@ -12209,7 +12200,7 @@
         <v>44087</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G195" s="13" t="s">
         <v>284</v>
@@ -12262,7 +12253,7 @@
         <v>44087</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G196" s="13" t="s">
         <v>284</v>
@@ -12315,7 +12306,7 @@
         <v>44087</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G197" s="13" t="s">
         <v>284</v>
@@ -12368,7 +12359,7 @@
         <v>44087</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G198" s="13" t="s">
         <v>284</v>
@@ -12421,7 +12412,7 @@
         <v>44087</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G199" s="13" t="s">
         <v>284</v>
@@ -12474,7 +12465,7 @@
         <v>44087</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G200" s="13" t="s">
         <v>284</v>
@@ -12527,7 +12518,7 @@
         <v>44087</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G201" s="13" t="s">
         <v>284</v>
@@ -12580,7 +12571,7 @@
         <v>44087</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G202" s="13" t="s">
         <v>284</v>
@@ -12633,7 +12624,7 @@
         <v>44087</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G203" s="13" t="s">
         <v>284</v>
@@ -12686,7 +12677,7 @@
         <v>44087</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G204" s="13" t="s">
         <v>284</v>
@@ -12739,7 +12730,7 @@
         <v>44087</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G205" s="13" t="s">
         <v>284</v>
@@ -12792,7 +12783,7 @@
         <v>44087</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G206" s="13" t="s">
         <v>284</v>
@@ -12845,7 +12836,7 @@
         <v>44087</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G207" s="13" t="s">
         <v>284</v>
@@ -12898,7 +12889,7 @@
         <v>44087</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G208" s="13" t="s">
         <v>284</v>
@@ -12951,7 +12942,7 @@
         <v>44087</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G209" s="13" t="s">
         <v>284</v>
@@ -13004,7 +12995,7 @@
         <v>44087</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G210" s="13" t="s">
         <v>284</v>
@@ -13057,7 +13048,7 @@
         <v>44087</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G211" s="13" t="s">
         <v>284</v>
@@ -13110,7 +13101,7 @@
         <v>44094</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G212" s="13" t="s">
         <v>201</v>
@@ -13163,7 +13154,7 @@
         <v>44094</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G213" s="13" t="s">
         <v>201</v>
@@ -13216,7 +13207,7 @@
         <v>44094</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G214" s="13" t="s">
         <v>201</v>
@@ -13269,7 +13260,7 @@
         <v>44094</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>201</v>
@@ -13322,7 +13313,7 @@
         <v>44094</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G216" s="13" t="s">
         <v>201</v>
@@ -13375,7 +13366,7 @@
         <v>44094</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G217" s="13" t="s">
         <v>201</v>
@@ -13428,7 +13419,7 @@
         <v>44094</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G218" s="13" t="s">
         <v>201</v>
@@ -13481,7 +13472,7 @@
         <v>44094</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G219" s="13" t="s">
         <v>201</v>
@@ -13534,7 +13525,7 @@
         <v>44094</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G220" s="13" t="s">
         <v>201</v>
@@ -13587,7 +13578,7 @@
         <v>44094</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G221" s="13" t="s">
         <v>201</v>
@@ -13640,7 +13631,7 @@
         <v>44094</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G222" s="13" t="s">
         <v>201</v>
@@ -13693,7 +13684,7 @@
         <v>44094</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G223" s="13" t="s">
         <v>201</v>
@@ -13746,7 +13737,7 @@
         <v>44094</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G224" s="13" t="s">
         <v>201</v>
@@ -13799,7 +13790,7 @@
         <v>44094</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G225" s="13" t="s">
         <v>201</v>
@@ -13852,7 +13843,7 @@
         <v>44094</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G226" s="13" t="s">
         <v>201</v>
@@ -13905,7 +13896,7 @@
         <v>44094</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G227" s="13" t="s">
         <v>201</v>
@@ -13958,7 +13949,7 @@
         <v>44094</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G228" s="13" t="s">
         <v>201</v>
@@ -14011,7 +14002,7 @@
         <v>44094</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G229" s="13" t="s">
         <v>201</v>
@@ -14064,7 +14055,7 @@
         <v>44094</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G230" s="13" t="s">
         <v>201</v>
@@ -14117,7 +14108,7 @@
         <v>44094</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G231" s="13" t="s">
         <v>201</v>
@@ -14170,7 +14161,7 @@
         <v>44094</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G232" s="13" t="s">
         <v>201</v>
@@ -14223,7 +14214,7 @@
         <v>44094</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G233" s="13" t="s">
         <v>201</v>
@@ -14276,7 +14267,7 @@
         <v>44094</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G234" s="13" t="s">
         <v>201</v>
@@ -14329,7 +14320,7 @@
         <v>44094</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G235" s="13" t="s">
         <v>201</v>
@@ -14382,7 +14373,7 @@
         <v>44094</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G236" s="13" t="s">
         <v>201</v>
@@ -14435,7 +14426,7 @@
         <v>44094</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G237" s="13" t="s">
         <v>201</v>
@@ -14488,7 +14479,7 @@
         <v>44094</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G238" s="13" t="s">
         <v>201</v>
@@ -14541,7 +14532,7 @@
         <v>44094</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G239" s="13" t="s">
         <v>201</v>
@@ -14594,7 +14585,7 @@
         <v>44094</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G240" s="13" t="s">
         <v>201</v>
@@ -14647,7 +14638,7 @@
         <v>44094</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G241" s="13" t="s">
         <v>201</v>
@@ -14700,7 +14691,7 @@
         <v>44094</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G242" s="13" t="s">
         <v>201</v>
@@ -14753,7 +14744,7 @@
         <v>44094</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G243" s="13" t="s">
         <v>201</v>
@@ -14806,7 +14797,7 @@
         <v>44094</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G244" s="13" t="s">
         <v>201</v>
@@ -14859,7 +14850,7 @@
         <v>44094</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G245" s="13" t="s">
         <v>201</v>
@@ -14912,7 +14903,7 @@
         <v>44094</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G246" s="13" t="s">
         <v>201</v>
@@ -14965,7 +14956,7 @@
         <v>44094</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G247" s="13" t="s">
         <v>201</v>
@@ -15018,7 +15009,7 @@
         <v>44094</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G248" s="13" t="s">
         <v>201</v>
@@ -15071,7 +15062,7 @@
         <v>44094</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G249" s="13" t="s">
         <v>201</v>
@@ -15124,7 +15115,7 @@
         <v>44122</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G250" s="13" t="s">
         <v>201</v>
@@ -15177,7 +15168,7 @@
         <v>44122</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G251" s="13" t="s">
         <v>201</v>
@@ -15230,7 +15221,7 @@
         <v>44122</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G252" s="13" t="s">
         <v>201</v>
@@ -15283,7 +15274,7 @@
         <v>44122</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G253" s="13" t="s">
         <v>201</v>
@@ -15336,7 +15327,7 @@
         <v>44122</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G254" s="13" t="s">
         <v>201</v>
@@ -15389,7 +15380,7 @@
         <v>44122</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G255" s="13" t="s">
         <v>201</v>
@@ -15442,7 +15433,7 @@
         <v>44122</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G256" s="13" t="s">
         <v>201</v>
@@ -15495,7 +15486,7 @@
         <v>44122</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G257" s="13" t="s">
         <v>201</v>
@@ -15548,7 +15539,7 @@
         <v>44122</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G258" s="13" t="s">
         <v>201</v>
@@ -15601,7 +15592,7 @@
         <v>44122</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G259" s="13" t="s">
         <v>201</v>
@@ -15654,7 +15645,7 @@
         <v>44122</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G260" s="13" t="s">
         <v>201</v>
@@ -15707,7 +15698,7 @@
         <v>44122</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G261" s="13" t="s">
         <v>201</v>
@@ -15760,7 +15751,7 @@
         <v>44122</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G262" s="13" t="s">
         <v>201</v>
@@ -15813,7 +15804,7 @@
         <v>44122</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G263" s="13" t="s">
         <v>201</v>
@@ -15866,7 +15857,7 @@
         <v>44122</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G264" s="13" t="s">
         <v>201</v>
@@ -15919,7 +15910,7 @@
         <v>44122</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G265" s="13" t="s">
         <v>201</v>
@@ -15972,7 +15963,7 @@
         <v>44122</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G266" s="13" t="s">
         <v>201</v>
@@ -16025,7 +16016,7 @@
         <v>44122</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G267" s="13" t="s">
         <v>201</v>
@@ -16078,7 +16069,7 @@
         <v>44122</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G268" s="13" t="s">
         <v>201</v>
@@ -16131,7 +16122,7 @@
         <v>44122</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G269" s="13" t="s">
         <v>201</v>
@@ -16184,7 +16175,7 @@
         <v>44122</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G270" s="13" t="s">
         <v>201</v>
@@ -16237,7 +16228,7 @@
         <v>44122</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G271" s="13" t="s">
         <v>201</v>
@@ -16290,7 +16281,7 @@
         <v>44122</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G272" s="13" t="s">
         <v>201</v>
@@ -16343,7 +16334,7 @@
         <v>44122</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G273" s="13" t="s">
         <v>201</v>
@@ -16396,7 +16387,7 @@
         <v>44122</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G274" s="13" t="s">
         <v>201</v>
@@ -16449,7 +16440,7 @@
         <v>44122</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G275" s="13" t="s">
         <v>201</v>
@@ -16502,7 +16493,7 @@
         <v>44122</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G276" s="13" t="s">
         <v>201</v>
@@ -16555,7 +16546,7 @@
         <v>44122</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G277" s="13" t="s">
         <v>201</v>
@@ -16608,7 +16599,7 @@
         <v>44122</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G278" s="13" t="s">
         <v>201</v>
@@ -16661,7 +16652,7 @@
         <v>44122</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G279" s="13" t="s">
         <v>201</v>
@@ -16714,7 +16705,7 @@
         <v>44122</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G280" s="13" t="s">
         <v>201</v>
@@ -16767,7 +16758,7 @@
         <v>44122</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G281" s="13" t="s">
         <v>201</v>
@@ -16820,7 +16811,7 @@
         <v>44122</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G282" s="13" t="s">
         <v>201</v>
@@ -16873,7 +16864,7 @@
         <v>44122</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G283" s="13" t="s">
         <v>201</v>
@@ -16926,7 +16917,7 @@
         <v>44122</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G284" s="13" t="s">
         <v>201</v>
@@ -16979,7 +16970,7 @@
         <v>44122</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G285" s="13" t="s">
         <v>201</v>
@@ -17032,7 +17023,7 @@
         <v>44122</v>
       </c>
       <c r="F286" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G286" s="13" t="s">
         <v>201</v>
@@ -17085,7 +17076,7 @@
         <v>44122</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G287" s="13" t="s">
         <v>201</v>
@@ -17138,7 +17129,7 @@
         <v>44122</v>
       </c>
       <c r="F288" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G288" s="13" t="s">
         <v>201</v>
@@ -17191,7 +17182,7 @@
         <v>44122</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G289" s="13" t="s">
         <v>201</v>
@@ -17244,7 +17235,7 @@
         <v>44122</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G290" s="13" t="s">
         <v>201</v>
@@ -17297,7 +17288,7 @@
         <v>44129</v>
       </c>
       <c r="F291" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G291" s="13" t="s">
         <v>201</v>
@@ -17350,7 +17341,7 @@
         <v>44129</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G292" s="13" t="s">
         <v>201</v>
@@ -17403,7 +17394,7 @@
         <v>44129</v>
       </c>
       <c r="F293" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G293" s="13" t="s">
         <v>201</v>
@@ -17456,7 +17447,7 @@
         <v>44129</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G294" s="13" t="s">
         <v>201</v>
@@ -17509,7 +17500,7 @@
         <v>44129</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G295" s="13" t="s">
         <v>201</v>
@@ -17562,7 +17553,7 @@
         <v>44129</v>
       </c>
       <c r="F296" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G296" s="13" t="s">
         <v>201</v>
@@ -17615,7 +17606,7 @@
         <v>44129</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G297" s="13" t="s">
         <v>201</v>
@@ -17668,7 +17659,7 @@
         <v>44129</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G298" s="13" t="s">
         <v>201</v>
@@ -17721,7 +17712,7 @@
         <v>44129</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G299" s="13" t="s">
         <v>201</v>
@@ -17774,7 +17765,7 @@
         <v>44129</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G300" s="13" t="s">
         <v>201</v>
@@ -17827,7 +17818,7 @@
         <v>44129</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G301" s="13" t="s">
         <v>201</v>
@@ -17880,7 +17871,7 @@
         <v>44129</v>
       </c>
       <c r="F302" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G302" s="13" t="s">
         <v>201</v>
@@ -17933,7 +17924,7 @@
         <v>44129</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G303" s="13" t="s">
         <v>201</v>
@@ -17986,7 +17977,7 @@
         <v>44129</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G304" s="13" t="s">
         <v>201</v>
@@ -18039,7 +18030,7 @@
         <v>44129</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G305" s="13" t="s">
         <v>201</v>
@@ -18092,7 +18083,7 @@
         <v>44129</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G306" s="13" t="s">
         <v>201</v>
@@ -18145,7 +18136,7 @@
         <v>44129</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G307" s="13" t="s">
         <v>201</v>
@@ -18198,7 +18189,7 @@
         <v>44129</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G308" s="13" t="s">
         <v>201</v>
@@ -18251,7 +18242,7 @@
         <v>44129</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G309" s="13" t="s">
         <v>201</v>
@@ -18304,7 +18295,7 @@
         <v>44129</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G310" s="13" t="s">
         <v>201</v>
@@ -18357,7 +18348,7 @@
         <v>44129</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G311" s="13" t="s">
         <v>201</v>
@@ -18410,7 +18401,7 @@
         <v>44129</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G312" s="13" t="s">
         <v>201</v>
@@ -18463,7 +18454,7 @@
         <v>44129</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G313" s="13" t="s">
         <v>201</v>
@@ -18516,7 +18507,7 @@
         <v>44129</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G314" s="13" t="s">
         <v>201</v>
@@ -18569,7 +18560,7 @@
         <v>44129</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G315" s="13" t="s">
         <v>201</v>
@@ -18622,7 +18613,7 @@
         <v>44129</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G316" s="13" t="s">
         <v>201</v>
@@ -18675,7 +18666,7 @@
         <v>44129</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G317" s="13" t="s">
         <v>201</v>
@@ -18728,7 +18719,7 @@
         <v>44129</v>
       </c>
       <c r="F318" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G318" s="13" t="s">
         <v>201</v>
@@ -18781,7 +18772,7 @@
         <v>44129</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G319" s="13" t="s">
         <v>201</v>
@@ -18834,7 +18825,7 @@
         <v>44129</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G320" s="13" t="s">
         <v>201</v>
@@ -18887,7 +18878,7 @@
         <v>44129</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G321" s="13" t="s">
         <v>201</v>
@@ -18940,7 +18931,7 @@
         <v>44129</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G322" s="13" t="s">
         <v>201</v>
@@ -18993,7 +18984,7 @@
         <v>44129</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G323" s="13" t="s">
         <v>201</v>
@@ -19046,7 +19037,7 @@
         <v>44129</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G324" s="13" t="s">
         <v>201</v>
@@ -19099,7 +19090,7 @@
         <v>44129</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G325" s="13" t="s">
         <v>201</v>
@@ -19152,7 +19143,7 @@
         <v>44129</v>
       </c>
       <c r="F326" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G326" s="13" t="s">
         <v>201</v>
@@ -19205,7 +19196,7 @@
         <v>44129</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G327" s="13" t="s">
         <v>201</v>
@@ -19258,10 +19249,10 @@
         <v>44143</v>
       </c>
       <c r="F328" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G328" s="13" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>307</v>
@@ -19311,10 +19302,10 @@
         <v>44143</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>307</v>
@@ -19364,10 +19355,10 @@
         <v>44143</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G330" s="13" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>307</v>
@@ -19417,10 +19408,10 @@
         <v>44143</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>307</v>
@@ -19470,10 +19461,10 @@
         <v>44143</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G332" s="13" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="H332" s="12" t="s">
         <v>307</v>
@@ -19523,10 +19514,10 @@
         <v>44143</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="H333" s="12" t="s">
         <v>307</v>
@@ -19576,10 +19567,10 @@
         <v>44143</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G334" s="13" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="H334" s="12" t="s">
         <v>307</v>
@@ -19629,10 +19620,10 @@
         <v>44143</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G335" s="13" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="H335" s="12" t="s">
         <v>307</v>
@@ -19682,10 +19673,10 @@
         <v>44143</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G336" s="13" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>307</v>
@@ -19735,10 +19726,10 @@
         <v>44143</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H337" s="12" t="s">
         <v>307</v>
@@ -19788,10 +19779,10 @@
         <v>44143</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G338" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H338" s="12" t="s">
         <v>307</v>
@@ -19841,10 +19832,10 @@
         <v>44143</v>
       </c>
       <c r="F339" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H339" s="12" t="s">
         <v>307</v>
@@ -19894,10 +19885,10 @@
         <v>44143</v>
       </c>
       <c r="F340" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G340" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H340" s="12" t="s">
         <v>307</v>
@@ -19947,10 +19938,10 @@
         <v>44143</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G341" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="H341" s="12" t="s">
         <v>307</v>
@@ -20000,10 +19991,10 @@
         <v>44143</v>
       </c>
       <c r="F342" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G342" s="13" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H342" s="12" t="s">
         <v>307</v>
@@ -20053,10 +20044,10 @@
         <v>44143</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H343" s="12" t="s">
         <v>307</v>
@@ -20106,10 +20097,10 @@
         <v>44143</v>
       </c>
       <c r="F344" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G344" s="13" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H344" s="12" t="s">
         <v>307</v>
@@ -20159,10 +20150,10 @@
         <v>44143</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H345" s="12" t="s">
         <v>307</v>
@@ -20212,10 +20203,10 @@
         <v>44143</v>
       </c>
       <c r="F346" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G346" s="13" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H346" s="12" t="s">
         <v>307</v>
@@ -20265,10 +20256,10 @@
         <v>44143</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H347" s="12" t="s">
         <v>307</v>
@@ -20318,10 +20309,10 @@
         <v>44143</v>
       </c>
       <c r="F348" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G348" s="13" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H348" s="12" t="s">
         <v>307</v>
@@ -20371,7 +20362,7 @@
         <v>44143</v>
       </c>
       <c r="F349" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G349" s="13" t="s">
         <v>284</v>
@@ -20424,7 +20415,7 @@
         <v>44143</v>
       </c>
       <c r="F350" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G350" s="13" t="s">
         <v>284</v>
@@ -20477,7 +20468,7 @@
         <v>44143</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G351" s="13" t="s">
         <v>284</v>
@@ -20530,7 +20521,7 @@
         <v>44143</v>
       </c>
       <c r="F352" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G352" s="13" t="s">
         <v>284</v>
@@ -20583,7 +20574,7 @@
         <v>44143</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G353" s="13" t="s">
         <v>284</v>
@@ -20636,7 +20627,7 @@
         <v>44143</v>
       </c>
       <c r="F354" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G354" s="13" t="s">
         <v>284</v>
@@ -20689,7 +20680,7 @@
         <v>44143</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G355" s="13" t="s">
         <v>284</v>
@@ -20742,7 +20733,7 @@
         <v>44143</v>
       </c>
       <c r="F356" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G356" s="13" t="s">
         <v>284</v>
@@ -20795,7 +20786,7 @@
         <v>44143</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G357" s="13" t="s">
         <v>284</v>
@@ -20848,7 +20839,7 @@
         <v>44143</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G358" s="13" t="s">
         <v>284</v>
@@ -20901,7 +20892,7 @@
         <v>44143</v>
       </c>
       <c r="F359" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G359" s="13" t="s">
         <v>284</v>
@@ -20954,7 +20945,7 @@
         <v>44255</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G360" s="13" t="s">
         <v>284</v>
@@ -21007,7 +20998,7 @@
         <v>44255</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G361" s="13" t="s">
         <v>284</v>
@@ -21060,7 +21051,7 @@
         <v>44255</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G362" s="13" t="s">
         <v>284</v>
@@ -21113,7 +21104,7 @@
         <v>44255</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G363" s="13" t="s">
         <v>284</v>
@@ -21166,7 +21157,7 @@
         <v>44255</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G364" s="13" t="s">
         <v>284</v>
@@ -21219,7 +21210,7 @@
         <v>44255</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G365" s="13" t="s">
         <v>284</v>
@@ -21272,7 +21263,7 @@
         <v>44255</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G366" s="13" t="s">
         <v>284</v>
@@ -21325,7 +21316,7 @@
         <v>44255</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G367" s="13" t="s">
         <v>284</v>
@@ -21378,7 +21369,7 @@
         <v>44255</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G368" s="13" t="s">
         <v>284</v>
@@ -21431,7 +21422,7 @@
         <v>44255</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G369" s="13" t="s">
         <v>284</v>
@@ -21484,7 +21475,7 @@
         <v>44255</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G370" s="13" t="s">
         <v>284</v>
@@ -21537,7 +21528,7 @@
         <v>44255</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G371" s="13" t="s">
         <v>284</v>
@@ -21590,7 +21581,7 @@
         <v>44255</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G372" s="13" t="s">
         <v>284</v>
@@ -21643,7 +21634,7 @@
         <v>44255</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G373" s="13" t="s">
         <v>284</v>
@@ -21696,7 +21687,7 @@
         <v>44255</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G374" s="13" t="s">
         <v>284</v>
@@ -21749,7 +21740,7 @@
         <v>44255</v>
       </c>
       <c r="F375" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G375" s="13" t="s">
         <v>284</v>
@@ -21802,7 +21793,7 @@
         <v>44255</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G376" s="13" t="s">
         <v>284</v>
@@ -21855,7 +21846,7 @@
         <v>44255</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G377" s="13" t="s">
         <v>284</v>
@@ -21908,7 +21899,7 @@
         <v>44255</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G378" s="13" t="s">
         <v>284</v>
@@ -21961,7 +21952,7 @@
         <v>44255</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G379" s="13" t="s">
         <v>284</v>
@@ -22014,7 +22005,7 @@
         <v>44255</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G380" s="13" t="s">
         <v>284</v>
@@ -22067,7 +22058,7 @@
         <v>44255</v>
       </c>
       <c r="F381" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G381" s="13" t="s">
         <v>284</v>
@@ -22120,7 +22111,7 @@
         <v>44255</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G382" s="13" t="s">
         <v>284</v>
@@ -22173,7 +22164,7 @@
         <v>44255</v>
       </c>
       <c r="F383" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G383" s="13" t="s">
         <v>284</v>
@@ -22226,7 +22217,7 @@
         <v>44255</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G384" s="13" t="s">
         <v>284</v>
@@ -22279,7 +22270,7 @@
         <v>44255</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G385" s="13" t="s">
         <v>284</v>
@@ -22332,7 +22323,7 @@
         <v>44255</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G386" s="13" t="s">
         <v>284</v>
@@ -22385,7 +22376,7 @@
         <v>44255</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G387" s="13" t="s">
         <v>284</v>
@@ -22438,7 +22429,7 @@
         <v>44255</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G388" s="13" t="s">
         <v>284</v>
@@ -22491,7 +22482,7 @@
         <v>44255</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G389" s="13" t="s">
         <v>284</v>
@@ -22544,7 +22535,7 @@
         <v>44255</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G390" s="13" t="s">
         <v>284</v>
@@ -22597,7 +22588,7 @@
         <v>44255</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G391" s="13" t="s">
         <v>284</v>
@@ -22650,7 +22641,7 @@
         <v>44255</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G392" s="13" t="s">
         <v>284</v>
@@ -22703,7 +22694,7 @@
         <v>44255</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G393" s="13" t="s">
         <v>284</v>
@@ -22756,7 +22747,7 @@
         <v>44255</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G394" s="13" t="s">
         <v>284</v>
@@ -22809,7 +22800,7 @@
         <v>44255</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G395" s="13" t="s">
         <v>284</v>
@@ -22862,7 +22853,7 @@
         <v>44255</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G396" s="13" t="s">
         <v>284</v>
@@ -22915,7 +22906,7 @@
         <v>44255</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G397" s="13" t="s">
         <v>284</v>
@@ -22968,7 +22959,7 @@
         <v>44255</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G398" s="13" t="s">
         <v>284</v>
@@ -23021,7 +23012,7 @@
         <v>44255</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G399" s="13" t="s">
         <v>284</v>
@@ -23074,7 +23065,7 @@
         <v>44255</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G400" s="13" t="s">
         <v>284</v>
@@ -23127,7 +23118,7 @@
         <v>44255</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G401" s="13" t="s">
         <v>284</v>
@@ -23180,7 +23171,7 @@
         <v>44255</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G402" s="13" t="s">
         <v>284</v>
@@ -23233,7 +23224,7 @@
         <v>44269</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G403" s="13" t="s">
         <v>284</v>
@@ -23286,7 +23277,7 @@
         <v>44269</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G404" s="13" t="s">
         <v>284</v>
@@ -23323,7 +23314,7 @@
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B405" s="12" t="s">
         <v>326</v>
@@ -23339,7 +23330,7 @@
         <v>44269</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G405" s="13" t="s">
         <v>284</v>
@@ -23392,7 +23383,7 @@
         <v>44269</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G406" s="13" t="s">
         <v>284</v>
@@ -23445,7 +23436,7 @@
         <v>44269</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G407" s="13" t="s">
         <v>284</v>
@@ -23498,7 +23489,7 @@
         <v>44269</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G408" s="13" t="s">
         <v>284</v>
@@ -23551,7 +23542,7 @@
         <v>44269</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G409" s="13" t="s">
         <v>284</v>
@@ -23604,7 +23595,7 @@
         <v>44269</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G410" s="13" t="s">
         <v>284</v>
@@ -23657,7 +23648,7 @@
         <v>44269</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G411" s="13" t="s">
         <v>284</v>
@@ -23710,7 +23701,7 @@
         <v>44269</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G412" s="13" t="s">
         <v>284</v>
@@ -23747,10 +23738,10 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C413" s="12">
         <v>2</v>
@@ -23763,7 +23754,7 @@
         <v>44269</v>
       </c>
       <c r="F413" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G413" s="13" t="s">
         <v>284</v>
@@ -23816,7 +23807,7 @@
         <v>44269</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G414" s="13" t="s">
         <v>284</v>
@@ -23853,10 +23844,10 @@
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C415" s="12">
         <v>5</v>
@@ -23869,7 +23860,7 @@
         <v>44269</v>
       </c>
       <c r="F415" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G415" s="13" t="s">
         <v>284</v>
@@ -23906,7 +23897,7 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B416" s="12" t="s">
         <v>326</v>
@@ -23922,7 +23913,7 @@
         <v>44269</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G416" s="13" t="s">
         <v>284</v>
@@ -23975,7 +23966,7 @@
         <v>44269</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G417" s="13" t="s">
         <v>284</v>
@@ -24012,10 +24003,10 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C418" s="12">
         <v>1</v>
@@ -24028,7 +24019,7 @@
         <v>44269</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G418" s="13" t="s">
         <v>284</v>
@@ -24081,7 +24072,7 @@
         <v>44269</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G419" s="13" t="s">
         <v>284</v>
@@ -24134,7 +24125,7 @@
         <v>44269</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G420" s="13" t="s">
         <v>284</v>
@@ -24187,7 +24178,7 @@
         <v>44269</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G421" s="13" t="s">
         <v>284</v>
@@ -24240,7 +24231,7 @@
         <v>44269</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G422" s="13" t="s">
         <v>284</v>
@@ -24293,7 +24284,7 @@
         <v>44269</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G423" s="13" t="s">
         <v>284</v>
@@ -24346,7 +24337,7 @@
         <v>44269</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G424" s="13" t="s">
         <v>284</v>
@@ -24383,10 +24374,10 @@
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B425" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C425" s="12">
         <v>2</v>
@@ -24399,7 +24390,7 @@
         <v>44269</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G425" s="13" t="s">
         <v>284</v>
@@ -24436,10 +24427,10 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C426" s="12">
         <v>3</v>
@@ -24452,7 +24443,7 @@
         <v>44269</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G426" s="13" t="s">
         <v>284</v>
@@ -24505,7 +24496,7 @@
         <v>44269</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G427" s="13" t="s">
         <v>284</v>
@@ -24558,7 +24549,7 @@
         <v>44269</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G428" s="13" t="s">
         <v>284</v>
@@ -24611,7 +24602,7 @@
         <v>44269</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G429" s="13" t="s">
         <v>284</v>
@@ -24664,7 +24655,7 @@
         <v>44269</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G430" s="13" t="s">
         <v>284</v>
@@ -24701,10 +24692,10 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C431" s="12">
         <v>5</v>
@@ -24717,7 +24708,7 @@
         <v>44269</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G431" s="13" t="s">
         <v>284</v>
@@ -24770,7 +24761,7 @@
         <v>44269</v>
       </c>
       <c r="F432" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G432" s="13" t="s">
         <v>284</v>
@@ -24823,7 +24814,7 @@
         <v>44269</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G433" s="13" t="s">
         <v>284</v>
@@ -24860,10 +24851,10 @@
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B434" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C434" s="12">
         <v>8</v>
@@ -24876,7 +24867,7 @@
         <v>44269</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G434" s="13" t="s">
         <v>284</v>
@@ -24929,7 +24920,7 @@
         <v>44269</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G435" s="13" t="s">
         <v>284</v>
@@ -24982,7 +24973,7 @@
         <v>44269</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G436" s="13" t="s">
         <v>284</v>
@@ -25035,7 +25026,7 @@
         <v>44269</v>
       </c>
       <c r="F437" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G437" s="13" t="s">
         <v>284</v>
@@ -25088,7 +25079,7 @@
         <v>44276</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G438" s="13" t="s">
         <v>284</v>
@@ -25141,7 +25132,7 @@
         <v>44276</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G439" s="13" t="s">
         <v>284</v>
@@ -25194,7 +25185,7 @@
         <v>44276</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G440" s="13" t="s">
         <v>284</v>
@@ -25247,7 +25238,7 @@
         <v>44276</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G441" s="13" t="s">
         <v>284</v>
@@ -25300,7 +25291,7 @@
         <v>44276</v>
       </c>
       <c r="F442" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G442" s="13" t="s">
         <v>284</v>
@@ -25353,7 +25344,7 @@
         <v>44276</v>
       </c>
       <c r="F443" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G443" s="13" t="s">
         <v>284</v>
@@ -25406,7 +25397,7 @@
         <v>44276</v>
       </c>
       <c r="F444" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G444" s="13" t="s">
         <v>284</v>
@@ -25459,7 +25450,7 @@
         <v>44276</v>
       </c>
       <c r="F445" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G445" s="13" t="s">
         <v>284</v>
@@ -25512,7 +25503,7 @@
         <v>44276</v>
       </c>
       <c r="F446" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G446" s="13" t="s">
         <v>284</v>
@@ -25565,7 +25556,7 @@
         <v>44276</v>
       </c>
       <c r="F447" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G447" s="13" t="s">
         <v>284</v>
@@ -25618,7 +25609,7 @@
         <v>44276</v>
       </c>
       <c r="F448" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G448" s="13" t="s">
         <v>284</v>
@@ -25671,7 +25662,7 @@
         <v>44276</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G449" s="13" t="s">
         <v>284</v>
@@ -25724,7 +25715,7 @@
         <v>44276</v>
       </c>
       <c r="F450" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G450" s="13" t="s">
         <v>284</v>
@@ -25777,7 +25768,7 @@
         <v>44276</v>
       </c>
       <c r="F451" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G451" s="13" t="s">
         <v>284</v>
@@ -25830,7 +25821,7 @@
         <v>44276</v>
       </c>
       <c r="F452" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G452" s="13" t="s">
         <v>284</v>
@@ -25883,7 +25874,7 @@
         <v>44276</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G453" s="13" t="s">
         <v>284</v>
@@ -25936,7 +25927,7 @@
         <v>44276</v>
       </c>
       <c r="F454" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G454" s="13" t="s">
         <v>284</v>
@@ -25989,7 +25980,7 @@
         <v>44276</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G455" s="13" t="s">
         <v>284</v>
@@ -26042,7 +26033,7 @@
         <v>44276</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G456" s="13" t="s">
         <v>284</v>
@@ -26095,7 +26086,7 @@
         <v>44276</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G457" s="13" t="s">
         <v>284</v>
@@ -26148,7 +26139,7 @@
         <v>44276</v>
       </c>
       <c r="F458" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G458" s="13" t="s">
         <v>284</v>
@@ -26185,10 +26176,10 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B459" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C459" s="12">
         <v>2</v>
@@ -26201,7 +26192,7 @@
         <v>44276</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G459" s="13" t="s">
         <v>284</v>
@@ -26254,7 +26245,7 @@
         <v>44276</v>
       </c>
       <c r="F460" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G460" s="13" t="s">
         <v>284</v>
@@ -26307,7 +26298,7 @@
         <v>44276</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G461" s="13" t="s">
         <v>284</v>
@@ -26360,7 +26351,7 @@
         <v>44276</v>
       </c>
       <c r="F462" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G462" s="13" t="s">
         <v>284</v>
@@ -26413,7 +26404,7 @@
         <v>44276</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G463" s="13" t="s">
         <v>284</v>
@@ -26466,7 +26457,7 @@
         <v>44276</v>
       </c>
       <c r="F464" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G464" s="13" t="s">
         <v>284</v>
@@ -26519,7 +26510,7 @@
         <v>44276</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G465" s="13" t="s">
         <v>284</v>
@@ -26572,7 +26563,7 @@
         <v>44276</v>
       </c>
       <c r="F466" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G466" s="13" t="s">
         <v>284</v>
@@ -26625,7 +26616,7 @@
         <v>44276</v>
       </c>
       <c r="F467" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G467" s="13" t="s">
         <v>284</v>
@@ -26678,7 +26669,7 @@
         <v>44276</v>
       </c>
       <c r="F468" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G468" s="13" t="s">
         <v>284</v>
@@ -26731,7 +26722,7 @@
         <v>44276</v>
       </c>
       <c r="F469" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G469" s="13" t="s">
         <v>284</v>
@@ -26784,7 +26775,7 @@
         <v>44276</v>
       </c>
       <c r="F470" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G470" s="13" t="s">
         <v>284</v>
@@ -26837,7 +26828,7 @@
         <v>44276</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G471" s="13" t="s">
         <v>284</v>
@@ -26890,7 +26881,7 @@
         <v>44276</v>
       </c>
       <c r="F472" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G472" s="13" t="s">
         <v>284</v>
@@ -26943,7 +26934,7 @@
         <v>44276</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G473" s="13" t="s">
         <v>284</v>
@@ -26996,7 +26987,7 @@
         <v>44276</v>
       </c>
       <c r="F474" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G474" s="13" t="s">
         <v>284</v>
@@ -27049,7 +27040,7 @@
         <v>44276</v>
       </c>
       <c r="F475" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G475" s="13" t="s">
         <v>284</v>
@@ -27082,6 +27073,526 @@
       <c r="O475" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A476" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C476" s="12">
+        <v>15</v>
+      </c>
+      <c r="D476" s="16">
+        <v>44</v>
+      </c>
+      <c r="E476" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F476" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G476" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H476" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I476" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J476" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K476" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L476" s="12">
+        <v>1</v>
+      </c>
+      <c r="M476" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L476=0,VLOOKUP(C476,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C476,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="N476" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="O476" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A477" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B477" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C477" s="12">
+        <v>28</v>
+      </c>
+      <c r="D477" s="16">
+        <v>29</v>
+      </c>
+      <c r="E477" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F477" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G477" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H477" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I477" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J477" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K477" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L477" s="12">
+        <v>1</v>
+      </c>
+      <c r="M477" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L477=0,VLOOKUP(C477,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C477,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>4</v>
+      </c>
+      <c r="N477" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O477" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A478" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C478" s="12">
+        <v>10</v>
+      </c>
+      <c r="D478" s="16">
+        <v>11</v>
+      </c>
+      <c r="E478" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F478" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G478" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H478" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I478" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J478" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K478" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L478" s="12">
+        <v>1</v>
+      </c>
+      <c r="M478" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L478=0,VLOOKUP(C478,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C478,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="N478" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O478" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A479" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C479" s="12">
+        <v>2</v>
+      </c>
+      <c r="D479" s="16">
+        <v>18</v>
+      </c>
+      <c r="E479" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F479" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G479" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H479" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I479" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J479" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K479" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L479" s="12">
+        <v>1</v>
+      </c>
+      <c r="M479" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L479=0,VLOOKUP(C479,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C479,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>26</v>
+      </c>
+      <c r="N479" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O479" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A480" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C480" s="12">
+        <v>10</v>
+      </c>
+      <c r="D480" s="16">
+        <v>33</v>
+      </c>
+      <c r="E480" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F480" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H480" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I480" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J480" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K480" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L480" s="12">
+        <v>1</v>
+      </c>
+      <c r="M480" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L480=0,VLOOKUP(C480,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C480,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="N480" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="O480" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A481" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B481" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C481" s="12">
+        <v>5</v>
+      </c>
+      <c r="D481" s="16">
+        <v>8</v>
+      </c>
+      <c r="E481" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F481" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G481" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H481" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I481" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J481" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K481" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L481" s="12">
+        <v>1</v>
+      </c>
+      <c r="M481" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L481=0,VLOOKUP(C481,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C481,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>14</v>
+      </c>
+      <c r="N481" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O481" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A482" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B482" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C482" s="12">
+        <v>3</v>
+      </c>
+      <c r="D482" s="16">
+        <v>29</v>
+      </c>
+      <c r="E482" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F482" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H482" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I482" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J482" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K482" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L482" s="12">
+        <v>1</v>
+      </c>
+      <c r="M482" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L482=0,VLOOKUP(C482,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C482,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="N482" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O482" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A483" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B483" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C483" s="12">
+        <v>12</v>
+      </c>
+      <c r="D483" s="16">
+        <v>44</v>
+      </c>
+      <c r="E483" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F483" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G483" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H483" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I483" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J483" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K483" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L483" s="12">
+        <v>1</v>
+      </c>
+      <c r="M483" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L483=0,VLOOKUP(C483,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C483,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="N483" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="O483" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A484" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C484" s="12">
+        <v>3</v>
+      </c>
+      <c r="D484" s="16">
+        <v>15</v>
+      </c>
+      <c r="E484" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F484" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G484" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H484" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I484" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J484" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K484" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L484" s="12">
+        <v>1</v>
+      </c>
+      <c r="M484" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L484=0,VLOOKUP(C484,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C484,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>20</v>
+      </c>
+      <c r="N484" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O484" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A485" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B485" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C485" s="12">
+        <v>14</v>
+      </c>
+      <c r="D485" s="16">
+        <v>32</v>
+      </c>
+      <c r="E485" s="5">
+        <v>44319</v>
+      </c>
+      <c r="F485" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G485" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H485" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I485" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J485" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K485" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L485" s="12">
+        <v>1</v>
+      </c>
+      <c r="M485" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L485=0,VLOOKUP(C485,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C485,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>8</v>
+      </c>
+      <c r="N485" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="O485" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -33590,10 +34101,10 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C181" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33626,10 +34137,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C182" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33662,7 +34173,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
         <v>326</v>
@@ -33698,10 +34209,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C184" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33734,10 +34245,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C185" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33770,10 +34281,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C186" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33806,10 +34317,10 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C187" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33842,10 +34353,10 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C188" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
@@ -33889,7 +34400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D679C6-4049-45AF-BC9E-A48F6DDF8DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED090F-E354-40BB-8B5B-C1916EE7191B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="386">
   <si>
     <t>Ranking</t>
   </si>
@@ -1501,8 +1501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O516" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:O516" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O519" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:O519" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O516">
     <sortCondition ref="E2:E516"/>
     <sortCondition ref="H2:H516"/>
@@ -1923,36 +1923,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O516"/>
+  <dimension ref="A1:O519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A516" sqref="A516:B516"/>
+      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="3"/>
-    <col min="17" max="17" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="3"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="3"/>
+    <col min="17" max="17" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>261</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>190</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>292</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>192</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>293</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>124</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>280</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>247</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>125</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>148</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>174</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>118</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>116</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>98</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>30</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>126</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>122</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>124</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>192</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>120</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>311</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>19</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>61</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>159</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>30</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>70</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>57</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>87</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>78</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>68</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>305</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>308</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>108</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>21</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>147</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>107</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>308</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>181</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>199</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>31</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>23</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>23</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>78</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>24</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>153</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>68</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>57</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>61</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>68</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>107</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>159</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>126</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>153</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>61</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>22</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>108</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>147</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>90</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>23</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>24</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>153</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>19</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>19</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>30</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>70</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>57</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>331</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>61</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>78</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>84</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>68</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>107</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>61</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>179</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>108</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>162</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>21</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>147</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>107</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>146</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>181</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>24</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>23</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>78</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>23</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>153</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>68</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>30</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>61</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>84</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>68</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>57</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>107</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>126</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>153</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>61</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>108</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>162</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>147</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>24</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>23</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>153</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>70</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>87</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>325</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>68</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>92</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>126</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>107</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>76</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>30</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>122</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>166</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>108</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>205</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>282</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>107</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>226</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>181</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>97</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>123</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>199</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>125</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>329</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>327</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>61</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>70</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>282</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>21</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>107</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>181</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>123</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>31</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>19</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>78</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>282</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>107</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>21</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>181</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>123</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>199</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>31</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>175</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>247</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>107</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>275</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>125</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>148</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>174</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>215</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>30</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>126</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>127</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>193</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>129</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>247</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>122</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>61</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>84</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>107</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>125</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>30</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>126</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>122</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>166</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>107</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>84</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>226</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>150</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>105</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>278</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>123</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>166</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>97</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>120</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>19</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>78</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>61</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>70</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>311</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>331</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>19</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>68</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>107</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>61</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>122</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>108</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>70</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
         <v>21</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>107</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>146</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>332</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>181</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>329</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
         <v>23</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>298</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
         <v>23</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
         <v>68</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>61</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
         <v>68</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>30</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>107</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>126</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>61</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>57</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>108</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>107</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>332</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>24</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>298</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>23</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>23</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>190</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>228</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>340</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>124</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>342</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>107</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
         <v>211</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
         <v>338</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>275</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>338</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
         <v>125</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>148</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>30</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>126</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>127</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
         <v>193</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
         <v>122</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
         <v>334</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
         <v>124</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
         <v>84</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>61</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>107</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
         <v>118</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>336</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
         <v>125</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
         <v>116</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>148</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
         <v>30</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
         <v>127</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
         <v>126</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
         <v>166</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
         <v>334</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>122</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
         <v>107</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>226</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>84</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
         <v>278</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>105</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>97</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>123</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
         <v>166</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
         <v>70</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>78</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>107</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>68</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
         <v>87</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
         <v>76</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
         <v>126</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
         <v>57</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
         <v>343</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
         <v>108</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
         <v>107</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
         <v>226</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
         <v>76</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
         <v>181</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>123</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>97</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
         <v>125</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
         <v>193</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
         <v>23</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
         <v>76</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
         <v>78</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
         <v>21</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
         <v>107</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
         <v>226</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
         <v>181</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>123</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
         <v>123</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>68</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
         <v>78</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
         <v>19</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>21</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
         <v>107</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
         <v>226</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>181</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>123</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
         <v>123</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>68</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
         <v>70</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
         <v>68</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>30</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>305</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
         <v>61</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
         <v>57</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
         <v>29</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
         <v>108</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
         <v>21</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
         <v>162</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
         <v>147</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
         <v>226</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
         <v>107</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
         <v>146</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
         <v>332</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
         <v>181</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
         <v>329</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
         <v>24</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
         <v>23</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
         <v>68</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
         <v>30</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
         <v>61</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
         <v>68</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
         <v>57</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="12" t="s">
         <v>61</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
         <v>108</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
         <v>147</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
         <v>332</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>23</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
         <v>24</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
         <v>298</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
         <v>19</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
         <v>57</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
         <v>78</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>61</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
         <v>30</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
         <v>70</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>87</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>107</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
         <v>298</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
         <v>61</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
         <v>308</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>122</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
         <v>108</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
         <v>70</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
         <v>61</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
         <v>21</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
         <v>147</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
         <v>90</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
         <v>332</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
         <v>308</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
         <v>181</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
         <v>123</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
         <v>329</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
         <v>31</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
         <v>131</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
         <v>327</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
         <v>24</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
         <v>23</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>298</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
         <v>23</v>
       </c>
@@ -22553,7 +22553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>308</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
         <v>30</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
         <v>57</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
         <v>61</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
         <v>107</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
         <v>126</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>61</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>108</v>
       </c>
@@ -22977,7 +22977,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
         <v>147</v>
       </c>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
         <v>90</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>332</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
         <v>131</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
         <v>23</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>275</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
         <v>107</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>361</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>295</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
         <v>215</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
         <v>174</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
         <v>127</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>228</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
         <v>190</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="12" t="s">
         <v>107</v>
       </c>
@@ -23772,7 +23772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
         <v>358</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
         <v>275</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
         <v>366</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
         <v>361</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
         <v>215</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
         <v>368</v>
       </c>
@@ -24090,7 +24090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
         <v>126</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
         <v>193</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
         <v>127</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
         <v>190</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
         <v>175</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
         <v>122</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
         <v>362</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
         <v>364</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
         <v>107</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
         <v>84</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
         <v>267</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
         <v>61</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
         <v>358</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
         <v>105</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
         <v>150</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>358</v>
       </c>
@@ -24938,7 +24938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
         <v>209</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
         <v>97</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
         <v>123</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
         <v>19</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
         <v>57</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
         <v>120</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
         <v>311</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
         <v>61</v>
       </c>
@@ -25362,7 +25362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
         <v>78</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>92</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
         <v>153</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
         <v>308</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
         <v>122</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
         <v>61</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
         <v>108</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
         <v>61</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
         <v>370</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
         <v>21</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
         <v>147</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
         <v>107</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>90</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
         <v>332</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
         <v>308</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
         <v>181</v>
       </c>
@@ -26210,7 +26210,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
         <v>97</v>
       </c>
@@ -26263,7 +26263,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
         <v>329</v>
       </c>
@@ -26316,7 +26316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
         <v>31</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
         <v>327</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
         <v>131</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
         <v>23</v>
       </c>
@@ -26528,7 +26528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
         <v>23</v>
       </c>
@@ -26581,7 +26581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
         <v>68</v>
       </c>
@@ -26634,7 +26634,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
         <v>308</v>
       </c>
@@ -26687,7 +26687,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
         <v>61</v>
       </c>
@@ -26740,7 +26740,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="12" t="s">
         <v>57</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
         <v>153</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
         <v>61</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>90</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
         <v>131</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>23</v>
       </c>
@@ -27058,7 +27058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="12" t="s">
         <v>23</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
         <v>331</v>
       </c>
@@ -27163,7 +27163,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="12" t="s">
         <v>19</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="12" t="s">
         <v>305</v>
       </c>
@@ -27267,7 +27267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="12" t="s">
         <v>108</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>61</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
         <v>370</v>
       </c>
@@ -27423,7 +27423,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>146</v>
       </c>
@@ -27475,7 +27475,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
         <v>331</v>
       </c>
@@ -27527,7 +27527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="12" t="s">
         <v>108</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="12" t="s">
         <v>298</v>
       </c>
@@ -27631,7 +27631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="12" t="s">
         <v>107</v>
       </c>
@@ -27684,7 +27684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="12" t="s">
         <v>295</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="12" t="s">
         <v>376</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="12" t="s">
         <v>378</v>
       </c>
@@ -27843,7 +27843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="12" t="s">
         <v>361</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="12" t="s">
         <v>380</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="12" t="s">
         <v>382</v>
       </c>
@@ -28002,7 +28002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="12" t="s">
         <v>215</v>
       </c>
@@ -28055,7 +28055,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
         <v>374</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="12" t="s">
         <v>107</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="12" t="s">
         <v>211</v>
       </c>
@@ -28214,7 +28214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="12" t="s">
         <v>358</v>
       </c>
@@ -28267,7 +28267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="12" t="s">
         <v>295</v>
       </c>
@@ -28320,7 +28320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="12" t="s">
         <v>383</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="12" t="s">
         <v>252</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="12" t="s">
         <v>125</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="12" t="s">
         <v>148</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="12" t="s">
         <v>282</v>
       </c>
@@ -28585,7 +28585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
         <v>107</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="12" t="s">
         <v>358</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="12" t="s">
         <v>226</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
         <v>61</v>
       </c>
@@ -28797,7 +28797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
         <v>105</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="12" t="s">
         <v>358</v>
       </c>
@@ -28903,7 +28903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="12" t="s">
         <v>209</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="12" t="s">
         <v>383</v>
       </c>
@@ -29009,7 +29009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="12" t="s">
         <v>84</v>
       </c>
@@ -29062,7 +29062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
         <v>97</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
         <v>123</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
         <v>125</v>
       </c>
@@ -29221,7 +29221,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="12" t="s">
         <v>384</v>
       </c>
@@ -29272,6 +29272,165 @@
       <c r="O516" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
         <v>14.4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A517" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B517" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C517" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D517" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E517" s="5">
+        <v>44332</v>
+      </c>
+      <c r="F517" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G517" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H517" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I517" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J517" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K517" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L517" s="12">
+        <v>0</v>
+      </c>
+      <c r="M517" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L517=0,VLOOKUP(C517,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C517,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N517" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O517" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A518" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B518" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D518" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E518" s="5">
+        <v>44332</v>
+      </c>
+      <c r="F518" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G518" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H518" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I518" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J518" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K518" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L518" s="12">
+        <v>0</v>
+      </c>
+      <c r="M518" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L518=0,VLOOKUP(C518,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C518,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N518" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O518" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A519" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B519" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C519" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D519" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E519" s="5">
+        <v>44332</v>
+      </c>
+      <c r="F519" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G519" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H519" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I519" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J519" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K519" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L519" s="12">
+        <v>0</v>
+      </c>
+      <c r="M519" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L519=0,VLOOKUP(C519,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C519,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="N519" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O519" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29292,23 +29451,23 @@
       <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29340,7 +29499,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>94</v>
       </c>
@@ -29376,7 +29535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -29412,7 +29571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -29448,7 +29607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -29484,7 +29643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -29520,7 +29679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -29556,7 +29715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -29592,7 +29751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -29628,7 +29787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -29664,7 +29823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -29700,7 +29859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -29736,7 +29895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -29772,7 +29931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -29808,7 +29967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -29844,7 +30003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -29880,7 +30039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -29916,7 +30075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -29952,7 +30111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -29988,7 +30147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -30024,7 +30183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -30060,7 +30219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -30096,7 +30255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -30132,7 +30291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -30168,7 +30327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -30204,7 +30363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -30240,7 +30399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -30276,7 +30435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -30312,7 +30471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -30348,7 +30507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -30384,7 +30543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -30420,7 +30579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -30456,7 +30615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -30492,7 +30651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -30528,7 +30687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -30564,7 +30723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -30600,7 +30759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -30636,7 +30795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -30672,7 +30831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -30708,7 +30867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -30744,7 +30903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -30780,7 +30939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -30816,7 +30975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -30852,7 +31011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -30888,7 +31047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -30924,7 +31083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -30960,7 +31119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -30996,7 +31155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -31032,7 +31191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -31068,7 +31227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -31104,7 +31263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -31140,7 +31299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -31176,7 +31335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>325</v>
       </c>
@@ -31212,7 +31371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -31248,7 +31407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -31284,7 +31443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -31320,7 +31479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -31353,7 +31512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -31389,7 +31548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -31425,7 +31584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -31461,7 +31620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -31497,7 +31656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -31533,7 +31692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -31569,7 +31728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -31605,7 +31764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -31641,7 +31800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -31677,7 +31836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -31713,7 +31872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -31749,7 +31908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -31785,7 +31944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -31821,7 +31980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -31857,7 +32016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -31893,7 +32052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -31929,7 +32088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -31965,7 +32124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -32001,7 +32160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -32037,7 +32196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -32073,7 +32232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -32109,7 +32268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>244</v>
       </c>
@@ -32145,7 +32304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -32181,7 +32340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -32217,7 +32376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -32253,7 +32412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -32289,7 +32448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -32325,7 +32484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>296</v>
       </c>
@@ -32361,7 +32520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -32397,7 +32556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -32433,7 +32592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -32469,7 +32628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -32505,7 +32664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -32541,7 +32700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -32577,7 +32736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -32613,7 +32772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -32649,7 +32808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>327</v>
       </c>
@@ -32685,7 +32844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -32721,7 +32880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -32757,7 +32916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -32793,7 +32952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -32829,7 +32988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -32865,7 +33024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -32901,7 +33060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -32937,7 +33096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -32973,7 +33132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>297</v>
       </c>
@@ -33009,7 +33168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -33045,7 +33204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -33081,7 +33240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -33117,7 +33276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -33153,7 +33312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -33189,7 +33348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -33225,7 +33384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -33261,7 +33420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>311</v>
       </c>
@@ -33297,7 +33456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -33333,7 +33492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -33369,7 +33528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -33405,7 +33564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -33441,7 +33600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -33477,7 +33636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -33513,7 +33672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -33549,7 +33708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>343</v>
       </c>
@@ -33585,7 +33744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -33621,7 +33780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -33657,7 +33816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -33690,7 +33849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -33726,7 +33885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -33762,7 +33921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -33798,7 +33957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -33834,7 +33993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -33870,7 +34029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>329</v>
       </c>
@@ -33906,7 +34065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -33942,7 +34101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -33978,7 +34137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -34014,7 +34173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -34050,7 +34209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -34086,7 +34245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -34122,7 +34281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -34158,7 +34317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -34194,7 +34353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -34230,7 +34389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -34266,7 +34425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -34302,7 +34461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -34338,7 +34497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -34374,7 +34533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -34410,7 +34569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -34446,7 +34605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>338</v>
       </c>
@@ -34482,7 +34641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>338</v>
       </c>
@@ -34518,7 +34677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -34554,7 +34713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -34590,7 +34749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -34626,7 +34785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>29</v>
       </c>
@@ -34662,7 +34821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -34698,7 +34857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -34734,7 +34893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -34770,7 +34929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -34806,7 +34965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>273</v>
       </c>
@@ -34842,7 +35001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>275</v>
       </c>
@@ -34878,7 +35037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -34914,7 +35073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -34950,7 +35109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -34986,7 +35145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>293</v>
       </c>
@@ -35022,7 +35181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -35058,7 +35217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -35094,7 +35253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -35130,7 +35289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -35166,7 +35325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -35202,7 +35361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -35238,7 +35397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>278</v>
       </c>
@@ -35274,7 +35433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>107</v>
       </c>
@@ -35310,7 +35469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -35346,7 +35505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>107</v>
       </c>
@@ -35382,7 +35541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -35418,7 +35577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>131</v>
       </c>
@@ -35454,7 +35613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -35490,7 +35649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -35526,7 +35685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>108</v>
       </c>
@@ -35562,7 +35721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>282</v>
       </c>
@@ -35598,7 +35757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -35634,7 +35793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>280</v>
       </c>
@@ -35670,7 +35829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -35706,7 +35865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -35742,7 +35901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>305</v>
       </c>
@@ -35778,7 +35937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -35814,7 +35973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -35850,7 +36009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -35886,7 +36045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>362</v>
       </c>
@@ -35922,7 +36081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>364</v>
       </c>
@@ -35958,7 +36117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>366</v>
       </c>
@@ -35994,7 +36153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>368</v>
       </c>
@@ -36030,7 +36189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>370</v>
       </c>
@@ -36066,7 +36225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>374</v>
       </c>
@@ -36102,7 +36261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>376</v>
       </c>
@@ -36136,7 +36295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>378</v>
       </c>
@@ -36170,7 +36329,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>380</v>
       </c>
@@ -36204,7 +36363,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>382</v>
       </c>
@@ -36238,7 +36397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>383</v>
       </c>
@@ -36272,7 +36431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>384</v>
       </c>
@@ -36323,16 +36482,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36349,7 +36508,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -36366,7 +36525,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -36383,7 +36542,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -36400,7 +36559,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -36417,7 +36576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -36434,7 +36593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -36451,7 +36610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -36468,7 +36627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -36485,7 +36644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -36502,7 +36661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -36519,7 +36678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -36536,7 +36695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -36553,7 +36712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -36570,7 +36729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -36587,7 +36746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -36604,7 +36763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -36621,7 +36780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -36638,7 +36797,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -36655,7 +36814,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -36672,7 +36831,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -36689,7 +36848,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -36706,7 +36865,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -36723,7 +36882,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -36740,7 +36899,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -36757,7 +36916,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -36774,7 +36933,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -36791,7 +36950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -36808,7 +36967,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -36825,7 +36984,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -36842,7 +37001,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -36859,7 +37018,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -36876,7 +37035,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -36893,7 +37052,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -36910,7 +37069,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -36927,7 +37086,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -36944,7 +37103,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -36961,7 +37120,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -36978,7 +37137,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -36995,7 +37154,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -37012,7 +37171,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -37029,7 +37188,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -37046,7 +37205,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -37063,7 +37222,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -37080,7 +37239,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -37097,7 +37256,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -37114,7 +37273,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -37131,7 +37290,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -37148,7 +37307,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -37165,7 +37324,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -37182,7 +37341,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -37199,7 +37358,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -37216,7 +37375,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -37233,7 +37392,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -37250,7 +37409,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -37267,7 +37426,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -37284,7 +37443,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -37301,7 +37460,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -37318,7 +37477,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -37335,7 +37494,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -37352,7 +37511,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -37369,7 +37528,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -37386,7 +37545,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -37403,7 +37562,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -37420,7 +37579,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -37437,7 +37596,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -37454,7 +37613,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>66</v>
       </c>
@@ -37462,7 +37621,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>67</v>
       </c>
@@ -37470,7 +37629,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>68</v>
       </c>
@@ -37478,7 +37637,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>69</v>
       </c>
@@ -37486,7 +37645,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>70</v>
       </c>
@@ -37494,7 +37653,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>71</v>
       </c>
@@ -37502,7 +37661,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>72</v>
       </c>
@@ -37510,7 +37669,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>73</v>
       </c>
@@ -37518,7 +37677,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>74</v>
       </c>
@@ -37526,7 +37685,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>75</v>
       </c>
@@ -37534,7 +37693,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>76</v>
       </c>
@@ -37542,7 +37701,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>77</v>
       </c>
@@ -37550,7 +37709,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>78</v>
       </c>
@@ -37558,7 +37717,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>79</v>
       </c>
@@ -37566,7 +37725,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>80</v>
       </c>
@@ -37574,7 +37733,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>81</v>
       </c>
@@ -37582,7 +37741,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>82</v>
       </c>
@@ -37590,7 +37749,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>83</v>
       </c>
@@ -37598,7 +37757,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>84</v>
       </c>
@@ -37606,7 +37765,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>85</v>
       </c>
@@ -37614,7 +37773,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>86</v>
       </c>
@@ -37622,7 +37781,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>87</v>
       </c>
@@ -37630,7 +37789,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>88</v>
       </c>
@@ -37638,7 +37797,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>89</v>
       </c>
@@ -37646,7 +37805,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>90</v>
       </c>
@@ -37654,7 +37813,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>91</v>
       </c>
@@ -37662,7 +37821,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>92</v>
       </c>
@@ -37670,7 +37829,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>93</v>
       </c>
@@ -37678,7 +37837,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>94</v>
       </c>
@@ -37686,7 +37845,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>95</v>
       </c>
@@ -37694,7 +37853,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>96</v>
       </c>
@@ -37702,7 +37861,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>97</v>
       </c>
@@ -37710,7 +37869,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>98</v>
       </c>
@@ -37718,7 +37877,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>99</v>
       </c>
@@ -37726,7 +37885,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>100</v>
       </c>
@@ -37734,7 +37893,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>101</v>
       </c>
@@ -37742,7 +37901,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>102</v>
       </c>
@@ -37750,7 +37909,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>103</v>
       </c>
@@ -37758,7 +37917,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105">
         <v>104</v>
       </c>
@@ -37766,7 +37925,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>105</v>
       </c>
@@ -37774,7 +37933,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107">
         <v>106</v>
       </c>
@@ -37782,7 +37941,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108">
         <v>107</v>
       </c>
@@ -37790,7 +37949,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109">
         <v>108</v>
       </c>
@@ -37798,7 +37957,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110">
         <v>109</v>
       </c>
@@ -37806,7 +37965,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111">
         <v>110</v>
       </c>
@@ -37814,7 +37973,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112">
         <v>111</v>
       </c>
@@ -37822,7 +37981,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>112</v>
       </c>
@@ -37830,7 +37989,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>113</v>
       </c>
@@ -37838,7 +37997,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>114</v>
       </c>
@@ -37846,7 +38005,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116">
         <v>115</v>
       </c>
@@ -37854,7 +38013,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117">
         <v>116</v>
       </c>
@@ -37862,7 +38021,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E118">
         <v>117</v>
       </c>
@@ -37870,7 +38029,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>118</v>
       </c>
@@ -37878,7 +38037,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>119</v>
       </c>
@@ -37886,7 +38045,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121">
         <v>120</v>
       </c>
@@ -37894,7 +38053,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122">
         <v>121</v>
       </c>
@@ -37902,7 +38061,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123">
         <v>122</v>
       </c>
@@ -37910,7 +38069,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E124">
         <v>123</v>
       </c>
@@ -37918,7 +38077,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>124</v>
       </c>
@@ -37926,7 +38085,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>125</v>
       </c>
@@ -37934,7 +38093,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>126</v>
       </c>
@@ -37942,7 +38101,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>127</v>
       </c>
@@ -37950,7 +38109,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>128</v>
       </c>
@@ -37958,7 +38117,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>17</v>
       </c>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED090F-E354-40BB-8B5B-C1916EE7191B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350BDA9-0FE8-466A-928B-769CE19ECAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="393">
   <si>
     <t>Ranking</t>
   </si>
@@ -1205,6 +1205,27 @@
   <si>
     <t>Hannah</t>
   </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Liwanen</t>
+  </si>
+  <si>
+    <t>Jankovic</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Munneke</t>
+  </si>
+  <si>
+    <t>Cabe</t>
+  </si>
 </sst>
 </file>
 
@@ -1501,8 +1522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O519" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:O519" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:O554" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:O554" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O516">
     <sortCondition ref="E2:E516"/>
     <sortCondition ref="H2:H516"/>
@@ -1562,8 +1583,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H195" totalsRowShown="0">
-  <autoFilter ref="A1:H195" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H200" totalsRowShown="0">
+  <autoFilter ref="A1:H200" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H180">
     <sortCondition ref="A2:A180"/>
     <sortCondition ref="B2:B180"/>
@@ -1923,36 +1944,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O519"/>
+  <dimension ref="A1:O554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
+      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="3"/>
-    <col min="17" max="17" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="3"/>
+    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="3"/>
+    <col min="17" max="17" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>261</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2155,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2259,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2363,7 +2384,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
         <v>13</v>
@@ -2404,7 +2425,7 @@
       </c>
       <c r="M9" s="23">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L9=0,VLOOKUP(C9,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C9,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N9" s="23">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -2412,10 +2433,10 @@
       </c>
       <c r="O9" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>190</v>
       </c>
@@ -2520,7 +2541,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>292</v>
       </c>
@@ -2573,7 +2594,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>192</v>
       </c>
@@ -2626,7 +2647,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>293</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>124</v>
       </c>
@@ -2732,7 +2753,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>280</v>
       </c>
@@ -2785,7 +2806,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
@@ -2838,7 +2859,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>247</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>125</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>148</v>
       </c>
@@ -2997,7 +3018,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>174</v>
       </c>
@@ -3050,7 +3071,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3103,7 +3124,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3156,7 +3177,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -3209,7 +3230,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -3262,7 +3283,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3315,7 +3336,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -3368,7 +3389,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -3474,7 +3495,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -3527,7 +3548,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>118</v>
       </c>
@@ -3633,7 +3654,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
@@ -3686,7 +3707,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>116</v>
       </c>
@@ -3739,7 +3760,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>98</v>
       </c>
@@ -3792,7 +3813,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>30</v>
       </c>
@@ -3845,7 +3866,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>126</v>
       </c>
@@ -3898,7 +3919,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>122</v>
       </c>
@@ -3951,7 +3972,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>124</v>
       </c>
@@ -4004,7 +4025,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>192</v>
       </c>
@@ -4110,7 +4131,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -4163,7 +4184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -4216,7 +4237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -4269,7 +4290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4322,7 +4343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -4375,7 +4396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -4428,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4534,7 +4555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -4587,7 +4608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -4640,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -4692,7 +4713,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>120</v>
       </c>
@@ -4745,7 +4766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>311</v>
       </c>
@@ -4798,7 +4819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>19</v>
       </c>
@@ -4851,7 +4872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>61</v>
       </c>
@@ -4904,7 +4925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>159</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>30</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>70</v>
       </c>
@@ -5063,7 +5084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>57</v>
       </c>
@@ -5116,7 +5137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>87</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>78</v>
       </c>
@@ -5222,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>68</v>
       </c>
@@ -5275,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>305</v>
       </c>
@@ -5328,7 +5349,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
@@ -5381,7 +5402,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>308</v>
       </c>
@@ -5434,7 +5455,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>108</v>
       </c>
@@ -5487,7 +5508,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>21</v>
       </c>
@@ -5540,7 +5561,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>147</v>
       </c>
@@ -5593,7 +5614,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>107</v>
       </c>
@@ -5646,7 +5667,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
@@ -5699,7 +5720,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>308</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>181</v>
       </c>
@@ -5805,7 +5826,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>199</v>
       </c>
@@ -5858,7 +5879,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>31</v>
       </c>
@@ -5911,7 +5932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>23</v>
       </c>
@@ -5964,7 +5985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>23</v>
       </c>
@@ -6017,7 +6038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>78</v>
       </c>
@@ -6070,7 +6091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>24</v>
       </c>
@@ -6123,7 +6144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>153</v>
       </c>
@@ -6176,7 +6197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>68</v>
       </c>
@@ -6229,7 +6250,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>57</v>
       </c>
@@ -6282,7 +6303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>61</v>
       </c>
@@ -6335,7 +6356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>68</v>
       </c>
@@ -6388,7 +6409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
@@ -6441,7 +6462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>107</v>
       </c>
@@ -6494,7 +6515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>159</v>
       </c>
@@ -6547,7 +6568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>126</v>
       </c>
@@ -6600,7 +6621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>153</v>
       </c>
@@ -6653,7 +6674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>61</v>
       </c>
@@ -6706,7 +6727,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>22</v>
       </c>
@@ -6759,7 +6780,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>108</v>
       </c>
@@ -6812,7 +6833,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>147</v>
       </c>
@@ -6865,7 +6886,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>90</v>
       </c>
@@ -6918,7 +6939,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>23</v>
       </c>
@@ -6971,7 +6992,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>24</v>
       </c>
@@ -7024,7 +7045,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>153</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>19</v>
       </c>
@@ -7130,7 +7151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>19</v>
       </c>
@@ -7183,7 +7204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>30</v>
       </c>
@@ -7236,7 +7257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>70</v>
       </c>
@@ -7289,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>57</v>
       </c>
@@ -7342,7 +7363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>331</v>
       </c>
@@ -7395,7 +7416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>61</v>
       </c>
@@ -7448,7 +7469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>78</v>
       </c>
@@ -7501,7 +7522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>84</v>
       </c>
@@ -7554,7 +7575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>68</v>
       </c>
@@ -7607,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>107</v>
       </c>
@@ -7660,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>61</v>
       </c>
@@ -7713,7 +7734,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>179</v>
       </c>
@@ -7766,7 +7787,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>108</v>
       </c>
@@ -7819,7 +7840,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>162</v>
       </c>
@@ -7872,7 +7893,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>21</v>
       </c>
@@ -7925,7 +7946,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>147</v>
       </c>
@@ -7978,7 +7999,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>107</v>
       </c>
@@ -8031,7 +8052,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>146</v>
       </c>
@@ -8084,7 +8105,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>181</v>
       </c>
@@ -8137,7 +8158,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>24</v>
       </c>
@@ -8190,7 +8211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>23</v>
       </c>
@@ -8243,7 +8264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>78</v>
       </c>
@@ -8296,7 +8317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>23</v>
       </c>
@@ -8349,7 +8370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>153</v>
       </c>
@@ -8402,7 +8423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>68</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>30</v>
       </c>
@@ -8508,7 +8529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>61</v>
       </c>
@@ -8561,7 +8582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>84</v>
       </c>
@@ -8614,7 +8635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>68</v>
       </c>
@@ -8667,7 +8688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>57</v>
       </c>
@@ -8720,7 +8741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>107</v>
       </c>
@@ -8773,7 +8794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>126</v>
       </c>
@@ -8826,7 +8847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>153</v>
       </c>
@@ -8879,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>61</v>
       </c>
@@ -8932,7 +8953,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>108</v>
       </c>
@@ -8985,7 +9006,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>162</v>
       </c>
@@ -9038,7 +9059,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>147</v>
       </c>
@@ -9091,7 +9112,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>24</v>
       </c>
@@ -9144,7 +9165,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>23</v>
       </c>
@@ -9197,7 +9218,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>153</v>
       </c>
@@ -9250,7 +9271,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>70</v>
       </c>
@@ -9303,7 +9324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>87</v>
       </c>
@@ -9356,7 +9377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>325</v>
       </c>
@@ -9409,7 +9430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>68</v>
       </c>
@@ -9462,7 +9483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>92</v>
       </c>
@@ -9515,7 +9536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>126</v>
       </c>
@@ -9568,7 +9589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>107</v>
       </c>
@@ -9621,7 +9642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>76</v>
       </c>
@@ -9674,7 +9695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>30</v>
       </c>
@@ -9727,7 +9748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>122</v>
       </c>
@@ -9780,7 +9801,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>166</v>
       </c>
@@ -9833,7 +9854,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>108</v>
       </c>
@@ -9886,7 +9907,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>205</v>
       </c>
@@ -9939,7 +9960,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>282</v>
       </c>
@@ -9992,7 +10013,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>107</v>
       </c>
@@ -10045,7 +10066,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>226</v>
       </c>
@@ -10098,7 +10119,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>181</v>
       </c>
@@ -10151,7 +10172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>97</v>
       </c>
@@ -10204,7 +10225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>123</v>
       </c>
@@ -10257,7 +10278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>199</v>
       </c>
@@ -10310,7 +10331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>125</v>
       </c>
@@ -10363,7 +10384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>329</v>
       </c>
@@ -10416,7 +10437,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>327</v>
       </c>
@@ -10469,7 +10490,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>61</v>
       </c>
@@ -10522,7 +10543,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>70</v>
       </c>
@@ -10575,7 +10596,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>282</v>
       </c>
@@ -10628,7 +10649,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>21</v>
       </c>
@@ -10681,7 +10702,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>107</v>
       </c>
@@ -10734,7 +10755,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>181</v>
       </c>
@@ -10787,7 +10808,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>123</v>
       </c>
@@ -10840,7 +10861,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>31</v>
       </c>
@@ -10893,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>19</v>
       </c>
@@ -10946,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>78</v>
       </c>
@@ -10999,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -11052,7 +11073,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>282</v>
       </c>
@@ -11105,7 +11126,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>107</v>
       </c>
@@ -11158,7 +11179,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>21</v>
       </c>
@@ -11211,7 +11232,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>181</v>
       </c>
@@ -11264,7 +11285,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>123</v>
       </c>
@@ -11317,7 +11338,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>199</v>
       </c>
@@ -11370,7 +11391,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>31</v>
       </c>
@@ -11423,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>175</v>
       </c>
@@ -11476,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>247</v>
       </c>
@@ -11529,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>107</v>
       </c>
@@ -11582,7 +11603,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>275</v>
       </c>
@@ -11635,7 +11656,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>125</v>
       </c>
@@ -11688,7 +11709,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>148</v>
       </c>
@@ -11741,7 +11762,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>174</v>
       </c>
@@ -11794,7 +11815,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>215</v>
       </c>
@@ -11847,7 +11868,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>30</v>
       </c>
@@ -11900,7 +11921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>126</v>
       </c>
@@ -11953,7 +11974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>127</v>
       </c>
@@ -12006,7 +12027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>193</v>
       </c>
@@ -12059,7 +12080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>129</v>
       </c>
@@ -12112,7 +12133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>247</v>
       </c>
@@ -12165,7 +12186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>122</v>
       </c>
@@ -12218,7 +12239,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>61</v>
       </c>
@@ -12271,7 +12292,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>84</v>
       </c>
@@ -12324,7 +12345,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>107</v>
       </c>
@@ -12377,7 +12398,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>125</v>
       </c>
@@ -12430,7 +12451,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>30</v>
       </c>
@@ -12483,7 +12504,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>126</v>
       </c>
@@ -12536,7 +12557,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>122</v>
       </c>
@@ -12589,7 +12610,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>166</v>
       </c>
@@ -12642,7 +12663,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>107</v>
       </c>
@@ -12695,7 +12716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>84</v>
       </c>
@@ -12748,7 +12769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>226</v>
       </c>
@@ -12801,7 +12822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>150</v>
       </c>
@@ -12854,7 +12875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>105</v>
       </c>
@@ -12907,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>278</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>123</v>
       </c>
@@ -13013,7 +13034,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>166</v>
       </c>
@@ -13066,7 +13087,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>97</v>
       </c>
@@ -13119,7 +13140,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>120</v>
       </c>
@@ -13172,7 +13193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>19</v>
       </c>
@@ -13225,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>78</v>
       </c>
@@ -13278,7 +13299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>61</v>
       </c>
@@ -13331,7 +13352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>70</v>
       </c>
@@ -13384,7 +13405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>311</v>
       </c>
@@ -13437,7 +13458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>331</v>
       </c>
@@ -13490,7 +13511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>19</v>
       </c>
@@ -13543,7 +13564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>68</v>
       </c>
@@ -13596,7 +13617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>107</v>
       </c>
@@ -13649,7 +13670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>61</v>
       </c>
@@ -13702,7 +13723,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>122</v>
       </c>
@@ -13755,7 +13776,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>108</v>
       </c>
@@ -13808,7 +13829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>70</v>
       </c>
@@ -13861,7 +13882,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>21</v>
       </c>
@@ -13914,7 +13935,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>107</v>
       </c>
@@ -13967,7 +13988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>146</v>
       </c>
@@ -14020,7 +14041,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>332</v>
       </c>
@@ -14073,7 +14094,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
         <v>181</v>
       </c>
@@ -14126,7 +14147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>329</v>
       </c>
@@ -14179,7 +14200,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>23</v>
       </c>
@@ -14232,7 +14253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>298</v>
       </c>
@@ -14285,7 +14306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>23</v>
       </c>
@@ -14338,7 +14359,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>68</v>
       </c>
@@ -14391,7 +14412,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>61</v>
       </c>
@@ -14444,7 +14465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>68</v>
       </c>
@@ -14497,7 +14518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>30</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>107</v>
       </c>
@@ -14603,7 +14624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>126</v>
       </c>
@@ -14656,7 +14677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>61</v>
       </c>
@@ -14709,7 +14730,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>57</v>
       </c>
@@ -14762,7 +14783,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>108</v>
       </c>
@@ -14815,7 +14836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>107</v>
       </c>
@@ -14868,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>332</v>
       </c>
@@ -14921,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>24</v>
       </c>
@@ -14974,7 +14995,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>298</v>
       </c>
@@ -15027,7 +15048,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>23</v>
       </c>
@@ -15080,7 +15101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
         <v>23</v>
       </c>
@@ -15133,7 +15154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>190</v>
       </c>
@@ -15186,7 +15207,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
         <v>228</v>
       </c>
@@ -15239,7 +15260,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
         <v>340</v>
       </c>
@@ -15292,7 +15313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>124</v>
       </c>
@@ -15345,7 +15366,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>342</v>
       </c>
@@ -15398,7 +15419,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>107</v>
       </c>
@@ -15451,7 +15472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
         <v>211</v>
       </c>
@@ -15504,7 +15525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
         <v>338</v>
       </c>
@@ -15557,7 +15578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
         <v>275</v>
       </c>
@@ -15610,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
         <v>338</v>
       </c>
@@ -15663,7 +15684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="s">
         <v>125</v>
       </c>
@@ -15716,7 +15737,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>148</v>
       </c>
@@ -15769,7 +15790,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>30</v>
       </c>
@@ -15822,7 +15843,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
         <v>126</v>
       </c>
@@ -15875,7 +15896,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>127</v>
       </c>
@@ -15928,7 +15949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>193</v>
       </c>
@@ -15981,7 +16002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
         <v>122</v>
       </c>
@@ -16034,7 +16055,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
         <v>334</v>
       </c>
@@ -16087,7 +16108,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="12" t="s">
         <v>124</v>
       </c>
@@ -16140,7 +16161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
         <v>84</v>
       </c>
@@ -16193,7 +16214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
         <v>61</v>
       </c>
@@ -16246,7 +16267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>107</v>
       </c>
@@ -16299,7 +16320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="12" t="s">
         <v>118</v>
       </c>
@@ -16352,7 +16373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>336</v>
       </c>
@@ -16405,7 +16426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
         <v>125</v>
       </c>
@@ -16458,7 +16479,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>116</v>
       </c>
@@ -16511,7 +16532,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
         <v>148</v>
       </c>
@@ -16564,7 +16585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
         <v>30</v>
       </c>
@@ -16617,7 +16638,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
         <v>127</v>
       </c>
@@ -16670,7 +16691,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>126</v>
       </c>
@@ -16723,7 +16744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
         <v>166</v>
       </c>
@@ -16776,7 +16797,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>334</v>
       </c>
@@ -16829,7 +16850,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
         <v>122</v>
       </c>
@@ -16882,7 +16903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
         <v>107</v>
       </c>
@@ -16935,7 +16956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
         <v>226</v>
       </c>
@@ -16988,7 +17009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
         <v>84</v>
       </c>
@@ -17041,7 +17062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="12" t="s">
         <v>278</v>
       </c>
@@ -17094,7 +17115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="12" t="s">
         <v>105</v>
       </c>
@@ -17147,7 +17168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
         <v>97</v>
       </c>
@@ -17200,7 +17221,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>123</v>
       </c>
@@ -17253,7 +17274,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>166</v>
       </c>
@@ -17306,7 +17327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
         <v>70</v>
       </c>
@@ -17359,7 +17380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="12" t="s">
         <v>78</v>
       </c>
@@ -17412,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>107</v>
       </c>
@@ -17465,7 +17486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>68</v>
       </c>
@@ -17518,7 +17539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
         <v>87</v>
       </c>
@@ -17571,7 +17592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
         <v>76</v>
       </c>
@@ -17624,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>126</v>
       </c>
@@ -17677,7 +17698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="12" t="s">
         <v>57</v>
       </c>
@@ -17730,7 +17751,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
         <v>343</v>
       </c>
@@ -17783,7 +17804,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
         <v>108</v>
       </c>
@@ -17836,7 +17857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
         <v>107</v>
       </c>
@@ -17889,7 +17910,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
         <v>226</v>
       </c>
@@ -17942,7 +17963,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
         <v>76</v>
       </c>
@@ -17995,7 +18016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
         <v>181</v>
       </c>
@@ -18048,7 +18069,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
         <v>123</v>
       </c>
@@ -18101,7 +18122,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
         <v>97</v>
       </c>
@@ -18154,7 +18175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
         <v>125</v>
       </c>
@@ -18207,7 +18228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="12" t="s">
         <v>193</v>
       </c>
@@ -18260,7 +18281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
         <v>23</v>
       </c>
@@ -18313,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="12" t="s">
         <v>76</v>
       </c>
@@ -18366,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
         <v>78</v>
       </c>
@@ -18419,7 +18440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="12" t="s">
         <v>21</v>
       </c>
@@ -18472,7 +18493,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
         <v>107</v>
       </c>
@@ -18525,7 +18546,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="12" t="s">
         <v>226</v>
       </c>
@@ -18578,7 +18599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="12" t="s">
         <v>181</v>
       </c>
@@ -18631,7 +18652,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="12" t="s">
         <v>123</v>
       </c>
@@ -18684,7 +18705,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
         <v>123</v>
       </c>
@@ -18737,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="12" t="s">
         <v>68</v>
       </c>
@@ -18790,7 +18811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="12" t="s">
         <v>78</v>
       </c>
@@ -18843,7 +18864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="12" t="s">
         <v>19</v>
       </c>
@@ -18896,7 +18917,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
         <v>21</v>
       </c>
@@ -18949,7 +18970,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="12" t="s">
         <v>107</v>
       </c>
@@ -19002,7 +19023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
         <v>226</v>
       </c>
@@ -19055,7 +19076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="12" t="s">
         <v>181</v>
       </c>
@@ -19108,7 +19129,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="12" t="s">
         <v>123</v>
       </c>
@@ -19161,7 +19182,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="12" t="s">
         <v>123</v>
       </c>
@@ -19214,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="12" t="s">
         <v>68</v>
       </c>
@@ -19267,7 +19288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -19320,7 +19341,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="12" t="s">
         <v>70</v>
       </c>
@@ -19373,7 +19394,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="12" t="s">
         <v>68</v>
       </c>
@@ -19426,7 +19447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="12" t="s">
         <v>30</v>
       </c>
@@ -19479,7 +19500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="12" t="s">
         <v>305</v>
       </c>
@@ -19532,7 +19553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="12" t="s">
         <v>61</v>
       </c>
@@ -19585,7 +19606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="12" t="s">
         <v>57</v>
       </c>
@@ -19638,7 +19659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="12" t="s">
         <v>29</v>
       </c>
@@ -19691,7 +19712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="12" t="s">
         <v>108</v>
       </c>
@@ -19744,7 +19765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="12" t="s">
         <v>21</v>
       </c>
@@ -19797,7 +19818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>162</v>
       </c>
@@ -19850,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="12" t="s">
         <v>147</v>
       </c>
@@ -19903,7 +19924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>226</v>
       </c>
@@ -19956,7 +19977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="12" t="s">
         <v>107</v>
       </c>
@@ -20009,7 +20030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="12" t="s">
         <v>146</v>
       </c>
@@ -20062,7 +20083,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="12" t="s">
         <v>332</v>
       </c>
@@ -20115,7 +20136,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="12" t="s">
         <v>181</v>
       </c>
@@ -20168,7 +20189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="12" t="s">
         <v>329</v>
       </c>
@@ -20221,7 +20242,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="12" t="s">
         <v>24</v>
       </c>
@@ -20274,7 +20295,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="12" t="s">
         <v>23</v>
       </c>
@@ -20327,7 +20348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="12" t="s">
         <v>68</v>
       </c>
@@ -20380,7 +20401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="12" t="s">
         <v>30</v>
       </c>
@@ -20433,7 +20454,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="12" t="s">
         <v>61</v>
       </c>
@@ -20486,7 +20507,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="12" t="s">
         <v>68</v>
       </c>
@@ -20539,7 +20560,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="12" t="s">
         <v>57</v>
       </c>
@@ -20592,7 +20613,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="12" t="s">
         <v>61</v>
       </c>
@@ -20645,7 +20666,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="12" t="s">
         <v>108</v>
       </c>
@@ -20698,7 +20719,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="12" t="s">
         <v>147</v>
       </c>
@@ -20751,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="12" t="s">
         <v>332</v>
       </c>
@@ -20804,7 +20825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="12" t="s">
         <v>23</v>
       </c>
@@ -20857,7 +20878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="12" t="s">
         <v>24</v>
       </c>
@@ -20910,7 +20931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="12" t="s">
         <v>298</v>
       </c>
@@ -20963,7 +20984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="12" t="s">
         <v>19</v>
       </c>
@@ -21016,7 +21037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="12" t="s">
         <v>57</v>
       </c>
@@ -21069,7 +21090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="12" t="s">
         <v>78</v>
       </c>
@@ -21122,7 +21143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="12" t="s">
         <v>61</v>
       </c>
@@ -21175,7 +21196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="12" t="s">
         <v>30</v>
       </c>
@@ -21228,7 +21249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="12" t="s">
         <v>70</v>
       </c>
@@ -21281,7 +21302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="12" t="s">
         <v>87</v>
       </c>
@@ -21334,7 +21355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="12" t="s">
         <v>107</v>
       </c>
@@ -21387,7 +21408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="12" t="s">
         <v>298</v>
       </c>
@@ -21440,7 +21461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="12" t="s">
         <v>61</v>
       </c>
@@ -21493,7 +21514,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="12" t="s">
         <v>308</v>
       </c>
@@ -21546,7 +21567,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="12" t="s">
         <v>122</v>
       </c>
@@ -21599,7 +21620,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="12" t="s">
         <v>108</v>
       </c>
@@ -21652,7 +21673,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="12" t="s">
         <v>70</v>
       </c>
@@ -21705,7 +21726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="12" t="s">
         <v>61</v>
       </c>
@@ -21758,7 +21779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="12" t="s">
         <v>21</v>
       </c>
@@ -21811,7 +21832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="12" t="s">
         <v>147</v>
       </c>
@@ -21864,7 +21885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="12" t="s">
         <v>90</v>
       </c>
@@ -21917,7 +21938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="12" t="s">
         <v>332</v>
       </c>
@@ -21970,7 +21991,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="12" t="s">
         <v>308</v>
       </c>
@@ -22023,7 +22044,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="12" t="s">
         <v>181</v>
       </c>
@@ -22076,7 +22097,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="12" t="s">
         <v>123</v>
       </c>
@@ -22129,7 +22150,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="12" t="s">
         <v>329</v>
       </c>
@@ -22182,7 +22203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="12" t="s">
         <v>31</v>
       </c>
@@ -22235,7 +22256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="12" t="s">
         <v>131</v>
       </c>
@@ -22288,7 +22309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="12" t="s">
         <v>327</v>
       </c>
@@ -22341,7 +22362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="12" t="s">
         <v>24</v>
       </c>
@@ -22394,7 +22415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="12" t="s">
         <v>23</v>
       </c>
@@ -22447,7 +22468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="12" t="s">
         <v>298</v>
       </c>
@@ -22500,7 +22521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="12" t="s">
         <v>23</v>
       </c>
@@ -22553,7 +22574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="12" t="s">
         <v>308</v>
       </c>
@@ -22606,7 +22627,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="12" t="s">
         <v>30</v>
       </c>
@@ -22659,7 +22680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="12" t="s">
         <v>57</v>
       </c>
@@ -22712,7 +22733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="12" t="s">
         <v>61</v>
       </c>
@@ -22765,7 +22786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="12" t="s">
         <v>107</v>
       </c>
@@ -22818,7 +22839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="12" t="s">
         <v>126</v>
       </c>
@@ -22871,7 +22892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="12" t="s">
         <v>61</v>
       </c>
@@ -22924,7 +22945,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="12" t="s">
         <v>108</v>
       </c>
@@ -22977,7 +22998,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="12" t="s">
         <v>147</v>
       </c>
@@ -23030,7 +23051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="12" t="s">
         <v>90</v>
       </c>
@@ -23083,7 +23104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="12" t="s">
         <v>332</v>
       </c>
@@ -23136,7 +23157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="12" t="s">
         <v>131</v>
       </c>
@@ -23189,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="12" t="s">
         <v>23</v>
       </c>
@@ -23242,7 +23263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="12" t="s">
         <v>275</v>
       </c>
@@ -23295,7 +23316,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="12" t="s">
         <v>107</v>
       </c>
@@ -23348,7 +23369,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="12" t="s">
         <v>361</v>
       </c>
@@ -23401,7 +23422,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="12" t="s">
         <v>295</v>
       </c>
@@ -23454,7 +23475,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="12" t="s">
         <v>215</v>
       </c>
@@ -23507,7 +23528,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="12" t="s">
         <v>174</v>
       </c>
@@ -23560,7 +23581,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="12" t="s">
         <v>127</v>
       </c>
@@ -23613,7 +23634,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="12" t="s">
         <v>228</v>
       </c>
@@ -23666,7 +23687,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="12" t="s">
         <v>190</v>
       </c>
@@ -23719,7 +23740,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="12" t="s">
         <v>107</v>
       </c>
@@ -23772,7 +23793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="12" t="s">
         <v>358</v>
       </c>
@@ -23825,7 +23846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="12" t="s">
         <v>275</v>
       </c>
@@ -23878,7 +23899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="12" t="s">
         <v>366</v>
       </c>
@@ -23931,7 +23952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="12" t="s">
         <v>361</v>
       </c>
@@ -23984,7 +24005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="12" t="s">
         <v>215</v>
       </c>
@@ -24037,7 +24058,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="12" t="s">
         <v>368</v>
       </c>
@@ -24090,7 +24111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="12" t="s">
         <v>126</v>
       </c>
@@ -24143,7 +24164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="12" t="s">
         <v>193</v>
       </c>
@@ -24196,7 +24217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="12" t="s">
         <v>127</v>
       </c>
@@ -24249,7 +24270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="12" t="s">
         <v>190</v>
       </c>
@@ -24302,7 +24323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="12" t="s">
         <v>175</v>
       </c>
@@ -24355,7 +24376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="12" t="s">
         <v>122</v>
       </c>
@@ -24408,7 +24429,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="12" t="s">
         <v>362</v>
       </c>
@@ -24461,7 +24482,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="12" t="s">
         <v>364</v>
       </c>
@@ -24514,7 +24535,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="12" t="s">
         <v>107</v>
       </c>
@@ -24567,7 +24588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="12" t="s">
         <v>84</v>
       </c>
@@ -24620,7 +24641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="12" t="s">
         <v>267</v>
       </c>
@@ -24673,7 +24694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="12" t="s">
         <v>61</v>
       </c>
@@ -24726,7 +24747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="12" t="s">
         <v>358</v>
       </c>
@@ -24779,7 +24800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="12" t="s">
         <v>105</v>
       </c>
@@ -24832,7 +24853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="12" t="s">
         <v>150</v>
       </c>
@@ -24885,7 +24906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="12" t="s">
         <v>358</v>
       </c>
@@ -24938,7 +24959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="12" t="s">
         <v>209</v>
       </c>
@@ -24991,7 +25012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="12" t="s">
         <v>97</v>
       </c>
@@ -25044,7 +25065,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="12" t="s">
         <v>123</v>
       </c>
@@ -25097,7 +25118,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="12" t="s">
         <v>19</v>
       </c>
@@ -25150,7 +25171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="12" t="s">
         <v>57</v>
       </c>
@@ -25203,7 +25224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="12" t="s">
         <v>120</v>
       </c>
@@ -25256,7 +25277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="12" t="s">
         <v>311</v>
       </c>
@@ -25309,7 +25330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="12" t="s">
         <v>61</v>
       </c>
@@ -25362,7 +25383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="12" t="s">
         <v>78</v>
       </c>
@@ -25415,7 +25436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="12" t="s">
         <v>92</v>
       </c>
@@ -25468,7 +25489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="12" t="s">
         <v>153</v>
       </c>
@@ -25521,7 +25542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="12" t="s">
         <v>308</v>
       </c>
@@ -25574,7 +25595,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="12" t="s">
         <v>122</v>
       </c>
@@ -25627,7 +25648,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="12" t="s">
         <v>61</v>
       </c>
@@ -25680,7 +25701,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="12" t="s">
         <v>108</v>
       </c>
@@ -25733,7 +25754,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="12" t="s">
         <v>61</v>
       </c>
@@ -25786,7 +25807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="12" t="s">
         <v>370</v>
       </c>
@@ -25839,7 +25860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="12" t="s">
         <v>21</v>
       </c>
@@ -25892,7 +25913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="12" t="s">
         <v>147</v>
       </c>
@@ -25945,7 +25966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="12" t="s">
         <v>107</v>
       </c>
@@ -25998,7 +26019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="12" t="s">
         <v>90</v>
       </c>
@@ -26051,7 +26072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="12" t="s">
         <v>332</v>
       </c>
@@ -26104,7 +26125,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="12" t="s">
         <v>308</v>
       </c>
@@ -26157,7 +26178,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="12" t="s">
         <v>181</v>
       </c>
@@ -26210,7 +26231,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="12" t="s">
         <v>97</v>
       </c>
@@ -26263,7 +26284,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="12" t="s">
         <v>329</v>
       </c>
@@ -26316,7 +26337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="12" t="s">
         <v>31</v>
       </c>
@@ -26369,7 +26390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="12" t="s">
         <v>327</v>
       </c>
@@ -26422,7 +26443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="12" t="s">
         <v>131</v>
       </c>
@@ -26475,7 +26496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="12" t="s">
         <v>23</v>
       </c>
@@ -26528,7 +26549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="12" t="s">
         <v>23</v>
       </c>
@@ -26581,7 +26602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="12" t="s">
         <v>68</v>
       </c>
@@ -26634,7 +26655,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="12" t="s">
         <v>308</v>
       </c>
@@ -26687,7 +26708,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="12" t="s">
         <v>61</v>
       </c>
@@ -26740,7 +26761,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="12" t="s">
         <v>57</v>
       </c>
@@ -26793,7 +26814,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="12" t="s">
         <v>153</v>
       </c>
@@ -26846,7 +26867,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="12" t="s">
         <v>61</v>
       </c>
@@ -26899,7 +26920,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="12" t="s">
         <v>90</v>
       </c>
@@ -26952,7 +26973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="12" t="s">
         <v>131</v>
       </c>
@@ -27005,7 +27026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="12" t="s">
         <v>23</v>
       </c>
@@ -27058,7 +27079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="12" t="s">
         <v>23</v>
       </c>
@@ -27111,7 +27132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="12" t="s">
         <v>331</v>
       </c>
@@ -27163,7 +27184,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="12" t="s">
         <v>19</v>
       </c>
@@ -27215,7 +27236,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="12" t="s">
         <v>305</v>
       </c>
@@ -27267,7 +27288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="12" t="s">
         <v>108</v>
       </c>
@@ -27319,7 +27340,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
         <v>61</v>
       </c>
@@ -27371,7 +27392,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
         <v>370</v>
       </c>
@@ -27423,7 +27444,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
         <v>146</v>
       </c>
@@ -27475,7 +27496,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="12" t="s">
         <v>331</v>
       </c>
@@ -27527,7 +27548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
         <v>108</v>
       </c>
@@ -27579,7 +27600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
         <v>298</v>
       </c>
@@ -27631,7 +27652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="12" t="s">
         <v>107</v>
       </c>
@@ -27684,7 +27705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
         <v>295</v>
       </c>
@@ -27737,7 +27758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="12" t="s">
         <v>376</v>
       </c>
@@ -27790,7 +27811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
         <v>378</v>
       </c>
@@ -27843,7 +27864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="12" t="s">
         <v>361</v>
       </c>
@@ -27896,7 +27917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
         <v>380</v>
       </c>
@@ -27949,7 +27970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="12" t="s">
         <v>382</v>
       </c>
@@ -28002,7 +28023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="12" t="s">
         <v>215</v>
       </c>
@@ -28055,7 +28076,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
         <v>374</v>
       </c>
@@ -28108,7 +28129,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="12" t="s">
         <v>107</v>
       </c>
@@ -28161,7 +28182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
         <v>211</v>
       </c>
@@ -28214,7 +28235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="12" t="s">
         <v>358</v>
       </c>
@@ -28267,7 +28288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="12" t="s">
         <v>295</v>
       </c>
@@ -28320,7 +28341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="12" t="s">
         <v>383</v>
       </c>
@@ -28373,7 +28394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="12" t="s">
         <v>252</v>
       </c>
@@ -28426,7 +28447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="12" t="s">
         <v>125</v>
       </c>
@@ -28479,7 +28500,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="12" t="s">
         <v>148</v>
       </c>
@@ -28532,7 +28553,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="12" t="s">
         <v>282</v>
       </c>
@@ -28585,7 +28606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="12" t="s">
         <v>107</v>
       </c>
@@ -28638,7 +28659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="12" t="s">
         <v>358</v>
       </c>
@@ -28691,7 +28712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="12" t="s">
         <v>226</v>
       </c>
@@ -28744,7 +28765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="12" t="s">
         <v>61</v>
       </c>
@@ -28797,7 +28818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="12" t="s">
         <v>105</v>
       </c>
@@ -28850,7 +28871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="12" t="s">
         <v>358</v>
       </c>
@@ -28903,7 +28924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="12" t="s">
         <v>209</v>
       </c>
@@ -28956,7 +28977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="12" t="s">
         <v>383</v>
       </c>
@@ -29009,7 +29030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="12" t="s">
         <v>84</v>
       </c>
@@ -29062,7 +29083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="12" t="s">
         <v>97</v>
       </c>
@@ -29115,7 +29136,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="12" t="s">
         <v>123</v>
       </c>
@@ -29168,7 +29189,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="12" t="s">
         <v>125</v>
       </c>
@@ -29221,7 +29242,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="12" t="s">
         <v>384</v>
       </c>
@@ -29274,7 +29295,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="12" t="s">
         <v>122</v>
       </c>
@@ -29327,7 +29348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="12" t="s">
         <v>368</v>
       </c>
@@ -29380,7 +29401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="12" t="s">
         <v>30</v>
       </c>
@@ -29431,6 +29452,1861 @@
       <c r="O519" s="24">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A520" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B520" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C520" s="12">
+        <v>1</v>
+      </c>
+      <c r="D520" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E520" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F520" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G520" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H520" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I520" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J520" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K520" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L520" s="12">
+        <v>0</v>
+      </c>
+      <c r="M520" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N520" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O520" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A521" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B521" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C521" s="12">
+        <v>2</v>
+      </c>
+      <c r="D521" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E521" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F521" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G521" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H521" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I521" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J521" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K521" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L521" s="12">
+        <v>0</v>
+      </c>
+      <c r="M521" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L521=0,VLOOKUP(C521,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C521,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N521" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O521" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A522" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B522" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C522" s="12">
+        <v>3</v>
+      </c>
+      <c r="D522" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E522" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F522" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G522" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H522" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I522" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J522" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K522" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L522" s="12">
+        <v>0</v>
+      </c>
+      <c r="M522" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L522=0,VLOOKUP(C522,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C522,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N522" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O522" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A523" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B523" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C523" s="12">
+        <v>1</v>
+      </c>
+      <c r="D523" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E523" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F523" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G523" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H523" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I523" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J523" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K523" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L523" s="12">
+        <v>0</v>
+      </c>
+      <c r="M523" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L523=0,VLOOKUP(C523,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C523,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N523" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O523" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A524" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B524" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C524" s="12">
+        <v>2</v>
+      </c>
+      <c r="D524" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E524" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F524" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G524" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H524" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I524" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J524" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K524" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L524" s="12">
+        <v>0</v>
+      </c>
+      <c r="M524" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L524=0,VLOOKUP(C524,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C524,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N524" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O524" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A525" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B525" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C525" s="12">
+        <v>1</v>
+      </c>
+      <c r="D525" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E525" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F525" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G525" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H525" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I525" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J525" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K525" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L525" s="12">
+        <v>0</v>
+      </c>
+      <c r="M525" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L525=0,VLOOKUP(C525,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C525,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N525" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O525" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A526" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C526" s="12">
+        <v>2</v>
+      </c>
+      <c r="D526" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E526" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F526" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G526" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H526" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I526" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J526" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K526" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L526" s="12">
+        <v>0</v>
+      </c>
+      <c r="M526" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L526=0,VLOOKUP(C526,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C526,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N526" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O526" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A527" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B527" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C527" s="12">
+        <v>3</v>
+      </c>
+      <c r="D527" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E527" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F527" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G527" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H527" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I527" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J527" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K527" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L527" s="12">
+        <v>0</v>
+      </c>
+      <c r="M527" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N527" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O527" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A528" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B528" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C528" s="12">
+        <v>3</v>
+      </c>
+      <c r="D528" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E528" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F528" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G528" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H528" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I528" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J528" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K528" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L528" s="12">
+        <v>0</v>
+      </c>
+      <c r="M528" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L528=0,VLOOKUP(C528,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C528,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N528" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O528" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A529" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B529" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C529" s="12">
+        <v>5</v>
+      </c>
+      <c r="D529" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E529" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F529" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G529" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H529" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I529" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J529" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K529" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L529" s="12">
+        <v>0</v>
+      </c>
+      <c r="M529" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L529=0,VLOOKUP(C529,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C529,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N529" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O529" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A530" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B530" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C530" s="12">
+        <v>1</v>
+      </c>
+      <c r="D530" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E530" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F530" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G530" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H530" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I530" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J530" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K530" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L530" s="12">
+        <v>0</v>
+      </c>
+      <c r="M530" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N530" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O530" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A531" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B531" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C531" s="12">
+        <v>2</v>
+      </c>
+      <c r="D531" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E531" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F531" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G531" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H531" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I531" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J531" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K531" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L531" s="12">
+        <v>0</v>
+      </c>
+      <c r="M531" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N531" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O531" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A532" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B532" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C532" s="12">
+        <v>3</v>
+      </c>
+      <c r="D532" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E532" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F532" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G532" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H532" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I532" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J532" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K532" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L532" s="12">
+        <v>0</v>
+      </c>
+      <c r="M532" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N532" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O532" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A533" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B533" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C533" s="12">
+        <v>3</v>
+      </c>
+      <c r="D533" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E533" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F533" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G533" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H533" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I533" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J533" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K533" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L533" s="12">
+        <v>0</v>
+      </c>
+      <c r="M533" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N533" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O533" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A534" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B534" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C534" s="12">
+        <v>5</v>
+      </c>
+      <c r="D534" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E534" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F534" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G534" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H534" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I534" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J534" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K534" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L534" s="12">
+        <v>0</v>
+      </c>
+      <c r="M534" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N534" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O534" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A535" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B535" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C535" s="12">
+        <v>1</v>
+      </c>
+      <c r="D535" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E535" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F535" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G535" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H535" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I535" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J535" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K535" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L535" s="12">
+        <v>0</v>
+      </c>
+      <c r="M535" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N535" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O535" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A536" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B536" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C536" s="12">
+        <v>2</v>
+      </c>
+      <c r="D536" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E536" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F536" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G536" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H536" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I536" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J536" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K536" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L536" s="12">
+        <v>0</v>
+      </c>
+      <c r="M536" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N536" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.4</v>
+      </c>
+      <c r="O536" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A537" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B537" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C537" s="12">
+        <v>1</v>
+      </c>
+      <c r="D537" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E537" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F537" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G537" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H537" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I537" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J537" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K537" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L537" s="12">
+        <v>0</v>
+      </c>
+      <c r="M537" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N537" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O537" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A538" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B538" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C538" s="12">
+        <v>2</v>
+      </c>
+      <c r="D538" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E538" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F538" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G538" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H538" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I538" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J538" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K538" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L538" s="12">
+        <v>0</v>
+      </c>
+      <c r="M538" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N538" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O538" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A539" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B539" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C539" s="12">
+        <v>3</v>
+      </c>
+      <c r="D539" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E539" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F539" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G539" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H539" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I539" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J539" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K539" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L539" s="12">
+        <v>0</v>
+      </c>
+      <c r="M539" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N539" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O539" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A540" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C540" s="12">
+        <v>1</v>
+      </c>
+      <c r="D540" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E540" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F540" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G540" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H540" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I540" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J540" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K540" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L540" s="12">
+        <v>0</v>
+      </c>
+      <c r="M540" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N540" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O540" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A541" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B541" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C541" s="12">
+        <v>2</v>
+      </c>
+      <c r="D541" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E541" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F541" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G541" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H541" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I541" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J541" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K541" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L541" s="12">
+        <v>0</v>
+      </c>
+      <c r="M541" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N541" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O541" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A542" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B542" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C542" s="12">
+        <v>3</v>
+      </c>
+      <c r="D542" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E542" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F542" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G542" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H542" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I542" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J542" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K542" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L542" s="12">
+        <v>0</v>
+      </c>
+      <c r="M542" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N542" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O542" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A543" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B543" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C543" s="12">
+        <v>3</v>
+      </c>
+      <c r="D543" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E543" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F543" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G543" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H543" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I543" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J543" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K543" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L543" s="12">
+        <v>0</v>
+      </c>
+      <c r="M543" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N543" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O543" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A544" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B544" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C544" s="12">
+        <v>5</v>
+      </c>
+      <c r="D544" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E544" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F544" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G544" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H544" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I544" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J544" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K544" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L544" s="12">
+        <v>0</v>
+      </c>
+      <c r="M544" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N544" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O544" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A545" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B545" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C545" s="12">
+        <v>6</v>
+      </c>
+      <c r="D545" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E545" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F545" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G545" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H545" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I545" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J545" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K545" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L545" s="12">
+        <v>0</v>
+      </c>
+      <c r="M545" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N545" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A546" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B546" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C546" s="12">
+        <v>7</v>
+      </c>
+      <c r="D546" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>7</v>
+      </c>
+      <c r="E546" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F546" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G546" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H546" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I546" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J546" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K546" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L546" s="12">
+        <v>0</v>
+      </c>
+      <c r="M546" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="N546" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A547" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B547" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C547" s="12">
+        <v>1</v>
+      </c>
+      <c r="D547" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E547" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F547" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G547" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H547" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I547" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J547" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K547" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L547" s="12">
+        <v>0</v>
+      </c>
+      <c r="M547" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N547" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O547" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A548" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B548" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C548" s="12">
+        <v>2</v>
+      </c>
+      <c r="D548" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E548" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F548" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G548" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H548" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I548" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J548" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K548" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L548" s="12">
+        <v>0</v>
+      </c>
+      <c r="M548" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N548" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O548" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A549" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B549" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C549" s="12">
+        <v>3</v>
+      </c>
+      <c r="D549" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E549" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F549" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G549" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H549" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I549" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J549" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K549" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L549" s="12">
+        <v>0</v>
+      </c>
+      <c r="M549" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N549" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O549" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A550" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B550" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C550" s="12">
+        <v>3</v>
+      </c>
+      <c r="D550" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E550" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F550" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G550" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H550" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I550" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J550" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K550" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L550" s="12">
+        <v>0</v>
+      </c>
+      <c r="M550" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N550" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O550" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A551" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B551" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C551" s="12">
+        <v>1</v>
+      </c>
+      <c r="D551" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E551" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F551" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G551" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H551" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I551" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J551" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K551" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L551" s="12">
+        <v>0</v>
+      </c>
+      <c r="M551" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="N551" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O551" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A552" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B552" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C552" s="12">
+        <v>2</v>
+      </c>
+      <c r="D552" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E552" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F552" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G552" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H552" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I552" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J552" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K552" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AUFeC</v>
+      </c>
+      <c r="L552" s="12">
+        <v>0</v>
+      </c>
+      <c r="M552" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="N552" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.2</v>
+      </c>
+      <c r="O552" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A553" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B553" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C553" s="12">
+        <v>3</v>
+      </c>
+      <c r="D553" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E553" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F553" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G553" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H553" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I553" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J553" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K553" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L553" s="12">
+        <v>0</v>
+      </c>
+      <c r="M553" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N553" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O553" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A554" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C554" s="12">
+        <v>3</v>
+      </c>
+      <c r="D554" s="16">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>3</v>
+      </c>
+      <c r="E554" s="5">
+        <v>44339</v>
+      </c>
+      <c r="F554" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G554" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H554" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I554" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J554" s="21" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K554" s="22" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L554" s="12">
+        <v>0</v>
+      </c>
+      <c r="M554" s="23">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="N554" s="23">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.6</v>
+      </c>
+      <c r="O554" s="24">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]</f>
+        <v>10.799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -29445,29 +31321,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29499,7 +31375,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>94</v>
       </c>
@@ -29535,7 +31411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -29571,7 +31447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -29607,7 +31483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -29643,7 +31519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -29679,7 +31555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -29715,7 +31591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -29751,7 +31627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -29787,7 +31663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -29823,7 +31699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -29859,7 +31735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -29895,7 +31771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -29931,7 +31807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -29967,7 +31843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -30003,7 +31879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -30039,7 +31915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -30075,7 +31951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -30111,7 +31987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -30147,7 +32023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -30183,7 +32059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -30219,7 +32095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -30255,7 +32131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -30291,7 +32167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -30327,7 +32203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -30363,7 +32239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -30399,7 +32275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -30435,7 +32311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -30471,7 +32347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -30507,7 +32383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -30543,7 +32419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -30579,7 +32455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -30615,7 +32491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -30651,7 +32527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -30687,7 +32563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -30723,7 +32599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -30759,7 +32635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -30795,7 +32671,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -30831,7 +32707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -30867,7 +32743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -30903,7 +32779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -30939,7 +32815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -30975,7 +32851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -31011,7 +32887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -31047,7 +32923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -31083,7 +32959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -31119,7 +32995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -31155,7 +33031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -31191,7 +33067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -31227,7 +33103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -31263,7 +33139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -31299,7 +33175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -31335,7 +33211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>325</v>
       </c>
@@ -31371,7 +33247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -31407,7 +33283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -31443,7 +33319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -31479,7 +33355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -31512,7 +33388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -31548,7 +33424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -31584,7 +33460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -31620,7 +33496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -31656,7 +33532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -31692,7 +33568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -31728,7 +33604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -31764,7 +33640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -31800,7 +33676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -31836,7 +33712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -31872,7 +33748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -31908,7 +33784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -31944,7 +33820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -31980,7 +33856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -32016,7 +33892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -32052,7 +33928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -32088,7 +33964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -32124,7 +34000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -32160,7 +34036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -32196,7 +34072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -32232,7 +34108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -32268,7 +34144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>244</v>
       </c>
@@ -32304,7 +34180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -32340,7 +34216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -32376,7 +34252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -32412,7 +34288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -32448,7 +34324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -32484,7 +34360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>296</v>
       </c>
@@ -32520,7 +34396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -32556,7 +34432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -32592,7 +34468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -32628,7 +34504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -32664,7 +34540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -32700,7 +34576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -32736,7 +34612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -32772,7 +34648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -32808,7 +34684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>327</v>
       </c>
@@ -32844,7 +34720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -32880,7 +34756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -32916,7 +34792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -32952,7 +34828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -32988,7 +34864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -33024,7 +34900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -33060,7 +34936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -33096,7 +34972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -33132,7 +35008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>297</v>
       </c>
@@ -33168,7 +35044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -33204,7 +35080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -33240,7 +35116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -33276,7 +35152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -33312,7 +35188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -33348,7 +35224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -33384,7 +35260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -33420,7 +35296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>311</v>
       </c>
@@ -33456,7 +35332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -33492,7 +35368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -33528,7 +35404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -33564,7 +35440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -33600,7 +35476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -33636,7 +35512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -33672,7 +35548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -33708,7 +35584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>343</v>
       </c>
@@ -33744,7 +35620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -33780,7 +35656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -33816,7 +35692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -33849,7 +35725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -33885,7 +35761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -33921,7 +35797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -33957,7 +35833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -33993,7 +35869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -34029,7 +35905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>329</v>
       </c>
@@ -34065,7 +35941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -34101,7 +35977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -34137,7 +36013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -34173,7 +36049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -34209,7 +36085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -34245,7 +36121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -34281,7 +36157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -34317,7 +36193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -34353,7 +36229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -34389,7 +36265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -34425,7 +36301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -34461,7 +36337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -34497,7 +36373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -34533,7 +36409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -34569,7 +36445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -34605,7 +36481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>338</v>
       </c>
@@ -34641,7 +36517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>338</v>
       </c>
@@ -34677,7 +36553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -34713,7 +36589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -34749,7 +36625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -34785,7 +36661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>29</v>
       </c>
@@ -34821,7 +36697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -34857,7 +36733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -34893,7 +36769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -34929,7 +36805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -34965,7 +36841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>273</v>
       </c>
@@ -35001,7 +36877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>275</v>
       </c>
@@ -35037,7 +36913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -35073,7 +36949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -35101,7 +36977,7 @@
         <v>318</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" ref="K157:K195" si="3">$K$1</f>
+        <f t="shared" ref="K157:K200" si="3">$K$1</f>
         <v>44197</v>
       </c>
       <c r="L157" s="2">
@@ -35109,7 +36985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -35145,7 +37021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>293</v>
       </c>
@@ -35181,7 +37057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -35217,7 +37093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -35253,7 +37129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -35289,7 +37165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -35325,7 +37201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -35361,7 +37237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -35397,7 +37273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>278</v>
       </c>
@@ -35433,7 +37309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>107</v>
       </c>
@@ -35469,7 +37345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -35505,7 +37381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>107</v>
       </c>
@@ -35541,7 +37417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -35577,7 +37453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>131</v>
       </c>
@@ -35613,7 +37489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -35649,7 +37525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -35685,7 +37561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>108</v>
       </c>
@@ -35721,7 +37597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>282</v>
       </c>
@@ -35757,7 +37633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -35793,7 +37669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>280</v>
       </c>
@@ -35829,7 +37705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -35865,7 +37741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -35901,7 +37777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>305</v>
       </c>
@@ -35937,7 +37813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -35973,7 +37849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -36009,7 +37885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -36045,7 +37921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>362</v>
       </c>
@@ -36081,7 +37957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>364</v>
       </c>
@@ -36117,7 +37993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>366</v>
       </c>
@@ -36153,7 +38029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>368</v>
       </c>
@@ -36189,7 +38065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>370</v>
       </c>
@@ -36225,7 +38101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>374</v>
       </c>
@@ -36261,7 +38137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>376</v>
       </c>
@@ -36295,7 +38171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>378</v>
       </c>
@@ -36329,7 +38205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>380</v>
       </c>
@@ -36363,7 +38239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>382</v>
       </c>
@@ -36397,7 +38273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>383</v>
       </c>
@@ -36431,7 +38307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>384</v>
       </c>
@@ -36462,6 +38338,176 @@
       </c>
       <c r="L195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C196" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Zhaoxuan.Xiao</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2">
+        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
+        <v>198</v>
+      </c>
+      <c r="H196" t="s">
+        <v>318</v>
+      </c>
+      <c r="K196" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L196" s="2">
+        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Yu.Jerry</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="2">
+        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>198</v>
+      </c>
+      <c r="H197" t="s">
+        <v>318</v>
+      </c>
+      <c r="K197" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L197" s="2">
+        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Liwanen.Adam</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2">
+        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="F198" t="s">
+        <v>310</v>
+      </c>
+      <c r="G198" t="s">
+        <v>198</v>
+      </c>
+      <c r="H198" t="s">
+        <v>318</v>
+      </c>
+      <c r="K198" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L198" s="2">
+        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Jankovic.Ivan</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2">
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="F199" t="s">
+        <v>310</v>
+      </c>
+      <c r="G199" t="s">
+        <v>198</v>
+      </c>
+      <c r="H199" t="s">
+        <v>318</v>
+      </c>
+      <c r="K199" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L199" s="2">
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C200" s="11" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Munneke.Cabe</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2">
+        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>121</v>
+      </c>
+      <c r="F200" t="s">
+        <v>310</v>
+      </c>
+      <c r="G200" t="s">
+        <v>198</v>
+      </c>
+      <c r="H200" t="s">
+        <v>318</v>
+      </c>
+      <c r="K200" s="1">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L200" s="2">
+        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>121</v>
       </c>
     </row>
@@ -36482,16 +38528,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36508,7 +38554,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -36525,7 +38571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -36542,7 +38588,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -36559,7 +38605,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -36576,7 +38622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -36593,7 +38639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -36610,7 +38656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -36627,7 +38673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -36644,7 +38690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -36661,7 +38707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -36678,7 +38724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -36695,7 +38741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -36712,7 +38758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -36729,7 +38775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -36746,7 +38792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -36763,7 +38809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -36780,7 +38826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -36797,7 +38843,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -36814,7 +38860,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -36831,7 +38877,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -36848,7 +38894,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -36865,7 +38911,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -36882,7 +38928,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -36899,7 +38945,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -36916,7 +38962,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -36933,7 +38979,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -36950,7 +38996,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -36967,7 +39013,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -36984,7 +39030,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -37001,7 +39047,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -37018,7 +39064,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -37035,7 +39081,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -37052,7 +39098,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -37069,7 +39115,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -37086,7 +39132,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -37103,7 +39149,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -37120,7 +39166,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -37137,7 +39183,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -37154,7 +39200,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -37171,7 +39217,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -37188,7 +39234,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -37205,7 +39251,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -37222,7 +39268,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -37239,7 +39285,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -37256,7 +39302,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -37273,7 +39319,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -37290,7 +39336,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -37307,7 +39353,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -37324,7 +39370,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -37341,7 +39387,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -37358,7 +39404,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -37375,7 +39421,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -37392,7 +39438,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -37409,7 +39455,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -37426,7 +39472,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -37443,7 +39489,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -37460,7 +39506,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -37477,7 +39523,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -37494,7 +39540,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -37511,7 +39557,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -37528,7 +39574,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -37545,7 +39591,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -37562,7 +39608,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -37579,7 +39625,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -37596,7 +39642,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -37613,7 +39659,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>66</v>
       </c>
@@ -37621,7 +39667,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>67</v>
       </c>
@@ -37629,7 +39675,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>68</v>
       </c>
@@ -37637,7 +39683,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>69</v>
       </c>
@@ -37645,7 +39691,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>70</v>
       </c>
@@ -37653,7 +39699,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>71</v>
       </c>
@@ -37661,7 +39707,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>72</v>
       </c>
@@ -37669,7 +39715,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>73</v>
       </c>
@@ -37677,7 +39723,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>74</v>
       </c>
@@ -37685,7 +39731,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>75</v>
       </c>
@@ -37693,7 +39739,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>76</v>
       </c>
@@ -37701,7 +39747,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>77</v>
       </c>
@@ -37709,7 +39755,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>78</v>
       </c>
@@ -37717,7 +39763,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>79</v>
       </c>
@@ -37725,7 +39771,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>80</v>
       </c>
@@ -37733,7 +39779,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>81</v>
       </c>
@@ -37741,7 +39787,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>82</v>
       </c>
@@ -37749,7 +39795,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>83</v>
       </c>
@@ -37757,7 +39803,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>84</v>
       </c>
@@ -37765,7 +39811,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86">
         <v>85</v>
       </c>
@@ -37773,7 +39819,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>86</v>
       </c>
@@ -37781,7 +39827,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>87</v>
       </c>
@@ -37789,7 +39835,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>88</v>
       </c>
@@ -37797,7 +39843,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>89</v>
       </c>
@@ -37805,7 +39851,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>90</v>
       </c>
@@ -37813,7 +39859,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>91</v>
       </c>
@@ -37821,7 +39867,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>92</v>
       </c>
@@ -37829,7 +39875,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94">
         <v>93</v>
       </c>
@@ -37837,7 +39883,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>94</v>
       </c>
@@ -37845,7 +39891,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>95</v>
       </c>
@@ -37853,7 +39899,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>96</v>
       </c>
@@ -37861,7 +39907,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>97</v>
       </c>
@@ -37869,7 +39915,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>98</v>
       </c>
@@ -37877,7 +39923,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>99</v>
       </c>
@@ -37885,7 +39931,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>100</v>
       </c>
@@ -37893,7 +39939,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102">
         <v>101</v>
       </c>
@@ -37901,7 +39947,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103">
         <v>102</v>
       </c>
@@ -37909,7 +39955,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104">
         <v>103</v>
       </c>
@@ -37917,7 +39963,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105">
         <v>104</v>
       </c>
@@ -37925,7 +39971,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106">
         <v>105</v>
       </c>
@@ -37933,7 +39979,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107">
         <v>106</v>
       </c>
@@ -37941,7 +39987,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108">
         <v>107</v>
       </c>
@@ -37949,7 +39995,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109">
         <v>108</v>
       </c>
@@ -37957,7 +40003,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110">
         <v>109</v>
       </c>
@@ -37965,7 +40011,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111">
         <v>110</v>
       </c>
@@ -37973,7 +40019,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112">
         <v>111</v>
       </c>
@@ -37981,7 +40027,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113">
         <v>112</v>
       </c>
@@ -37989,7 +40035,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114">
         <v>113</v>
       </c>
@@ -37997,7 +40043,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115">
         <v>114</v>
       </c>
@@ -38005,7 +40051,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116">
         <v>115</v>
       </c>
@@ -38013,7 +40059,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117">
         <v>116</v>
       </c>
@@ -38021,7 +40067,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118">
         <v>117</v>
       </c>
@@ -38029,7 +40075,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119">
         <v>118</v>
       </c>
@@ -38037,7 +40083,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120">
         <v>119</v>
       </c>
@@ -38045,7 +40091,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121">
         <v>120</v>
       </c>
@@ -38053,7 +40099,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122">
         <v>121</v>
       </c>
@@ -38061,7 +40107,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123">
         <v>122</v>
       </c>
@@ -38069,7 +40115,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124">
         <v>123</v>
       </c>
@@ -38077,7 +40123,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125">
         <v>124</v>
       </c>
@@ -38085,7 +40131,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126">
         <v>125</v>
       </c>
@@ -38093,7 +40139,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127">
         <v>126</v>
       </c>
@@ -38101,7 +40147,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128">
         <v>127</v>
       </c>
@@ -38109,7 +40155,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129">
         <v>128</v>
       </c>
@@ -38117,7 +40163,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
         <v>17</v>
       </c>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350BDA9-0FE8-466A-928B-769CE19ECAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7477D-FD72-43C7-9C3A-7F6DCE4C5423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -1947,33 +1947,33 @@
   <dimension ref="A1:O554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A554" sqref="A554"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="3"/>
-    <col min="17" max="17" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="3"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="3"/>
+    <col min="17" max="17" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>261</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>146</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>261</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>190</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>292</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>192</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>293</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>124</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>280</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>107</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>247</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>125</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>148</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>174</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>192</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>118</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>116</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>98</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>30</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>126</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>122</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>124</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>192</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>120</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>311</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>19</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>61</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>159</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>30</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>70</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>57</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>87</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>78</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>305</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>308</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>108</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>21</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>147</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>107</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>90</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>308</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>181</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>199</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>31</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>23</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>23</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>78</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>24</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>153</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>68</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>57</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>61</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>68</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>30</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>107</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>159</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>126</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>153</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>61</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>22</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>108</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>147</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>90</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>23</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>24</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>153</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>19</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>19</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>30</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>70</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>57</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>331</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>61</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>78</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>84</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>68</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>107</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>61</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>179</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>108</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>162</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>21</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>147</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>107</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>146</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>181</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>24</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>23</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>78</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>153</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>68</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>30</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>61</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>84</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>68</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>57</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>107</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>126</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>153</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>61</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>108</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>162</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>147</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>24</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>23</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>153</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>70</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>87</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>325</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>68</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>92</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>126</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>107</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>76</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>30</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>122</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>166</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>108</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>205</v>
       </c>
@@ -9960,12 +9960,12 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="K152" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L152" s="3">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>107</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>226</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>181</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>97</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>123</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>199</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>125</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>329</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>327</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>61</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>70</v>
       </c>
@@ -10596,12 +10596,12 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="K164" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L164" s="3">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>21</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>107</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>181</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>123</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>31</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>19</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>78</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>19</v>
       </c>
@@ -11073,12 +11073,12 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C173" s="3">
         <v>2</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="K173" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L173" s="3">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>107</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>21</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>181</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>123</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>199</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>31</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>175</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>247</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>107</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>275</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>125</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>148</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>174</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>215</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>30</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>126</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>127</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>193</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>129</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>247</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>122</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>61</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>84</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>107</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>125</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>30</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>126</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>122</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>166</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>107</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>84</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>226</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>150</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>105</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>278</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>123</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>166</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>97</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>120</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>19</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>78</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>61</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>70</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>311</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>331</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>19</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>68</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>107</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>61</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>122</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>108</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>70</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
         <v>21</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>107</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>146</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>332</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>181</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>329</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
         <v>23</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>298</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
         <v>23</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
         <v>68</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>61</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
         <v>68</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>30</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>107</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>126</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>61</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>57</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>108</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>107</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>332</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>24</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>298</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>23</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>23</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>190</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>228</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>340</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>124</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>342</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>107</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
         <v>211</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
         <v>338</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>275</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>338</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
         <v>125</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>148</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>30</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>126</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>127</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
         <v>193</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
         <v>122</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
         <v>334</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
         <v>124</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
         <v>84</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>61</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>107</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
         <v>118</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>336</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
         <v>125</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
         <v>116</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>148</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
         <v>30</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
         <v>127</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
         <v>126</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
         <v>166</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
         <v>334</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>122</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
         <v>107</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>226</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>84</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
         <v>278</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>105</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>97</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>123</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
         <v>166</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
         <v>70</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>78</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>107</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>68</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
         <v>87</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
         <v>76</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
         <v>126</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
         <v>57</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
         <v>343</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
         <v>108</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
         <v>107</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
         <v>226</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
         <v>76</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
         <v>181</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>123</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>97</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
         <v>125</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
         <v>193</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
         <v>23</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
         <v>76</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
         <v>78</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
         <v>21</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
         <v>107</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
         <v>226</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
         <v>181</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>123</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
         <v>123</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>68</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
         <v>78</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
         <v>19</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>21</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
         <v>107</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
         <v>226</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>181</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>123</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
         <v>123</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>68</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>61</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
         <v>70</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
         <v>68</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>30</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>305</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
         <v>61</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
         <v>57</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
         <v>29</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
         <v>108</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
         <v>21</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
         <v>162</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
         <v>147</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
         <v>226</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
         <v>107</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
         <v>146</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
         <v>332</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
         <v>181</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
         <v>329</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
         <v>24</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
         <v>23</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
         <v>68</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
         <v>30</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
         <v>61</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
         <v>68</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
         <v>57</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="12" t="s">
         <v>61</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
         <v>108</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
         <v>147</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
         <v>332</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>23</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
         <v>24</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
         <v>298</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
         <v>19</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
         <v>57</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
         <v>78</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>61</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
         <v>30</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
         <v>70</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>87</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>107</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
         <v>298</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
         <v>61</v>
       </c>
@@ -21514,7 +21514,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
         <v>308</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>122</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
         <v>108</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
         <v>70</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
         <v>61</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
         <v>21</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
         <v>147</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
         <v>90</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
         <v>332</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
         <v>308</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
         <v>181</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
         <v>123</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
         <v>329</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
         <v>31</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
         <v>131</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
         <v>327</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
         <v>24</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
         <v>23</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>298</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
         <v>23</v>
       </c>
@@ -22574,7 +22574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>308</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
         <v>30</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
         <v>57</v>
       </c>
@@ -22733,7 +22733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
         <v>61</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
         <v>107</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
         <v>126</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>61</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>108</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
         <v>147</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
         <v>90</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>332</v>
       </c>
@@ -23157,7 +23157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
         <v>131</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
         <v>23</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>275</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
         <v>107</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>361</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>295</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
         <v>215</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
         <v>174</v>
       </c>
@@ -23581,7 +23581,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
         <v>127</v>
       </c>
@@ -23634,7 +23634,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>228</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
         <v>190</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="12" t="s">
         <v>107</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
         <v>358</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
         <v>275</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
         <v>366</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
         <v>361</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
         <v>215</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
         <v>368</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
         <v>126</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
         <v>193</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
         <v>127</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
         <v>190</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
         <v>175</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
         <v>122</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
         <v>362</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
         <v>364</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
         <v>107</v>
       </c>
@@ -24588,7 +24588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
         <v>84</v>
       </c>
@@ -24641,7 +24641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
         <v>267</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
         <v>61</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
         <v>358</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
         <v>105</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
         <v>150</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>358</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
         <v>209</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
         <v>97</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
         <v>123</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
         <v>19</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
         <v>57</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
         <v>120</v>
       </c>
@@ -25277,7 +25277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
         <v>311</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
         <v>61</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
         <v>78</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>92</v>
       </c>
@@ -25489,7 +25489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
         <v>153</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
         <v>308</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
         <v>122</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
         <v>61</v>
       </c>
@@ -25701,7 +25701,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
         <v>108</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
         <v>61</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
         <v>370</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
         <v>21</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
         <v>147</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
         <v>107</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>90</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
         <v>332</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
         <v>308</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
         <v>181</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
         <v>97</v>
       </c>
@@ -26284,7 +26284,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
         <v>329</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
         <v>31</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
         <v>327</v>
       </c>
@@ -26443,7 +26443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
         <v>131</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
         <v>23</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
         <v>23</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
         <v>68</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
         <v>308</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
         <v>61</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="12" t="s">
         <v>57</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
         <v>153</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
         <v>61</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>90</v>
       </c>
@@ -26973,7 +26973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
         <v>131</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>23</v>
       </c>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="12" t="s">
         <v>23</v>
       </c>
@@ -27132,7 +27132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
         <v>331</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="12" t="s">
         <v>19</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="12" t="s">
         <v>305</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="12" t="s">
         <v>108</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>61</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
         <v>370</v>
       </c>
@@ -27444,7 +27444,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>146</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
         <v>331</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="12" t="s">
         <v>108</v>
       </c>
@@ -27600,7 +27600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="12" t="s">
         <v>298</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="12" t="s">
         <v>107</v>
       </c>
@@ -27705,7 +27705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="12" t="s">
         <v>295</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="12" t="s">
         <v>376</v>
       </c>
@@ -27811,7 +27811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="12" t="s">
         <v>378</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="12" t="s">
         <v>361</v>
       </c>
@@ -27917,7 +27917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="12" t="s">
         <v>380</v>
       </c>
@@ -27970,7 +27970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="12" t="s">
         <v>382</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="12" t="s">
         <v>215</v>
       </c>
@@ -28076,7 +28076,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
         <v>374</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="12" t="s">
         <v>107</v>
       </c>
@@ -28182,7 +28182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="12" t="s">
         <v>211</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="12" t="s">
         <v>358</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="12" t="s">
         <v>295</v>
       </c>
@@ -28341,7 +28341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="12" t="s">
         <v>383</v>
       </c>
@@ -28394,7 +28394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="12" t="s">
         <v>252</v>
       </c>
@@ -28447,7 +28447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="12" t="s">
         <v>125</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="12" t="s">
         <v>148</v>
       </c>
@@ -28553,12 +28553,12 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B503" s="12" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="C503" s="12">
         <v>1</v>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="K503" s="22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L503" s="12">
         <v>0</v>
@@ -28606,7 +28606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
         <v>107</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="12" t="s">
         <v>358</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="12" t="s">
         <v>226</v>
       </c>
@@ -28765,7 +28765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
         <v>61</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
         <v>105</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="12" t="s">
         <v>358</v>
       </c>
@@ -28924,7 +28924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="12" t="s">
         <v>209</v>
       </c>
@@ -28977,7 +28977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="12" t="s">
         <v>383</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="12" t="s">
         <v>84</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
         <v>97</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
         <v>123</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
         <v>125</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="12" t="s">
         <v>384</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="12" t="s">
         <v>122</v>
       </c>
@@ -29348,7 +29348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="12" t="s">
         <v>368</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
         <v>30</v>
       </c>
@@ -29454,7 +29454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
         <v>68</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="12" t="s">
         <v>181</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
         <v>123</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="12" t="s">
         <v>181</v>
       </c>
@@ -29666,7 +29666,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="12" t="s">
         <v>123</v>
       </c>
@@ -29719,12 +29719,12 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B525" s="12" t="s">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="C525" s="12">
         <v>1</v>
@@ -29772,7 +29772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
         <v>226</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="12" t="s">
         <v>107</v>
       </c>
@@ -29878,7 +29878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="12" t="s">
         <v>21</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
         <v>278</v>
       </c>
@@ -29984,12 +29984,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="12" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B530" s="12" t="s">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="C530" s="12">
         <v>1</v>
@@ -30037,7 +30037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="12" t="s">
         <v>226</v>
       </c>
@@ -30090,7 +30090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="12" t="s">
         <v>107</v>
       </c>
@@ -30143,7 +30143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="12" t="s">
         <v>21</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="12" t="s">
         <v>278</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="12" t="s">
         <v>386</v>
       </c>
@@ -30302,7 +30302,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="12" t="s">
         <v>273</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="12" t="s">
         <v>122</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="12" t="s">
         <v>179</v>
       </c>
@@ -30461,7 +30461,7 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="12" t="s">
         <v>108</v>
       </c>
@@ -30514,7 +30514,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="12" t="s">
         <v>61</v>
       </c>
@@ -30567,7 +30567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="12" t="s">
         <v>107</v>
       </c>
@@ -30620,7 +30620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="12" t="s">
         <v>388</v>
       </c>
@@ -30673,7 +30673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="12" t="s">
         <v>226</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="12" t="s">
         <v>389</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="12" t="s">
         <v>391</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="12" t="s">
         <v>386</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="12" t="s">
         <v>181</v>
       </c>
@@ -30938,7 +30938,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="12" t="s">
         <v>123</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="12" t="s">
         <v>97</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="12" t="s">
         <v>125</v>
       </c>
@@ -31097,7 +31097,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="12" t="s">
         <v>23</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="12" t="s">
         <v>308</v>
       </c>
@@ -31203,7 +31203,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="12" t="s">
         <v>193</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="12" t="s">
         <v>23</v>
       </c>
@@ -31324,26 +31324,26 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>94</v>
       </c>
@@ -31411,7 +31411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -31447,7 +31447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -31519,7 +31519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -31627,7 +31627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -31699,7 +31699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>331</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -31843,7 +31843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -31879,7 +31879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -31987,7 +31987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -32167,7 +32167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -32239,7 +32239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -32311,7 +32311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -32455,7 +32455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -32527,7 +32527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -32707,7 +32707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -32743,7 +32743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -32779,7 +32779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -32815,7 +32815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -32851,7 +32851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -32887,7 +32887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>227</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -33031,7 +33031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -33139,7 +33139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>325</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -33319,7 +33319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -33532,7 +33532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -33604,7 +33604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -33712,7 +33712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -33784,7 +33784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -33820,7 +33820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -33892,7 +33892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -33928,7 +33928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>308</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -34036,7 +34036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -34144,7 +34144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>244</v>
       </c>
@@ -34180,7 +34180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -34252,7 +34252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -34288,7 +34288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -34324,7 +34324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -34360,7 +34360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>296</v>
       </c>
@@ -34396,7 +34396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>296</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -34468,7 +34468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -34540,7 +34540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -34612,7 +34612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -34648,7 +34648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -34684,7 +34684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>327</v>
       </c>
@@ -34720,7 +34720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -34756,7 +34756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -34792,7 +34792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -34864,7 +34864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -34936,7 +34936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -34972,7 +34972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -35008,7 +35008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>297</v>
       </c>
@@ -35044,7 +35044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -35080,7 +35080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -35116,7 +35116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -35188,7 +35188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -35224,7 +35224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -35260,7 +35260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -35296,7 +35296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>311</v>
       </c>
@@ -35332,7 +35332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -35404,7 +35404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -35476,7 +35476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -35548,7 +35548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -35584,7 +35584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>343</v>
       </c>
@@ -35620,7 +35620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -35692,7 +35692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -35725,7 +35725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -35761,7 +35761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -35833,7 +35833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -35869,7 +35869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -35905,7 +35905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>329</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -35977,7 +35977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>78</v>
       </c>
@@ -36013,7 +36013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -36049,7 +36049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -36085,7 +36085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -36121,7 +36121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -36193,7 +36193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -36229,7 +36229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>332</v>
       </c>
@@ -36301,7 +36301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -36373,7 +36373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -36409,7 +36409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -36481,7 +36481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>338</v>
       </c>
@@ -36517,7 +36517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>338</v>
       </c>
@@ -36553,7 +36553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -36589,7 +36589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -36625,7 +36625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -36661,7 +36661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>29</v>
       </c>
@@ -36697,7 +36697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -36733,7 +36733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -36769,7 +36769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -36805,7 +36805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>273</v>
       </c>
@@ -36877,7 +36877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>275</v>
       </c>
@@ -36913,7 +36913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -36949,7 +36949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -36985,7 +36985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>336</v>
       </c>
@@ -37021,7 +37021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>293</v>
       </c>
@@ -37057,7 +37057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -37093,7 +37093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -37129,7 +37129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -37165,7 +37165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -37201,7 +37201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -37237,7 +37237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -37273,7 +37273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>278</v>
       </c>
@@ -37309,7 +37309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>107</v>
       </c>
@@ -37345,7 +37345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -37381,7 +37381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>107</v>
       </c>
@@ -37417,7 +37417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>131</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -37525,7 +37525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -37561,7 +37561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>108</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>282</v>
       </c>
@@ -37633,7 +37633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -37669,7 +37669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>280</v>
       </c>
@@ -37705,7 +37705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -37741,7 +37741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -37777,7 +37777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>305</v>
       </c>
@@ -37813,7 +37813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -37849,7 +37849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -37885,7 +37885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -37921,7 +37921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>362</v>
       </c>
@@ -37957,7 +37957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>364</v>
       </c>
@@ -37993,7 +37993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>366</v>
       </c>
@@ -38029,7 +38029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>368</v>
       </c>
@@ -38065,7 +38065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>370</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>374</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>376</v>
       </c>
@@ -38148,10 +38148,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Ngo.Edward</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1">
+        <v>40188</v>
+      </c>
       <c r="E190" s="2">
         <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
@@ -38168,10 +38170,10 @@
       </c>
       <c r="L190" s="2">
         <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>378</v>
       </c>
@@ -38182,10 +38184,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Lee.Xavier</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1">
+        <v>40444</v>
+      </c>
       <c r="E191" s="2">
         <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F191" t="s">
         <v>49</v>
@@ -38202,10 +38206,10 @@
       </c>
       <c r="L191" s="2">
         <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>380</v>
       </c>
@@ -38216,10 +38220,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Barton.Bill</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1">
+        <v>40926</v>
+      </c>
       <c r="E192" s="2">
         <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="F192" t="s">
         <v>11</v>
@@ -38236,10 +38242,10 @@
       </c>
       <c r="L192" s="2">
         <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>382</v>
       </c>
@@ -38250,10 +38256,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Li.Matthew</v>
       </c>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1">
+        <v>41249</v>
+      </c>
       <c r="E193" s="2">
         <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="F193" t="s">
         <v>11</v>
@@ -38270,10 +38278,10 @@
       </c>
       <c r="L193" s="2">
         <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>383</v>
       </c>
@@ -38284,10 +38292,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Dawes.Oscar</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1">
+        <v>39626</v>
+      </c>
       <c r="E194" s="2">
         <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
         <v>49</v>
@@ -38304,10 +38314,10 @@
       </c>
       <c r="L194" s="2">
         <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>384</v>
       </c>
@@ -38318,10 +38328,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Bugeja.Hannah</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1">
+        <v>38756</v>
+      </c>
       <c r="E195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s">
         <v>49</v>
@@ -38338,24 +38350,26 @@
       </c>
       <c r="L195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="C196" s="11" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Zhaoxuan.Xiao</v>
-      </c>
-      <c r="D196" s="1"/>
+        <v>Xiao.Edward</v>
+      </c>
+      <c r="D196" s="1">
+        <v>38742</v>
+      </c>
       <c r="E196" s="2">
         <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s">
         <v>11</v>
@@ -38372,10 +38386,10 @@
       </c>
       <c r="L196" s="2">
         <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>386</v>
       </c>
@@ -38386,10 +38400,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Yu.Jerry</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1">
+        <v>37149</v>
+      </c>
       <c r="E197" s="2">
         <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
         <v>11</v>
@@ -38406,10 +38422,10 @@
       </c>
       <c r="L197" s="2">
         <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>388</v>
       </c>
@@ -38420,10 +38436,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Liwanen.Adam</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1">
+        <v>35318</v>
+      </c>
       <c r="E198" s="2">
         <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F198" t="s">
         <v>310</v>
@@ -38440,10 +38458,10 @@
       </c>
       <c r="L198" s="2">
         <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>389</v>
       </c>
@@ -38454,10 +38472,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Jankovic.Ivan</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1">
+        <v>36146</v>
+      </c>
       <c r="E199" s="2">
         <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
         <v>310</v>
@@ -38474,10 +38494,10 @@
       </c>
       <c r="L199" s="2">
         <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>391</v>
       </c>
@@ -38488,10 +38508,12 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Munneke.Cabe</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="1">
+        <v>37417</v>
+      </c>
       <c r="E200" s="2">
         <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F200" t="s">
         <v>310</v>
@@ -38508,7 +38530,7 @@
       </c>
       <c r="L200" s="2">
         <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -38528,16 +38550,16 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38554,7 +38576,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38571,7 +38593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38588,7 +38610,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38605,7 +38627,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38622,7 +38644,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38639,7 +38661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38656,7 +38678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38673,7 +38695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38690,7 +38712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38707,7 +38729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38724,7 +38746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -38741,7 +38763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -38758,7 +38780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -38775,7 +38797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38792,7 +38814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -38809,7 +38831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38826,7 +38848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -38843,7 +38865,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -38860,7 +38882,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -38877,7 +38899,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -38894,7 +38916,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -38911,7 +38933,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -38928,7 +38950,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -38945,7 +38967,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -38962,7 +38984,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -38979,7 +39001,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -38996,7 +39018,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -39013,7 +39035,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -39030,7 +39052,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -39047,7 +39069,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -39064,7 +39086,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -39081,7 +39103,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39098,7 +39120,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39115,7 +39137,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39132,7 +39154,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -39149,7 +39171,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -39166,7 +39188,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39183,7 +39205,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39200,7 +39222,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -39217,7 +39239,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -39234,7 +39256,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -39251,7 +39273,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39268,7 +39290,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39285,7 +39307,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39302,7 +39324,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39319,7 +39341,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39336,7 +39358,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -39353,7 +39375,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -39370,7 +39392,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -39387,7 +39409,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -39404,7 +39426,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -39421,7 +39443,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -39438,7 +39460,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -39455,7 +39477,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -39472,7 +39494,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -39489,7 +39511,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -39506,7 +39528,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -39523,7 +39545,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -39540,7 +39562,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -39557,7 +39579,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -39574,7 +39596,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -39591,7 +39613,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -39608,7 +39630,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -39625,7 +39647,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -39642,7 +39664,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -39659,7 +39681,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>66</v>
       </c>
@@ -39667,7 +39689,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>67</v>
       </c>
@@ -39675,7 +39697,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>68</v>
       </c>
@@ -39683,7 +39705,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>69</v>
       </c>
@@ -39691,7 +39713,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>70</v>
       </c>
@@ -39699,7 +39721,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>71</v>
       </c>
@@ -39707,7 +39729,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>72</v>
       </c>
@@ -39715,7 +39737,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>73</v>
       </c>
@@ -39723,7 +39745,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>74</v>
       </c>
@@ -39731,7 +39753,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>75</v>
       </c>
@@ -39739,7 +39761,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>76</v>
       </c>
@@ -39747,7 +39769,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>77</v>
       </c>
@@ -39755,7 +39777,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>78</v>
       </c>
@@ -39763,7 +39785,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>79</v>
       </c>
@@ -39771,7 +39793,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>80</v>
       </c>
@@ -39779,7 +39801,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>81</v>
       </c>
@@ -39787,7 +39809,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>82</v>
       </c>
@@ -39795,7 +39817,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>83</v>
       </c>
@@ -39803,7 +39825,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>84</v>
       </c>
@@ -39811,7 +39833,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>85</v>
       </c>
@@ -39819,7 +39841,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>86</v>
       </c>
@@ -39827,7 +39849,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>87</v>
       </c>
@@ -39835,7 +39857,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>88</v>
       </c>
@@ -39843,7 +39865,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>89</v>
       </c>
@@ -39851,7 +39873,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>90</v>
       </c>
@@ -39859,7 +39881,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>91</v>
       </c>
@@ -39867,7 +39889,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>92</v>
       </c>
@@ -39875,7 +39897,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>93</v>
       </c>
@@ -39883,7 +39905,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>94</v>
       </c>
@@ -39891,7 +39913,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>95</v>
       </c>
@@ -39899,7 +39921,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>96</v>
       </c>
@@ -39907,7 +39929,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>97</v>
       </c>
@@ -39915,7 +39937,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>98</v>
       </c>
@@ -39923,7 +39945,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>99</v>
       </c>
@@ -39931,7 +39953,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>100</v>
       </c>
@@ -39939,7 +39961,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>101</v>
       </c>
@@ -39947,7 +39969,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>102</v>
       </c>
@@ -39955,7 +39977,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>103</v>
       </c>
@@ -39963,7 +39985,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105">
         <v>104</v>
       </c>
@@ -39971,7 +39993,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>105</v>
       </c>
@@ -39979,7 +40001,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107">
         <v>106</v>
       </c>
@@ -39987,7 +40009,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108">
         <v>107</v>
       </c>
@@ -39995,7 +40017,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109">
         <v>108</v>
       </c>
@@ -40003,7 +40025,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110">
         <v>109</v>
       </c>
@@ -40011,7 +40033,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111">
         <v>110</v>
       </c>
@@ -40019,7 +40041,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112">
         <v>111</v>
       </c>
@@ -40027,7 +40049,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>112</v>
       </c>
@@ -40035,7 +40057,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>113</v>
       </c>
@@ -40043,7 +40065,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>114</v>
       </c>
@@ -40051,7 +40073,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116">
         <v>115</v>
       </c>
@@ -40059,7 +40081,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117">
         <v>116</v>
       </c>
@@ -40067,7 +40089,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E118">
         <v>117</v>
       </c>
@@ -40075,7 +40097,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>118</v>
       </c>
@@ -40083,7 +40105,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>119</v>
       </c>
@@ -40091,7 +40113,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121">
         <v>120</v>
       </c>
@@ -40099,7 +40121,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122">
         <v>121</v>
       </c>
@@ -40107,7 +40129,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123">
         <v>122</v>
       </c>
@@ -40115,7 +40137,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E124">
         <v>123</v>
       </c>
@@ -40123,7 +40145,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>124</v>
       </c>
@@ -40131,7 +40153,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>125</v>
       </c>
@@ -40139,7 +40161,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>126</v>
       </c>
@@ -40147,7 +40169,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>127</v>
       </c>
@@ -40155,7 +40177,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>128</v>
       </c>
@@ -40163,7 +40185,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>17</v>
       </c>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA13EE-FCAB-4E99-B9CE-97332B93AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867245C-C852-465F-9F36-57BBA74E1690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="397">
   <si>
     <t>Ranking</t>
   </si>
@@ -1571,14 +1571,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q579" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q579" xr:uid="{3CCEDFA4-D1D2-44A5-88A2-25D16539CD92}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q531">
-    <sortCondition ref="E2:E531"/>
-    <sortCondition ref="H2:H531"/>
-    <sortCondition ref="I2:I531"/>
-    <sortCondition ref="J2:J531"/>
-    <sortCondition ref="C2:C531"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q575" tableType="xml" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q575">
+    <sortCondition ref="E2:E575"/>
+    <sortCondition ref="H2:H575"/>
+    <sortCondition ref="I2:I575"/>
+    <sortCondition ref="J2:J575"/>
+    <sortCondition ref="C2:C575"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{23BBF0BD-A33F-49F8-8541-D359B73C9AAA}" uniqueName="LastName" name="LastName">
@@ -2001,11 +2000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q579"/>
+  <dimension ref="A1:Q575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A579" sqref="A579"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6456,7 +6455,7 @@
       </c>
       <c r="M73" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15118,7 +15117,7 @@
       </c>
       <c r="M215" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N215" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -32026,13 +32025,13 @@
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" s="20" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B493" s="20" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="C493" s="22">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D493" s="13">
         <v>20</v>
@@ -32058,7 +32057,7 @@
       </c>
       <c r="K493" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L493" s="20">
         <v>1</v>
@@ -32073,7 +32072,7 @@
       </c>
       <c r="O493" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L493=0,VLOOKUP(C493,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C493,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P493" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32146,13 +32145,13 @@
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" s="20" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C495" s="22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D495" s="13">
         <v>20</v>
@@ -32178,22 +32177,22 @@
       </c>
       <c r="K495" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L495" s="20">
         <v>1</v>
       </c>
       <c r="M495" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N495" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O495" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L495=0,VLOOKUP(C495,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C495,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P495" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32201,18 +32200,18 @@
       </c>
       <c r="Q495" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" s="20" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="C496" s="22">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D496" s="13">
         <v>20</v>
@@ -32245,15 +32244,15 @@
       </c>
       <c r="M496" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N496" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O496" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L496=0,VLOOKUP(C496,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C496,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P496" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32261,18 +32260,18 @@
       </c>
       <c r="Q496" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" s="20" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C497" s="22">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D497" s="13">
         <v>25</v>
@@ -32298,22 +32297,22 @@
       </c>
       <c r="K497" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L497" s="20">
         <v>1</v>
       </c>
       <c r="M497" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N497" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O497" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L497=0,VLOOKUP(C497,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C497,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P497" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32321,7 +32320,7 @@
       </c>
       <c r="Q497" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="498" spans="1:17" x14ac:dyDescent="0.25">
@@ -32386,13 +32385,13 @@
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" s="20" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="B499" s="20" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C499" s="22">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D499" s="13">
         <v>25</v>
@@ -32418,22 +32417,22 @@
       </c>
       <c r="K499" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L499" s="20">
         <v>1</v>
       </c>
       <c r="M499" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N499" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O499" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L499=0,VLOOKUP(C499,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C499,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P499" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32441,7 +32440,7 @@
       </c>
       <c r="Q499" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.25">
@@ -32506,13 +32505,13 @@
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" s="20" t="s">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="C501" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D501" s="13">
         <v>16</v>
@@ -32538,22 +32537,22 @@
       </c>
       <c r="K501" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L501" s="20">
         <v>1</v>
       </c>
       <c r="M501" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N501" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O501" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L501=0,VLOOKUP(C501,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C501,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P501" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32561,18 +32560,18 @@
       </c>
       <c r="Q501" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" s="20" t="s">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="C502" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D502" s="13">
         <v>16</v>
@@ -32598,22 +32597,22 @@
       </c>
       <c r="K502" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L502" s="20">
         <v>1</v>
       </c>
       <c r="M502" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N502" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O502" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L502=0,VLOOKUP(C502,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C502,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P502" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32621,7 +32620,7 @@
       </c>
       <c r="Q502" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.25">
@@ -32746,13 +32745,13 @@
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" s="20" t="s">
-        <v>396</v>
+        <v>61</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="C505" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D505" s="13">
         <v>13</v>
@@ -32778,22 +32777,22 @@
       </c>
       <c r="K505" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L505" s="20">
         <v>1</v>
       </c>
       <c r="M505" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N505" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O505" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L505=0,VLOOKUP(C505,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C505,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P505" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32801,7 +32800,7 @@
       </c>
       <c r="Q505" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.25">
@@ -32866,13 +32865,13 @@
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" s="20" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B507" s="20" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C507" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D507" s="13">
         <v>13</v>
@@ -32898,22 +32897,22 @@
       </c>
       <c r="K507" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L507" s="20">
         <v>1</v>
       </c>
       <c r="M507" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N507" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O507" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L507=0,VLOOKUP(C507,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C507,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P507" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32921,18 +32920,18 @@
       </c>
       <c r="Q507" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" s="20" t="s">
-        <v>29</v>
+        <v>396</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="C508" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D508" s="13">
         <v>13</v>
@@ -32973,7 +32972,7 @@
       </c>
       <c r="O508" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L508=0,VLOOKUP(C508,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C508,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P508" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33226,13 +33225,13 @@
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" s="20" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C513" s="22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D513" s="13">
         <v>29</v>
@@ -33258,14 +33257,14 @@
       </c>
       <c r="K513" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>AHFC</v>
       </c>
       <c r="L513" s="20">
         <v>1</v>
       </c>
       <c r="M513" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N513" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33346,13 +33345,13 @@
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" s="20" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C515" s="22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D515" s="13">
         <v>29</v>
@@ -33378,14 +33377,14 @@
       </c>
       <c r="K515" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L515" s="20">
         <v>1</v>
       </c>
       <c r="M515" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N515" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33406,13 +33405,13 @@
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" s="20" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B516" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C516" s="22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D516" s="13">
         <v>29</v>
@@ -33438,14 +33437,14 @@
       </c>
       <c r="K516" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L516" s="20">
         <v>1</v>
       </c>
       <c r="M516" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N516" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -33646,13 +33645,13 @@
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" s="20" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C520" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D520" s="13">
         <v>9</v>
@@ -33678,22 +33677,22 @@
       </c>
       <c r="K520" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L520" s="20">
         <v>1</v>
       </c>
       <c r="M520" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N520" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O520" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P520" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33701,18 +33700,18 @@
       </c>
       <c r="Q520" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" s="20" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="B521" s="20" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C521" s="22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D521" s="13">
         <v>9</v>
@@ -33738,22 +33737,22 @@
       </c>
       <c r="K521" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFeC</v>
+        <v>ASC</v>
       </c>
       <c r="L521" s="20">
         <v>1</v>
       </c>
       <c r="M521" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N521" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O521" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L521=0,VLOOKUP(C521,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C521,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P521" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33761,7 +33760,7 @@
       </c>
       <c r="Q521" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.25">
@@ -33886,13 +33885,13 @@
     </row>
     <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" s="20" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="B524" s="20" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="C524" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D524" s="13">
         <v>19</v>
@@ -33918,18 +33917,18 @@
       </c>
       <c r="K524" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L524" s="20">
         <v>1</v>
       </c>
       <c r="M524" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N524" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O524" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L524=0,VLOOKUP(C524,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C524,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -33941,18 +33940,18 @@
       </c>
       <c r="Q524" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" s="20" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B525" s="20" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C525" s="22">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D525" s="13">
         <v>19</v>
@@ -33985,15 +33984,15 @@
       </c>
       <c r="M525" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N525" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O525" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L525=0,VLOOKUP(C525,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C525,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P525" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34001,18 +34000,18 @@
       </c>
       <c r="Q525" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" s="20" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="C526" s="22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D526" s="13">
         <v>19</v>
@@ -34038,18 +34037,18 @@
       </c>
       <c r="K526" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AUFeC</v>
       </c>
       <c r="L526" s="20">
         <v>1</v>
       </c>
       <c r="M526" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N526" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O526" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L526=0,VLOOKUP(C526,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C526,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -34061,18 +34060,18 @@
       </c>
       <c r="Q526" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" s="20" t="s">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="B527" s="20" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="C527" s="22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D527" s="13">
         <v>19</v>
@@ -34098,22 +34097,22 @@
       </c>
       <c r="K527" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AUFeC</v>
+        <v>CSFC</v>
       </c>
       <c r="L527" s="20">
         <v>1</v>
       </c>
       <c r="M527" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N527" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O527" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L527=0,VLOOKUP(C527,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C527,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P527" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34121,18 +34120,18 @@
       </c>
       <c r="Q527" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C528" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D528" s="13">
         <v>19</v>
@@ -34165,7 +34164,7 @@
       </c>
       <c r="M528" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N528" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34186,13 +34185,13 @@
     </row>
     <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C529" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D529" s="13">
         <v>19</v>
@@ -34225,7 +34224,7 @@
       </c>
       <c r="M529" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N529" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34246,13 +34245,13 @@
     </row>
     <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" s="20" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C530" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D530" s="13">
         <v>5</v>
@@ -34293,7 +34292,7 @@
       </c>
       <c r="O530" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L530=0,VLOOKUP(C530,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C530,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P530" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34306,13 +34305,13 @@
     </row>
     <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" s="20" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C531" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D531" s="13">
         <v>5</v>
@@ -34353,7 +34352,7 @@
       </c>
       <c r="O531" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L531=0,VLOOKUP(C531,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C531,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P531" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34366,17 +34365,17 @@
     </row>
     <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" s="20" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B532" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C532" s="22" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="C532" s="22">
+        <v>1</v>
       </c>
       <c r="D532" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E532" s="5">
         <v>44374</v>
@@ -34388,7 +34387,7 @@
         <v>284</v>
       </c>
       <c r="H532" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I532" s="20" t="s">
         <v>288</v>
@@ -34406,7 +34405,7 @@
       </c>
       <c r="M532" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N532" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34414,30 +34413,30 @@
       </c>
       <c r="O532" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L532=0,VLOOKUP(C532,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C532,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="P532" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q532" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" s="20" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B533" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C533" s="22" t="s">
-        <v>17</v>
+        <v>139</v>
+      </c>
+      <c r="C533" s="22">
+        <v>2</v>
       </c>
       <c r="D533" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E533" s="5">
         <v>44374</v>
@@ -34449,7 +34448,7 @@
         <v>284</v>
       </c>
       <c r="H533" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I533" s="20" t="s">
         <v>288</v>
@@ -34467,7 +34466,7 @@
       </c>
       <c r="M533" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N533" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34475,30 +34474,30 @@
       </c>
       <c r="O533" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L533=0,VLOOKUP(C533,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C533,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P533" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q533" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" s="20" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C534" s="22" t="s">
-        <v>17</v>
+        <v>378</v>
+      </c>
+      <c r="C534" s="22">
+        <v>3</v>
       </c>
       <c r="D534" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E534" s="5">
         <v>44374</v>
@@ -34510,14 +34509,14 @@
         <v>284</v>
       </c>
       <c r="H534" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I534" s="20" t="s">
         <v>288</v>
       </c>
       <c r="J534" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K534" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -34528,7 +34527,7 @@
       </c>
       <c r="M534" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N534" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34536,30 +34535,30 @@
       </c>
       <c r="O534" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L534=0,VLOOKUP(C534,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C534,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P534" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q534" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" s="20" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C535" s="22" t="s">
-        <v>17</v>
+        <v>157</v>
+      </c>
+      <c r="C535" s="22">
+        <v>5</v>
       </c>
       <c r="D535" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E535" s="5">
         <v>44374</v>
@@ -34571,7 +34570,7 @@
         <v>284</v>
       </c>
       <c r="H535" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I535" s="20" t="s">
         <v>288</v>
@@ -34582,14 +34581,14 @@
       </c>
       <c r="K535" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>TPFC</v>
       </c>
       <c r="L535" s="20">
         <v>0</v>
       </c>
       <c r="M535" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N535" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34597,26 +34596,26 @@
       </c>
       <c r="O535" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L535=0,VLOOKUP(C535,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C535,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P535" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q535" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" s="20" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C536" s="22" t="s">
-        <v>17</v>
+        <v>135</v>
+      </c>
+      <c r="C536" s="22">
+        <v>3</v>
       </c>
       <c r="D536" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -34632,14 +34631,14 @@
         <v>284</v>
       </c>
       <c r="H536" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I536" s="20" t="s">
         <v>288</v>
       </c>
       <c r="J536" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K536" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -34658,30 +34657,30 @@
       </c>
       <c r="O536" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L536=0,VLOOKUP(C536,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C536,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P536" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q536" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" s="20" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C537" s="22" t="s">
-        <v>17</v>
+        <v>115</v>
+      </c>
+      <c r="C537" s="22">
+        <v>6</v>
       </c>
       <c r="D537" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E537" s="5">
         <v>44374</v>
@@ -34693,7 +34692,7 @@
         <v>284</v>
       </c>
       <c r="H537" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I537" s="20" t="s">
         <v>288</v>
@@ -34711,7 +34710,7 @@
       </c>
       <c r="M537" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N537" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34719,30 +34718,30 @@
       </c>
       <c r="O537" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L537=0,VLOOKUP(C537,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C537,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P537" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q537" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" s="20" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="B538" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C538" s="22" t="s">
-        <v>17</v>
+        <v>139</v>
+      </c>
+      <c r="C538" s="22">
+        <v>1</v>
       </c>
       <c r="D538" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E538" s="5">
         <v>44374</v>
@@ -34754,10 +34753,10 @@
         <v>284</v>
       </c>
       <c r="H538" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I538" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J538" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -34765,14 +34764,14 @@
       </c>
       <c r="K538" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L538" s="20">
         <v>0</v>
       </c>
       <c r="M538" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N538" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34780,7 +34779,7 @@
       </c>
       <c r="O538" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L538=0,VLOOKUP(C538,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C538,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="P538" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34788,22 +34787,22 @@
       </c>
       <c r="Q538" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" s="20" t="s">
-        <v>369</v>
+        <v>107</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C539" s="22" t="s">
-        <v>17</v>
+        <v>143</v>
+      </c>
+      <c r="C539" s="22">
+        <v>2</v>
       </c>
       <c r="D539" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E539" s="5">
         <v>44374</v>
@@ -34815,10 +34814,10 @@
         <v>284</v>
       </c>
       <c r="H539" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I539" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J539" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -34826,14 +34825,14 @@
       </c>
       <c r="K539" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L539" s="20">
         <v>0</v>
       </c>
       <c r="M539" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N539" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -34841,7 +34840,7 @@
       </c>
       <c r="O539" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L539=0,VLOOKUP(C539,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C539,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P539" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34849,22 +34848,22 @@
       </c>
       <c r="Q539" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" s="20" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="B540" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C540" s="22" t="s">
-        <v>17</v>
+        <v>378</v>
+      </c>
+      <c r="C540" s="22">
+        <v>3</v>
       </c>
       <c r="D540" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E540" s="5">
         <v>44374</v>
@@ -34876,10 +34875,10 @@
         <v>284</v>
       </c>
       <c r="H540" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I540" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J540" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -34887,7 +34886,7 @@
       </c>
       <c r="K540" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L540" s="20">
         <v>0</v>
@@ -34902,7 +34901,7 @@
       </c>
       <c r="O540" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L540=0,VLOOKUP(C540,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C540,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P540" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34910,22 +34909,22 @@
       </c>
       <c r="Q540" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" s="20" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C541" s="22" t="s">
-        <v>17</v>
+        <v>139</v>
+      </c>
+      <c r="C541" s="22">
+        <v>3</v>
       </c>
       <c r="D541" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E541" s="5">
         <v>44374</v>
@@ -34937,10 +34936,10 @@
         <v>284</v>
       </c>
       <c r="H541" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I541" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J541" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -34948,7 +34947,7 @@
       </c>
       <c r="K541" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L541" s="20">
         <v>0</v>
@@ -34963,7 +34962,7 @@
       </c>
       <c r="O541" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L541=0,VLOOKUP(C541,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C541,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P541" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -34971,22 +34970,22 @@
       </c>
       <c r="Q541" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" s="20" t="s">
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C542" s="22" t="s">
-        <v>17</v>
+        <v>151</v>
+      </c>
+      <c r="C542" s="22">
+        <v>5</v>
       </c>
       <c r="D542" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E542" s="5">
         <v>44374</v>
@@ -34998,10 +34997,10 @@
         <v>284</v>
       </c>
       <c r="H542" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I542" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J542" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -35009,7 +35008,7 @@
       </c>
       <c r="K542" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L542" s="20">
         <v>0</v>
@@ -35024,7 +35023,7 @@
       </c>
       <c r="O542" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L542=0,VLOOKUP(C542,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C542,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P542" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35032,22 +35031,22 @@
       </c>
       <c r="Q542" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" s="20" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B543" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C543" s="22" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="C543" s="22">
+        <v>1</v>
       </c>
       <c r="D543" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E543" s="5">
         <v>44374</v>
@@ -35059,14 +35058,14 @@
         <v>284</v>
       </c>
       <c r="H543" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I543" s="20" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J543" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K543" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35077,7 +35076,7 @@
       </c>
       <c r="M543" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N543" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35085,7 +35084,7 @@
       </c>
       <c r="O543" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L543=0,VLOOKUP(C543,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C543,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="P543" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35093,18 +35092,18 @@
       </c>
       <c r="Q543" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" s="20" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C544" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D544" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -35120,14 +35119,14 @@
         <v>284</v>
       </c>
       <c r="H544" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I544" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J544" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K544" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35146,7 +35145,7 @@
       </c>
       <c r="O544" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L544=0,VLOOKUP(C544,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C544,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P544" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35154,18 +35153,18 @@
       </c>
       <c r="Q544" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" s="20" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B545" s="20" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C545" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D545" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -35181,25 +35180,25 @@
         <v>284</v>
       </c>
       <c r="H545" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I545" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J545" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K545" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L545" s="20">
         <v>0</v>
       </c>
       <c r="M545" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N545" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35207,7 +35206,7 @@
       </c>
       <c r="O545" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P545" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35215,15 +35214,15 @@
       </c>
       <c r="Q545" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" s="20" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="B546" s="20" t="s">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="C546" s="22">
         <v>3</v>
@@ -35242,14 +35241,14 @@
         <v>284</v>
       </c>
       <c r="H546" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I546" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J546" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K546" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35260,7 +35259,7 @@
       </c>
       <c r="M546" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N546" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35281,13 +35280,13 @@
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" s="20" t="s">
-        <v>107</v>
+        <v>375</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="C547" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D547" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -35303,25 +35302,25 @@
         <v>284</v>
       </c>
       <c r="H547" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I547" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J547" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K547" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L547" s="20">
         <v>0</v>
       </c>
       <c r="M547" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N547" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35329,7 +35328,7 @@
       </c>
       <c r="O547" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P547" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35337,22 +35336,22 @@
       </c>
       <c r="Q547" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" s="20" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B548" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C548" s="22">
-        <v>5</v>
+        <v>135</v>
+      </c>
+      <c r="C548" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D548" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E548" s="5">
         <v>44374</v>
@@ -35367,11 +35366,11 @@
         <v>320</v>
       </c>
       <c r="I548" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J548" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K548" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -35390,7 +35389,7 @@
       </c>
       <c r="O548" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P548" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -35398,7 +35397,7 @@
       </c>
       <c r="Q548" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
@@ -35425,7 +35424,7 @@
         <v>284</v>
       </c>
       <c r="H549" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I549" s="20" t="s">
         <v>286</v>
@@ -35486,7 +35485,7 @@
         <v>284</v>
       </c>
       <c r="H550" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I550" s="20" t="s">
         <v>286</v>
@@ -35547,7 +35546,7 @@
         <v>284</v>
       </c>
       <c r="H551" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I551" s="20" t="s">
         <v>286</v>
@@ -35608,7 +35607,7 @@
         <v>284</v>
       </c>
       <c r="H552" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I552" s="20" t="s">
         <v>286</v>
@@ -35669,7 +35668,7 @@
         <v>284</v>
       </c>
       <c r="H553" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I553" s="20" t="s">
         <v>286</v>
@@ -36013,17 +36012,17 @@
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="20" t="s">
-        <v>181</v>
+        <v>369</v>
       </c>
       <c r="B559" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C559" s="22">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C559" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D559" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E559" s="5">
         <v>44374</v>
@@ -36035,14 +36034,14 @@
         <v>284</v>
       </c>
       <c r="H559" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I559" s="20" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J559" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K559" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -36053,7 +36052,7 @@
       </c>
       <c r="M559" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N559" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36061,7 +36060,7 @@
       </c>
       <c r="O559" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L559=0,VLOOKUP(C559,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C559,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="P559" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36069,22 +36068,22 @@
       </c>
       <c r="Q559" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="20" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B560" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C560" s="22">
+        <v>32</v>
+      </c>
+      <c r="C560" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D560" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>2</v>
-      </c>
-      <c r="D560" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
       </c>
       <c r="E560" s="5">
         <v>44374</v>
@@ -36099,22 +36098,22 @@
         <v>321</v>
       </c>
       <c r="I560" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J560" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K560" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L560" s="20">
         <v>0</v>
       </c>
       <c r="M560" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N560" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36122,7 +36121,7 @@
       </c>
       <c r="O560" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L560=0,VLOOKUP(C560,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C560,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P560" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36130,22 +36129,22 @@
       </c>
       <c r="Q560" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" s="20" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B561" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C561" s="22">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="C561" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D561" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E561" s="5">
         <v>44374</v>
@@ -36160,22 +36159,22 @@
         <v>321</v>
       </c>
       <c r="I561" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J561" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K561" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
+        <v>ASC</v>
       </c>
       <c r="L561" s="20">
         <v>0</v>
       </c>
       <c r="M561" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N561" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36183,7 +36182,7 @@
       </c>
       <c r="O561" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L561=0,VLOOKUP(C561,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C561,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P561" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36191,22 +36190,22 @@
       </c>
       <c r="Q561" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" s="20" t="s">
-        <v>375</v>
+        <v>122</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C562" s="22">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="C562" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D562" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E562" s="5">
         <v>44374</v>
@@ -36221,7 +36220,7 @@
         <v>321</v>
       </c>
       <c r="I562" s="20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J562" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36229,7 +36228,7 @@
       </c>
       <c r="K562" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
+        <v>ASC</v>
       </c>
       <c r="L562" s="20">
         <v>0</v>
@@ -36244,7 +36243,7 @@
       </c>
       <c r="O562" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L562=0,VLOOKUP(C562,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C562,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P562" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36252,18 +36251,18 @@
       </c>
       <c r="Q562" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" s="20" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B563" s="20" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="C563" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D563" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -36286,18 +36285,18 @@
       </c>
       <c r="J563" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K563" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L563" s="20">
         <v>0</v>
       </c>
       <c r="M563" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N563" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36305,7 +36304,7 @@
       </c>
       <c r="O563" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L563=0,VLOOKUP(C563,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C563,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="P563" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36313,22 +36312,22 @@
       </c>
       <c r="Q563" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" s="20" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="B564" s="20" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C564" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D564" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E564" s="5">
         <v>44374</v>
@@ -36340,10 +36339,10 @@
         <v>284</v>
       </c>
       <c r="H564" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I564" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J564" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36358,7 +36357,7 @@
       </c>
       <c r="M564" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N564" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36366,30 +36365,30 @@
       </c>
       <c r="O564" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L564=0,VLOOKUP(C564,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C564,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P564" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q564" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>22.400000000000002</v>
+        <v>23</v>
       </c>
     </row>
     <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" s="20" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="C565" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D565" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E565" s="5">
         <v>44374</v>
@@ -36401,10 +36400,10 @@
         <v>284</v>
       </c>
       <c r="H565" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I565" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J565" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36412,14 +36411,14 @@
       </c>
       <c r="K565" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L565" s="20">
         <v>0</v>
       </c>
       <c r="M565" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N565" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36427,30 +36426,30 @@
       </c>
       <c r="O565" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L565=0,VLOOKUP(C565,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C565,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P565" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q565" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18.400000000000002</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" s="20" t="s">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="C566" s="22">
         <v>3</v>
       </c>
       <c r="D566" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E566" s="5">
         <v>44374</v>
@@ -36462,10 +36461,10 @@
         <v>284</v>
       </c>
       <c r="H566" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I566" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J566" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36480,7 +36479,7 @@
       </c>
       <c r="M566" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N566" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36492,26 +36491,26 @@
       </c>
       <c r="P566" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q566" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" s="20" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C567" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D567" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E567" s="5">
         <v>44374</v>
@@ -36523,14 +36522,14 @@
         <v>284</v>
       </c>
       <c r="H567" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I567" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J567" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K567" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -36541,7 +36540,7 @@
       </c>
       <c r="M567" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N567" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36549,30 +36548,30 @@
       </c>
       <c r="O567" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L567=0,VLOOKUP(C567,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C567,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P567" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q567" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>7.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" s="20" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B568" s="20" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C568" s="22">
+        <v>1</v>
+      </c>
+      <c r="D568" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>5</v>
-      </c>
-      <c r="D568" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>4</v>
       </c>
       <c r="E568" s="5">
         <v>44374</v>
@@ -36584,25 +36583,25 @@
         <v>284</v>
       </c>
       <c r="H568" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I568" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J568" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K568" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>TPFC</v>
+        <v>CSFC</v>
       </c>
       <c r="L568" s="20">
         <v>0</v>
       </c>
       <c r="M568" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N568" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36610,30 +36609,30 @@
       </c>
       <c r="O568" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L568=0,VLOOKUP(C568,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C568,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="P568" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q568" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>9.6000000000000014</v>
+        <v>28</v>
       </c>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" s="20" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C569" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D569" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E569" s="5">
         <v>44374</v>
@@ -36645,10 +36644,10 @@
         <v>284</v>
       </c>
       <c r="H569" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I569" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J569" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36656,7 +36655,7 @@
       </c>
       <c r="K569" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L569" s="20">
         <v>0</v>
@@ -36671,26 +36670,26 @@
       </c>
       <c r="O569" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P569" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q569" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>4.8000000000000007</v>
+        <v>23</v>
       </c>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" s="20" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C570" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D570" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -36706,25 +36705,25 @@
         <v>284</v>
       </c>
       <c r="H570" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I570" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J570" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K570" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>AHFC</v>
       </c>
       <c r="L570" s="20">
         <v>0</v>
       </c>
       <c r="M570" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N570" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36732,7 +36731,7 @@
       </c>
       <c r="O570" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P570" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36740,18 +36739,18 @@
       </c>
       <c r="Q570" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" s="20" t="s">
-        <v>107</v>
+        <v>375</v>
       </c>
       <c r="B571" s="20" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="C571" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D571" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -36767,25 +36766,25 @@
         <v>284</v>
       </c>
       <c r="H571" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I571" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J571" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K571" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L571" s="20">
         <v>0</v>
       </c>
       <c r="M571" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N571" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36793,7 +36792,7 @@
       </c>
       <c r="O571" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P571" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36801,18 +36800,18 @@
       </c>
       <c r="Q571" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" s="20" t="s">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="C572" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D572" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
@@ -36828,14 +36827,14 @@
         <v>284</v>
       </c>
       <c r="H572" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I572" s="20" t="s">
         <v>286</v>
       </c>
       <c r="J572" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Men</v>
+        <v>Women</v>
       </c>
       <c r="K572" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -36846,7 +36845,7 @@
       </c>
       <c r="M572" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N572" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -36854,7 +36853,7 @@
       </c>
       <c r="O572" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P572" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36862,22 +36861,22 @@
       </c>
       <c r="Q572" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" s="20" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B573" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C573" s="22">
+        <v>38</v>
+      </c>
+      <c r="C573" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D573" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>3</v>
-      </c>
-      <c r="D573" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
       </c>
       <c r="E573" s="5">
         <v>44374</v>
@@ -36889,10 +36888,10 @@
         <v>284</v>
       </c>
       <c r="H573" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I573" s="20" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J573" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36900,7 +36899,7 @@
       </c>
       <c r="K573" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L573" s="20">
         <v>0</v>
@@ -36915,7 +36914,7 @@
       </c>
       <c r="O573" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P573" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36923,22 +36922,22 @@
       </c>
       <c r="Q573" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" s="20" t="s">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="B574" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C574" s="22">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C574" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D574" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E574" s="5">
         <v>44374</v>
@@ -36950,10 +36949,10 @@
         <v>284</v>
       </c>
       <c r="H574" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I574" s="20" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J574" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
@@ -36961,7 +36960,7 @@
       </c>
       <c r="K574" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>ASC</v>
+        <v>CSFC</v>
       </c>
       <c r="L574" s="20">
         <v>0</v>
@@ -36976,7 +36975,7 @@
       </c>
       <c r="O574" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L574=0,VLOOKUP(C574,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C574,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P574" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -36984,22 +36983,22 @@
       </c>
       <c r="Q574" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" s="20" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B575" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C575" s="22">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C575" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D575" s="13">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E575" s="5">
         <v>44374</v>
@@ -37011,14 +37010,14 @@
         <v>284</v>
       </c>
       <c r="H575" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I575" s="20" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="J575" s="16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
+        <v>Men</v>
       </c>
       <c r="K575" s="17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
@@ -37029,7 +37028,7 @@
       </c>
       <c r="M575" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N575" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -37037,7 +37036,7 @@
       </c>
       <c r="O575" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L575=0,VLOOKUP(C575,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C575,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="P575" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -37045,260 +37044,13 @@
       </c>
       <c r="Q575" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A576" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B576" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C576" s="22">
-        <v>2</v>
-      </c>
-      <c r="D576" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
-      </c>
-      <c r="E576" s="5">
-        <v>44374</v>
-      </c>
-      <c r="F576" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G576" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H576" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I576" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="J576" s="16" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
-      </c>
-      <c r="K576" s="17" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>AHFC</v>
-      </c>
-      <c r="L576" s="20">
-        <v>0</v>
-      </c>
-      <c r="M576" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
-      </c>
-      <c r="N576" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O576" s="18">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L576=0,VLOOKUP(C576,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C576,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
-      </c>
-      <c r="P576" s="18">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Q576" s="19">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A577" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B577" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C577" s="22">
-        <v>3</v>
-      </c>
-      <c r="D577" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
-      </c>
-      <c r="E577" s="5">
-        <v>44374</v>
-      </c>
-      <c r="F577" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G577" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H577" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I577" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="J577" s="16" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
-      </c>
-      <c r="K577" s="17" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
-      </c>
-      <c r="L577" s="20">
-        <v>0</v>
-      </c>
-      <c r="M577" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
-      </c>
-      <c r="N577" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O577" s="18">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L577=0,VLOOKUP(C577,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C577,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
-      </c>
-      <c r="P577" s="18">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Q577" s="19">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A578" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B578" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C578" s="22">
-        <v>3</v>
-      </c>
-      <c r="D578" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
-      </c>
-      <c r="E578" s="5">
-        <v>44374</v>
-      </c>
-      <c r="F578" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G578" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H578" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I578" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="J578" s="16" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
-      </c>
-      <c r="K578" s="17" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
-      </c>
-      <c r="L578" s="20">
-        <v>0</v>
-      </c>
-      <c r="M578" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
-      </c>
-      <c r="N578" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O578" s="18">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L578=0,VLOOKUP(C578,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C578,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
-      </c>
-      <c r="P578" s="18">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Q578" s="19">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A579" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="B579" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C579" s="22">
-        <v>5</v>
-      </c>
-      <c r="D579" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>5</v>
-      </c>
-      <c r="E579" s="5">
-        <v>44374</v>
-      </c>
-      <c r="F579" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G579" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H579" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I579" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="J579" s="16" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
-        <v>Women</v>
-      </c>
-      <c r="K579" s="17" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>CSFC</v>
-      </c>
-      <c r="L579" s="20">
-        <v>0</v>
-      </c>
-      <c r="M579" s="18">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N579" s="18">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O579" s="18">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L579=0,VLOOKUP(C579,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C579,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
-      </c>
-      <c r="P579" s="18">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="Q579" s="19">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D493 D494:D496 D497:D500 D501:D504 D505:D517 D518:D519 D520:D522 D523:D527 D528:D529 D530:D531" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB4EA9-2F19-4D9E-9569-BE8526418A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B434E2-BA85-446E-AA88-01127F304620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15540" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4428" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="410">
   <si>
     <t>Ranking</t>
   </si>
@@ -1610,8 +1610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q544" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q544" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q547" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q547" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q485">
     <sortCondition ref="E2:E485"/>
     <sortCondition ref="H2:H485"/>
@@ -2040,11 +2040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q544"/>
+  <dimension ref="A1:Q547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A544" sqref="A544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28833,7 +28833,7 @@
       </c>
       <c r="M440" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N440" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29687,7 +29687,7 @@
       </c>
       <c r="M454" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N454" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29748,7 +29748,7 @@
       </c>
       <c r="M455" s="18">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N455" s="18">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35194,6 +35194,189 @@
       <c r="Q544" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A545" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B545" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C545" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D545" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E545" s="5">
+        <v>44451</v>
+      </c>
+      <c r="F545" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H545" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I545" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="J545" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K545" s="17" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L545" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="M545" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N545" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P545" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q545" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A546" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B546" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C546" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D546" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>2</v>
+      </c>
+      <c r="E546" s="5">
+        <v>44451</v>
+      </c>
+      <c r="F546" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G546" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H546" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I546" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="J546" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K546" s="17" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L546" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="M546" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N546" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P546" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q546" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A547" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C547" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D547" s="13">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>1</v>
+      </c>
+      <c r="E547" s="5">
+        <v>44451</v>
+      </c>
+      <c r="F547" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G547" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H547" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="I547" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="J547" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K547" s="17" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L547" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="M547" s="18">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N547" s="18">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="18">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P547" s="18">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q547" s="19">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C05214-040C-4F0D-BD9D-CF23C95B86C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03313711-6D9C-4453-B600-CCEFBC0E08EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,6 +1422,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -1484,15 +1493,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1688,19 +1688,19 @@
     <tableColumn id="9" xr3:uid="{00BEEB21-F787-4523-B245-1C91A1B25514}" uniqueName="Named" name="Special" dataDxfId="8">
       <xmlColumnPr mapId="6" xpath="/results/result/Named" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A211CEEC-F09E-496B-99ED-D7D496545BB4}" uniqueName="12" name="No.S" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{A211CEEC-F09E-496B-99ED-D7D496545BB4}" uniqueName="12" name="No.S" dataDxfId="7">
       <calculatedColumnFormula>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C8020774-91F5-437F-B5E9-C1FC7465CC03}" uniqueName="13" name="NI.Mult" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{C8020774-91F5-437F-B5E9-C1FC7465CC03}" uniqueName="13" name="NI.Mult" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{160BEDD1-4394-459B-8F44-CFC2219C7BF1}" uniqueName="0" name="Ranking.Points" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{160BEDD1-4394-459B-8F44-CFC2219C7BF1}" uniqueName="0" name="Ranking.Points" dataDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L2=0,VLOOKUP(C2,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C2,'Ranking Values'!A:C,3,FALSE))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{AD3110F0-7D96-478B-8F80-F8A52AA37959}" uniqueName="0" name="Mulitplier" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{AD3110F0-7D96-478B-8F80-F8A52AA37959}" uniqueName="0" name="Mulitplier" dataDxfId="4">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0DC43692-72DA-4E68-802C-A8AB35C41C0C}" uniqueName="Points" name="Points" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{0DC43692-72DA-4E68-802C-A8AB35C41C0C}" uniqueName="Points" name="Points" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</calculatedColumnFormula>
       <xmlColumnPr mapId="6" xpath="/results/result/Points" xmlDataType="string"/>
     </tableColumn>
@@ -1720,11 +1720,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{32B20E36-9F3E-43E1-A2FD-352266F3A662}" name="LastName"/>
     <tableColumn id="2" xr3:uid="{EF459D54-B7A1-41A6-B6AD-B2FB16B4B70F}" name="FirstName"/>
-    <tableColumn id="13" xr3:uid="{A52968D0-9E7C-460C-BB8B-3F61E59B89D3}" name="LN.FN" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{A52968D0-9E7C-460C-BB8B-3F61E59B89D3}" name="LN.FN" dataDxfId="2">
       <calculatedColumnFormula>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A4B77A9-EF18-4E63-94B4-819D3FC561A1}" name="DOB" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{F8171842-7042-411D-9002-AF162CB1B980}" name="CalculatedAge" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{6A4B77A9-EF18-4E63-94B4-819D3FC561A1}" name="DOB" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{F8171842-7042-411D-9002-AF162CB1B980}" name="CalculatedAge" dataDxfId="0">
       <calculatedColumnFormula>ROUNDDOWN((K2-Table13[[#This Row],[DOB]])/365,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E0DF7C42-1D72-4EF4-9C93-BFD8F6A52BCC}" name="Club"/>
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:Q525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M524" sqref="M524"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L480" sqref="L480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31335,7 +31335,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L482" s="27"/>
+      <c r="L482" s="27">
+        <v>0</v>
+      </c>
       <c r="M482" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31392,7 +31394,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L483" s="27"/>
+      <c r="L483" s="27">
+        <v>0</v>
+      </c>
       <c r="M483" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31449,7 +31453,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L484" s="27"/>
+      <c r="L484" s="27">
+        <v>0</v>
+      </c>
       <c r="M484" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31506,7 +31512,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L485" s="27"/>
+      <c r="L485" s="27">
+        <v>0</v>
+      </c>
       <c r="M485" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31563,7 +31571,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L486" s="27"/>
+      <c r="L486" s="27">
+        <v>0</v>
+      </c>
       <c r="M486" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31621,7 +31631,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L487" s="27"/>
+      <c r="L487" s="27">
+        <v>0</v>
+      </c>
       <c r="M487" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31679,7 +31691,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L488" s="27"/>
+      <c r="L488" s="27">
+        <v>0</v>
+      </c>
       <c r="M488" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31737,7 +31751,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L489" s="27"/>
+      <c r="L489" s="27">
+        <v>0</v>
+      </c>
       <c r="M489" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31795,7 +31811,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L490" s="27"/>
+      <c r="L490" s="27">
+        <v>0</v>
+      </c>
       <c r="M490" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31853,7 +31871,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L491" s="27"/>
+      <c r="L491" s="27">
+        <v>0</v>
+      </c>
       <c r="M491" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31911,7 +31931,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L492" s="27"/>
+      <c r="L492" s="27">
+        <v>0</v>
+      </c>
       <c r="M492" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31969,7 +31991,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L493" s="27"/>
+      <c r="L493" s="27">
+        <v>0</v>
+      </c>
       <c r="M493" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32027,7 +32051,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L494" s="27"/>
+      <c r="L494" s="27">
+        <v>0</v>
+      </c>
       <c r="M494" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32085,7 +32111,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L495" s="27"/>
+      <c r="L495" s="27">
+        <v>0</v>
+      </c>
       <c r="M495" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32143,7 +32171,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L496" s="27"/>
+      <c r="L496" s="27">
+        <v>0</v>
+      </c>
       <c r="M496" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32201,7 +32231,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L497" s="27"/>
+      <c r="L497" s="27">
+        <v>0</v>
+      </c>
       <c r="M497" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32259,7 +32291,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L498" s="27"/>
+      <c r="L498" s="27">
+        <v>0</v>
+      </c>
       <c r="M498" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32317,7 +32351,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L499" s="27"/>
+      <c r="L499" s="27">
+        <v>0</v>
+      </c>
       <c r="M499" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32375,7 +32411,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L500" s="27"/>
+      <c r="L500" s="27">
+        <v>0</v>
+      </c>
       <c r="M500" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32433,7 +32471,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L501" s="27"/>
+      <c r="L501" s="27">
+        <v>0</v>
+      </c>
       <c r="M501" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32491,7 +32531,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L502" s="27"/>
+      <c r="L502" s="27">
+        <v>0</v>
+      </c>
       <c r="M502" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -32548,7 +32590,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L503" s="27"/>
+      <c r="L503" s="27">
+        <v>0</v>
+      </c>
       <c r="M503" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32605,7 +32649,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L504" s="27"/>
+      <c r="L504" s="27">
+        <v>0</v>
+      </c>
       <c r="M504" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32662,7 +32708,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L505" s="27"/>
+      <c r="L505" s="27">
+        <v>0</v>
+      </c>
       <c r="M505" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32719,7 +32767,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L506" s="27"/>
+      <c r="L506" s="27">
+        <v>0</v>
+      </c>
       <c r="M506" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32777,7 +32827,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L507" s="27"/>
+      <c r="L507" s="27">
+        <v>0</v>
+      </c>
       <c r="M507" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32835,7 +32887,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L508" s="27"/>
+      <c r="L508" s="27">
+        <v>0</v>
+      </c>
       <c r="M508" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32893,7 +32947,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L509" s="27"/>
+      <c r="L509" s="27">
+        <v>0</v>
+      </c>
       <c r="M509" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32951,7 +33007,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L510" s="27"/>
+      <c r="L510" s="27">
+        <v>0</v>
+      </c>
       <c r="M510" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -33009,7 +33067,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L511" s="27"/>
+      <c r="L511" s="27">
+        <v>0</v>
+      </c>
       <c r="M511" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33067,7 +33127,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L512" s="27"/>
+      <c r="L512" s="27">
+        <v>0</v>
+      </c>
       <c r="M512" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -33125,7 +33187,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L513" s="27"/>
+      <c r="L513" s="27">
+        <v>0</v>
+      </c>
       <c r="M513" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33183,7 +33247,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L514" s="27"/>
+      <c r="L514" s="27">
+        <v>0</v>
+      </c>
       <c r="M514" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33241,7 +33307,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L515" s="27"/>
+      <c r="L515" s="27">
+        <v>0</v>
+      </c>
       <c r="M515" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -33299,7 +33367,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L516" s="27"/>
+      <c r="L516" s="27">
+        <v>0</v>
+      </c>
       <c r="M516" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -33357,7 +33427,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L517" s="27"/>
+      <c r="L517" s="27">
+        <v>0</v>
+      </c>
       <c r="M517" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33415,7 +33487,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L518" s="27"/>
+      <c r="L518" s="27">
+        <v>0</v>
+      </c>
       <c r="M518" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -33473,7 +33547,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L519" s="27"/>
+      <c r="L519" s="27">
+        <v>0</v>
+      </c>
       <c r="M519" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03313711-6D9C-4453-B600-CCEFBC0E08EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23B8D85-49D3-4FF0-B968-D8C65805B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="405" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="416">
   <si>
     <t>Ranking</t>
   </si>
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1407,6 +1407,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Bold text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1710,12 +1711,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H211" totalsRowShown="0">
-  <autoFilter ref="A1:H211" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
-    <sortCondition ref="A2:A204"/>
-    <sortCondition ref="B2:B204"/>
-    <sortCondition ref="D2:D204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H212" totalsRowShown="0">
+  <autoFilter ref="A1:H212" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
+    <sortCondition ref="A2:A205"/>
+    <sortCondition ref="B2:B205"/>
+    <sortCondition ref="D2:D205"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{32B20E36-9F3E-43E1-A2FD-352266F3A662}" name="LastName"/>
@@ -2073,9 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L480" sqref="L480"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A514" sqref="A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33653,10 +33654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34932,31 +34933,31 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="9" t="str">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Bugeja.Hannah</v>
+        <v>Burgun.Alexandre</v>
       </c>
       <c r="D36" s="1">
-        <v>38756</v>
+        <v>31399</v>
       </c>
       <c r="E36" s="2">
-        <f>ROUNDDOWN((K36-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>198</v>
       </c>
       <c r="H36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
@@ -34964,26 +34965,26 @@
       </c>
       <c r="L36" s="2">
         <f>ROUNDDOWN((K36-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C37" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Burgun.Alexandre</v>
+        <v>Bury.Connor</v>
       </c>
       <c r="D37" s="1">
-        <v>31399</v>
+        <v>36161</v>
       </c>
       <c r="E37" s="2">
-        <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>35</v>
+        <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -35000,29 +35001,29 @@
       </c>
       <c r="L37" s="2">
         <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="C38" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Bury.Connor</v>
+        <v>CAMERLENGO.AARON</v>
       </c>
       <c r="D38" s="1">
-        <v>36161</v>
+        <v>39521</v>
       </c>
       <c r="E38" s="2">
-        <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G38" t="s">
         <v>198</v>
@@ -35036,29 +35037,29 @@
       </c>
       <c r="L38" s="2">
         <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C39" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>CAMERLENGO.AARON</v>
+        <v>Campbell.William</v>
       </c>
       <c r="D39" s="1">
-        <v>39521</v>
+        <v>35355</v>
       </c>
       <c r="E39" s="2">
-        <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>198</v>
@@ -35072,29 +35073,29 @@
       </c>
       <c r="L39" s="2">
         <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C40" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Campbell.William</v>
+        <v>Casey.Max</v>
       </c>
       <c r="D40" s="1">
-        <v>35355</v>
+        <v>39892</v>
       </c>
       <c r="E40" s="2">
-        <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
         <v>198</v>
@@ -35108,35 +35109,35 @@
       </c>
       <c r="L40" s="2">
         <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C41" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Casey.Max</v>
+        <v>Cassidy.Jennifer</v>
       </c>
       <c r="D41" s="1">
-        <v>39892</v>
+        <v>21840</v>
       </c>
       <c r="E41" s="2">
-        <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>198</v>
       </c>
       <c r="H41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="1"/>
@@ -35144,35 +35145,35 @@
       </c>
       <c r="L41" s="2">
         <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="C42" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cassidy.Jennifer</v>
+        <v>Chambers.Oscar</v>
       </c>
       <c r="D42" s="1">
-        <v>21840</v>
+        <v>38810</v>
       </c>
       <c r="E42" s="2">
-        <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
         <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="1"/>
@@ -35180,26 +35181,26 @@
       </c>
       <c r="L42" s="2">
         <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C43" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chambers.Oscar</v>
+        <v>Chandran.Nalin</v>
       </c>
       <c r="D43" s="1">
-        <v>38810</v>
+        <v>37556</v>
       </c>
       <c r="E43" s="2">
-        <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K44-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -35216,7 +35217,7 @@
       </c>
       <c r="L43" s="2">
         <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -35224,17 +35225,17 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chandran.Nalin</v>
+        <v>Chandran.Roshan</v>
       </c>
       <c r="D44" s="1">
         <v>37556</v>
       </c>
       <c r="E44" s="2">
-        <f>ROUNDDOWN((K44-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>18</v>
       </c>
       <c r="F44" t="s">
@@ -35257,21 +35258,21 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chandran.Roshan</v>
+        <v>Chaplin.Andrea</v>
       </c>
       <c r="D45" s="1">
-        <v>37556</v>
+        <v>23379</v>
       </c>
       <c r="E45" s="2">
-        <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -35280,7 +35281,7 @@
         <v>198</v>
       </c>
       <c r="H45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="1"/>
@@ -35288,26 +35289,26 @@
       </c>
       <c r="L45" s="2">
         <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C46" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chaplin.Andrea</v>
+        <v>Chapman.Lara</v>
       </c>
       <c r="D46" s="1">
-        <v>23379</v>
+        <v>39987</v>
       </c>
       <c r="E46" s="2">
-        <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>57</v>
+        <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -35324,7 +35325,7 @@
       </c>
       <c r="L46" s="2">
         <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -35332,18 +35333,18 @@
         <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C47" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chapman.Lara</v>
+        <v>Chapman.Patrick</v>
       </c>
       <c r="D47" s="1">
-        <v>39987</v>
+        <v>38230</v>
       </c>
       <c r="E47" s="2">
-        <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K48-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -35352,7 +35353,7 @@
         <v>198</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="1"/>
@@ -35360,25 +35361,25 @@
       </c>
       <c r="L47" s="2">
         <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="C48" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chapman.Patrick</v>
+        <v>Clarke.Declan</v>
       </c>
       <c r="D48" s="1">
-        <v>38230</v>
+        <v>38355</v>
       </c>
       <c r="E48" s="2">
-        <f>ROUNDDOWN((K48-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>16</v>
       </c>
       <c r="F48" t="s">
@@ -35401,21 +35402,21 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C49" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Clarke.Declan</v>
+        <v>Collins.Elizabeth</v>
       </c>
       <c r="D49" s="1">
-        <v>38355</v>
+        <v>22758</v>
       </c>
       <c r="E49" s="2">
-        <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -35424,7 +35425,7 @@
         <v>198</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="1"/>
@@ -35432,35 +35433,35 @@
       </c>
       <c r="L49" s="2">
         <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C50" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Collins.Elizabeth</v>
+        <v>Coombe.Nathaniel</v>
       </c>
       <c r="D50" s="1">
-        <v>22758</v>
+        <v>38236</v>
       </c>
       <c r="E50" s="2">
-        <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>58</v>
+        <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>198</v>
       </c>
       <c r="H50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="1"/>
@@ -35468,26 +35469,26 @@
       </c>
       <c r="L50" s="2">
         <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C51" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Coombe.Nathaniel</v>
+        <v>Cosgriff.Angus</v>
       </c>
       <c r="D51" s="1">
-        <v>38236</v>
+        <v>40282</v>
       </c>
       <c r="E51" s="2">
-        <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
@@ -35504,26 +35505,26 @@
       </c>
       <c r="L51" s="2">
         <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C52" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cosgriff.Angus</v>
+        <v>Cowling.Darcy</v>
       </c>
       <c r="D52" s="1">
-        <v>40282</v>
+        <v>38052</v>
       </c>
       <c r="E52" s="2">
-        <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>50</v>
@@ -35540,35 +35541,35 @@
       </c>
       <c r="L52" s="2">
         <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C53" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cowling.Darcy</v>
+        <v>Dal Moro Ferreira.Isabela</v>
       </c>
       <c r="D53" s="1">
-        <v>38052</v>
+        <v>39431</v>
       </c>
       <c r="E53" s="2">
-        <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
         <v>198</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="1"/>
@@ -35576,35 +35577,35 @@
       </c>
       <c r="L53" s="2">
         <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="str">
+      <c r="A54" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dal Moro Ferreira.Isabela</v>
+        <v>Dawes.Oscar</v>
       </c>
       <c r="D54" s="1">
-        <v>39431</v>
+        <v>39626</v>
       </c>
       <c r="E54" s="2">
-        <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
       </c>
       <c r="H54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -35612,29 +35613,29 @@
       </c>
       <c r="L54" s="2">
         <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="9" t="str">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawes.Oscar</v>
+        <v>Dawson.Bruce</v>
       </c>
       <c r="D55" s="1">
-        <v>39626</v>
+        <v>19555</v>
       </c>
       <c r="E55" s="2">
-        <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
         <v>198</v>
@@ -35648,7 +35649,7 @@
       </c>
       <c r="L55" s="2">
         <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -35656,18 +35657,18 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawson.Bruce</v>
+        <v>Dawson.Jackie</v>
       </c>
       <c r="D56" s="1">
-        <v>19555</v>
+        <v>26350</v>
       </c>
       <c r="E56" s="2">
-        <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>67</v>
+        <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
@@ -35676,7 +35677,7 @@
         <v>198</v>
       </c>
       <c r="H56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -35684,35 +35685,35 @@
       </c>
       <c r="L56" s="2">
         <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="C57" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawson.Jackie</v>
+        <v>De Groot.Bas</v>
       </c>
       <c r="D57" s="1">
-        <v>26350</v>
+        <v>28333</v>
       </c>
       <c r="E57" s="2">
-        <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
         <v>198</v>
       </c>
       <c r="H57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -35720,29 +35721,29 @@
       </c>
       <c r="L57" s="2">
         <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" t="str">
+      <c r="A58" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>De Groot.Bas</v>
+        <v>Deverson.Sebastian</v>
       </c>
       <c r="D58" s="1">
-        <v>28333</v>
+        <v>36790</v>
       </c>
       <c r="E58" s="2">
-        <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>43</v>
+        <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>198</v>
@@ -35756,35 +35757,35 @@
       </c>
       <c r="L58" s="2">
         <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="9" t="str">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Deverson.Sebastian</v>
+        <v>Dhami.Nina</v>
       </c>
       <c r="D59" s="1">
-        <v>36790</v>
+        <v>40284</v>
       </c>
       <c r="E59" s="2">
-        <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>198</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -35792,7 +35793,7 @@
       </c>
       <c r="L59" s="2">
         <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -35800,18 +35801,18 @@
         <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C60" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dhami.Nina</v>
+        <v>Dhami.Rajvir</v>
       </c>
       <c r="D60" s="1">
-        <v>40284</v>
+        <v>41144</v>
       </c>
       <c r="E60" s="2">
-        <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -35820,7 +35821,7 @@
         <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -35828,26 +35829,26 @@
       </c>
       <c r="L60" s="2">
         <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="C61" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dhami.Rajvir</v>
+        <v>Dippy.Charlotte</v>
       </c>
       <c r="D61" s="1">
-        <v>41144</v>
+        <v>39000</v>
       </c>
       <c r="E61" s="2">
-        <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -35856,7 +35857,7 @@
         <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -35864,35 +35865,32 @@
       </c>
       <c r="L61" s="2">
         <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C62" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dippy.Charlotte</v>
+        <v>Doe.Leighlan</v>
       </c>
       <c r="D62" s="1">
-        <v>39000</v>
+        <v>34944</v>
       </c>
       <c r="E62" s="2">
-        <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
+        <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
         <v>198</v>
       </c>
       <c r="H62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -35900,26 +35898,29 @@
       </c>
       <c r="L62" s="2">
         <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C63" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Doe.Leighlan</v>
+        <v>Dwyer.Connor</v>
       </c>
       <c r="D63" s="1">
-        <v>34944</v>
+        <v>39902</v>
       </c>
       <c r="E63" s="2">
-        <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>201</v>
       </c>
       <c r="G63" t="s">
         <v>198</v>
@@ -35933,7 +35934,7 @@
       </c>
       <c r="L63" s="2">
         <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -35941,18 +35942,18 @@
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C64" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dwyer.Connor</v>
+        <v>Dwyer.Oscar</v>
       </c>
       <c r="D64" s="1">
-        <v>39902</v>
+        <v>39087</v>
       </c>
       <c r="E64" s="2">
-        <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
         <v>201</v>
@@ -35969,29 +35970,29 @@
       </c>
       <c r="L64" s="2">
         <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Dzodzos.Michael</v>
+      </c>
+      <c r="D65" s="1">
+        <v>34256</v>
+      </c>
+      <c r="E65" s="2">
+        <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dwyer.Oscar</v>
-      </c>
-      <c r="D65" s="1">
-        <v>39087</v>
-      </c>
-      <c r="E65" s="2">
-        <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>201</v>
       </c>
       <c r="G65" t="s">
         <v>198</v>
@@ -36005,35 +36006,35 @@
       </c>
       <c r="L65" s="2">
         <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Eladly.Laila</v>
+      </c>
+      <c r="D66" s="1">
+        <v>38882</v>
+      </c>
+      <c r="E66" s="2">
+        <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dzodzos.Michael</v>
-      </c>
-      <c r="D66" s="1">
-        <v>34256</v>
-      </c>
-      <c r="E66" s="2">
-        <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>27</v>
-      </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
         <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -36041,7 +36042,7 @@
       </c>
       <c r="L66" s="2">
         <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -36049,18 +36050,18 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="C67" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Eladly.Laila</v>
+        <v>Eladly.Salma</v>
       </c>
       <c r="D67" s="1">
-        <v>38882</v>
+        <v>40294</v>
       </c>
       <c r="E67" s="2">
-        <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K68-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>208</v>
@@ -36077,29 +36078,29 @@
       </c>
       <c r="L67" s="2">
         <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="str">
+      <c r="A68" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Eladly.Salma</v>
+        <v>Fang.Yaxian</v>
       </c>
       <c r="D68" s="1">
-        <v>40294</v>
+        <v>40502</v>
       </c>
       <c r="E68" s="2">
-        <f>ROUNDDOWN((K68-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>198</v>
@@ -36117,31 +36118,31 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C69" s="9" t="str">
+      <c r="A69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fang.Yaxian</v>
+        <v>Farrer.Henry</v>
       </c>
       <c r="D69" s="1">
-        <v>40502</v>
+        <v>39566</v>
       </c>
       <c r="E69" s="2">
-        <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G69" t="s">
         <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -36149,29 +36150,29 @@
       </c>
       <c r="L69" s="2">
         <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C70" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Farrer.Henry</v>
+        <v>Ferguson.Christian</v>
       </c>
       <c r="D70" s="1">
-        <v>39566</v>
+        <v>39420</v>
       </c>
       <c r="E70" s="2">
-        <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>198</v>
@@ -36185,7 +36186,7 @@
       </c>
       <c r="L70" s="2">
         <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -36193,18 +36194,18 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C71" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Christian</v>
+        <v>Ferguson.Clayton</v>
       </c>
       <c r="D71" s="1">
-        <v>39420</v>
+        <v>36770</v>
       </c>
       <c r="E71" s="2">
-        <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
         <v>49</v>
@@ -36221,7 +36222,7 @@
       </c>
       <c r="L71" s="2">
         <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -36229,18 +36230,18 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Clayton</v>
+        <v>Ferguson.Darren</v>
       </c>
       <c r="D72" s="1">
-        <v>36770</v>
+        <v>26818</v>
       </c>
       <c r="E72" s="2">
-        <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>49</v>
@@ -36257,7 +36258,7 @@
       </c>
       <c r="L72" s="2">
         <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -36265,18 +36266,18 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Darren</v>
+        <v>Ferguson.Nadine</v>
       </c>
       <c r="D73" s="1">
-        <v>26818</v>
+        <v>27640</v>
       </c>
       <c r="E73" s="2">
-        <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
         <v>49</v>
@@ -36285,7 +36286,7 @@
         <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="1"/>
@@ -36293,29 +36294,29 @@
       </c>
       <c r="L73" s="2">
         <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="C74" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Nadine</v>
+        <v>Field.Sophie</v>
       </c>
       <c r="D74" s="1">
-        <v>27640</v>
+        <v>37803</v>
       </c>
       <c r="E74" s="2">
-        <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
         <v>198</v>
@@ -36329,35 +36330,35 @@
       </c>
       <c r="L74" s="2">
         <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" t="str">
+        <v>325</v>
+      </c>
+      <c r="C75" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Field.Sophie</v>
+        <v>Fior.Sebastian</v>
       </c>
       <c r="D75" s="1">
-        <v>37803</v>
+        <v>40781</v>
       </c>
       <c r="E75" s="2">
-        <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
         <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="1"/>
@@ -36365,35 +36366,35 @@
       </c>
       <c r="L75" s="2">
         <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
-      </c>
-      <c r="C76" s="9" t="str">
+        <v>36</v>
+      </c>
+      <c r="C76" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fior.Sebastian</v>
+        <v>Foale.Anna</v>
       </c>
       <c r="D76" s="1">
-        <v>40781</v>
+        <v>21317</v>
       </c>
       <c r="E76" s="2">
-        <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="G76" t="s">
         <v>198</v>
       </c>
       <c r="H76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="1"/>
@@ -36401,29 +36402,29 @@
       </c>
       <c r="L76" s="2">
         <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="C77" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Foale.Anna</v>
+        <v>Foxx.Lexie</v>
       </c>
       <c r="D77" s="1">
-        <v>21317</v>
+        <v>38869</v>
       </c>
       <c r="E77" s="2">
-        <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>62</v>
+        <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>198</v>
@@ -36437,35 +36438,35 @@
       </c>
       <c r="L77" s="2">
         <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="C78" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Foxx.Lexie</v>
+        <v>Fuda.Nate</v>
       </c>
       <c r="D78" s="1">
-        <v>38869</v>
+        <v>38590</v>
       </c>
       <c r="E78" s="2">
-        <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>198</v>
       </c>
       <c r="H78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="1"/>
@@ -36473,26 +36474,26 @@
       </c>
       <c r="L78" s="2">
         <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C79" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fuda.Nate</v>
+        <v>Fulcher.Aaron</v>
       </c>
       <c r="D79" s="1">
-        <v>38590</v>
+        <v>38908</v>
       </c>
       <c r="E79" s="2">
-        <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K80-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
@@ -36509,29 +36510,29 @@
       </c>
       <c r="L79" s="2">
         <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" t="str">
+        <v>352</v>
+      </c>
+      <c r="C80" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fulcher.Aaron</v>
+        <v>Grasby.Kifaru</v>
       </c>
       <c r="D80" s="1">
-        <v>38908</v>
+        <v>39016</v>
       </c>
       <c r="E80" s="2">
-        <f>ROUNDDOWN((K80-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
         <v>198</v>
@@ -36553,18 +36554,18 @@
         <v>350</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Grasby.Kifaru</v>
+        <v>Grasby.Tembo</v>
       </c>
       <c r="D81" s="1">
-        <v>39016</v>
+        <v>39668</v>
       </c>
       <c r="E81" s="2">
-        <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
         <v>49</v>
@@ -36581,29 +36582,29 @@
       </c>
       <c r="L81" s="2">
         <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" s="9" t="str">
+        <v>111</v>
+      </c>
+      <c r="C82" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Grasby.Tembo</v>
+        <v>Groom.Lydon</v>
       </c>
       <c r="D82" s="1">
-        <v>39668</v>
+        <v>38895</v>
       </c>
       <c r="E82" s="2">
-        <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
         <v>198</v>
@@ -36617,35 +36618,35 @@
       </c>
       <c r="L82" s="2">
         <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="C83" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Groom.Lydon</v>
+        <v>Hamilton.Rhona</v>
       </c>
       <c r="D83" s="1">
-        <v>38895</v>
+        <v>35156</v>
       </c>
       <c r="E83" s="2">
-        <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
         <v>198</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="1"/>
@@ -36653,35 +36654,35 @@
       </c>
       <c r="L83" s="2">
         <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="C84" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hamilton.Rhona</v>
+        <v>Harkin-Noack.Jai</v>
       </c>
       <c r="D84" s="1">
-        <v>35156</v>
+        <v>39492</v>
       </c>
       <c r="E84" s="2">
-        <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
         <v>198</v>
       </c>
       <c r="H84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="1"/>
@@ -36689,35 +36690,35 @@
       </c>
       <c r="L84" s="2">
         <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C85" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Harkin-Noack.Jai</v>
+        <v>Hasan.Aaliyah</v>
       </c>
       <c r="D85" s="1">
-        <v>39492</v>
+        <v>41069</v>
       </c>
       <c r="E85" s="2">
-        <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
         <v>198</v>
       </c>
       <c r="H85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="1"/>
@@ -36725,35 +36726,35 @@
       </c>
       <c r="L85" s="2">
         <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C86" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hasan.Aaliyah</v>
+        <v>Haynes.Christopher</v>
       </c>
       <c r="D86" s="1">
-        <v>41069</v>
+        <v>40385</v>
       </c>
       <c r="E86" s="2">
-        <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s">
         <v>198</v>
       </c>
       <c r="H86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="1"/>
@@ -36761,26 +36762,26 @@
       </c>
       <c r="L86" s="2">
         <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="C87" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Haynes.Christopher</v>
+        <v>Henry.Jack</v>
       </c>
       <c r="D87" s="1">
-        <v>40385</v>
+        <v>39925</v>
       </c>
       <c r="E87" s="2">
-        <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
@@ -36797,7 +36798,7 @@
       </c>
       <c r="L87" s="2">
         <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -36805,18 +36806,18 @@
         <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="C88" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Henry.Jack</v>
+        <v>Henry.Thomas</v>
       </c>
       <c r="D88" s="1">
-        <v>39925</v>
+        <v>39051</v>
       </c>
       <c r="E88" s="2">
-        <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
@@ -36833,26 +36834,26 @@
       </c>
       <c r="L88" s="2">
         <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C89" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Henry.Thomas</v>
+        <v>Hofmann.Audrey</v>
       </c>
       <c r="D89" s="1">
-        <v>39051</v>
+        <v>40629</v>
       </c>
       <c r="E89" s="2">
-        <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>50</v>
@@ -36861,7 +36862,7 @@
         <v>198</v>
       </c>
       <c r="H89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="1"/>
@@ -36869,7 +36870,7 @@
       </c>
       <c r="L89" s="2">
         <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -36877,18 +36878,18 @@
         <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C90" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hofmann.Audrey</v>
+        <v>Hofmann.Maeve</v>
       </c>
       <c r="D90" s="1">
-        <v>40629</v>
+        <v>41346</v>
       </c>
       <c r="E90" s="2">
-        <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
@@ -36905,35 +36906,35 @@
       </c>
       <c r="L90" s="2">
         <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="C91" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hofmann.Maeve</v>
+        <v>Hooper.Mason</v>
       </c>
       <c r="D91" s="1">
-        <v>41346</v>
+        <v>39119</v>
       </c>
       <c r="E91" s="2">
-        <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>7</v>
+        <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G91" t="s">
         <v>198</v>
       </c>
       <c r="H91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="1"/>
@@ -36941,29 +36942,29 @@
       </c>
       <c r="L91" s="2">
         <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="C92" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hooper.Mason</v>
+        <v>Howlett.Steve</v>
       </c>
       <c r="D92" s="1">
-        <v>39119</v>
+        <v>25764</v>
       </c>
       <c r="E92" s="2">
-        <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
         <v>198</v>
@@ -36977,35 +36978,35 @@
       </c>
       <c r="L92" s="2">
         <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Hyde.Kate</v>
+      </c>
+      <c r="D93" s="1">
+        <v>39264</v>
+      </c>
+      <c r="E93" s="2">
+        <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Howlett.Steve</v>
-      </c>
-      <c r="D93" s="1">
-        <v>25764</v>
-      </c>
-      <c r="E93" s="2">
-        <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
-      </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
         <v>198</v>
       </c>
       <c r="H93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="1"/>
@@ -37013,35 +37014,35 @@
       </c>
       <c r="L93" s="2">
         <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Iacopetta.Leonardo</v>
+      </c>
+      <c r="D94" s="1">
+        <v>40429</v>
+      </c>
+      <c r="E94" s="2">
+        <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C94" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hyde.Kate</v>
-      </c>
-      <c r="D94" s="1">
-        <v>39264</v>
-      </c>
-      <c r="E94" s="2">
-        <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>51</v>
       </c>
       <c r="G94" t="s">
         <v>198</v>
       </c>
       <c r="H94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="1"/>
@@ -37049,29 +37050,29 @@
       </c>
       <c r="L94" s="2">
         <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="C95" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Iacopetta.Leonardo</v>
+        <v>Ince.Harry</v>
       </c>
       <c r="D95" s="1">
-        <v>40429</v>
+        <v>38522</v>
       </c>
       <c r="E95" s="2">
-        <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
         <v>198</v>
@@ -37085,35 +37086,35 @@
       </c>
       <c r="L95" s="2">
         <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="C96" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ince.Harry</v>
+        <v>Ismael.Lanya</v>
       </c>
       <c r="D96" s="1">
-        <v>38522</v>
+        <v>40978</v>
       </c>
       <c r="E96" s="2">
-        <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G96" t="s">
         <v>198</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="1"/>
@@ -37121,7 +37122,7 @@
       </c>
       <c r="L96" s="2">
         <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -37129,18 +37130,18 @@
         <v>296</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C97" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ismael.Lanya</v>
+        <v>Ismael.Ronya</v>
       </c>
       <c r="D97" s="1">
-        <v>40978</v>
+        <v>39499</v>
       </c>
       <c r="E97" s="2">
-        <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
         <v>208</v>
@@ -37157,35 +37158,35 @@
       </c>
       <c r="L97" s="2">
         <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="C98" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ismael.Ronya</v>
+        <v>Jackson.Sam</v>
       </c>
       <c r="D98" s="1">
-        <v>39499</v>
+        <v>35386</v>
       </c>
       <c r="E98" s="2">
-        <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
         <v>198</v>
       </c>
       <c r="H98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="1"/>
@@ -37193,26 +37194,26 @@
       </c>
       <c r="L98" s="2">
         <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C99" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jackson.Sam</v>
+        <v>Jamieson.Makayla</v>
       </c>
       <c r="D99" s="1">
-        <v>35386</v>
+        <v>39901</v>
       </c>
       <c r="E99" s="2">
-        <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -37221,7 +37222,7 @@
         <v>198</v>
       </c>
       <c r="H99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="1"/>
@@ -37229,35 +37230,35 @@
       </c>
       <c r="L99" s="2">
         <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" t="str">
+      <c r="A100" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C100" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jamieson.Makayla</v>
+        <v>Jankovic.Ivan</v>
       </c>
       <c r="D100" s="1">
-        <v>39901</v>
+        <v>36146</v>
       </c>
       <c r="E100" s="2">
-        <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G100" t="s">
         <v>198</v>
       </c>
       <c r="H100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" ref="K100:K156" si="2">$K$1</f>
@@ -37265,29 +37266,29 @@
       </c>
       <c r="L100" s="2">
         <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C101" s="9" t="str">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jankovic.Ivan</v>
+        <v>Jones.Patrick</v>
       </c>
       <c r="D101" s="1">
-        <v>36146</v>
+        <v>38151</v>
       </c>
       <c r="E101" s="2">
-        <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="G101" t="s">
         <v>198</v>
@@ -37301,29 +37302,29 @@
       </c>
       <c r="L101" s="2">
         <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C102" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jones.Patrick</v>
+        <v>Kasperski.Andrew</v>
       </c>
       <c r="D102" s="1">
-        <v>38151</v>
+        <v>19934</v>
       </c>
       <c r="E102" s="2">
-        <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>66</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G102" t="s">
         <v>198</v>
@@ -37337,7 +37338,7 @@
       </c>
       <c r="L102" s="2">
         <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -37345,18 +37346,18 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C103" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Andrew</v>
+        <v>Kasperski.Louis</v>
       </c>
       <c r="D103" s="1">
-        <v>19934</v>
+        <v>37555</v>
       </c>
       <c r="E103" s="2">
-        <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>66</v>
+        <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
         <v>49</v>
@@ -37373,7 +37374,7 @@
       </c>
       <c r="L103" s="2">
         <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -37381,18 +37382,18 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C104" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Louis</v>
+        <v>Kasperski.Marek</v>
       </c>
       <c r="D104" s="1">
-        <v>37555</v>
+        <v>20665</v>
       </c>
       <c r="E104" s="2">
-        <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -37409,29 +37410,29 @@
       </c>
       <c r="L104" s="2">
         <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C105" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Marek</v>
+        <v>Kempe.Dougal</v>
       </c>
       <c r="D105" s="1">
-        <v>20665</v>
+        <v>38787</v>
       </c>
       <c r="E105" s="2">
-        <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G105" t="s">
         <v>198</v>
@@ -37445,29 +37446,29 @@
       </c>
       <c r="L105" s="2">
         <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" t="str">
+      <c r="A106" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kempe.Dougal</v>
+        <v>Kennedy.Hamish</v>
       </c>
       <c r="D106" s="1">
-        <v>38787</v>
+        <v>39119</v>
       </c>
       <c r="E106" s="2">
-        <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s">
         <v>198</v>
@@ -37481,29 +37482,29 @@
       </c>
       <c r="L106" s="2">
         <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C107" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kennedy.Hamish</v>
+        <v>King.Ari</v>
       </c>
       <c r="D107" s="1">
-        <v>39119</v>
+        <v>30884</v>
       </c>
       <c r="E107" s="2">
-        <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G107" t="s">
         <v>198</v>
@@ -37517,29 +37518,29 @@
       </c>
       <c r="L107" s="2">
         <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C108" s="9" t="str">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>King.Ari</v>
+        <v>Kingston.Angus</v>
       </c>
       <c r="D108" s="1">
-        <v>30884</v>
+        <v>26075</v>
       </c>
       <c r="E108" s="2">
-        <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>36</v>
+        <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
         <v>198</v>
@@ -37553,7 +37554,7 @@
       </c>
       <c r="L108" s="2">
         <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -37561,18 +37562,18 @@
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C109" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kingston.Angus</v>
+        <v>Kingston.Oscar</v>
       </c>
       <c r="D109" s="1">
-        <v>26075</v>
+        <v>39279</v>
       </c>
       <c r="E109" s="2">
-        <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -37589,29 +37590,29 @@
       </c>
       <c r="L109" s="2">
         <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C110" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kingston.Oscar</v>
+        <v>Kinnon.David</v>
       </c>
       <c r="D110" s="1">
-        <v>39279</v>
+        <v>28695</v>
       </c>
       <c r="E110" s="2">
-        <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G110" t="s">
         <v>198</v>
@@ -37625,35 +37626,35 @@
       </c>
       <c r="L110" s="2">
         <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" t="str">
+      <c r="A111" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kinnon.David</v>
+        <v>Kirby.Maria</v>
       </c>
       <c r="D111" s="1">
-        <v>28695</v>
+        <v>23752</v>
       </c>
       <c r="E111" s="2">
-        <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>56</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
         <v>198</v>
       </c>
       <c r="H111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="2"/>
@@ -37661,26 +37662,26 @@
       </c>
       <c r="L111" s="2">
         <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C112" s="9" t="str">
+      <c r="A112" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kirby.Maria</v>
+        <v>Kurbatfinski.Ashleigh</v>
       </c>
       <c r="D112" s="1">
-        <v>23752</v>
+        <v>37326</v>
       </c>
       <c r="E112" s="2">
-        <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
@@ -37697,7 +37698,7 @@
       </c>
       <c r="L112" s="2">
         <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -37705,27 +37706,27 @@
         <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" t="str">
+        <v>312</v>
+      </c>
+      <c r="C113" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kurbatfinski.Ashleigh</v>
+        <v>Kurbatfinski.Zvonko</v>
       </c>
       <c r="D113" s="1">
-        <v>37326</v>
+        <v>25145</v>
       </c>
       <c r="E113" s="2">
-        <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>52</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="G113" t="s">
         <v>198</v>
       </c>
       <c r="H113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="2"/>
@@ -37733,29 +37734,29 @@
       </c>
       <c r="L113" s="2">
         <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
-      </c>
-      <c r="C114" s="9" t="str">
+        <v>71</v>
+      </c>
+      <c r="C114" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kurbatfinski.Zvonko</v>
+        <v>Lam.Tai Yuen</v>
       </c>
       <c r="D114" s="1">
-        <v>25145</v>
+        <v>34512</v>
       </c>
       <c r="E114" s="2">
-        <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>52</v>
+        <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
         <v>198</v>
@@ -37769,29 +37770,29 @@
       </c>
       <c r="L114" s="2">
         <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="C115" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lam.Tai Yuen</v>
+        <v>Leach.Noah</v>
       </c>
       <c r="D115" s="1">
-        <v>34512</v>
+        <v>40165</v>
       </c>
       <c r="E115" s="2">
-        <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G115" t="s">
         <v>198</v>
@@ -37805,29 +37806,29 @@
       </c>
       <c r="L115" s="2">
         <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="C116" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leach.Noah</v>
+        <v>Leclercq.Milan</v>
       </c>
       <c r="D116" s="1">
-        <v>40165</v>
+        <v>39646</v>
       </c>
       <c r="E116" s="2">
-        <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
         <v>11</v>
-      </c>
-      <c r="F116" t="s">
-        <v>201</v>
       </c>
       <c r="G116" t="s">
         <v>198</v>
@@ -37841,29 +37842,29 @@
       </c>
       <c r="L116" s="2">
         <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" t="str">
+        <v>42</v>
+      </c>
+      <c r="C117" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leclercq.Milan</v>
+        <v>Lee.Ian</v>
       </c>
       <c r="D117" s="1">
-        <v>39646</v>
+        <v>38614</v>
       </c>
       <c r="E117" s="2">
-        <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G117" t="s">
         <v>198</v>
@@ -37877,26 +37878,26 @@
       </c>
       <c r="L117" s="2">
         <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B118" t="s">
-        <v>42</v>
+      <c r="B118" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="C118" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lee.Ian</v>
+        <v>Lee.Xavier</v>
       </c>
       <c r="D118" s="1">
-        <v>38614</v>
+        <v>40444</v>
       </c>
       <c r="E118" s="2">
-        <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -37913,29 +37914,29 @@
       </c>
       <c r="L118" s="2">
         <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" s="9" t="str">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lee.Xavier</v>
+        <v>Leonov.Tikhon</v>
       </c>
       <c r="D119" s="1">
-        <v>40444</v>
+        <v>40604</v>
       </c>
       <c r="E119" s="2">
-        <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
         <v>198</v>
@@ -37949,26 +37950,26 @@
       </c>
       <c r="L119" s="2">
         <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" t="str">
+      <c r="A120" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leonov.Tikhon</v>
+        <v>Li.Matthew</v>
       </c>
       <c r="D120" s="1">
-        <v>40604</v>
+        <v>41249</v>
       </c>
       <c r="E120" s="2">
-        <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -37985,29 +37986,29 @@
       </c>
       <c r="L120" s="2">
         <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="9" t="str">
+      <c r="A121" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Li.Matthew</v>
+        <v>Liptak.Patrick</v>
       </c>
       <c r="D121" s="1">
-        <v>41249</v>
+        <v>26295</v>
       </c>
       <c r="E121" s="2">
-        <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
         <v>198</v>
@@ -38021,29 +38022,29 @@
       </c>
       <c r="L121" s="2">
         <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>298</v>
-      </c>
-      <c r="B122" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" t="str">
+      <c r="A122" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Liptak.Patrick</v>
+        <v>Liwanen.Adam</v>
       </c>
       <c r="D122" s="1">
-        <v>26295</v>
+        <v>35318</v>
       </c>
       <c r="E122" s="2">
-        <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="G122" t="s">
         <v>198</v>
@@ -38057,29 +38058,29 @@
       </c>
       <c r="L122" s="2">
         <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Loveday.Malachi</v>
+      </c>
+      <c r="D123" s="1">
+        <v>40103</v>
+      </c>
+      <c r="E123" s="2">
+        <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Liwanen.Adam</v>
-      </c>
-      <c r="D123" s="1">
-        <v>35318</v>
-      </c>
-      <c r="E123" s="2">
-        <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
-      </c>
-      <c r="F123" t="s">
-        <v>309</v>
       </c>
       <c r="G123" t="s">
         <v>198</v>
@@ -38093,35 +38094,35 @@
       </c>
       <c r="L123" s="2">
         <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="C124" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Loveday.Malachi</v>
+        <v>Lucy.Sarah</v>
       </c>
       <c r="D124" s="1">
-        <v>40103</v>
+        <v>26742</v>
       </c>
       <c r="E124" s="2">
-        <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>47</v>
+      </c>
+      <c r="F124" t="s">
         <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
       </c>
       <c r="G124" t="s">
         <v>198</v>
       </c>
       <c r="H124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="2"/>
@@ -38129,35 +38130,35 @@
       </c>
       <c r="L124" s="2">
         <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C125" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lucy.Sarah</v>
+        <v>Mackenzie.Jonathan</v>
       </c>
       <c r="D125" s="1">
-        <v>26742</v>
+        <v>33491</v>
       </c>
       <c r="E125" s="2">
-        <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
         <v>198</v>
       </c>
       <c r="H125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="2"/>
@@ -38165,26 +38166,26 @@
       </c>
       <c r="L125" s="2">
         <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C126" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mackenzie.Jonathan</v>
+        <v>Maksimovic.Danica</v>
       </c>
       <c r="D126" s="1">
-        <v>33491</v>
+        <v>38795</v>
       </c>
       <c r="E126" s="2">
-        <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
         <v>51</v>
@@ -38193,7 +38194,7 @@
         <v>198</v>
       </c>
       <c r="H126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" si="2"/>
@@ -38201,35 +38202,35 @@
       </c>
       <c r="L126" s="2">
         <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="C127" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Maksimovic.Danica</v>
+        <v>Markham.Daniel</v>
       </c>
       <c r="D127" s="1">
-        <v>38795</v>
+        <v>40283</v>
       </c>
       <c r="E127" s="2">
-        <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
         <v>198</v>
       </c>
       <c r="H127" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="2"/>
@@ -38237,29 +38238,29 @@
       </c>
       <c r="L127" s="2">
         <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="C128" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Markham.Daniel</v>
+        <v>Markovs.Arturs</v>
       </c>
       <c r="D128" s="1">
-        <v>40283</v>
+        <v>32224</v>
       </c>
       <c r="E128" s="2">
-        <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G128" t="s">
         <v>198</v>
@@ -38273,29 +38274,29 @@
       </c>
       <c r="L128" s="2">
         <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" t="str">
+        <v>311</v>
+      </c>
+      <c r="C129" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Markovs.Arturs</v>
+        <v>Marshall.Stuart</v>
       </c>
       <c r="D129" s="1">
-        <v>32224</v>
+        <v>31780</v>
       </c>
       <c r="E129" s="2">
-        <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>198</v>
@@ -38309,29 +38310,29 @@
       </c>
       <c r="L129" s="2">
         <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="9" t="str">
+        <v>203</v>
+      </c>
+      <c r="C130" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Marshall.Stuart</v>
+        <v>Martin.Errol</v>
       </c>
       <c r="D130" s="1">
-        <v>31780</v>
+        <v>38638</v>
       </c>
       <c r="E130" s="2">
-        <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G130" t="s">
         <v>198</v>
@@ -38345,29 +38346,29 @@
       </c>
       <c r="L130" s="2">
         <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C131" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Martin.Errol</v>
+        <v>Mayer.Peter</v>
       </c>
       <c r="D131" s="1">
-        <v>38638</v>
+        <v>15125</v>
       </c>
       <c r="E131" s="2">
-        <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G131" t="s">
         <v>198</v>
@@ -38381,29 +38382,29 @@
       </c>
       <c r="L131" s="2">
         <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C132" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mayer.Peter</v>
+        <v>Mckenzie-Campbell.Reegan</v>
       </c>
       <c r="D132" s="1">
-        <v>15125</v>
+        <v>33524</v>
       </c>
       <c r="E132" s="2">
-        <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>79</v>
+        <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="G132" t="s">
         <v>198</v>
@@ -38417,35 +38418,35 @@
       </c>
       <c r="L132" s="2">
         <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="C133" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mckenzie-Campbell.Reegan</v>
+        <v>Menz.Ursula</v>
       </c>
       <c r="D133" s="1">
-        <v>33524</v>
+        <v>32485</v>
       </c>
       <c r="E133" s="2">
-        <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
         <v>198</v>
       </c>
       <c r="H133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" si="2"/>
@@ -38453,29 +38454,29 @@
       </c>
       <c r="L133" s="2">
         <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="C134" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Menz.Ursula</v>
+        <v>Menzel.Phoebe</v>
       </c>
       <c r="D134" s="1">
-        <v>32485</v>
+        <v>40050</v>
       </c>
       <c r="E134" s="2">
-        <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G134" t="s">
         <v>198</v>
@@ -38489,29 +38490,29 @@
       </c>
       <c r="L134" s="2">
         <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C135" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Menzel.Phoebe</v>
+        <v>Metha.Demelza</v>
       </c>
       <c r="D135" s="1">
-        <v>40050</v>
+        <v>37925</v>
       </c>
       <c r="E135" s="2">
-        <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
         <v>198</v>
@@ -38525,35 +38526,35 @@
       </c>
       <c r="L135" s="2">
         <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C136" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Metha.Demelza</v>
+        <v>Millard.Eddie</v>
       </c>
       <c r="D136" s="1">
-        <v>37925</v>
+        <v>39961</v>
       </c>
       <c r="E136" s="2">
-        <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G136" t="s">
         <v>198</v>
       </c>
       <c r="H136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K136" s="1">
         <f t="shared" si="2"/>
@@ -38561,35 +38562,35 @@
       </c>
       <c r="L136" s="2">
         <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" t="str">
+        <v>413</v>
+      </c>
+      <c r="C137" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Millard.Eddie</v>
-      </c>
-      <c r="D137" s="1">
-        <v>39961</v>
+        <v>Moorhouse.Alexandra</v>
+      </c>
+      <c r="D137" s="31">
+        <v>32480</v>
       </c>
       <c r="E137" s="2">
         <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G137" t="s">
         <v>198</v>
       </c>
       <c r="H137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K137" s="1">
         <f t="shared" si="2"/>
@@ -38597,7 +38598,7 @@
       </c>
       <c r="L137" s="2">
         <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -39643,30 +39644,27 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" t="str">
+        <v>411</v>
+      </c>
+      <c r="C167" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Skrabanich.Sunday</v>
-      </c>
-      <c r="D167" s="1">
-        <v>40742</v>
+        <v>Scully.Mark</v>
+      </c>
+      <c r="D167" s="31">
+        <v>25027</v>
       </c>
       <c r="E167" s="2">
         <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G167" t="s">
         <v>198</v>
       </c>
       <c r="H167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K167" s="1">
         <f t="shared" si="3"/>
@@ -39674,35 +39672,35 @@
       </c>
       <c r="L167" s="2">
         <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="C168" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Smith.Jacob</v>
+        <v>Skrabanich.Sunday</v>
       </c>
       <c r="D168" s="1">
-        <v>39567</v>
+        <v>40742</v>
       </c>
       <c r="E168" s="2">
-        <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="H168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K168" s="1">
         <f t="shared" si="3"/>
@@ -39710,32 +39708,32 @@
       </c>
       <c r="L168" s="2">
         <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="C169" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sollars.Alan</v>
+        <v>Smith.Jacob</v>
       </c>
       <c r="D169" s="1">
-        <v>16615</v>
+        <v>39567</v>
       </c>
       <c r="E169" s="2">
-        <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>75</v>
+        <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H169" t="s">
         <v>317</v>
@@ -39746,35 +39744,35 @@
       </c>
       <c r="L169" s="2">
         <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C170" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sopru.Coraine</v>
+        <v>Sollars.Alan</v>
       </c>
       <c r="D170" s="1">
-        <v>17487</v>
+        <v>16615</v>
       </c>
       <c r="E170" s="2">
-        <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>73</v>
+        <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>75</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G170" t="s">
         <v>198</v>
       </c>
       <c r="H170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K170" s="1">
         <f t="shared" si="3"/>
@@ -39782,35 +39780,35 @@
       </c>
       <c r="L170" s="2">
         <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C171" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spangler.Ashton</v>
+        <v>Sopru.Coraine</v>
       </c>
       <c r="D171" s="1">
-        <v>32198</v>
+        <v>17487</v>
       </c>
       <c r="E171" s="2">
-        <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>73</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
         <v>198</v>
       </c>
       <c r="H171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K171" s="1">
         <f t="shared" si="3"/>
@@ -39818,26 +39816,26 @@
       </c>
       <c r="L171" s="2">
         <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C172" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Dov</v>
+        <v>Spangler.Ashton</v>
       </c>
       <c r="D172" s="1">
-        <v>28067</v>
+        <v>32198</v>
       </c>
       <c r="E172" s="2">
-        <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>44</v>
+        <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
         <v>50</v>
@@ -39854,7 +39852,7 @@
       </c>
       <c r="L172" s="2">
         <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -39862,18 +39860,18 @@
         <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C173" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Ranger</v>
+        <v>Spinks.Dov</v>
       </c>
       <c r="D173" s="1">
-        <v>39299</v>
+        <v>28067</v>
       </c>
       <c r="E173" s="2">
-        <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
         <v>50</v>
@@ -39890,29 +39888,29 @@
       </c>
       <c r="L173" s="2">
         <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C174" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Staehr.Craig</v>
+        <v>Spinks.Ranger</v>
       </c>
       <c r="D174" s="1">
-        <v>26410</v>
+        <v>39299</v>
       </c>
       <c r="E174" s="2">
-        <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s">
         <v>198</v>
@@ -39926,29 +39924,29 @@
       </c>
       <c r="L174" s="2">
         <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="C175" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stewart.Alex</v>
+        <v>Staehr.Craig</v>
       </c>
       <c r="D175" s="1">
-        <v>24576</v>
+        <v>26410</v>
       </c>
       <c r="E175" s="2">
-        <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G175" t="s">
         <v>198</v>
@@ -39962,29 +39960,29 @@
       </c>
       <c r="L175" s="2">
         <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C176" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Strangis.Cesidio</v>
+        <v>Stewart.Alex</v>
       </c>
       <c r="D176" s="1">
-        <v>40676</v>
+        <v>24576</v>
       </c>
       <c r="E176" s="2">
-        <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G176" t="s">
         <v>198</v>
@@ -39998,26 +39996,26 @@
       </c>
       <c r="L176" s="2">
         <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="B177" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="C177" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Ben</v>
+        <v>Strangis.Cesidio</v>
       </c>
       <c r="D177" s="1">
-        <v>28944</v>
+        <v>40676</v>
       </c>
       <c r="E177" s="2">
-        <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>41</v>
+        <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
         <v>50</v>
@@ -40034,7 +40032,7 @@
       </c>
       <c r="L177" s="2">
         <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -40042,18 +40040,18 @@
         <v>98</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C178" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Oliver</v>
+        <v>Stratton.Ben</v>
       </c>
       <c r="D178" s="1">
-        <v>38925</v>
+        <v>28944</v>
       </c>
       <c r="E178" s="2">
-        <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
         <v>50</v>
@@ -40070,29 +40068,29 @@
       </c>
       <c r="L178" s="2">
         <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="C179" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Swift-Turtur.Samson</v>
+        <v>Stratton.Oliver</v>
       </c>
       <c r="D179" s="1">
-        <v>39808</v>
+        <v>38925</v>
       </c>
       <c r="E179" s="2">
-        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
         <v>198</v>
@@ -40106,29 +40104,29 @@
       </c>
       <c r="L179" s="2">
         <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
-      </c>
-      <c r="C180" t="str">
+        <v>336</v>
+      </c>
+      <c r="C180" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
+        <v>Swift-Turtur.Samson</v>
       </c>
       <c r="D180" s="1">
-        <v>40524</v>
+        <v>39808</v>
       </c>
       <c r="E180" s="2">
-        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
         <v>198</v>
@@ -40142,35 +40140,35 @@
       </c>
       <c r="L180" s="2">
         <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C181" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tang.Chin Ton Naomi</v>
+        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
       </c>
       <c r="D181" s="1">
-        <v>37418</v>
+        <v>40524</v>
       </c>
       <c r="E181" s="2">
-        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="G181" t="s">
         <v>198</v>
       </c>
       <c r="H181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" si="3"/>
@@ -40178,35 +40176,35 @@
       </c>
       <c r="L181" s="2">
         <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C182" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Blake</v>
+        <v>Tang.Chin Ton Naomi</v>
       </c>
       <c r="D182" s="1">
-        <v>39384</v>
+        <v>37418</v>
       </c>
       <c r="E182" s="2">
-        <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F182" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G182" t="s">
         <v>198</v>
       </c>
       <c r="H182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" si="3"/>
@@ -40214,7 +40212,7 @@
       </c>
       <c r="L182" s="2">
         <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -40222,21 +40220,21 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>151</v>
-      </c>
-      <c r="C183" s="9" t="str">
+        <v>173</v>
+      </c>
+      <c r="C183" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Henry</v>
+        <v>Taylor.Blake</v>
       </c>
       <c r="D183" s="1">
-        <v>39489</v>
+        <v>39384</v>
       </c>
       <c r="E183" s="2">
-        <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G183" t="s">
         <v>198</v>
@@ -40250,29 +40248,29 @@
       </c>
       <c r="L183" s="2">
         <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="B184" t="s">
-        <v>48</v>
-      </c>
-      <c r="C184" t="str">
+        <v>151</v>
+      </c>
+      <c r="C184" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Angus</v>
+        <v>Taylor.Henry</v>
       </c>
       <c r="D184" s="1">
-        <v>37883</v>
+        <v>39489</v>
       </c>
       <c r="E184" s="2">
-        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
         <v>198</v>
@@ -40286,7 +40284,7 @@
       </c>
       <c r="L184" s="2">
         <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -40294,21 +40292,21 @@
         <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="C185" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Leon</v>
+        <v>Thomas.Angus</v>
       </c>
       <c r="D185" s="1">
-        <v>20700</v>
+        <v>37883</v>
       </c>
       <c r="E185" s="2">
-        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G185" t="s">
         <v>198</v>
@@ -40322,7 +40320,7 @@
       </c>
       <c r="L185" s="2">
         <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -40330,18 +40328,18 @@
         <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="C186" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Max</v>
+        <v>Thomas.Leon</v>
       </c>
       <c r="D186" s="1">
-        <v>37303</v>
+        <v>20700</v>
       </c>
       <c r="E186" s="2">
-        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>64</v>
       </c>
       <c r="F186" t="s">
         <v>11</v>
@@ -40358,7 +40356,7 @@
       </c>
       <c r="L186" s="2">
         <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -40366,21 +40364,21 @@
         <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C187" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Rob</v>
+        <v>Thomas.Max</v>
       </c>
       <c r="D187" s="1">
-        <v>23857</v>
+        <v>37303</v>
       </c>
       <c r="E187" s="2">
-        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>55</v>
+        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
         <v>198</v>
@@ -40394,26 +40392,26 @@
       </c>
       <c r="L187" s="2">
         <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="C188" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Veaney.Gabriel</v>
+        <v>Thomas.Rob</v>
       </c>
       <c r="D188" s="1">
-        <v>38450</v>
+        <v>23857</v>
       </c>
       <c r="E188" s="2">
-        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>55</v>
       </c>
       <c r="F188" t="s">
         <v>49</v>
@@ -40430,29 +40428,29 @@
       </c>
       <c r="L188" s="2">
         <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="C189" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Arky</v>
+        <v>Veaney.Gabriel</v>
       </c>
       <c r="D189" s="1">
-        <v>40326</v>
+        <v>38450</v>
       </c>
       <c r="E189" s="2">
-        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
         <v>198</v>
@@ -40466,7 +40464,7 @@
       </c>
       <c r="L189" s="2">
         <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -40474,18 +40472,18 @@
         <v>107</v>
       </c>
       <c r="B190" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C190" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Keith</v>
+        <v>Vingelis-Plant.Arky</v>
       </c>
       <c r="D190" s="1">
-        <v>25771</v>
+        <v>40326</v>
       </c>
       <c r="E190" s="2">
-        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
+        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
@@ -40502,7 +40500,7 @@
       </c>
       <c r="L190" s="2">
         <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -40510,18 +40508,18 @@
         <v>107</v>
       </c>
       <c r="B191" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C191" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Myka</v>
+        <v>Vingelis-Plant.Keith</v>
       </c>
       <c r="D191" s="1">
-        <v>38849</v>
+        <v>25771</v>
       </c>
       <c r="E191" s="2">
-        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
@@ -40538,26 +40536,26 @@
       </c>
       <c r="L191" s="2">
         <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B192" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C192" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walmsley.Amelia</v>
+        <v>Vingelis-Plant.Myka</v>
       </c>
       <c r="D192" s="1">
-        <v>35641</v>
+        <v>38849</v>
       </c>
       <c r="E192" s="2">
-        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
         <v>11</v>
@@ -40566,7 +40564,7 @@
         <v>198</v>
       </c>
       <c r="H192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K192" s="1">
         <f t="shared" si="3"/>
@@ -40574,29 +40572,29 @@
       </c>
       <c r="L192" s="2">
         <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walmsley.Amelia</v>
+      </c>
+      <c r="D193" s="1">
+        <v>35641</v>
+      </c>
+      <c r="E193" s="2">
+        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C193" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walters.Emma</v>
-      </c>
-      <c r="D193" s="1">
-        <v>38830</v>
-      </c>
-      <c r="E193" s="2">
-        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
         <v>198</v>
@@ -40610,35 +40608,35 @@
       </c>
       <c r="L193" s="2">
         <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C194" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walters.Emma</v>
+      </c>
+      <c r="D194" s="1">
+        <v>38830</v>
+      </c>
+      <c r="E194" s="2">
+        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>131</v>
-      </c>
-      <c r="B194" t="s">
-        <v>60</v>
-      </c>
-      <c r="C194" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wells.Samuel</v>
-      </c>
-      <c r="D194" s="1">
-        <v>29892</v>
-      </c>
-      <c r="E194" s="2">
-        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>39</v>
-      </c>
       <c r="F194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G194" t="s">
         <v>198</v>
       </c>
       <c r="H194" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K194" s="1">
         <f t="shared" si="3"/>
@@ -40646,29 +40644,29 @@
       </c>
       <c r="L194" s="2">
         <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C195" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wheeler.Hugh</v>
+        <v>Wells.Samuel</v>
       </c>
       <c r="D195" s="1">
-        <v>26124</v>
+        <v>29892</v>
       </c>
       <c r="E195" s="2">
-        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>39</v>
+      </c>
+      <c r="F195" t="s">
         <v>49</v>
-      </c>
-      <c r="F195" t="s">
-        <v>51</v>
       </c>
       <c r="G195" t="s">
         <v>198</v>
@@ -40682,35 +40680,35 @@
       </c>
       <c r="L195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C196" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wilson.Evelyn</v>
+        <v>Wheeler.Hugh</v>
       </c>
       <c r="D196" s="1">
-        <v>39128</v>
+        <v>26124</v>
       </c>
       <c r="E196" s="2">
-        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
         <v>198</v>
       </c>
       <c r="H196" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K196" s="1">
         <f t="shared" si="3"/>
@@ -40718,29 +40716,29 @@
       </c>
       <c r="L196" s="2">
         <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B197" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C197" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wotherspoon.Alison</v>
+        <v>Wilson.Evelyn</v>
       </c>
       <c r="D197" s="1">
-        <v>22085</v>
+        <v>39128</v>
       </c>
       <c r="E197" s="2">
-        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>60</v>
+        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
         <v>198</v>
@@ -40754,26 +40752,26 @@
       </c>
       <c r="L197" s="2">
         <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>108</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Wotherspoon.Alison</v>
+      </c>
+      <c r="D198" s="1">
+        <v>22085</v>
+      </c>
+      <c r="E198" s="2">
+        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Edward</v>
-      </c>
-      <c r="D198" s="1">
-        <v>38742</v>
-      </c>
-      <c r="E198" s="2">
-        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -40782,7 +40780,7 @@
         <v>198</v>
       </c>
       <c r="H198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K198" s="1">
         <f t="shared" si="3"/>
@@ -40790,7 +40788,7 @@
       </c>
       <c r="L198" s="2">
         <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -40798,21 +40796,21 @@
         <v>282</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="C199" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Zhaoxuan</v>
+        <v>Xiao.Edward</v>
       </c>
       <c r="D199" s="1">
         <v>38742</v>
       </c>
       <c r="E199" s="2">
-        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G199" t="s">
         <v>198</v>
@@ -40830,25 +40828,25 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>175</v>
-      </c>
-      <c r="B200" t="s">
-        <v>132</v>
-      </c>
-      <c r="C200" t="str">
+      <c r="A200" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C200" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yang.Luke</v>
+        <v>Xiao.Zhaoxuan</v>
       </c>
       <c r="D200" s="1">
-        <v>40399</v>
+        <v>38742</v>
       </c>
       <c r="E200" s="2">
-        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G200" t="s">
         <v>198</v>
@@ -40862,25 +40860,25 @@
       </c>
       <c r="L200" s="2">
         <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="C201" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yeo.Doyoon</v>
+        <v>Yang.Luke</v>
       </c>
       <c r="D201" s="1">
-        <v>40454</v>
+        <v>40399</v>
       </c>
       <c r="E201" s="2">
-        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>10</v>
       </c>
       <c r="F201" t="s">
@@ -40902,22 +40900,22 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C202" s="9" t="str">
+      <c r="A202" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yu.Jerry</v>
+        <v>Yeo.Doyoon</v>
       </c>
       <c r="D202" s="1">
-        <v>37149</v>
+        <v>40454</v>
       </c>
       <c r="E202" s="2">
-        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F202" t="s">
         <v>11</v>
@@ -40934,26 +40932,26 @@
       </c>
       <c r="L202" s="2">
         <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C203" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Yu.Jerry</v>
+      </c>
+      <c r="D203" s="1">
+        <v>37149</v>
+      </c>
+      <c r="E203" s="2">
+        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>92</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Zhang.Jiarui</v>
-      </c>
-      <c r="D203" s="1">
-        <v>38124</v>
-      </c>
-      <c r="E203" s="2">
-        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
       </c>
       <c r="F203" t="s">
         <v>11</v>
@@ -40970,26 +40968,26 @@
       </c>
       <c r="L203" s="2">
         <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="C204" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Zhdanovich.Maria</v>
+        <v>Zhang.Jiarui</v>
       </c>
       <c r="D204" s="1">
-        <v>36468</v>
+        <v>38124</v>
       </c>
       <c r="E204" s="2">
-        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>21</v>
+        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
         <v>11</v>
@@ -40998,7 +40996,7 @@
         <v>198</v>
       </c>
       <c r="H204" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K204" s="1">
         <f t="shared" si="3"/>
@@ -41006,26 +41004,26 @@
       </c>
       <c r="L204" s="2">
         <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" t="s">
+        <v>305</v>
+      </c>
+      <c r="C205" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Zhdanovich.Maria</v>
+      </c>
+      <c r="D205" s="1">
+        <v>36468</v>
+      </c>
+      <c r="E205" s="2">
+        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C205" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Andriono.Raymond Rafael</v>
-      </c>
-      <c r="D205" s="1">
-        <v>37118</v>
-      </c>
-      <c r="E205" s="2">
-        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
       </c>
       <c r="F205" t="s">
         <v>11</v>
@@ -41034,7 +41032,7 @@
         <v>198</v>
       </c>
       <c r="H205" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K205" s="1">
         <f t="shared" si="3"/>
@@ -41042,29 +41040,29 @@
       </c>
       <c r="L205" s="2">
         <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C206" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Toronjo Urquiza.Luis</v>
+        <v>Andriono.Raymond Rafael</v>
       </c>
       <c r="D206" s="1">
-        <v>32091</v>
+        <v>37118</v>
       </c>
       <c r="E206" s="2">
-        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>19</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
         <v>198</v>
@@ -41078,29 +41076,29 @@
       </c>
       <c r="L206" s="2">
         <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C207" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kress.Liam</v>
+        <v>Toronjo Urquiza.Luis</v>
       </c>
       <c r="D207" s="1">
-        <v>35661</v>
+        <v>32091</v>
       </c>
       <c r="E207" s="2">
-        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
         <v>198</v>
@@ -41114,29 +41112,29 @@
       </c>
       <c r="L207" s="2">
         <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C208" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Idris.Moaz Mohamed Daoud Sheikh</v>
+        <v>Kress.Liam</v>
       </c>
       <c r="D208" s="1">
-        <v>34731</v>
+        <v>35661</v>
       </c>
       <c r="E208" s="2">
-        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
         <v>198</v>
@@ -41150,26 +41148,26 @@
       </c>
       <c r="L208" s="2">
         <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C209" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Nguyen.Lily</v>
+        <v>Idris.Moaz Mohamed Daoud Sheikh</v>
       </c>
       <c r="D209" s="1">
-        <v>34609</v>
+        <v>34731</v>
       </c>
       <c r="E209" s="2">
-        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>25</v>
       </c>
       <c r="F209" t="s">
         <v>49</v>
@@ -41178,7 +41176,7 @@
         <v>198</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K209" s="1">
         <f t="shared" si="3"/>
@@ -41186,35 +41184,35 @@
       </c>
       <c r="L209" s="2">
         <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C210" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lim.Benjamin</v>
+        <v>Nguyen.Lily</v>
       </c>
       <c r="D210" s="1">
-        <v>36582</v>
+        <v>34609</v>
       </c>
       <c r="E210" s="2">
-        <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>26</v>
       </c>
       <c r="F210" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="G210" t="s">
         <v>198</v>
       </c>
       <c r="H210" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K210" s="1">
         <f t="shared" si="3"/>
@@ -41222,24 +41220,52 @@
       </c>
       <c r="L210" s="2">
         <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="C211" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D211" s="1"/>
+        <v>Lim.Benjamin</v>
+      </c>
+      <c r="D211" s="1">
+        <v>36582</v>
+      </c>
       <c r="E211" s="2">
-        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
+      </c>
+      <c r="F211" t="s">
+        <v>309</v>
+      </c>
+      <c r="G211" t="s">
+        <v>198</v>
+      </c>
+      <c r="H211" t="s">
+        <v>317</v>
       </c>
       <c r="K211" s="1">
         <f t="shared" si="3"/>
         <v>44197</v>
       </c>
       <c r="L211" s="2">
+        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C212" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2">
         <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>121</v>
       </c>

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23B8D85-49D3-4FF0-B968-D8C65805B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFA2E6-CFAA-4D89-9DB4-88C2E249BE6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="405" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="-14235" windowWidth="25395" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
     <sheet name="Fencers" sheetId="19" r:id="rId2"/>
     <sheet name="Ranking Values" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1298,10 +1301,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1369,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1394,20 +1396,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Bold text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1426,7 +1425,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1506,7 +1505,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1558,10 +1557,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1642,8 +1641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q520" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q520" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q519" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q519" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q447">
     <sortCondition ref="E2:E447"/>
     <sortCondition ref="H2:H447"/>
@@ -2072,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q525"/>
+  <dimension ref="A1:Q524"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A514" sqref="A514"/>
+      <selection pane="bottomLeft" activeCell="A516" sqref="A516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6766,7 +6765,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L77" s="30">
+      <c r="L77" s="29">
         <v>0</v>
       </c>
       <c r="M77" s="13">
@@ -6827,7 +6826,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L78" s="30">
+      <c r="L78" s="29">
         <v>0</v>
       </c>
       <c r="M78" s="13">
@@ -6888,7 +6887,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L79" s="30">
+      <c r="L79" s="29">
         <v>0</v>
       </c>
       <c r="M79" s="13">
@@ -6949,7 +6948,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L80" s="30">
+      <c r="L80" s="29">
         <v>0</v>
       </c>
       <c r="M80" s="13">
@@ -7010,7 +7009,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L81" s="30">
+      <c r="L81" s="29">
         <v>0</v>
       </c>
       <c r="M81" s="13">
@@ -7071,7 +7070,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L82" s="30">
+      <c r="L82" s="29">
         <v>0</v>
       </c>
       <c r="M82" s="13">
@@ -7132,7 +7131,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L83" s="30">
+      <c r="L83" s="29">
         <v>0</v>
       </c>
       <c r="M83" s="13">
@@ -7193,7 +7192,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L84" s="30">
+      <c r="L84" s="29">
         <v>0</v>
       </c>
       <c r="M84" s="13">
@@ -7254,7 +7253,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>F4A</v>
       </c>
-      <c r="L85" s="30">
+      <c r="L85" s="29">
         <v>0</v>
       </c>
       <c r="M85" s="13">
@@ -7315,7 +7314,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L86" s="30">
+      <c r="L86" s="29">
         <v>0</v>
       </c>
       <c r="M86" s="13">
@@ -7376,7 +7375,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L87" s="30">
+      <c r="L87" s="29">
         <v>0</v>
       </c>
       <c r="M87" s="13">
@@ -7437,7 +7436,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L88" s="30">
+      <c r="L88" s="29">
         <v>0</v>
       </c>
       <c r="M88" s="13">
@@ -7498,7 +7497,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L89" s="30">
+      <c r="L89" s="29">
         <v>0</v>
       </c>
       <c r="M89" s="13">
@@ -7559,7 +7558,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L90" s="30">
+      <c r="L90" s="29">
         <v>0</v>
       </c>
       <c r="M90" s="13">
@@ -7620,7 +7619,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L91" s="30">
+      <c r="L91" s="29">
         <v>0</v>
       </c>
       <c r="M91" s="13">
@@ -7681,7 +7680,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L92" s="30">
+      <c r="L92" s="29">
         <v>0</v>
       </c>
       <c r="M92" s="13">
@@ -7742,7 +7741,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L93" s="30">
+      <c r="L93" s="29">
         <v>0</v>
       </c>
       <c r="M93" s="13">
@@ -7803,7 +7802,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L94" s="30">
+      <c r="L94" s="29">
         <v>0</v>
       </c>
       <c r="M94" s="13">
@@ -7864,7 +7863,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L95" s="30">
+      <c r="L95" s="29">
         <v>0</v>
       </c>
       <c r="M95" s="13">
@@ -7925,7 +7924,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>F4A</v>
       </c>
-      <c r="L96" s="30">
+      <c r="L96" s="29">
         <v>0</v>
       </c>
       <c r="M96" s="13">
@@ -7986,7 +7985,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L97" s="30">
+      <c r="L97" s="29">
         <v>0</v>
       </c>
       <c r="M97" s="13">
@@ -8047,7 +8046,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L98" s="30">
+      <c r="L98" s="29">
         <v>0</v>
       </c>
       <c r="M98" s="13">
@@ -8108,7 +8107,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L99" s="30">
+      <c r="L99" s="29">
         <v>0</v>
       </c>
       <c r="M99" s="13">
@@ -8169,7 +8168,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L100" s="30">
+      <c r="L100" s="29">
         <v>0</v>
       </c>
       <c r="M100" s="13">
@@ -8230,7 +8229,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L101" s="30">
+      <c r="L101" s="29">
         <v>0</v>
       </c>
       <c r="M101" s="13">
@@ -8291,7 +8290,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L102" s="30">
+      <c r="L102" s="29">
         <v>0</v>
       </c>
       <c r="M102" s="13">
@@ -8352,7 +8351,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L103" s="30">
+      <c r="L103" s="29">
         <v>0</v>
       </c>
       <c r="M103" s="13">
@@ -8413,7 +8412,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L104" s="30">
+      <c r="L104" s="29">
         <v>0</v>
       </c>
       <c r="M104" s="13">
@@ -8474,7 +8473,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L105" s="30">
+      <c r="L105" s="29">
         <v>0</v>
       </c>
       <c r="M105" s="13">
@@ -8535,7 +8534,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L106" s="30">
+      <c r="L106" s="29">
         <v>0</v>
       </c>
       <c r="M106" s="13">
@@ -8596,7 +8595,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L107" s="30">
+      <c r="L107" s="29">
         <v>0</v>
       </c>
       <c r="M107" s="13">
@@ -8657,7 +8656,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L108" s="30">
+      <c r="L108" s="29">
         <v>0</v>
       </c>
       <c r="M108" s="13">
@@ -8718,7 +8717,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L109" s="30">
+      <c r="L109" s="29">
         <v>0</v>
       </c>
       <c r="M109" s="13">
@@ -8779,7 +8778,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L110" s="30">
+      <c r="L110" s="29">
         <v>0</v>
       </c>
       <c r="M110" s="13">
@@ -8840,7 +8839,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L111" s="30">
+      <c r="L111" s="29">
         <v>0</v>
       </c>
       <c r="M111" s="13">
@@ -8901,7 +8900,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L112" s="30">
+      <c r="L112" s="29">
         <v>0</v>
       </c>
       <c r="M112" s="13">
@@ -8962,7 +8961,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L113" s="30">
+      <c r="L113" s="29">
         <v>0</v>
       </c>
       <c r="M113" s="13">
@@ -9023,7 +9022,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L114" s="30">
+      <c r="L114" s="29">
         <v>0</v>
       </c>
       <c r="M114" s="13">
@@ -9084,7 +9083,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L115" s="30">
+      <c r="L115" s="29">
         <v>0</v>
       </c>
       <c r="M115" s="13">
@@ -9145,7 +9144,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L116" s="30">
+      <c r="L116" s="29">
         <v>0</v>
       </c>
       <c r="M116" s="13">
@@ -9206,7 +9205,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L117" s="30">
+      <c r="L117" s="29">
         <v>0</v>
       </c>
       <c r="M117" s="13">
@@ -9267,7 +9266,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L118" s="30">
+      <c r="L118" s="29">
         <v>0</v>
       </c>
       <c r="M118" s="13">
@@ -9328,7 +9327,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L119" s="30">
+      <c r="L119" s="29">
         <v>0</v>
       </c>
       <c r="M119" s="13">
@@ -9389,7 +9388,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L120" s="30">
+      <c r="L120" s="29">
         <v>0</v>
       </c>
       <c r="M120" s="13">
@@ -9450,7 +9449,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L121" s="30">
+      <c r="L121" s="29">
         <v>0</v>
       </c>
       <c r="M121" s="13">
@@ -9511,7 +9510,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L122" s="30">
+      <c r="L122" s="29">
         <v>0</v>
       </c>
       <c r="M122" s="13">
@@ -9572,7 +9571,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L123" s="30">
+      <c r="L123" s="29">
         <v>0</v>
       </c>
       <c r="M123" s="13">
@@ -9633,7 +9632,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L124" s="30">
+      <c r="L124" s="29">
         <v>0</v>
       </c>
       <c r="M124" s="13">
@@ -9694,7 +9693,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L125" s="30">
+      <c r="L125" s="29">
         <v>0</v>
       </c>
       <c r="M125" s="13">
@@ -9755,7 +9754,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L126" s="30">
+      <c r="L126" s="29">
         <v>0</v>
       </c>
       <c r="M126" s="13">
@@ -9816,7 +9815,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L127" s="30">
+      <c r="L127" s="29">
         <v>0</v>
       </c>
       <c r="M127" s="13">
@@ -9877,7 +9876,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L128" s="30">
+      <c r="L128" s="29">
         <v>0</v>
       </c>
       <c r="M128" s="13">
@@ -9938,7 +9937,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L129" s="30">
+      <c r="L129" s="29">
         <v>0</v>
       </c>
       <c r="M129" s="13">
@@ -9999,7 +9998,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L130" s="30">
+      <c r="L130" s="29">
         <v>0</v>
       </c>
       <c r="M130" s="13">
@@ -10060,7 +10059,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L131" s="30">
+      <c r="L131" s="29">
         <v>0</v>
       </c>
       <c r="M131" s="13">
@@ -10121,7 +10120,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L132" s="30">
+      <c r="L132" s="29">
         <v>0</v>
       </c>
       <c r="M132" s="13">
@@ -10182,7 +10181,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L133" s="30">
+      <c r="L133" s="29">
         <v>0</v>
       </c>
       <c r="M133" s="13">
@@ -10243,7 +10242,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L134" s="30">
+      <c r="L134" s="29">
         <v>0</v>
       </c>
       <c r="M134" s="13">
@@ -10304,7 +10303,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L135" s="30">
+      <c r="L135" s="29">
         <v>0</v>
       </c>
       <c r="M135" s="13">
@@ -10365,7 +10364,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L136" s="30">
+      <c r="L136" s="29">
         <v>0</v>
       </c>
       <c r="M136" s="13">
@@ -10426,7 +10425,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L137" s="30">
+      <c r="L137" s="29">
         <v>0</v>
       </c>
       <c r="M137" s="13">
@@ -10487,7 +10486,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L138" s="30">
+      <c r="L138" s="29">
         <v>0</v>
       </c>
       <c r="M138" s="13">
@@ -10548,7 +10547,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L139" s="30">
+      <c r="L139" s="29">
         <v>0</v>
       </c>
       <c r="M139" s="13">
@@ -10609,7 +10608,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L140" s="30">
+      <c r="L140" s="29">
         <v>0</v>
       </c>
       <c r="M140" s="13">
@@ -10670,7 +10669,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L141" s="30">
+      <c r="L141" s="29">
         <v>0</v>
       </c>
       <c r="M141" s="13">
@@ -10731,7 +10730,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L142" s="30">
+      <c r="L142" s="29">
         <v>0</v>
       </c>
       <c r="M142" s="13">
@@ -10792,7 +10791,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L143" s="30">
+      <c r="L143" s="29">
         <v>0</v>
       </c>
       <c r="M143" s="13">
@@ -10853,7 +10852,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L144" s="30">
+      <c r="L144" s="29">
         <v>0</v>
       </c>
       <c r="M144" s="13">
@@ -10914,7 +10913,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L145" s="30">
+      <c r="L145" s="29">
         <v>0</v>
       </c>
       <c r="M145" s="13">
@@ -10975,7 +10974,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L146" s="30">
+      <c r="L146" s="29">
         <v>0</v>
       </c>
       <c r="M146" s="13">
@@ -11036,7 +11035,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L147" s="30">
+      <c r="L147" s="29">
         <v>0</v>
       </c>
       <c r="M147" s="13">
@@ -11097,7 +11096,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L148" s="30">
+      <c r="L148" s="29">
         <v>0</v>
       </c>
       <c r="M148" s="13">
@@ -11158,7 +11157,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L149" s="30">
+      <c r="L149" s="29">
         <v>0</v>
       </c>
       <c r="M149" s="13">
@@ -11218,7 +11217,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L150" s="30">
+      <c r="L150" s="29">
         <v>1</v>
       </c>
       <c r="M150" s="13">
@@ -11278,7 +11277,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L151" s="30">
+      <c r="L151" s="29">
         <v>1</v>
       </c>
       <c r="M151" s="13">
@@ -11338,7 +11337,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L152" s="30">
+      <c r="L152" s="29">
         <v>1</v>
       </c>
       <c r="M152" s="13">
@@ -11398,7 +11397,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L153" s="30">
+      <c r="L153" s="29">
         <v>1</v>
       </c>
       <c r="M153" s="13">
@@ -11458,7 +11457,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L154" s="30">
+      <c r="L154" s="29">
         <v>1</v>
       </c>
       <c r="M154" s="13">
@@ -11518,7 +11517,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L155" s="30">
+      <c r="L155" s="29">
         <v>1</v>
       </c>
       <c r="M155" s="13">
@@ -11578,7 +11577,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L156" s="30">
+      <c r="L156" s="29">
         <v>1</v>
       </c>
       <c r="M156" s="13">
@@ -11638,7 +11637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L157" s="30">
+      <c r="L157" s="29">
         <v>1</v>
       </c>
       <c r="M157" s="13">
@@ -11698,7 +11697,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L158" s="30">
+      <c r="L158" s="29">
         <v>1</v>
       </c>
       <c r="M158" s="13">
@@ -11758,7 +11757,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L159" s="30">
+      <c r="L159" s="29">
         <v>1</v>
       </c>
       <c r="M159" s="13">
@@ -11819,7 +11818,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L160" s="30">
+      <c r="L160" s="29">
         <v>0</v>
       </c>
       <c r="M160" s="13">
@@ -11880,7 +11879,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L161" s="30">
+      <c r="L161" s="29">
         <v>0</v>
       </c>
       <c r="M161" s="13">
@@ -11941,7 +11940,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L162" s="30">
+      <c r="L162" s="29">
         <v>0</v>
       </c>
       <c r="M162" s="13">
@@ -12002,7 +12001,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L163" s="30">
+      <c r="L163" s="29">
         <v>0</v>
       </c>
       <c r="M163" s="13">
@@ -12063,7 +12062,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L164" s="30">
+      <c r="L164" s="29">
         <v>0</v>
       </c>
       <c r="M164" s="13">
@@ -12124,7 +12123,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L165" s="30">
+      <c r="L165" s="29">
         <v>0</v>
       </c>
       <c r="M165" s="13">
@@ -12185,7 +12184,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L166" s="30">
+      <c r="L166" s="29">
         <v>0</v>
       </c>
       <c r="M166" s="13">
@@ -12246,7 +12245,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L167" s="30">
+      <c r="L167" s="29">
         <v>0</v>
       </c>
       <c r="M167" s="13">
@@ -12307,7 +12306,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L168" s="30">
+      <c r="L168" s="29">
         <v>0</v>
       </c>
       <c r="M168" s="13">
@@ -12368,7 +12367,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L169" s="30">
+      <c r="L169" s="29">
         <v>0</v>
       </c>
       <c r="M169" s="13">
@@ -12429,7 +12428,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L170" s="30">
+      <c r="L170" s="29">
         <v>0</v>
       </c>
       <c r="M170" s="13">
@@ -12490,7 +12489,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L171" s="30">
+      <c r="L171" s="29">
         <v>0</v>
       </c>
       <c r="M171" s="13">
@@ -12551,7 +12550,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L172" s="30">
+      <c r="L172" s="29">
         <v>0</v>
       </c>
       <c r="M172" s="13">
@@ -12612,7 +12611,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L173" s="30">
+      <c r="L173" s="29">
         <v>0</v>
       </c>
       <c r="M173" s="13">
@@ -12673,7 +12672,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L174" s="30">
+      <c r="L174" s="29">
         <v>0</v>
       </c>
       <c r="M174" s="13">
@@ -12734,7 +12733,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L175" s="30">
+      <c r="L175" s="29">
         <v>0</v>
       </c>
       <c r="M175" s="13">
@@ -12795,7 +12794,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L176" s="30">
+      <c r="L176" s="29">
         <v>0</v>
       </c>
       <c r="M176" s="13">
@@ -12856,7 +12855,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L177" s="30">
+      <c r="L177" s="29">
         <v>0</v>
       </c>
       <c r="M177" s="13">
@@ -12917,7 +12916,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L178" s="30">
+      <c r="L178" s="29">
         <v>0</v>
       </c>
       <c r="M178" s="13">
@@ -12978,7 +12977,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L179" s="30">
+      <c r="L179" s="29">
         <v>0</v>
       </c>
       <c r="M179" s="13">
@@ -13039,7 +13038,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L180" s="30">
+      <c r="L180" s="29">
         <v>0</v>
       </c>
       <c r="M180" s="13">
@@ -13100,7 +13099,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L181" s="30">
+      <c r="L181" s="29">
         <v>0</v>
       </c>
       <c r="M181" s="13">
@@ -13161,7 +13160,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L182" s="30">
+      <c r="L182" s="29">
         <v>0</v>
       </c>
       <c r="M182" s="13">
@@ -13222,7 +13221,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L183" s="30">
+      <c r="L183" s="29">
         <v>0</v>
       </c>
       <c r="M183" s="13">
@@ -13283,7 +13282,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L184" s="30">
+      <c r="L184" s="29">
         <v>0</v>
       </c>
       <c r="M184" s="13">
@@ -13344,7 +13343,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L185" s="30">
+      <c r="L185" s="29">
         <v>0</v>
       </c>
       <c r="M185" s="13">
@@ -13405,7 +13404,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L186" s="30">
+      <c r="L186" s="29">
         <v>0</v>
       </c>
       <c r="M186" s="13">
@@ -13466,7 +13465,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L187" s="30">
+      <c r="L187" s="29">
         <v>0</v>
       </c>
       <c r="M187" s="13">
@@ -13527,7 +13526,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L188" s="30">
+      <c r="L188" s="29">
         <v>0</v>
       </c>
       <c r="M188" s="13">
@@ -13588,7 +13587,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L189" s="30">
+      <c r="L189" s="29">
         <v>0</v>
       </c>
       <c r="M189" s="13">
@@ -13649,7 +13648,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L190" s="30">
+      <c r="L190" s="29">
         <v>0</v>
       </c>
       <c r="M190" s="13">
@@ -13710,7 +13709,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L191" s="30">
+      <c r="L191" s="29">
         <v>0</v>
       </c>
       <c r="M191" s="13">
@@ -13771,7 +13770,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L192" s="30">
+      <c r="L192" s="29">
         <v>0</v>
       </c>
       <c r="M192" s="13">
@@ -13832,7 +13831,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L193" s="30">
+      <c r="L193" s="29">
         <v>0</v>
       </c>
       <c r="M193" s="13">
@@ -13893,7 +13892,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L194" s="30">
+      <c r="L194" s="29">
         <v>0</v>
       </c>
       <c r="M194" s="13">
@@ -13954,7 +13953,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L195" s="30">
+      <c r="L195" s="29">
         <v>0</v>
       </c>
       <c r="M195" s="13">
@@ -14015,7 +14014,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L196" s="30">
+      <c r="L196" s="29">
         <v>0</v>
       </c>
       <c r="M196" s="13">
@@ -14076,7 +14075,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L197" s="30">
+      <c r="L197" s="29">
         <v>0</v>
       </c>
       <c r="M197" s="13">
@@ -14137,7 +14136,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L198" s="30">
+      <c r="L198" s="29">
         <v>0</v>
       </c>
       <c r="M198" s="13">
@@ -14198,7 +14197,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L199" s="30">
+      <c r="L199" s="29">
         <v>0</v>
       </c>
       <c r="M199" s="13">
@@ -14259,7 +14258,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L200" s="30">
+      <c r="L200" s="29">
         <v>0</v>
       </c>
       <c r="M200" s="13">
@@ -14320,7 +14319,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L201" s="30">
+      <c r="L201" s="29">
         <v>0</v>
       </c>
       <c r="M201" s="13">
@@ -14381,7 +14380,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L202" s="30">
+      <c r="L202" s="29">
         <v>0</v>
       </c>
       <c r="M202" s="13">
@@ -14442,7 +14441,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L203" s="30">
+      <c r="L203" s="29">
         <v>0</v>
       </c>
       <c r="M203" s="13">
@@ -14503,7 +14502,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L204" s="30">
+      <c r="L204" s="29">
         <v>0</v>
       </c>
       <c r="M204" s="13">
@@ -14564,7 +14563,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L205" s="30">
+      <c r="L205" s="29">
         <v>0</v>
       </c>
       <c r="M205" s="13">
@@ -14625,7 +14624,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L206" s="30">
+      <c r="L206" s="29">
         <v>0</v>
       </c>
       <c r="M206" s="13">
@@ -14686,7 +14685,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L207" s="30">
+      <c r="L207" s="29">
         <v>0</v>
       </c>
       <c r="M207" s="13">
@@ -14747,7 +14746,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L208" s="30">
+      <c r="L208" s="29">
         <v>0</v>
       </c>
       <c r="M208" s="13">
@@ -14808,7 +14807,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L209" s="30">
+      <c r="L209" s="29">
         <v>0</v>
       </c>
       <c r="M209" s="13">
@@ -14869,7 +14868,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L210" s="30">
+      <c r="L210" s="29">
         <v>0</v>
       </c>
       <c r="M210" s="13">
@@ -14930,7 +14929,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L211" s="30">
+      <c r="L211" s="29">
         <v>0</v>
       </c>
       <c r="M211" s="13">
@@ -14991,7 +14990,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L212" s="30">
+      <c r="L212" s="29">
         <v>0</v>
       </c>
       <c r="M212" s="13">
@@ -15052,7 +15051,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L213" s="30">
+      <c r="L213" s="29">
         <v>0</v>
       </c>
       <c r="M213" s="13">
@@ -15113,7 +15112,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L214" s="30">
+      <c r="L214" s="29">
         <v>0</v>
       </c>
       <c r="M214" s="13">
@@ -15174,7 +15173,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L215" s="30">
+      <c r="L215" s="29">
         <v>0</v>
       </c>
       <c r="M215" s="13">
@@ -15235,7 +15234,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L216" s="30">
+      <c r="L216" s="29">
         <v>0</v>
       </c>
       <c r="M216" s="13">
@@ -15296,7 +15295,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L217" s="30">
+      <c r="L217" s="29">
         <v>0</v>
       </c>
       <c r="M217" s="13">
@@ -15357,7 +15356,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L218" s="30">
+      <c r="L218" s="29">
         <v>0</v>
       </c>
       <c r="M218" s="13">
@@ -15418,7 +15417,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L219" s="30">
+      <c r="L219" s="29">
         <v>0</v>
       </c>
       <c r="M219" s="13">
@@ -15479,7 +15478,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L220" s="30">
+      <c r="L220" s="29">
         <v>0</v>
       </c>
       <c r="M220" s="13">
@@ -15540,7 +15539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L221" s="30">
+      <c r="L221" s="29">
         <v>0</v>
       </c>
       <c r="M221" s="13">
@@ -15601,7 +15600,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L222" s="30">
+      <c r="L222" s="29">
         <v>0</v>
       </c>
       <c r="M222" s="13">
@@ -15662,7 +15661,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L223" s="30">
+      <c r="L223" s="29">
         <v>0</v>
       </c>
       <c r="M223" s="13">
@@ -15723,7 +15722,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L224" s="30">
+      <c r="L224" s="29">
         <v>0</v>
       </c>
       <c r="M224" s="13">
@@ -15784,7 +15783,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L225" s="30">
+      <c r="L225" s="29">
         <v>0</v>
       </c>
       <c r="M225" s="13">
@@ -15845,7 +15844,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L226" s="30">
+      <c r="L226" s="29">
         <v>0</v>
       </c>
       <c r="M226" s="13">
@@ -15906,7 +15905,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L227" s="30">
+      <c r="L227" s="29">
         <v>0</v>
       </c>
       <c r="M227" s="13">
@@ -15967,7 +15966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L228" s="30">
+      <c r="L228" s="29">
         <v>1</v>
       </c>
       <c r="M228" s="13">
@@ -16028,7 +16027,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L229" s="30">
+      <c r="L229" s="29">
         <v>1</v>
       </c>
       <c r="M229" s="13">
@@ -16089,7 +16088,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L230" s="30">
+      <c r="L230" s="29">
         <v>1</v>
       </c>
       <c r="M230" s="13">
@@ -16150,7 +16149,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L231" s="30">
+      <c r="L231" s="29">
         <v>1</v>
       </c>
       <c r="M231" s="13">
@@ -16211,7 +16210,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L232" s="30">
+      <c r="L232" s="29">
         <v>1</v>
       </c>
       <c r="M232" s="13">
@@ -16272,7 +16271,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L233" s="30">
+      <c r="L233" s="29">
         <v>1</v>
       </c>
       <c r="M233" s="13">
@@ -16333,7 +16332,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L234" s="30">
+      <c r="L234" s="29">
         <v>1</v>
       </c>
       <c r="M234" s="13">
@@ -16394,7 +16393,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L235" s="30">
+      <c r="L235" s="29">
         <v>1</v>
       </c>
       <c r="M235" s="13">
@@ -16455,7 +16454,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L236" s="30">
+      <c r="L236" s="29">
         <v>1</v>
       </c>
       <c r="M236" s="13">
@@ -16516,7 +16515,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L237" s="30">
+      <c r="L237" s="29">
         <v>1</v>
       </c>
       <c r="M237" s="13">
@@ -16577,7 +16576,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L238" s="30">
+      <c r="L238" s="29">
         <v>1</v>
       </c>
       <c r="M238" s="13">
@@ -16638,7 +16637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L239" s="30">
+      <c r="L239" s="29">
         <v>1</v>
       </c>
       <c r="M239" s="13">
@@ -16699,7 +16698,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L240" s="30">
+      <c r="L240" s="29">
         <v>1</v>
       </c>
       <c r="M240" s="13">
@@ -16760,7 +16759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L241" s="30">
+      <c r="L241" s="29">
         <v>1</v>
       </c>
       <c r="M241" s="13">
@@ -16821,7 +16820,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L242" s="30">
+      <c r="L242" s="29">
         <v>1</v>
       </c>
       <c r="M242" s="13">
@@ -16882,7 +16881,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L243" s="30">
+      <c r="L243" s="29">
         <v>1</v>
       </c>
       <c r="M243" s="13">
@@ -16943,7 +16942,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L244" s="30">
+      <c r="L244" s="29">
         <v>1</v>
       </c>
       <c r="M244" s="13">
@@ -17004,7 +17003,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L245" s="30">
+      <c r="L245" s="29">
         <v>1</v>
       </c>
       <c r="M245" s="13">
@@ -17065,7 +17064,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L246" s="30">
+      <c r="L246" s="29">
         <v>1</v>
       </c>
       <c r="M246" s="13">
@@ -17126,7 +17125,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L247" s="30">
+      <c r="L247" s="29">
         <v>1</v>
       </c>
       <c r="M247" s="13">
@@ -17187,7 +17186,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L248" s="30">
+      <c r="L248" s="29">
         <v>1</v>
       </c>
       <c r="M248" s="13">
@@ -17248,7 +17247,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L249" s="30">
+      <c r="L249" s="29">
         <v>1</v>
       </c>
       <c r="M249" s="13">
@@ -17309,7 +17308,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L250" s="30">
+      <c r="L250" s="29">
         <v>1</v>
       </c>
       <c r="M250" s="13">
@@ -17370,7 +17369,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L251" s="30">
+      <c r="L251" s="29">
         <v>1</v>
       </c>
       <c r="M251" s="13">
@@ -17431,7 +17430,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L252" s="30">
+      <c r="L252" s="29">
         <v>1</v>
       </c>
       <c r="M252" s="13">
@@ -17492,7 +17491,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L253" s="30">
+      <c r="L253" s="29">
         <v>1</v>
       </c>
       <c r="M253" s="13">
@@ -17553,7 +17552,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L254" s="30">
+      <c r="L254" s="29">
         <v>1</v>
       </c>
       <c r="M254" s="13">
@@ -17614,7 +17613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L255" s="30">
+      <c r="L255" s="29">
         <v>1</v>
       </c>
       <c r="M255" s="13">
@@ -17675,7 +17674,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L256" s="30">
+      <c r="L256" s="29">
         <v>1</v>
       </c>
       <c r="M256" s="13">
@@ -17736,7 +17735,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L257" s="30">
+      <c r="L257" s="29">
         <v>0</v>
       </c>
       <c r="M257" s="13">
@@ -17797,7 +17796,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L258" s="30">
+      <c r="L258" s="29">
         <v>0</v>
       </c>
       <c r="M258" s="13">
@@ -17858,7 +17857,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L259" s="30">
+      <c r="L259" s="29">
         <v>0</v>
       </c>
       <c r="M259" s="13">
@@ -17919,7 +17918,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L260" s="30">
+      <c r="L260" s="29">
         <v>0</v>
       </c>
       <c r="M260" s="13">
@@ -17980,7 +17979,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L261" s="30">
+      <c r="L261" s="29">
         <v>0</v>
       </c>
       <c r="M261" s="13">
@@ -18040,7 +18039,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L262" s="30">
+      <c r="L262" s="29">
         <v>1</v>
       </c>
       <c r="M262" s="13">
@@ -18100,7 +18099,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L263" s="30">
+      <c r="L263" s="29">
         <v>1</v>
       </c>
       <c r="M263" s="13">
@@ -18160,7 +18159,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L264" s="30">
+      <c r="L264" s="29">
         <v>1</v>
       </c>
       <c r="M264" s="13">
@@ -18220,7 +18219,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L265" s="30">
+      <c r="L265" s="29">
         <v>1</v>
       </c>
       <c r="M265" s="13">
@@ -18280,7 +18279,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L266" s="30">
+      <c r="L266" s="29">
         <v>1</v>
       </c>
       <c r="M266" s="13">
@@ -18340,7 +18339,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L267" s="30">
+      <c r="L267" s="29">
         <v>1</v>
       </c>
       <c r="M267" s="13">
@@ -18400,7 +18399,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L268" s="30">
+      <c r="L268" s="29">
         <v>1</v>
       </c>
       <c r="M268" s="13">
@@ -18460,7 +18459,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L269" s="30">
+      <c r="L269" s="29">
         <v>1</v>
       </c>
       <c r="M269" s="13">
@@ -18520,7 +18519,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L270" s="30">
+      <c r="L270" s="29">
         <v>1</v>
       </c>
       <c r="M270" s="13">
@@ -18580,7 +18579,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L271" s="30">
+      <c r="L271" s="29">
         <v>1</v>
       </c>
       <c r="M271" s="13">
@@ -18640,7 +18639,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L272" s="30">
+      <c r="L272" s="29">
         <v>1</v>
       </c>
       <c r="M272" s="13">
@@ -18700,7 +18699,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L273" s="30">
+      <c r="L273" s="29">
         <v>1</v>
       </c>
       <c r="M273" s="13">
@@ -18760,7 +18759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L274" s="30">
+      <c r="L274" s="29">
         <v>1</v>
       </c>
       <c r="M274" s="13">
@@ -18820,7 +18819,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L275" s="30">
+      <c r="L275" s="29">
         <v>1</v>
       </c>
       <c r="M275" s="13">
@@ -18880,7 +18879,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L276" s="30">
+      <c r="L276" s="29">
         <v>1</v>
       </c>
       <c r="M276" s="13">
@@ -18940,7 +18939,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L277" s="30">
+      <c r="L277" s="29">
         <v>1</v>
       </c>
       <c r="M277" s="13">
@@ -19000,7 +18999,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L278" s="30">
+      <c r="L278" s="29">
         <v>1</v>
       </c>
       <c r="M278" s="13">
@@ -19060,7 +19059,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L279" s="30">
+      <c r="L279" s="29">
         <v>1</v>
       </c>
       <c r="M279" s="13">
@@ -19120,7 +19119,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L280" s="30">
+      <c r="L280" s="29">
         <v>1</v>
       </c>
       <c r="M280" s="13">
@@ -19180,7 +19179,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L281" s="30">
+      <c r="L281" s="29">
         <v>1</v>
       </c>
       <c r="M281" s="13">
@@ -19240,7 +19239,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L282" s="30">
+      <c r="L282" s="29">
         <v>1</v>
       </c>
       <c r="M282" s="13">
@@ -19300,7 +19299,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L283" s="30">
+      <c r="L283" s="29">
         <v>1</v>
       </c>
       <c r="M283" s="13">
@@ -19360,7 +19359,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L284" s="30">
+      <c r="L284" s="29">
         <v>1</v>
       </c>
       <c r="M284" s="13">
@@ -19420,7 +19419,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L285" s="30">
+      <c r="L285" s="29">
         <v>1</v>
       </c>
       <c r="M285" s="13">
@@ -19480,7 +19479,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L286" s="30">
+      <c r="L286" s="29">
         <v>1</v>
       </c>
       <c r="M286" s="13">
@@ -19540,7 +19539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L287" s="30">
+      <c r="L287" s="29">
         <v>1</v>
       </c>
       <c r="M287" s="13">
@@ -19600,7 +19599,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L288" s="30">
+      <c r="L288" s="29">
         <v>1</v>
       </c>
       <c r="M288" s="13">
@@ -19660,7 +19659,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L289" s="30">
+      <c r="L289" s="29">
         <v>1</v>
       </c>
       <c r="M289" s="13">
@@ -19720,7 +19719,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L290" s="30">
+      <c r="L290" s="29">
         <v>1</v>
       </c>
       <c r="M290" s="13">
@@ -19780,7 +19779,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L291" s="30">
+      <c r="L291" s="29">
         <v>1</v>
       </c>
       <c r="M291" s="13">
@@ -19840,7 +19839,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L292" s="30">
+      <c r="L292" s="29">
         <v>1</v>
       </c>
       <c r="M292" s="13">
@@ -19900,7 +19899,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L293" s="30">
+      <c r="L293" s="29">
         <v>1</v>
       </c>
       <c r="M293" s="13">
@@ -19960,7 +19959,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L294" s="30">
+      <c r="L294" s="29">
         <v>1</v>
       </c>
       <c r="M294" s="13">
@@ -20020,7 +20019,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L295" s="30">
+      <c r="L295" s="29">
         <v>1</v>
       </c>
       <c r="M295" s="13">
@@ -20080,7 +20079,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L296" s="30">
+      <c r="L296" s="29">
         <v>1</v>
       </c>
       <c r="M296" s="13">
@@ -20140,7 +20139,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L297" s="30">
+      <c r="L297" s="29">
         <v>1</v>
       </c>
       <c r="M297" s="13">
@@ -20200,7 +20199,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L298" s="30">
+      <c r="L298" s="29">
         <v>1</v>
       </c>
       <c r="M298" s="13">
@@ -20260,7 +20259,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L299" s="30">
+      <c r="L299" s="29">
         <v>1</v>
       </c>
       <c r="M299" s="13">
@@ -20320,7 +20319,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L300" s="30">
+      <c r="L300" s="29">
         <v>1</v>
       </c>
       <c r="M300" s="13">
@@ -20381,7 +20380,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L301" s="30">
+      <c r="L301" s="29">
         <v>0</v>
       </c>
       <c r="M301" s="13">
@@ -20442,7 +20441,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L302" s="30">
+      <c r="L302" s="29">
         <v>0</v>
       </c>
       <c r="M302" s="13">
@@ -20503,7 +20502,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L303" s="30">
+      <c r="L303" s="29">
         <v>0</v>
       </c>
       <c r="M303" s="13">
@@ -20564,7 +20563,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L304" s="30">
+      <c r="L304" s="29">
         <v>0</v>
       </c>
       <c r="M304" s="13">
@@ -20625,7 +20624,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L305" s="30">
+      <c r="L305" s="29">
         <v>0</v>
       </c>
       <c r="M305" s="13">
@@ -20686,7 +20685,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L306" s="30">
+      <c r="L306" s="29">
         <v>0</v>
       </c>
       <c r="M306" s="13">
@@ -20747,7 +20746,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L307" s="30">
+      <c r="L307" s="29">
         <v>0</v>
       </c>
       <c r="M307" s="13">
@@ -20808,7 +20807,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L308" s="30">
+      <c r="L308" s="29">
         <v>0</v>
       </c>
       <c r="M308" s="13">
@@ -20869,7 +20868,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L309" s="30">
+      <c r="L309" s="29">
         <v>0</v>
       </c>
       <c r="M309" s="13">
@@ -20930,7 +20929,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L310" s="30">
+      <c r="L310" s="29">
         <v>0</v>
       </c>
       <c r="M310" s="13">
@@ -20991,7 +20990,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L311" s="30">
+      <c r="L311" s="29">
         <v>0</v>
       </c>
       <c r="M311" s="13">
@@ -21052,7 +21051,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L312" s="30">
+      <c r="L312" s="29">
         <v>0</v>
       </c>
       <c r="M312" s="13">
@@ -21113,7 +21112,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L313" s="30">
+      <c r="L313" s="29">
         <v>0</v>
       </c>
       <c r="M313" s="13">
@@ -21174,7 +21173,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L314" s="30">
+      <c r="L314" s="29">
         <v>0</v>
       </c>
       <c r="M314" s="13">
@@ -21235,7 +21234,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L315" s="30">
+      <c r="L315" s="29">
         <v>0</v>
       </c>
       <c r="M315" s="13">
@@ -21296,7 +21295,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L316" s="30">
+      <c r="L316" s="29">
         <v>0</v>
       </c>
       <c r="M316" s="13">
@@ -21357,7 +21356,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L317" s="30">
+      <c r="L317" s="29">
         <v>0</v>
       </c>
       <c r="M317" s="13">
@@ -21418,7 +21417,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L318" s="30">
+      <c r="L318" s="29">
         <v>0</v>
       </c>
       <c r="M318" s="13">
@@ -21479,7 +21478,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L319" s="30">
+      <c r="L319" s="29">
         <v>0</v>
       </c>
       <c r="M319" s="13">
@@ -21540,7 +21539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L320" s="30">
+      <c r="L320" s="29">
         <v>0</v>
       </c>
       <c r="M320" s="13">
@@ -21601,7 +21600,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L321" s="30">
+      <c r="L321" s="29">
         <v>0</v>
       </c>
       <c r="M321" s="13">
@@ -21662,7 +21661,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L322" s="30">
+      <c r="L322" s="29">
         <v>0</v>
       </c>
       <c r="M322" s="13">
@@ -21723,7 +21722,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L323" s="30">
+      <c r="L323" s="29">
         <v>0</v>
       </c>
       <c r="M323" s="13">
@@ -21784,7 +21783,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L324" s="30">
+      <c r="L324" s="29">
         <v>0</v>
       </c>
       <c r="M324" s="13">
@@ -21845,7 +21844,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L325" s="30">
+      <c r="L325" s="29">
         <v>0</v>
       </c>
       <c r="M325" s="13">
@@ -21906,7 +21905,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L326" s="30">
+      <c r="L326" s="29">
         <v>0</v>
       </c>
       <c r="M326" s="13">
@@ -21967,7 +21966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L327" s="30">
+      <c r="L327" s="29">
         <v>0</v>
       </c>
       <c r="M327" s="13">
@@ -22028,7 +22027,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L328" s="30">
+      <c r="L328" s="29">
         <v>0</v>
       </c>
       <c r="M328" s="13">
@@ -22089,7 +22088,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L329" s="30">
+      <c r="L329" s="29">
         <v>0</v>
       </c>
       <c r="M329" s="13">
@@ -22150,7 +22149,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L330" s="30">
+      <c r="L330" s="29">
         <v>0</v>
       </c>
       <c r="M330" s="13">
@@ -22211,7 +22210,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L331" s="30">
+      <c r="L331" s="29">
         <v>0</v>
       </c>
       <c r="M331" s="13">
@@ -22272,7 +22271,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L332" s="30">
+      <c r="L332" s="29">
         <v>0</v>
       </c>
       <c r="M332" s="13">
@@ -22333,7 +22332,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L333" s="30">
+      <c r="L333" s="29">
         <v>0</v>
       </c>
       <c r="M333" s="13">
@@ -22394,7 +22393,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L334" s="30">
+      <c r="L334" s="29">
         <v>0</v>
       </c>
       <c r="M334" s="13">
@@ -22455,7 +22454,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L335" s="30">
+      <c r="L335" s="29">
         <v>0</v>
       </c>
       <c r="M335" s="13">
@@ -22516,7 +22515,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L336" s="30">
+      <c r="L336" s="29">
         <v>0</v>
       </c>
       <c r="M336" s="13">
@@ -22577,7 +22576,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L337" s="30">
+      <c r="L337" s="29">
         <v>0</v>
       </c>
       <c r="M337" s="13">
@@ -22638,7 +22637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L338" s="30">
+      <c r="L338" s="29">
         <v>0</v>
       </c>
       <c r="M338" s="13">
@@ -22699,7 +22698,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L339" s="30">
+      <c r="L339" s="29">
         <v>0</v>
       </c>
       <c r="M339" s="13">
@@ -22760,7 +22759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L340" s="30">
+      <c r="L340" s="29">
         <v>0</v>
       </c>
       <c r="M340" s="13">
@@ -22821,7 +22820,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L341" s="30">
+      <c r="L341" s="29">
         <v>0</v>
       </c>
       <c r="M341" s="13">
@@ -22882,7 +22881,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L342" s="30">
+      <c r="L342" s="29">
         <v>0</v>
       </c>
       <c r="M342" s="13">
@@ -22943,7 +22942,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L343" s="30">
+      <c r="L343" s="29">
         <v>0</v>
       </c>
       <c r="M343" s="13">
@@ -23004,7 +23003,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L344" s="30">
+      <c r="L344" s="29">
         <v>0</v>
       </c>
       <c r="M344" s="13">
@@ -23065,7 +23064,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L345" s="30">
+      <c r="L345" s="29">
         <v>0</v>
       </c>
       <c r="M345" s="13">
@@ -23126,7 +23125,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L346" s="30">
+      <c r="L346" s="29">
         <v>0</v>
       </c>
       <c r="M346" s="13">
@@ -23187,7 +23186,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L347" s="30">
+      <c r="L347" s="29">
         <v>0</v>
       </c>
       <c r="M347" s="13">
@@ -23248,7 +23247,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L348" s="30">
+      <c r="L348" s="29">
         <v>0</v>
       </c>
       <c r="M348" s="13">
@@ -23309,7 +23308,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L349" s="30">
+      <c r="L349" s="29">
         <v>0</v>
       </c>
       <c r="M349" s="13">
@@ -23370,7 +23369,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L350" s="30">
+      <c r="L350" s="29">
         <v>0</v>
       </c>
       <c r="M350" s="13">
@@ -23431,7 +23430,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L351" s="30">
+      <c r="L351" s="29">
         <v>0</v>
       </c>
       <c r="M351" s="13">
@@ -23492,7 +23491,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L352" s="30">
+      <c r="L352" s="29">
         <v>0</v>
       </c>
       <c r="M352" s="13">
@@ -23553,7 +23552,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L353" s="30">
+      <c r="L353" s="29">
         <v>0</v>
       </c>
       <c r="M353" s="13">
@@ -23614,7 +23613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L354" s="30">
+      <c r="L354" s="29">
         <v>0</v>
       </c>
       <c r="M354" s="13">
@@ -23675,7 +23674,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L355" s="30">
+      <c r="L355" s="29">
         <v>0</v>
       </c>
       <c r="M355" s="13">
@@ -23736,7 +23735,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L356" s="30">
+      <c r="L356" s="29">
         <v>0</v>
       </c>
       <c r="M356" s="13">
@@ -23797,7 +23796,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L357" s="30">
+      <c r="L357" s="29">
         <v>0</v>
       </c>
       <c r="M357" s="13">
@@ -23858,7 +23857,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L358" s="30">
+      <c r="L358" s="29">
         <v>0</v>
       </c>
       <c r="M358" s="13">
@@ -23919,7 +23918,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L359" s="30">
+      <c r="L359" s="29">
         <v>0</v>
       </c>
       <c r="M359" s="13">
@@ -23980,7 +23979,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L360" s="30">
+      <c r="L360" s="29">
         <v>0</v>
       </c>
       <c r="M360" s="13">
@@ -24041,7 +24040,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L361" s="30">
+      <c r="L361" s="29">
         <v>0</v>
       </c>
       <c r="M361" s="13">
@@ -24102,7 +24101,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L362" s="30">
+      <c r="L362" s="29">
         <v>0</v>
       </c>
       <c r="M362" s="13">
@@ -24163,7 +24162,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L363" s="30">
+      <c r="L363" s="29">
         <v>0</v>
       </c>
       <c r="M363" s="13">
@@ -24224,7 +24223,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L364" s="30">
+      <c r="L364" s="29">
         <v>0</v>
       </c>
       <c r="M364" s="13">
@@ -24285,7 +24284,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L365" s="30">
+      <c r="L365" s="29">
         <v>0</v>
       </c>
       <c r="M365" s="13">
@@ -24346,7 +24345,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L366" s="30">
+      <c r="L366" s="29">
         <v>0</v>
       </c>
       <c r="M366" s="13">
@@ -24407,7 +24406,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L367" s="30">
+      <c r="L367" s="29">
         <v>0</v>
       </c>
       <c r="M367" s="13">
@@ -24468,7 +24467,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L368" s="30">
+      <c r="L368" s="29">
         <v>0</v>
       </c>
       <c r="M368" s="13">
@@ -24529,7 +24528,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L369" s="30">
+      <c r="L369" s="29">
         <v>0</v>
       </c>
       <c r="M369" s="13">
@@ -24590,7 +24589,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L370" s="30">
+      <c r="L370" s="29">
         <v>0</v>
       </c>
       <c r="M370" s="13">
@@ -24651,7 +24650,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L371" s="30">
+      <c r="L371" s="29">
         <v>0</v>
       </c>
       <c r="M371" s="13">
@@ -24712,7 +24711,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L372" s="30">
+      <c r="L372" s="29">
         <v>0</v>
       </c>
       <c r="M372" s="13">
@@ -24773,7 +24772,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L373" s="30" t="s">
+      <c r="L373" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M373" s="13">
@@ -24834,7 +24833,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L374" s="30" t="s">
+      <c r="L374" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M374" s="13">
@@ -24895,7 +24894,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L375" s="30" t="s">
+      <c r="L375" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M375" s="13">
@@ -24956,7 +24955,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L376" s="30" t="s">
+      <c r="L376" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M376" s="13">
@@ -25017,7 +25016,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L377" s="30" t="s">
+      <c r="L377" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M377" s="13">
@@ -25078,7 +25077,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L378" s="30" t="s">
+      <c r="L378" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M378" s="13">
@@ -25139,7 +25138,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L379" s="30" t="s">
+      <c r="L379" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M379" s="13">
@@ -25200,7 +25199,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L380" s="30" t="s">
+      <c r="L380" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M380" s="13">
@@ -25261,7 +25260,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L381" s="30" t="s">
+      <c r="L381" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M381" s="13">
@@ -25322,7 +25321,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L382" s="30" t="s">
+      <c r="L382" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M382" s="13">
@@ -25383,7 +25382,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L383" s="30" t="s">
+      <c r="L383" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M383" s="13">
@@ -25444,7 +25443,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L384" s="30" t="s">
+      <c r="L384" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M384" s="13">
@@ -25505,7 +25504,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L385" s="30" t="s">
+      <c r="L385" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M385" s="13">
@@ -25566,7 +25565,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L386" s="30" t="s">
+      <c r="L386" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M386" s="13">
@@ -25627,7 +25626,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L387" s="30" t="s">
+      <c r="L387" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M387" s="13">
@@ -25688,7 +25687,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L388" s="30" t="s">
+      <c r="L388" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M388" s="13">
@@ -25749,7 +25748,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L389" s="30" t="s">
+      <c r="L389" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M389" s="13">
@@ -25810,7 +25809,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L390" s="30" t="s">
+      <c r="L390" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M390" s="13">
@@ -25871,7 +25870,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L391" s="30" t="s">
+      <c r="L391" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M391" s="13">
@@ -25932,7 +25931,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L392" s="30" t="s">
+      <c r="L392" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M392" s="13">
@@ -25993,7 +25992,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L393" s="30" t="s">
+      <c r="L393" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M393" s="13">
@@ -26054,7 +26053,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L394" s="30" t="s">
+      <c r="L394" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M394" s="13">
@@ -26115,7 +26114,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L395" s="30" t="s">
+      <c r="L395" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M395" s="13">
@@ -26176,7 +26175,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L396" s="30" t="s">
+      <c r="L396" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M396" s="13">
@@ -26237,7 +26236,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L397" s="30" t="s">
+      <c r="L397" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M397" s="13">
@@ -26298,7 +26297,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L398" s="30" t="s">
+      <c r="L398" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M398" s="13">
@@ -26359,7 +26358,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L399" s="30" t="s">
+      <c r="L399" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M399" s="13">
@@ -26420,7 +26419,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L400" s="30" t="s">
+      <c r="L400" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M400" s="13">
@@ -26481,7 +26480,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L401" s="30" t="s">
+      <c r="L401" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M401" s="13">
@@ -26542,7 +26541,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L402" s="30" t="s">
+      <c r="L402" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M402" s="13">
@@ -26603,7 +26602,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L403" s="30" t="s">
+      <c r="L403" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M403" s="13">
@@ -26664,7 +26663,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L404" s="30" t="s">
+      <c r="L404" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M404" s="13">
@@ -26725,7 +26724,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L405" s="30" t="s">
+      <c r="L405" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M405" s="13">
@@ -26786,7 +26785,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L406" s="30" t="s">
+      <c r="L406" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M406" s="13">
@@ -26847,7 +26846,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L407" s="30" t="s">
+      <c r="L407" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M407" s="13">
@@ -26908,7 +26907,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L408" s="30" t="s">
+      <c r="L408" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M408" s="13">
@@ -26969,7 +26968,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L409" s="30" t="s">
+      <c r="L409" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M409" s="13">
@@ -27030,7 +27029,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L410" s="30" t="s">
+      <c r="L410" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M410" s="13">
@@ -27091,7 +27090,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L411" s="30" t="s">
+      <c r="L411" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M411" s="13">
@@ -27152,7 +27151,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L412" s="30" t="s">
+      <c r="L412" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M412" s="13">
@@ -27213,7 +27212,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L413" s="30" t="s">
+      <c r="L413" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M413" s="13">
@@ -27274,7 +27273,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L414" s="30" t="s">
+      <c r="L414" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M414" s="13">
@@ -27335,7 +27334,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L415" s="30" t="s">
+      <c r="L415" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M415" s="13">
@@ -27396,7 +27395,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L416" s="30" t="s">
+      <c r="L416" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M416" s="13">
@@ -27457,7 +27456,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L417" s="30" t="s">
+      <c r="L417" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M417" s="13">
@@ -27518,7 +27517,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L418" s="30" t="s">
+      <c r="L418" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M418" s="13">
@@ -27579,7 +27578,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L419" s="30" t="s">
+      <c r="L419" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M419" s="13">
@@ -27640,7 +27639,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L420" s="30" t="s">
+      <c r="L420" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M420" s="13">
@@ -27701,7 +27700,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L421" s="30" t="s">
+      <c r="L421" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M421" s="13">
@@ -27762,7 +27761,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L422" s="30" t="s">
+      <c r="L422" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M422" s="13">
@@ -27823,7 +27822,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L423" s="30" t="s">
+      <c r="L423" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M423" s="13">
@@ -27884,7 +27883,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L424" s="30" t="s">
+      <c r="L424" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M424" s="13">
@@ -27945,7 +27944,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L425" s="30" t="s">
+      <c r="L425" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M425" s="13">
@@ -28006,7 +28005,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L426" s="30" t="s">
+      <c r="L426" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M426" s="13">
@@ -28067,7 +28066,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L427" s="30" t="s">
+      <c r="L427" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M427" s="13">
@@ -28128,7 +28127,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L428" s="30" t="s">
+      <c r="L428" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M428" s="13">
@@ -28189,7 +28188,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L429" s="30" t="s">
+      <c r="L429" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M429" s="13">
@@ -28250,7 +28249,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L430" s="30" t="s">
+      <c r="L430" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M430" s="13">
@@ -28311,7 +28310,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L431" s="30" t="s">
+      <c r="L431" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M431" s="13">
@@ -28372,7 +28371,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L432" s="30" t="s">
+      <c r="L432" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M432" s="13">
@@ -28433,7 +28432,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L433" s="30" t="s">
+      <c r="L433" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M433" s="13">
@@ -28494,7 +28493,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L434" s="30" t="s">
+      <c r="L434" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M434" s="13">
@@ -28554,7 +28553,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L435" s="30" t="s">
+      <c r="L435" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M435" s="13">
@@ -28614,7 +28613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L436" s="30" t="s">
+      <c r="L436" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M436" s="13">
@@ -28673,7 +28672,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L437" s="30" t="s">
+      <c r="L437" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M437" s="13">
@@ -28732,7 +28731,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L438" s="30" t="s">
+      <c r="L438" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M438" s="13">
@@ -28791,7 +28790,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L439" s="30" t="s">
+      <c r="L439" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M439" s="13">
@@ -28849,7 +28848,7 @@
       <c r="K440" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="L440" s="30" t="s">
+      <c r="L440" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M440" s="13">
@@ -28908,7 +28907,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L441" s="30" t="s">
+      <c r="L441" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M441" s="13">
@@ -28967,7 +28966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L442" s="30" t="s">
+      <c r="L442" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M442" s="13">
@@ -29026,7 +29025,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L443" s="30" t="s">
+      <c r="L443" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M443" s="13">
@@ -29086,7 +29085,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L444" s="30" t="s">
+      <c r="L444" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M444" s="13">
@@ -29146,7 +29145,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L445" s="30" t="s">
+      <c r="L445" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M445" s="13">
@@ -29206,7 +29205,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L446" s="30" t="s">
+      <c r="L446" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M446" s="13">
@@ -29266,7 +29265,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L447" s="30" t="s">
+      <c r="L447" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M447" s="13">
@@ -29326,7 +29325,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L448" s="30" t="s">
+      <c r="L448" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M448" s="22">
@@ -29386,7 +29385,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L449" s="30" t="s">
+      <c r="L449" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M449" s="22">
@@ -29446,7 +29445,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L450" s="30" t="s">
+      <c r="L450" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M450" s="22">
@@ -29506,7 +29505,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L451" s="30" t="s">
+      <c r="L451" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M451" s="22">
@@ -29565,7 +29564,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L452" s="30" t="s">
+      <c r="L452" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M452" s="22">
@@ -29624,7 +29623,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L453" s="30" t="s">
+      <c r="L453" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M453" s="22">
@@ -29682,7 +29681,7 @@
       <c r="K454" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L454" s="30" t="s">
+      <c r="L454" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M454" s="22">
@@ -29741,7 +29740,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L455" s="30" t="s">
+      <c r="L455" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M455" s="22">
@@ -29800,7 +29799,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L456" s="30" t="s">
+      <c r="L456" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M456" s="22">
@@ -29859,7 +29858,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L457" s="30" t="s">
+      <c r="L457" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M457" s="22">
@@ -29918,7 +29917,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L458" s="30" t="s">
+      <c r="L458" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M458" s="22">
@@ -29977,7 +29976,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L459" s="30" t="s">
+      <c r="L459" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M459" s="22">
@@ -30036,7 +30035,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L460" s="30" t="s">
+      <c r="L460" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M460" s="22">
@@ -30095,7 +30094,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L461" s="30" t="s">
+      <c r="L461" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M461" s="22">
@@ -30154,7 +30153,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L462" s="30" t="s">
+      <c r="L462" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M462" s="22">
@@ -30213,7 +30212,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L463" s="30" t="s">
+      <c r="L463" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M463" s="22">
@@ -30272,7 +30271,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L464" s="30" t="s">
+      <c r="L464" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M464" s="22">
@@ -30330,7 +30329,7 @@
       <c r="K465" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="L465" s="30" t="s">
+      <c r="L465" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M465" s="22">
@@ -30389,7 +30388,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L466" s="30" t="s">
+      <c r="L466" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M466" s="22">
@@ -30447,7 +30446,7 @@
       <c r="K467" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L467" s="30" t="s">
+      <c r="L467" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M467" s="22">
@@ -30506,7 +30505,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L468" s="30" t="s">
+      <c r="L468" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M468" s="22">
@@ -30565,7 +30564,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L469" s="30" t="s">
+      <c r="L469" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M469" s="22">
@@ -30624,7 +30623,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L470" s="30" t="s">
+      <c r="L470" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M470" s="22">
@@ -30683,7 +30682,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L471" s="30" t="s">
+      <c r="L471" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M471" s="22">
@@ -30742,7 +30741,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L472" s="30" t="s">
+      <c r="L472" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M472" s="22">
@@ -30801,7 +30800,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L473" s="30" t="s">
+      <c r="L473" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M473" s="22">
@@ -30860,7 +30859,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L474" s="30" t="s">
+      <c r="L474" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M474" s="22">
@@ -30918,7 +30917,7 @@
       <c r="K475" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="L475" s="30" t="s">
+      <c r="L475" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M475" s="22">
@@ -30977,7 +30976,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L476" s="30" t="s">
+      <c r="L476" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M476" s="22">
@@ -31037,7 +31036,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L477" s="30" t="s">
+      <c r="L477" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M477" s="22">
@@ -31097,7 +31096,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L478" s="30" t="s">
+      <c r="L478" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M478" s="22">
@@ -31157,7 +31156,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L479" s="30" t="s">
+      <c r="L479" s="29" t="s">
         <v>399</v>
       </c>
       <c r="M479" s="22">
@@ -33573,39 +33572,11 @@
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D520" s="13">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E520" s="24"/>
-      <c r="F520" s="25"/>
-      <c r="G520" s="11"/>
-      <c r="J520" s="14"/>
-      <c r="K520" s="26">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L520" s="29"/>
-      <c r="M520" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N520" s="22">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O520" s="18" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L520=0,VLOOKUP(C520,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C520,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P520" s="18" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q520" s="19" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
+      <c r="E520" s="3"/>
+      <c r="F520" s="3"/>
+      <c r="L520" s="3"/>
+      <c r="M520" s="3"/>
+      <c r="N520" s="3"/>
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E521" s="3"/>
@@ -33634,13 +33605,6 @@
       <c r="L524" s="3"/>
       <c r="M524" s="3"/>
       <c r="N524" s="3"/>
-    </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
-      <c r="L525" s="3"/>
-      <c r="M525" s="3"/>
-      <c r="N525" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -33656,7 +33620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
@@ -38576,7 +38540,7 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Moorhouse.Alexandra</v>
       </c>
-      <c r="D137" s="31">
+      <c r="D137" s="30">
         <v>32480</v>
       </c>
       <c r="E137" s="2">
@@ -39653,7 +39617,7 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Scully.Mark</v>
       </c>
-      <c r="D167" s="31">
+      <c r="D167" s="30">
         <v>25027</v>
       </c>
       <c r="E167" s="2">

--- a/2021/FSARankings2021.xlsx
+++ b/2021/FSARankings2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFA2E6-CFAA-4D89-9DB4-88C2E249BE6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B2536-679C-47B7-985E-D13090C645AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="-14235" windowWidth="25395" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17265" yWindow="-13890" windowWidth="25395" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="417">
   <si>
     <t>Ranking</t>
   </si>
@@ -1296,6 +1296,9 @@
   <si>
     <t>Richard</t>
   </si>
+  <si>
+    <t>QLD</t>
+  </si>
 </sst>
 </file>
 
@@ -1371,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1399,9 +1402,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:Q524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A516" sqref="A516"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2090,7 @@
     <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="4" bestFit="1" customWidth="1"/>
@@ -6765,7 +6765,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L77" s="29">
+      <c r="L77" s="28">
         <v>0</v>
       </c>
       <c r="M77" s="13">
@@ -6826,7 +6826,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L78" s="29">
+      <c r="L78" s="28">
         <v>0</v>
       </c>
       <c r="M78" s="13">
@@ -6887,7 +6887,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L79" s="29">
+      <c r="L79" s="28">
         <v>0</v>
       </c>
       <c r="M79" s="13">
@@ -6948,7 +6948,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L80" s="29">
+      <c r="L80" s="28">
         <v>0</v>
       </c>
       <c r="M80" s="13">
@@ -7009,7 +7009,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L81" s="29">
+      <c r="L81" s="28">
         <v>0</v>
       </c>
       <c r="M81" s="13">
@@ -7070,7 +7070,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L82" s="29">
+      <c r="L82" s="28">
         <v>0</v>
       </c>
       <c r="M82" s="13">
@@ -7131,7 +7131,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L83" s="29">
+      <c r="L83" s="28">
         <v>0</v>
       </c>
       <c r="M83" s="13">
@@ -7192,7 +7192,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L84" s="29">
+      <c r="L84" s="28">
         <v>0</v>
       </c>
       <c r="M84" s="13">
@@ -7253,7 +7253,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>F4A</v>
       </c>
-      <c r="L85" s="29">
+      <c r="L85" s="28">
         <v>0</v>
       </c>
       <c r="M85" s="13">
@@ -7314,7 +7314,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L86" s="29">
+      <c r="L86" s="28">
         <v>0</v>
       </c>
       <c r="M86" s="13">
@@ -7375,7 +7375,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L87" s="29">
+      <c r="L87" s="28">
         <v>0</v>
       </c>
       <c r="M87" s="13">
@@ -7436,7 +7436,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L88" s="29">
+      <c r="L88" s="28">
         <v>0</v>
       </c>
       <c r="M88" s="13">
@@ -7497,7 +7497,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L89" s="29">
+      <c r="L89" s="28">
         <v>0</v>
       </c>
       <c r="M89" s="13">
@@ -7558,7 +7558,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L90" s="29">
+      <c r="L90" s="28">
         <v>0</v>
       </c>
       <c r="M90" s="13">
@@ -7619,7 +7619,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L91" s="29">
+      <c r="L91" s="28">
         <v>0</v>
       </c>
       <c r="M91" s="13">
@@ -7680,7 +7680,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L92" s="29">
+      <c r="L92" s="28">
         <v>0</v>
       </c>
       <c r="M92" s="13">
@@ -7741,7 +7741,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L93" s="29">
+      <c r="L93" s="28">
         <v>0</v>
       </c>
       <c r="M93" s="13">
@@ -7802,7 +7802,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L94" s="29">
+      <c r="L94" s="28">
         <v>0</v>
       </c>
       <c r="M94" s="13">
@@ -7863,7 +7863,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L95" s="29">
+      <c r="L95" s="28">
         <v>0</v>
       </c>
       <c r="M95" s="13">
@@ -7924,7 +7924,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>F4A</v>
       </c>
-      <c r="L96" s="29">
+      <c r="L96" s="28">
         <v>0</v>
       </c>
       <c r="M96" s="13">
@@ -7985,7 +7985,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L97" s="29">
+      <c r="L97" s="28">
         <v>0</v>
       </c>
       <c r="M97" s="13">
@@ -8046,7 +8046,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L98" s="29">
+      <c r="L98" s="28">
         <v>0</v>
       </c>
       <c r="M98" s="13">
@@ -8107,7 +8107,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L99" s="29">
+      <c r="L99" s="28">
         <v>0</v>
       </c>
       <c r="M99" s="13">
@@ -8168,7 +8168,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L100" s="29">
+      <c r="L100" s="28">
         <v>0</v>
       </c>
       <c r="M100" s="13">
@@ -8229,7 +8229,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L101" s="29">
+      <c r="L101" s="28">
         <v>0</v>
       </c>
       <c r="M101" s="13">
@@ -8290,7 +8290,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L102" s="29">
+      <c r="L102" s="28">
         <v>0</v>
       </c>
       <c r="M102" s="13">
@@ -8351,7 +8351,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L103" s="29">
+      <c r="L103" s="28">
         <v>0</v>
       </c>
       <c r="M103" s="13">
@@ -8412,7 +8412,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L104" s="29">
+      <c r="L104" s="28">
         <v>0</v>
       </c>
       <c r="M104" s="13">
@@ -8473,7 +8473,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L105" s="29">
+      <c r="L105" s="28">
         <v>0</v>
       </c>
       <c r="M105" s="13">
@@ -8534,7 +8534,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L106" s="29">
+      <c r="L106" s="28">
         <v>0</v>
       </c>
       <c r="M106" s="13">
@@ -8595,7 +8595,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L107" s="29">
+      <c r="L107" s="28">
         <v>0</v>
       </c>
       <c r="M107" s="13">
@@ -8656,7 +8656,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L108" s="29">
+      <c r="L108" s="28">
         <v>0</v>
       </c>
       <c r="M108" s="13">
@@ -8717,7 +8717,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L109" s="29">
+      <c r="L109" s="28">
         <v>0</v>
       </c>
       <c r="M109" s="13">
@@ -8778,7 +8778,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L110" s="29">
+      <c r="L110" s="28">
         <v>0</v>
       </c>
       <c r="M110" s="13">
@@ -8839,7 +8839,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L111" s="29">
+      <c r="L111" s="28">
         <v>0</v>
       </c>
       <c r="M111" s="13">
@@ -8900,7 +8900,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L112" s="29">
+      <c r="L112" s="28">
         <v>0</v>
       </c>
       <c r="M112" s="13">
@@ -8961,7 +8961,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L113" s="29">
+      <c r="L113" s="28">
         <v>0</v>
       </c>
       <c r="M113" s="13">
@@ -9022,7 +9022,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L114" s="29">
+      <c r="L114" s="28">
         <v>0</v>
       </c>
       <c r="M114" s="13">
@@ -9083,7 +9083,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L115" s="29">
+      <c r="L115" s="28">
         <v>0</v>
       </c>
       <c r="M115" s="13">
@@ -9144,7 +9144,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L116" s="29">
+      <c r="L116" s="28">
         <v>0</v>
       </c>
       <c r="M116" s="13">
@@ -9205,7 +9205,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L117" s="29">
+      <c r="L117" s="28">
         <v>0</v>
       </c>
       <c r="M117" s="13">
@@ -9266,7 +9266,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L118" s="29">
+      <c r="L118" s="28">
         <v>0</v>
       </c>
       <c r="M118" s="13">
@@ -9327,7 +9327,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L119" s="29">
+      <c r="L119" s="28">
         <v>0</v>
       </c>
       <c r="M119" s="13">
@@ -9388,7 +9388,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L120" s="29">
+      <c r="L120" s="28">
         <v>0</v>
       </c>
       <c r="M120" s="13">
@@ -9449,7 +9449,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L121" s="29">
+      <c r="L121" s="28">
         <v>0</v>
       </c>
       <c r="M121" s="13">
@@ -9510,7 +9510,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L122" s="29">
+      <c r="L122" s="28">
         <v>0</v>
       </c>
       <c r="M122" s="13">
@@ -9571,7 +9571,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L123" s="29">
+      <c r="L123" s="28">
         <v>0</v>
       </c>
       <c r="M123" s="13">
@@ -9632,7 +9632,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L124" s="29">
+      <c r="L124" s="28">
         <v>0</v>
       </c>
       <c r="M124" s="13">
@@ -9693,7 +9693,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L125" s="29">
+      <c r="L125" s="28">
         <v>0</v>
       </c>
       <c r="M125" s="13">
@@ -9754,7 +9754,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L126" s="29">
+      <c r="L126" s="28">
         <v>0</v>
       </c>
       <c r="M126" s="13">
@@ -9815,7 +9815,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L127" s="29">
+      <c r="L127" s="28">
         <v>0</v>
       </c>
       <c r="M127" s="13">
@@ -9876,7 +9876,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L128" s="29">
+      <c r="L128" s="28">
         <v>0</v>
       </c>
       <c r="M128" s="13">
@@ -9937,7 +9937,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L129" s="29">
+      <c r="L129" s="28">
         <v>0</v>
       </c>
       <c r="M129" s="13">
@@ -9998,7 +9998,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L130" s="29">
+      <c r="L130" s="28">
         <v>0</v>
       </c>
       <c r="M130" s="13">
@@ -10059,7 +10059,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L131" s="29">
+      <c r="L131" s="28">
         <v>0</v>
       </c>
       <c r="M131" s="13">
@@ -10120,7 +10120,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L132" s="29">
+      <c r="L132" s="28">
         <v>0</v>
       </c>
       <c r="M132" s="13">
@@ -10181,7 +10181,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L133" s="29">
+      <c r="L133" s="28">
         <v>0</v>
       </c>
       <c r="M133" s="13">
@@ -10242,7 +10242,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L134" s="29">
+      <c r="L134" s="28">
         <v>0</v>
       </c>
       <c r="M134" s="13">
@@ -10303,7 +10303,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L135" s="29">
+      <c r="L135" s="28">
         <v>0</v>
       </c>
       <c r="M135" s="13">
@@ -10364,7 +10364,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L136" s="29">
+      <c r="L136" s="28">
         <v>0</v>
       </c>
       <c r="M136" s="13">
@@ -10425,7 +10425,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L137" s="29">
+      <c r="L137" s="28">
         <v>0</v>
       </c>
       <c r="M137" s="13">
@@ -10486,7 +10486,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L138" s="29">
+      <c r="L138" s="28">
         <v>0</v>
       </c>
       <c r="M138" s="13">
@@ -10547,7 +10547,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L139" s="29">
+      <c r="L139" s="28">
         <v>0</v>
       </c>
       <c r="M139" s="13">
@@ -10608,7 +10608,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L140" s="29">
+      <c r="L140" s="28">
         <v>0</v>
       </c>
       <c r="M140" s="13">
@@ -10669,7 +10669,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L141" s="29">
+      <c r="L141" s="28">
         <v>0</v>
       </c>
       <c r="M141" s="13">
@@ -10730,7 +10730,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L142" s="29">
+      <c r="L142" s="28">
         <v>0</v>
       </c>
       <c r="M142" s="13">
@@ -10791,7 +10791,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L143" s="29">
+      <c r="L143" s="28">
         <v>0</v>
       </c>
       <c r="M143" s="13">
@@ -10852,7 +10852,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L144" s="29">
+      <c r="L144" s="28">
         <v>0</v>
       </c>
       <c r="M144" s="13">
@@ -10913,7 +10913,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L145" s="29">
+      <c r="L145" s="28">
         <v>0</v>
       </c>
       <c r="M145" s="13">
@@ -10974,7 +10974,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L146" s="29">
+      <c r="L146" s="28">
         <v>0</v>
       </c>
       <c r="M146" s="13">
@@ -11035,7 +11035,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L147" s="29">
+      <c r="L147" s="28">
         <v>0</v>
       </c>
       <c r="M147" s="13">
@@ -11096,7 +11096,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L148" s="29">
+      <c r="L148" s="28">
         <v>0</v>
       </c>
       <c r="M148" s="13">
@@ -11157,7 +11157,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L149" s="29">
+      <c r="L149" s="28">
         <v>0</v>
       </c>
       <c r="M149" s="13">
@@ -11217,7 +11217,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L150" s="29">
+      <c r="L150" s="28">
         <v>1</v>
       </c>
       <c r="M150" s="13">
@@ -11277,7 +11277,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L151" s="29">
+      <c r="L151" s="28">
         <v>1</v>
       </c>
       <c r="M151" s="13">
@@ -11337,7 +11337,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L152" s="29">
+      <c r="L152" s="28">
         <v>1</v>
       </c>
       <c r="M152" s="13">
@@ -11397,7 +11397,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L153" s="29">
+      <c r="L153" s="28">
         <v>1</v>
       </c>
       <c r="M153" s="13">
@@ -11457,7 +11457,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L154" s="29">
+      <c r="L154" s="28">
         <v>1</v>
       </c>
       <c r="M154" s="13">
@@ -11517,7 +11517,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L155" s="29">
+      <c r="L155" s="28">
         <v>1</v>
       </c>
       <c r="M155" s="13">
@@ -11577,7 +11577,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L156" s="29">
+      <c r="L156" s="28">
         <v>1</v>
       </c>
       <c r="M156" s="13">
@@ -11637,7 +11637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L157" s="29">
+      <c r="L157" s="28">
         <v>1</v>
       </c>
       <c r="M157" s="13">
@@ -11697,7 +11697,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L158" s="29">
+      <c r="L158" s="28">
         <v>1</v>
       </c>
       <c r="M158" s="13">
@@ -11757,7 +11757,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L159" s="29">
+      <c r="L159" s="28">
         <v>1</v>
       </c>
       <c r="M159" s="13">
@@ -11818,7 +11818,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L160" s="29">
+      <c r="L160" s="28">
         <v>0</v>
       </c>
       <c r="M160" s="13">
@@ -11879,7 +11879,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L161" s="29">
+      <c r="L161" s="28">
         <v>0</v>
       </c>
       <c r="M161" s="13">
@@ -11940,7 +11940,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L162" s="29">
+      <c r="L162" s="28">
         <v>0</v>
       </c>
       <c r="M162" s="13">
@@ -12001,7 +12001,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L163" s="29">
+      <c r="L163" s="28">
         <v>0</v>
       </c>
       <c r="M163" s="13">
@@ -12062,7 +12062,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L164" s="29">
+      <c r="L164" s="28">
         <v>0</v>
       </c>
       <c r="M164" s="13">
@@ -12123,7 +12123,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L165" s="29">
+      <c r="L165" s="28">
         <v>0</v>
       </c>
       <c r="M165" s="13">
@@ -12184,7 +12184,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L166" s="29">
+      <c r="L166" s="28">
         <v>0</v>
       </c>
       <c r="M166" s="13">
@@ -12245,7 +12245,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L167" s="29">
+      <c r="L167" s="28">
         <v>0</v>
       </c>
       <c r="M167" s="13">
@@ -12306,7 +12306,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L168" s="29">
+      <c r="L168" s="28">
         <v>0</v>
       </c>
       <c r="M168" s="13">
@@ -12367,7 +12367,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L169" s="29">
+      <c r="L169" s="28">
         <v>0</v>
       </c>
       <c r="M169" s="13">
@@ -12428,7 +12428,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L170" s="29">
+      <c r="L170" s="28">
         <v>0</v>
       </c>
       <c r="M170" s="13">
@@ -12489,7 +12489,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L171" s="29">
+      <c r="L171" s="28">
         <v>0</v>
       </c>
       <c r="M171" s="13">
@@ -12550,7 +12550,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L172" s="29">
+      <c r="L172" s="28">
         <v>0</v>
       </c>
       <c r="M172" s="13">
@@ -12611,7 +12611,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L173" s="29">
+      <c r="L173" s="28">
         <v>0</v>
       </c>
       <c r="M173" s="13">
@@ -12672,7 +12672,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L174" s="29">
+      <c r="L174" s="28">
         <v>0</v>
       </c>
       <c r="M174" s="13">
@@ -12733,7 +12733,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L175" s="29">
+      <c r="L175" s="28">
         <v>0</v>
       </c>
       <c r="M175" s="13">
@@ -12794,7 +12794,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L176" s="29">
+      <c r="L176" s="28">
         <v>0</v>
       </c>
       <c r="M176" s="13">
@@ -12855,7 +12855,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L177" s="29">
+      <c r="L177" s="28">
         <v>0</v>
       </c>
       <c r="M177" s="13">
@@ -12916,7 +12916,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L178" s="29">
+      <c r="L178" s="28">
         <v>0</v>
       </c>
       <c r="M178" s="13">
@@ -12977,7 +12977,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L179" s="29">
+      <c r="L179" s="28">
         <v>0</v>
       </c>
       <c r="M179" s="13">
@@ -13038,7 +13038,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L180" s="29">
+      <c r="L180" s="28">
         <v>0</v>
       </c>
       <c r="M180" s="13">
@@ -13099,7 +13099,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L181" s="29">
+      <c r="L181" s="28">
         <v>0</v>
       </c>
       <c r="M181" s="13">
@@ -13160,7 +13160,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L182" s="29">
+      <c r="L182" s="28">
         <v>0</v>
       </c>
       <c r="M182" s="13">
@@ -13221,7 +13221,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L183" s="29">
+      <c r="L183" s="28">
         <v>0</v>
       </c>
       <c r="M183" s="13">
@@ -13282,7 +13282,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L184" s="29">
+      <c r="L184" s="28">
         <v>0</v>
       </c>
       <c r="M184" s="13">
@@ -13343,7 +13343,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L185" s="29">
+      <c r="L185" s="28">
         <v>0</v>
       </c>
       <c r="M185" s="13">
@@ -13404,7 +13404,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L186" s="29">
+      <c r="L186" s="28">
         <v>0</v>
       </c>
       <c r="M186" s="13">
@@ -13465,7 +13465,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L187" s="29">
+      <c r="L187" s="28">
         <v>0</v>
       </c>
       <c r="M187" s="13">
@@ -13526,7 +13526,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L188" s="29">
+      <c r="L188" s="28">
         <v>0</v>
       </c>
       <c r="M188" s="13">
@@ -13587,7 +13587,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L189" s="29">
+      <c r="L189" s="28">
         <v>0</v>
       </c>
       <c r="M189" s="13">
@@ -13648,7 +13648,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L190" s="29">
+      <c r="L190" s="28">
         <v>0</v>
       </c>
       <c r="M190" s="13">
@@ -13709,7 +13709,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L191" s="29">
+      <c r="L191" s="28">
         <v>0</v>
       </c>
       <c r="M191" s="13">
@@ -13770,7 +13770,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L192" s="29">
+      <c r="L192" s="28">
         <v>0</v>
       </c>
       <c r="M192" s="13">
@@ -13831,7 +13831,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L193" s="29">
+      <c r="L193" s="28">
         <v>0</v>
       </c>
       <c r="M193" s="13">
@@ -13892,7 +13892,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L194" s="29">
+      <c r="L194" s="28">
         <v>0</v>
       </c>
       <c r="M194" s="13">
@@ -13953,7 +13953,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L195" s="29">
+      <c r="L195" s="28">
         <v>0</v>
       </c>
       <c r="M195" s="13">
@@ -14014,7 +14014,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L196" s="29">
+      <c r="L196" s="28">
         <v>0</v>
       </c>
       <c r="M196" s="13">
@@ -14075,7 +14075,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L197" s="29">
+      <c r="L197" s="28">
         <v>0</v>
       </c>
       <c r="M197" s="13">
@@ -14136,7 +14136,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L198" s="29">
+      <c r="L198" s="28">
         <v>0</v>
       </c>
       <c r="M198" s="13">
@@ -14197,7 +14197,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L199" s="29">
+      <c r="L199" s="28">
         <v>0</v>
       </c>
       <c r="M199" s="13">
@@ -14258,7 +14258,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L200" s="29">
+      <c r="L200" s="28">
         <v>0</v>
       </c>
       <c r="M200" s="13">
@@ -14319,7 +14319,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L201" s="29">
+      <c r="L201" s="28">
         <v>0</v>
       </c>
       <c r="M201" s="13">
@@ -14380,7 +14380,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L202" s="29">
+      <c r="L202" s="28">
         <v>0</v>
       </c>
       <c r="M202" s="13">
@@ -14441,7 +14441,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L203" s="29">
+      <c r="L203" s="28">
         <v>0</v>
       </c>
       <c r="M203" s="13">
@@ -14502,7 +14502,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L204" s="29">
+      <c r="L204" s="28">
         <v>0</v>
       </c>
       <c r="M204" s="13">
@@ -14563,7 +14563,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L205" s="29">
+      <c r="L205" s="28">
         <v>0</v>
       </c>
       <c r="M205" s="13">
@@ -14624,7 +14624,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L206" s="29">
+      <c r="L206" s="28">
         <v>0</v>
       </c>
       <c r="M206" s="13">
@@ -14685,7 +14685,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L207" s="29">
+      <c r="L207" s="28">
         <v>0</v>
       </c>
       <c r="M207" s="13">
@@ -14746,7 +14746,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L208" s="29">
+      <c r="L208" s="28">
         <v>0</v>
       </c>
       <c r="M208" s="13">
@@ -14807,7 +14807,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L209" s="29">
+      <c r="L209" s="28">
         <v>0</v>
       </c>
       <c r="M209" s="13">
@@ -14868,7 +14868,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L210" s="29">
+      <c r="L210" s="28">
         <v>0</v>
       </c>
       <c r="M210" s="13">
@@ -14929,7 +14929,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L211" s="29">
+      <c r="L211" s="28">
         <v>0</v>
       </c>
       <c r="M211" s="13">
@@ -14990,7 +14990,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L212" s="29">
+      <c r="L212" s="28">
         <v>0</v>
       </c>
       <c r="M212" s="13">
@@ -15051,7 +15051,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L213" s="29">
+      <c r="L213" s="28">
         <v>0</v>
       </c>
       <c r="M213" s="13">
@@ -15112,7 +15112,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L214" s="29">
+      <c r="L214" s="28">
         <v>0</v>
       </c>
       <c r="M214" s="13">
@@ -15173,7 +15173,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L215" s="29">
+      <c r="L215" s="28">
         <v>0</v>
       </c>
       <c r="M215" s="13">
@@ -15234,7 +15234,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L216" s="29">
+      <c r="L216" s="28">
         <v>0</v>
       </c>
       <c r="M216" s="13">
@@ -15295,7 +15295,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L217" s="29">
+      <c r="L217" s="28">
         <v>0</v>
       </c>
       <c r="M217" s="13">
@@ -15356,7 +15356,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L218" s="29">
+      <c r="L218" s="28">
         <v>0</v>
       </c>
       <c r="M218" s="13">
@@ -15417,7 +15417,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L219" s="29">
+      <c r="L219" s="28">
         <v>0</v>
       </c>
       <c r="M219" s="13">
@@ -15478,7 +15478,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L220" s="29">
+      <c r="L220" s="28">
         <v>0</v>
       </c>
       <c r="M220" s="13">
@@ -15539,7 +15539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L221" s="29">
+      <c r="L221" s="28">
         <v>0</v>
       </c>
       <c r="M221" s="13">
@@ -15600,7 +15600,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L222" s="29">
+      <c r="L222" s="28">
         <v>0</v>
       </c>
       <c r="M222" s="13">
@@ -15661,7 +15661,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L223" s="29">
+      <c r="L223" s="28">
         <v>0</v>
       </c>
       <c r="M223" s="13">
@@ -15722,7 +15722,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L224" s="29">
+      <c r="L224" s="28">
         <v>0</v>
       </c>
       <c r="M224" s="13">
@@ -15783,7 +15783,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L225" s="29">
+      <c r="L225" s="28">
         <v>0</v>
       </c>
       <c r="M225" s="13">
@@ -15844,7 +15844,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L226" s="29">
+      <c r="L226" s="28">
         <v>0</v>
       </c>
       <c r="M226" s="13">
@@ -15905,7 +15905,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L227" s="29">
+      <c r="L227" s="28">
         <v>0</v>
       </c>
       <c r="M227" s="13">
@@ -15966,7 +15966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L228" s="29">
+      <c r="L228" s="28">
         <v>1</v>
       </c>
       <c r="M228" s="13">
@@ -16027,7 +16027,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L229" s="29">
+      <c r="L229" s="28">
         <v>1</v>
       </c>
       <c r="M229" s="13">
@@ -16088,7 +16088,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L230" s="29">
+      <c r="L230" s="28">
         <v>1</v>
       </c>
       <c r="M230" s="13">
@@ -16149,7 +16149,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L231" s="29">
+      <c r="L231" s="28">
         <v>1</v>
       </c>
       <c r="M231" s="13">
@@ -16210,7 +16210,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L232" s="29">
+      <c r="L232" s="28">
         <v>1</v>
       </c>
       <c r="M232" s="13">
@@ -16271,7 +16271,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L233" s="29">
+      <c r="L233" s="28">
         <v>1</v>
       </c>
       <c r="M233" s="13">
@@ -16332,7 +16332,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L234" s="29">
+      <c r="L234" s="28">
         <v>1</v>
       </c>
       <c r="M234" s="13">
@@ -16393,7 +16393,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L235" s="29">
+      <c r="L235" s="28">
         <v>1</v>
       </c>
       <c r="M235" s="13">
@@ -16454,7 +16454,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L236" s="29">
+      <c r="L236" s="28">
         <v>1</v>
       </c>
       <c r="M236" s="13">
@@ -16515,7 +16515,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L237" s="29">
+      <c r="L237" s="28">
         <v>1</v>
       </c>
       <c r="M237" s="13">
@@ -16576,7 +16576,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L238" s="29">
+      <c r="L238" s="28">
         <v>1</v>
       </c>
       <c r="M238" s="13">
@@ -16637,7 +16637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L239" s="29">
+      <c r="L239" s="28">
         <v>1</v>
       </c>
       <c r="M239" s="13">
@@ -16698,7 +16698,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L240" s="29">
+      <c r="L240" s="28">
         <v>1</v>
       </c>
       <c r="M240" s="13">
@@ -16759,7 +16759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L241" s="29">
+      <c r="L241" s="28">
         <v>1</v>
       </c>
       <c r="M241" s="13">
@@ -16820,7 +16820,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L242" s="29">
+      <c r="L242" s="28">
         <v>1</v>
       </c>
       <c r="M242" s="13">
@@ -16881,7 +16881,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L243" s="29">
+      <c r="L243" s="28">
         <v>1</v>
       </c>
       <c r="M243" s="13">
@@ -16942,7 +16942,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L244" s="29">
+      <c r="L244" s="28">
         <v>1</v>
       </c>
       <c r="M244" s="13">
@@ -17003,7 +17003,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L245" s="29">
+      <c r="L245" s="28">
         <v>1</v>
       </c>
       <c r="M245" s="13">
@@ -17064,7 +17064,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L246" s="29">
+      <c r="L246" s="28">
         <v>1</v>
       </c>
       <c r="M246" s="13">
@@ -17125,7 +17125,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L247" s="29">
+      <c r="L247" s="28">
         <v>1</v>
       </c>
       <c r="M247" s="13">
@@ -17186,7 +17186,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L248" s="29">
+      <c r="L248" s="28">
         <v>1</v>
       </c>
       <c r="M248" s="13">
@@ -17247,7 +17247,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L249" s="29">
+      <c r="L249" s="28">
         <v>1</v>
       </c>
       <c r="M249" s="13">
@@ -17308,7 +17308,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L250" s="29">
+      <c r="L250" s="28">
         <v>1</v>
       </c>
       <c r="M250" s="13">
@@ -17369,7 +17369,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L251" s="29">
+      <c r="L251" s="28">
         <v>1</v>
       </c>
       <c r="M251" s="13">
@@ -17430,7 +17430,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L252" s="29">
+      <c r="L252" s="28">
         <v>1</v>
       </c>
       <c r="M252" s="13">
@@ -17491,7 +17491,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L253" s="29">
+      <c r="L253" s="28">
         <v>1</v>
       </c>
       <c r="M253" s="13">
@@ -17552,7 +17552,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L254" s="29">
+      <c r="L254" s="28">
         <v>1</v>
       </c>
       <c r="M254" s="13">
@@ -17613,7 +17613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L255" s="29">
+      <c r="L255" s="28">
         <v>1</v>
       </c>
       <c r="M255" s="13">
@@ -17674,7 +17674,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L256" s="29">
+      <c r="L256" s="28">
         <v>1</v>
       </c>
       <c r="M256" s="13">
@@ -17735,7 +17735,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L257" s="29">
+      <c r="L257" s="28">
         <v>0</v>
       </c>
       <c r="M257" s="13">
@@ -17796,7 +17796,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L258" s="29">
+      <c r="L258" s="28">
         <v>0</v>
       </c>
       <c r="M258" s="13">
@@ -17857,7 +17857,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L259" s="29">
+      <c r="L259" s="28">
         <v>0</v>
       </c>
       <c r="M259" s="13">
@@ -17918,7 +17918,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L260" s="29">
+      <c r="L260" s="28">
         <v>0</v>
       </c>
       <c r="M260" s="13">
@@ -17979,7 +17979,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L261" s="29">
+      <c r="L261" s="28">
         <v>0</v>
       </c>
       <c r="M261" s="13">
@@ -18039,7 +18039,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L262" s="29">
+      <c r="L262" s="28">
         <v>1</v>
       </c>
       <c r="M262" s="13">
@@ -18099,7 +18099,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L263" s="29">
+      <c r="L263" s="28">
         <v>1</v>
       </c>
       <c r="M263" s="13">
@@ -18159,7 +18159,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L264" s="29">
+      <c r="L264" s="28">
         <v>1</v>
       </c>
       <c r="M264" s="13">
@@ -18219,7 +18219,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L265" s="29">
+      <c r="L265" s="28">
         <v>1</v>
       </c>
       <c r="M265" s="13">
@@ -18279,7 +18279,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L266" s="29">
+      <c r="L266" s="28">
         <v>1</v>
       </c>
       <c r="M266" s="13">
@@ -18339,7 +18339,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L267" s="29">
+      <c r="L267" s="28">
         <v>1</v>
       </c>
       <c r="M267" s="13">
@@ -18399,7 +18399,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L268" s="29">
+      <c r="L268" s="28">
         <v>1</v>
       </c>
       <c r="M268" s="13">
@@ -18459,7 +18459,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L269" s="29">
+      <c r="L269" s="28">
         <v>1</v>
       </c>
       <c r="M269" s="13">
@@ -18519,7 +18519,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L270" s="29">
+      <c r="L270" s="28">
         <v>1</v>
       </c>
       <c r="M270" s="13">
@@ -18579,7 +18579,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L271" s="29">
+      <c r="L271" s="28">
         <v>1</v>
       </c>
       <c r="M271" s="13">
@@ -18639,7 +18639,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L272" s="29">
+      <c r="L272" s="28">
         <v>1</v>
       </c>
       <c r="M272" s="13">
@@ -18699,7 +18699,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L273" s="29">
+      <c r="L273" s="28">
         <v>1</v>
       </c>
       <c r="M273" s="13">
@@ -18759,7 +18759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L274" s="29">
+      <c r="L274" s="28">
         <v>1</v>
       </c>
       <c r="M274" s="13">
@@ -18819,7 +18819,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L275" s="29">
+      <c r="L275" s="28">
         <v>1</v>
       </c>
       <c r="M275" s="13">
@@ -18879,7 +18879,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L276" s="29">
+      <c r="L276" s="28">
         <v>1</v>
       </c>
       <c r="M276" s="13">
@@ -18939,7 +18939,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L277" s="29">
+      <c r="L277" s="28">
         <v>1</v>
       </c>
       <c r="M277" s="13">
@@ -18999,7 +18999,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L278" s="29">
+      <c r="L278" s="28">
         <v>1</v>
       </c>
       <c r="M278" s="13">
@@ -19059,7 +19059,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L279" s="29">
+      <c r="L279" s="28">
         <v>1</v>
       </c>
       <c r="M279" s="13">
@@ -19119,7 +19119,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L280" s="29">
+      <c r="L280" s="28">
         <v>1</v>
       </c>
       <c r="M280" s="13">
@@ -19179,7 +19179,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L281" s="29">
+      <c r="L281" s="28">
         <v>1</v>
       </c>
       <c r="M281" s="13">
@@ -19239,7 +19239,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L282" s="29">
+      <c r="L282" s="28">
         <v>1</v>
       </c>
       <c r="M282" s="13">
@@ -19299,7 +19299,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L283" s="29">
+      <c r="L283" s="28">
         <v>1</v>
       </c>
       <c r="M283" s="13">
@@ -19359,7 +19359,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L284" s="29">
+      <c r="L284" s="28">
         <v>1</v>
       </c>
       <c r="M284" s="13">
@@ -19419,7 +19419,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L285" s="29">
+      <c r="L285" s="28">
         <v>1</v>
       </c>
       <c r="M285" s="13">
@@ -19479,7 +19479,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L286" s="29">
+      <c r="L286" s="28">
         <v>1</v>
       </c>
       <c r="M286" s="13">
@@ -19539,7 +19539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L287" s="29">
+      <c r="L287" s="28">
         <v>1</v>
       </c>
       <c r="M287" s="13">
@@ -19599,7 +19599,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L288" s="29">
+      <c r="L288" s="28">
         <v>1</v>
       </c>
       <c r="M288" s="13">
@@ -19659,7 +19659,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L289" s="29">
+      <c r="L289" s="28">
         <v>1</v>
       </c>
       <c r="M289" s="13">
@@ -19719,7 +19719,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L290" s="29">
+      <c r="L290" s="28">
         <v>1</v>
       </c>
       <c r="M290" s="13">
@@ -19779,7 +19779,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L291" s="29">
+      <c r="L291" s="28">
         <v>1</v>
       </c>
       <c r="M291" s="13">
@@ -19839,7 +19839,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L292" s="29">
+      <c r="L292" s="28">
         <v>1</v>
       </c>
       <c r="M292" s="13">
@@ -19899,7 +19899,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L293" s="29">
+      <c r="L293" s="28">
         <v>1</v>
       </c>
       <c r="M293" s="13">
@@ -19959,7 +19959,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L294" s="29">
+      <c r="L294" s="28">
         <v>1</v>
       </c>
       <c r="M294" s="13">
@@ -20019,7 +20019,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L295" s="29">
+      <c r="L295" s="28">
         <v>1</v>
       </c>
       <c r="M295" s="13">
@@ -20079,7 +20079,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L296" s="29">
+      <c r="L296" s="28">
         <v>1</v>
       </c>
       <c r="M296" s="13">
@@ -20139,7 +20139,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L297" s="29">
+      <c r="L297" s="28">
         <v>1</v>
       </c>
       <c r="M297" s="13">
@@ -20199,7 +20199,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L298" s="29">
+      <c r="L298" s="28">
         <v>1</v>
       </c>
       <c r="M298" s="13">
@@ -20259,7 +20259,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L299" s="29">
+      <c r="L299" s="28">
         <v>1</v>
       </c>
       <c r="M299" s="13">
@@ -20319,7 +20319,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L300" s="29">
+      <c r="L300" s="28">
         <v>1</v>
       </c>
       <c r="M300" s="13">
@@ -20380,7 +20380,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L301" s="29">
+      <c r="L301" s="28">
         <v>0</v>
       </c>
       <c r="M301" s="13">
@@ -20441,7 +20441,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L302" s="29">
+      <c r="L302" s="28">
         <v>0</v>
       </c>
       <c r="M302" s="13">
@@ -20502,7 +20502,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L303" s="29">
+      <c r="L303" s="28">
         <v>0</v>
       </c>
       <c r="M303" s="13">
@@ -20563,7 +20563,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L304" s="29">
+      <c r="L304" s="28">
         <v>0</v>
       </c>
       <c r="M304" s="13">
@@ -20624,7 +20624,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L305" s="29">
+      <c r="L305" s="28">
         <v>0</v>
       </c>
       <c r="M305" s="13">
@@ -20685,7 +20685,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L306" s="29">
+      <c r="L306" s="28">
         <v>0</v>
       </c>
       <c r="M306" s="13">
@@ -20746,7 +20746,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L307" s="29">
+      <c r="L307" s="28">
         <v>0</v>
       </c>
       <c r="M307" s="13">
@@ -20807,7 +20807,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L308" s="29">
+      <c r="L308" s="28">
         <v>0</v>
       </c>
       <c r="M308" s="13">
@@ -20868,7 +20868,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L309" s="29">
+      <c r="L309" s="28">
         <v>0</v>
       </c>
       <c r="M309" s="13">
@@ -20929,7 +20929,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L310" s="29">
+      <c r="L310" s="28">
         <v>0</v>
       </c>
       <c r="M310" s="13">
@@ -20990,7 +20990,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L311" s="29">
+      <c r="L311" s="28">
         <v>0</v>
       </c>
       <c r="M311" s="13">
@@ -21051,7 +21051,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L312" s="29">
+      <c r="L312" s="28">
         <v>0</v>
       </c>
       <c r="M312" s="13">
@@ -21112,7 +21112,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L313" s="29">
+      <c r="L313" s="28">
         <v>0</v>
       </c>
       <c r="M313" s="13">
@@ -21173,7 +21173,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L314" s="29">
+      <c r="L314" s="28">
         <v>0</v>
       </c>
       <c r="M314" s="13">
@@ -21234,7 +21234,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L315" s="29">
+      <c r="L315" s="28">
         <v>0</v>
       </c>
       <c r="M315" s="13">
@@ -21295,7 +21295,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L316" s="29">
+      <c r="L316" s="28">
         <v>0</v>
       </c>
       <c r="M316" s="13">
@@ -21356,7 +21356,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L317" s="29">
+      <c r="L317" s="28">
         <v>0</v>
       </c>
       <c r="M317" s="13">
@@ -21417,7 +21417,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L318" s="29">
+      <c r="L318" s="28">
         <v>0</v>
       </c>
       <c r="M318" s="13">
@@ -21478,7 +21478,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L319" s="29">
+      <c r="L319" s="28">
         <v>0</v>
       </c>
       <c r="M319" s="13">
@@ -21539,7 +21539,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L320" s="29">
+      <c r="L320" s="28">
         <v>0</v>
       </c>
       <c r="M320" s="13">
@@ -21600,7 +21600,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L321" s="29">
+      <c r="L321" s="28">
         <v>0</v>
       </c>
       <c r="M321" s="13">
@@ -21661,7 +21661,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L322" s="29">
+      <c r="L322" s="28">
         <v>0</v>
       </c>
       <c r="M322" s="13">
@@ -21722,7 +21722,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L323" s="29">
+      <c r="L323" s="28">
         <v>0</v>
       </c>
       <c r="M323" s="13">
@@ -21783,7 +21783,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L324" s="29">
+      <c r="L324" s="28">
         <v>0</v>
       </c>
       <c r="M324" s="13">
@@ -21844,7 +21844,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L325" s="29">
+      <c r="L325" s="28">
         <v>0</v>
       </c>
       <c r="M325" s="13">
@@ -21905,7 +21905,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L326" s="29">
+      <c r="L326" s="28">
         <v>0</v>
       </c>
       <c r="M326" s="13">
@@ -21966,7 +21966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L327" s="29">
+      <c r="L327" s="28">
         <v>0</v>
       </c>
       <c r="M327" s="13">
@@ -22027,7 +22027,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L328" s="29">
+      <c r="L328" s="28">
         <v>0</v>
       </c>
       <c r="M328" s="13">
@@ -22088,7 +22088,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L329" s="29">
+      <c r="L329" s="28">
         <v>0</v>
       </c>
       <c r="M329" s="13">
@@ -22149,7 +22149,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L330" s="29">
+      <c r="L330" s="28">
         <v>0</v>
       </c>
       <c r="M330" s="13">
@@ -22210,7 +22210,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L331" s="29">
+      <c r="L331" s="28">
         <v>0</v>
       </c>
       <c r="M331" s="13">
@@ -22271,7 +22271,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L332" s="29">
+      <c r="L332" s="28">
         <v>0</v>
       </c>
       <c r="M332" s="13">
@@ -22332,7 +22332,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L333" s="29">
+      <c r="L333" s="28">
         <v>0</v>
       </c>
       <c r="M333" s="13">
@@ -22393,7 +22393,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L334" s="29">
+      <c r="L334" s="28">
         <v>0</v>
       </c>
       <c r="M334" s="13">
@@ -22454,7 +22454,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L335" s="29">
+      <c r="L335" s="28">
         <v>0</v>
       </c>
       <c r="M335" s="13">
@@ -22515,7 +22515,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L336" s="29">
+      <c r="L336" s="28">
         <v>0</v>
       </c>
       <c r="M336" s="13">
@@ -22576,7 +22576,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L337" s="29">
+      <c r="L337" s="28">
         <v>0</v>
       </c>
       <c r="M337" s="13">
@@ -22637,7 +22637,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L338" s="29">
+      <c r="L338" s="28">
         <v>0</v>
       </c>
       <c r="M338" s="13">
@@ -22698,7 +22698,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L339" s="29">
+      <c r="L339" s="28">
         <v>0</v>
       </c>
       <c r="M339" s="13">
@@ -22759,7 +22759,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L340" s="29">
+      <c r="L340" s="28">
         <v>0</v>
       </c>
       <c r="M340" s="13">
@@ -22820,7 +22820,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L341" s="29">
+      <c r="L341" s="28">
         <v>0</v>
       </c>
       <c r="M341" s="13">
@@ -22881,7 +22881,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L342" s="29">
+      <c r="L342" s="28">
         <v>0</v>
       </c>
       <c r="M342" s="13">
@@ -22942,7 +22942,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L343" s="29">
+      <c r="L343" s="28">
         <v>0</v>
       </c>
       <c r="M343" s="13">
@@ -23003,7 +23003,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L344" s="29">
+      <c r="L344" s="28">
         <v>0</v>
       </c>
       <c r="M344" s="13">
@@ -23064,7 +23064,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L345" s="29">
+      <c r="L345" s="28">
         <v>0</v>
       </c>
       <c r="M345" s="13">
@@ -23125,7 +23125,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L346" s="29">
+      <c r="L346" s="28">
         <v>0</v>
       </c>
       <c r="M346" s="13">
@@ -23186,7 +23186,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L347" s="29">
+      <c r="L347" s="28">
         <v>0</v>
       </c>
       <c r="M347" s="13">
@@ -23247,7 +23247,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L348" s="29">
+      <c r="L348" s="28">
         <v>0</v>
       </c>
       <c r="M348" s="13">
@@ -23308,7 +23308,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L349" s="29">
+      <c r="L349" s="28">
         <v>0</v>
       </c>
       <c r="M349" s="13">
@@ -23369,7 +23369,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L350" s="29">
+      <c r="L350" s="28">
         <v>0</v>
       </c>
       <c r="M350" s="13">
@@ -23430,7 +23430,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L351" s="29">
+      <c r="L351" s="28">
         <v>0</v>
       </c>
       <c r="M351" s="13">
@@ -23491,7 +23491,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L352" s="29">
+      <c r="L352" s="28">
         <v>0</v>
       </c>
       <c r="M352" s="13">
@@ -23552,7 +23552,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L353" s="29">
+      <c r="L353" s="28">
         <v>0</v>
       </c>
       <c r="M353" s="13">
@@ -23613,7 +23613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L354" s="29">
+      <c r="L354" s="28">
         <v>0</v>
       </c>
       <c r="M354" s="13">
@@ -23674,7 +23674,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L355" s="29">
+      <c r="L355" s="28">
         <v>0</v>
       </c>
       <c r="M355" s="13">
@@ -23735,7 +23735,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L356" s="29">
+      <c r="L356" s="28">
         <v>0</v>
       </c>
       <c r="M356" s="13">
@@ -23796,7 +23796,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L357" s="29">
+      <c r="L357" s="28">
         <v>0</v>
       </c>
       <c r="M357" s="13">
@@ -23857,7 +23857,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L358" s="29">
+      <c r="L358" s="28">
         <v>0</v>
       </c>
       <c r="M358" s="13">
@@ -23918,7 +23918,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L359" s="29">
+      <c r="L359" s="28">
         <v>0</v>
       </c>
       <c r="M359" s="13">
@@ -23979,7 +23979,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L360" s="29">
+      <c r="L360" s="28">
         <v>0</v>
       </c>
       <c r="M360" s="13">
@@ -24040,7 +24040,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L361" s="29">
+      <c r="L361" s="28">
         <v>0</v>
       </c>
       <c r="M361" s="13">
@@ -24101,7 +24101,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L362" s="29">
+      <c r="L362" s="28">
         <v>0</v>
       </c>
       <c r="M362" s="13">
@@ -24162,7 +24162,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L363" s="29">
+      <c r="L363" s="28">
         <v>0</v>
       </c>
       <c r="M363" s="13">
@@ -24223,7 +24223,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L364" s="29">
+      <c r="L364" s="28">
         <v>0</v>
       </c>
       <c r="M364" s="13">
@@ -24284,7 +24284,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L365" s="29">
+      <c r="L365" s="28">
         <v>0</v>
       </c>
       <c r="M365" s="13">
@@ -24345,7 +24345,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L366" s="29">
+      <c r="L366" s="28">
         <v>0</v>
       </c>
       <c r="M366" s="13">
@@ -24406,7 +24406,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L367" s="29">
+      <c r="L367" s="28">
         <v>0</v>
       </c>
       <c r="M367" s="13">
@@ -24467,7 +24467,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L368" s="29">
+      <c r="L368" s="28">
         <v>0</v>
       </c>
       <c r="M368" s="13">
@@ -24528,7 +24528,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L369" s="29">
+      <c r="L369" s="28">
         <v>0</v>
       </c>
       <c r="M369" s="13">
@@ -24589,7 +24589,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L370" s="29">
+      <c r="L370" s="28">
         <v>0</v>
       </c>
       <c r="M370" s="13">
@@ -24650,7 +24650,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L371" s="29">
+      <c r="L371" s="28">
         <v>0</v>
       </c>
       <c r="M371" s="13">
@@ -24711,7 +24711,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L372" s="29">
+      <c r="L372" s="28">
         <v>0</v>
       </c>
       <c r="M372" s="13">
@@ -24772,7 +24772,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L373" s="29" t="s">
+      <c r="L373" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M373" s="13">
@@ -24833,7 +24833,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L374" s="29" t="s">
+      <c r="L374" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M374" s="13">
@@ -24894,7 +24894,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L375" s="29" t="s">
+      <c r="L375" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M375" s="13">
@@ -24955,7 +24955,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L376" s="29" t="s">
+      <c r="L376" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M376" s="13">
@@ -25016,7 +25016,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L377" s="29" t="s">
+      <c r="L377" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M377" s="13">
@@ -25077,7 +25077,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L378" s="29" t="s">
+      <c r="L378" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M378" s="13">
@@ -25138,7 +25138,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L379" s="29" t="s">
+      <c r="L379" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M379" s="13">
@@ -25199,7 +25199,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L380" s="29" t="s">
+      <c r="L380" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M380" s="13">
@@ -25260,7 +25260,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L381" s="29" t="s">
+      <c r="L381" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M381" s="13">
@@ -25321,7 +25321,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L382" s="29" t="s">
+      <c r="L382" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M382" s="13">
@@ -25382,7 +25382,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L383" s="29" t="s">
+      <c r="L383" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M383" s="13">
@@ -25443,7 +25443,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L384" s="29" t="s">
+      <c r="L384" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M384" s="13">
@@ -25504,7 +25504,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L385" s="29" t="s">
+      <c r="L385" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M385" s="13">
@@ -25565,7 +25565,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L386" s="29" t="s">
+      <c r="L386" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M386" s="13">
@@ -25626,7 +25626,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L387" s="29" t="s">
+      <c r="L387" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M387" s="13">
@@ -25687,7 +25687,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L388" s="29" t="s">
+      <c r="L388" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M388" s="13">
@@ -25748,7 +25748,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L389" s="29" t="s">
+      <c r="L389" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M389" s="13">
@@ -25809,7 +25809,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L390" s="29" t="s">
+      <c r="L390" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M390" s="13">
@@ -25870,7 +25870,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L391" s="29" t="s">
+      <c r="L391" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M391" s="13">
@@ -25931,7 +25931,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L392" s="29" t="s">
+      <c r="L392" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M392" s="13">
@@ -25992,7 +25992,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L393" s="29" t="s">
+      <c r="L393" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M393" s="13">
@@ -26053,7 +26053,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L394" s="29" t="s">
+      <c r="L394" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M394" s="13">
@@ -26114,7 +26114,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L395" s="29" t="s">
+      <c r="L395" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M395" s="13">
@@ -26175,7 +26175,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L396" s="29" t="s">
+      <c r="L396" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M396" s="13">
@@ -26236,7 +26236,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L397" s="29" t="s">
+      <c r="L397" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M397" s="13">
@@ -26297,7 +26297,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L398" s="29" t="s">
+      <c r="L398" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M398" s="13">
@@ -26358,7 +26358,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L399" s="29" t="s">
+      <c r="L399" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M399" s="13">
@@ -26419,7 +26419,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L400" s="29" t="s">
+      <c r="L400" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M400" s="13">
@@ -26480,7 +26480,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L401" s="29" t="s">
+      <c r="L401" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M401" s="13">
@@ -26541,7 +26541,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L402" s="29" t="s">
+      <c r="L402" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M402" s="13">
@@ -26602,7 +26602,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L403" s="29" t="s">
+      <c r="L403" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M403" s="13">
@@ -26663,7 +26663,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L404" s="29" t="s">
+      <c r="L404" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M404" s="13">
@@ -26724,7 +26724,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L405" s="29" t="s">
+      <c r="L405" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M405" s="13">
@@ -26785,7 +26785,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L406" s="29" t="s">
+      <c r="L406" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M406" s="13">
@@ -26846,7 +26846,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L407" s="29" t="s">
+      <c r="L407" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M407" s="13">
@@ -26907,7 +26907,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L408" s="29" t="s">
+      <c r="L408" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M408" s="13">
@@ -26968,7 +26968,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L409" s="29" t="s">
+      <c r="L409" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M409" s="13">
@@ -27029,7 +27029,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L410" s="29" t="s">
+      <c r="L410" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M410" s="13">
@@ -27090,7 +27090,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L411" s="29" t="s">
+      <c r="L411" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M411" s="13">
@@ -27151,7 +27151,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L412" s="29" t="s">
+      <c r="L412" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M412" s="13">
@@ -27212,7 +27212,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L413" s="29" t="s">
+      <c r="L413" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M413" s="13">
@@ -27273,7 +27273,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L414" s="29" t="s">
+      <c r="L414" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M414" s="13">
@@ -27334,7 +27334,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L415" s="29" t="s">
+      <c r="L415" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M415" s="13">
@@ -27395,7 +27395,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L416" s="29" t="s">
+      <c r="L416" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M416" s="13">
@@ -27456,7 +27456,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L417" s="29" t="s">
+      <c r="L417" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M417" s="13">
@@ -27517,7 +27517,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L418" s="29" t="s">
+      <c r="L418" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M418" s="13">
@@ -27578,7 +27578,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L419" s="29" t="s">
+      <c r="L419" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M419" s="13">
@@ -27639,7 +27639,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L420" s="29" t="s">
+      <c r="L420" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M420" s="13">
@@ -27700,7 +27700,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L421" s="29" t="s">
+      <c r="L421" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M421" s="13">
@@ -27761,7 +27761,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L422" s="29" t="s">
+      <c r="L422" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M422" s="13">
@@ -27822,7 +27822,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L423" s="29" t="s">
+      <c r="L423" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M423" s="13">
@@ -27883,7 +27883,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L424" s="29" t="s">
+      <c r="L424" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M424" s="13">
@@ -27944,7 +27944,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L425" s="29" t="s">
+      <c r="L425" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M425" s="13">
@@ -28005,7 +28005,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L426" s="29" t="s">
+      <c r="L426" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M426" s="13">
@@ -28066,7 +28066,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L427" s="29" t="s">
+      <c r="L427" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M427" s="13">
@@ -28127,7 +28127,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L428" s="29" t="s">
+      <c r="L428" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M428" s="13">
@@ -28188,7 +28188,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L429" s="29" t="s">
+      <c r="L429" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M429" s="13">
@@ -28249,7 +28249,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L430" s="29" t="s">
+      <c r="L430" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M430" s="13">
@@ -28310,7 +28310,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L431" s="29" t="s">
+      <c r="L431" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M431" s="13">
@@ -28371,7 +28371,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L432" s="29" t="s">
+      <c r="L432" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M432" s="13">
@@ -28432,7 +28432,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L433" s="29" t="s">
+      <c r="L433" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M433" s="13">
@@ -28493,7 +28493,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L434" s="29" t="s">
+      <c r="L434" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M434" s="13">
@@ -28553,7 +28553,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L435" s="29" t="s">
+      <c r="L435" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M435" s="13">
@@ -28613,7 +28613,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L436" s="29" t="s">
+      <c r="L436" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M436" s="13">
@@ -28672,7 +28672,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L437" s="29" t="s">
+      <c r="L437" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M437" s="13">
@@ -28731,7 +28731,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L438" s="29" t="s">
+      <c r="L438" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M438" s="13">
@@ -28790,7 +28790,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L439" s="29" t="s">
+      <c r="L439" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M439" s="13">
@@ -28845,10 +28845,10 @@
       <c r="J440" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="K440" s="28" t="s">
+      <c r="K440" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="L440" s="29" t="s">
+      <c r="L440" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M440" s="13">
@@ -28907,7 +28907,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L441" s="29" t="s">
+      <c r="L441" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M441" s="13">
@@ -28966,7 +28966,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L442" s="29" t="s">
+      <c r="L442" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M442" s="13">
@@ -29025,7 +29025,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L443" s="29" t="s">
+      <c r="L443" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M443" s="13">
@@ -29085,7 +29085,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L444" s="29" t="s">
+      <c r="L444" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M444" s="13">
@@ -29145,7 +29145,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L445" s="29" t="s">
+      <c r="L445" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M445" s="13">
@@ -29205,7 +29205,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L446" s="29" t="s">
+      <c r="L446" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M446" s="13">
@@ -29265,7 +29265,7 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L447" s="29" t="s">
+      <c r="L447" s="28" t="s">
         <v>399</v>
       </c>
       <c r="M447" s="13">
@@ -29325,14 +29325,14 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L448" s="29" t="s">
+      <c r="L448" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M448" s="22">
+      <c r="M448" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N448" s="22">
+      <c r="N448" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29385,14 +29385,14 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L449" s="29" t="s">
+      <c r="L449" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M449" s="22">
+      <c r="M449" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N449" s="22">
+      <c r="N449" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29445,14 +29445,14 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L450" s="29" t="s">
+      <c r="L450" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M450" s="22">
+      <c r="M450" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N450" s="22">
+      <c r="N450" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29505,14 +29505,14 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L451" s="29" t="s">
+      <c r="L451" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M451" s="22">
+      <c r="M451" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>6</v>
       </c>
-      <c r="N451" s="22">
+      <c r="N451" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29557,21 +29557,22 @@
       <c r="I452" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J452" s="15" t="s">
-        <v>317</v>
+      <c r="J452" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K452" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L452" s="29" t="s">
+      <c r="L452" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M452" s="22">
+      <c r="M452" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N452" s="22">
+      <c r="N452" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29616,21 +29617,22 @@
       <c r="I453" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J453" s="15" t="s">
-        <v>317</v>
+      <c r="J453" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K453" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L453" s="29" t="s">
+      <c r="L453" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M453" s="22">
+      <c r="M453" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N453" s="22">
+      <c r="N453" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29675,20 +29677,22 @@
       <c r="I454" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J454" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K454" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L454" s="29" t="s">
+      <c r="J454" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
+      </c>
+      <c r="K454" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L454" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M454" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N454" s="22">
+      <c r="M454" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N454" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29733,21 +29737,22 @@
       <c r="I455" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J455" s="15" t="s">
-        <v>317</v>
+      <c r="J455" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K455" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L455" s="29" t="s">
+      <c r="L455" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M455" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N455" s="22">
+      <c r="M455" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N455" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29792,21 +29797,22 @@
       <c r="I456" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J456" s="15" t="s">
-        <v>316</v>
+      <c r="J456" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K456" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L456" s="29" t="s">
+      <c r="L456" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M456" s="22">
+      <c r="M456" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N456" s="22">
+      <c r="N456" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29851,21 +29857,22 @@
       <c r="I457" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J457" s="15" t="s">
-        <v>317</v>
+      <c r="J457" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K457" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L457" s="29" t="s">
+      <c r="L457" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M457" s="22">
+      <c r="M457" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N457" s="22">
+      <c r="N457" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29910,21 +29917,22 @@
       <c r="I458" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J458" s="15" t="s">
-        <v>316</v>
+      <c r="J458" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K458" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L458" s="29" t="s">
+      <c r="L458" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M458" s="22">
+      <c r="M458" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N458" s="22">
+      <c r="N458" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -29969,21 +29977,22 @@
       <c r="I459" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="J459" s="15" t="s">
-        <v>317</v>
+      <c r="J459" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K459" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L459" s="29" t="s">
+      <c r="L459" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M459" s="22">
+      <c r="M459" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N459" s="22">
+      <c r="N459" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30028,21 +30037,22 @@
       <c r="I460" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J460" s="15" t="s">
-        <v>317</v>
+      <c r="J460" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K460" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L460" s="29" t="s">
+      <c r="L460" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M460" s="22">
+      <c r="M460" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N460" s="22">
+      <c r="N460" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30087,21 +30097,22 @@
       <c r="I461" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J461" s="15" t="s">
-        <v>317</v>
+      <c r="J461" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K461" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L461" s="29" t="s">
+      <c r="L461" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M461" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N461" s="22">
+      <c r="M461" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N461" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30146,21 +30157,22 @@
       <c r="I462" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J462" s="15" t="s">
-        <v>317</v>
+      <c r="J462" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K462" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L462" s="29" t="s">
+      <c r="L462" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M462" s="22">
+      <c r="M462" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N462" s="22">
+      <c r="N462" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30205,21 +30217,22 @@
       <c r="I463" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J463" s="15" t="s">
-        <v>317</v>
+      <c r="J463" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K463" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L463" s="29" t="s">
+      <c r="L463" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M463" s="22">
+      <c r="M463" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N463" s="22">
+      <c r="N463" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30264,21 +30277,22 @@
       <c r="I464" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J464" s="15" t="s">
-        <v>317</v>
+      <c r="J464" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K464" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L464" s="29" t="s">
+      <c r="L464" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M464" s="22">
+      <c r="M464" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N464" s="22">
+      <c r="N464" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30323,20 +30337,22 @@
       <c r="I465" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J465" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="K465" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="L465" s="29" t="s">
+      <c r="J465" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K465" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>QLD</v>
+      </c>
+      <c r="L465" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M465" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N465" s="22">
+      <c r="M465" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N465" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30381,21 +30397,22 @@
       <c r="I466" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J466" s="15" t="s">
-        <v>317</v>
+      <c r="J466" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K466" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>TPFC</v>
       </c>
-      <c r="L466" s="29" t="s">
+      <c r="L466" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M466" s="22">
+      <c r="M466" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N466" s="22">
+      <c r="N466" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30440,20 +30457,22 @@
       <c r="I467" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J467" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="K467" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L467" s="29" t="s">
+      <c r="J467" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K467" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L467" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M467" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N467" s="22">
+      <c r="M467" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N467" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30498,21 +30517,22 @@
       <c r="I468" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J468" s="15" t="s">
-        <v>316</v>
+      <c r="J468" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K468" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L468" s="29" t="s">
+      <c r="L468" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M468" s="22">
+      <c r="M468" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N468" s="22">
+      <c r="N468" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30557,21 +30577,22 @@
       <c r="I469" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J469" s="15" t="s">
-        <v>316</v>
+      <c r="J469" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K469" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L469" s="29" t="s">
+      <c r="L469" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M469" s="22">
+      <c r="M469" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N469" s="22">
+      <c r="N469" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30616,21 +30637,22 @@
       <c r="I470" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J470" s="15" t="s">
-        <v>316</v>
+      <c r="J470" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K470" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AUFeC</v>
       </c>
-      <c r="L470" s="29" t="s">
+      <c r="L470" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M470" s="22">
+      <c r="M470" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N470" s="22">
+      <c r="N470" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30675,21 +30697,22 @@
       <c r="I471" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J471" s="15" t="s">
-        <v>316</v>
+      <c r="J471" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K471" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L471" s="29" t="s">
+      <c r="L471" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M471" s="22">
+      <c r="M471" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N471" s="22">
+      <c r="N471" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30734,21 +30757,22 @@
       <c r="I472" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J472" s="15" t="s">
-        <v>316</v>
+      <c r="J472" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K472" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L472" s="29" t="s">
+      <c r="L472" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M472" s="22">
+      <c r="M472" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N472" s="22">
+      <c r="N472" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30793,21 +30817,22 @@
       <c r="I473" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J473" s="15" t="s">
-        <v>317</v>
+      <c r="J473" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K473" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L473" s="29" t="s">
+      <c r="L473" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M473" s="22">
+      <c r="M473" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>6</v>
       </c>
-      <c r="N473" s="22">
+      <c r="N473" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30852,21 +30877,22 @@
       <c r="I474" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J474" s="15" t="s">
-        <v>317</v>
+      <c r="J474" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K474" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L474" s="29" t="s">
+      <c r="L474" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M474" s="22">
+      <c r="M474" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N474" s="22">
+      <c r="N474" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30911,20 +30937,22 @@
       <c r="I475" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J475" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="K475" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="L475" s="29" t="s">
+      <c r="J475" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
+      </c>
+      <c r="K475" s="26" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>QLD</v>
+      </c>
+      <c r="L475" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M475" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N475" s="22">
+      <c r="M475" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N475" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -30969,21 +30997,22 @@
       <c r="I476" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J476" s="15" t="s">
-        <v>317</v>
+      <c r="J476" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K476" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L476" s="29" t="s">
+      <c r="L476" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M476" s="22">
+      <c r="M476" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N476" s="22">
+      <c r="N476" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31029,21 +31058,22 @@
       <c r="I477" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J477" s="15" t="s">
-        <v>316</v>
+      <c r="J477" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K477" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L477" s="29" t="s">
+      <c r="L477" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M477" s="22">
+      <c r="M477" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N477" s="22">
+      <c r="N477" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31089,21 +31119,22 @@
       <c r="I478" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J478" s="15" t="s">
-        <v>316</v>
+      <c r="J478" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K478" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L478" s="29" t="s">
+      <c r="L478" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M478" s="22">
+      <c r="M478" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N478" s="22">
+      <c r="N478" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31149,21 +31180,22 @@
       <c r="I479" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J479" s="15" t="s">
-        <v>316</v>
+      <c r="J479" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K479" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L479" s="29" t="s">
+      <c r="L479" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="M479" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N479" s="22">
+      <c r="M479" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N479" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31209,21 +31241,22 @@
       <c r="I480" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J480" s="15" t="s">
-        <v>316</v>
+      <c r="J480" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K480" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L480" s="27">
-        <v>1</v>
-      </c>
-      <c r="M480" s="22">
+      <c r="L480" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M480" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N480" s="22">
+      <c r="N480" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31269,21 +31302,22 @@
       <c r="I481" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J481" s="15" t="s">
-        <v>316</v>
+      <c r="J481" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K481" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L481" s="27">
-        <v>1</v>
-      </c>
-      <c r="M481" s="22">
+      <c r="L481" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M481" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>5</v>
       </c>
-      <c r="N481" s="22">
+      <c r="N481" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
@@ -31328,27 +31362,28 @@
       <c r="I482" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J482" s="15" t="s">
-        <v>317</v>
+      <c r="J482" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K482" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L482" s="27">
-        <v>0</v>
-      </c>
-      <c r="M482" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N482" s="22">
+      <c r="L482" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M482" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N482" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O482" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L482=0,VLOOKUP(C482,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C482,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P482" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31356,7 +31391,7 @@
       </c>
       <c r="Q482" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.25">
@@ -31387,27 +31422,28 @@
       <c r="I483" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J483" s="15" t="s">
-        <v>317</v>
+      <c r="J483" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K483" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L483" s="27">
-        <v>0</v>
-      </c>
-      <c r="M483" s="22">
+      <c r="L483" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M483" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N483" s="22">
+      <c r="N483" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O483" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L483=0,VLOOKUP(C483,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C483,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P483" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31415,7 +31451,7 @@
       </c>
       <c r="Q483" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>13.799999999999999</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.25">
@@ -31446,27 +31482,28 @@
       <c r="I484" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J484" s="15" t="s">
-        <v>317</v>
+      <c r="J484" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K484" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L484" s="27">
-        <v>0</v>
-      </c>
-      <c r="M484" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N484" s="22">
+      <c r="L484" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M484" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N484" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O484" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L484=0,VLOOKUP(C484,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C484,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P484" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31474,7 +31511,7 @@
       </c>
       <c r="Q484" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.799999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.25">
@@ -31505,27 +31542,28 @@
       <c r="I485" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J485" s="15" t="s">
-        <v>317</v>
+      <c r="J485" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K485" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L485" s="27">
-        <v>0</v>
-      </c>
-      <c r="M485" s="22">
+      <c r="L485" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M485" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N485" s="22">
+      <c r="N485" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O485" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L485=0,VLOOKUP(C485,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C485,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P485" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31533,7 +31571,7 @@
       </c>
       <c r="Q485" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>11.200000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.25">
@@ -31564,27 +31602,28 @@
       <c r="I486" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J486" s="15" t="s">
-        <v>317</v>
+      <c r="J486" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K486" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L486" s="27">
-        <v>0</v>
-      </c>
-      <c r="M486" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N486" s="22">
+      <c r="L486" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M486" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N486" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O486" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L486=0,VLOOKUP(C486,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C486,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P486" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31592,7 +31631,7 @@
       </c>
       <c r="Q486" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>9.2000000000000011</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.25">
@@ -31624,27 +31663,28 @@
       <c r="I487" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J487" s="15" t="s">
-        <v>316</v>
+      <c r="J487" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K487" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L487" s="27">
-        <v>0</v>
-      </c>
-      <c r="M487" s="22">
+      <c r="L487" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M487" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N487" s="22">
+      <c r="N487" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O487" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L487=0,VLOOKUP(C487,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C487,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P487" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31652,7 +31692,7 @@
       </c>
       <c r="Q487" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>22.400000000000002</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.25">
@@ -31684,27 +31724,28 @@
       <c r="I488" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J488" s="15" t="s">
-        <v>316</v>
+      <c r="J488" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K488" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L488" s="27">
-        <v>0</v>
-      </c>
-      <c r="M488" s="22">
+      <c r="L488" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M488" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N488" s="22">
+      <c r="N488" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O488" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L488=0,VLOOKUP(C488,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C488,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P488" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31712,7 +31753,7 @@
       </c>
       <c r="Q488" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18.400000000000002</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.25">
@@ -31744,27 +31785,28 @@
       <c r="I489" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J489" s="15" t="s">
-        <v>316</v>
+      <c r="J489" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K489" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L489" s="27">
-        <v>0</v>
-      </c>
-      <c r="M489" s="22">
+      <c r="L489" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M489" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N489" s="22">
+      <c r="N489" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O489" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L489=0,VLOOKUP(C489,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C489,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P489" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31772,7 +31814,7 @@
       </c>
       <c r="Q489" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.25">
@@ -31804,27 +31846,28 @@
       <c r="I490" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J490" s="15" t="s">
-        <v>316</v>
+      <c r="J490" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K490" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L490" s="27">
-        <v>0</v>
-      </c>
-      <c r="M490" s="22">
+      <c r="L490" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M490" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N490" s="22">
+      <c r="N490" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O490" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L490=0,VLOOKUP(C490,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C490,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P490" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31832,7 +31875,7 @@
       </c>
       <c r="Q490" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.25">
@@ -31864,27 +31907,28 @@
       <c r="I491" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J491" s="15" t="s">
-        <v>316</v>
+      <c r="J491" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K491" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L491" s="27">
-        <v>0</v>
-      </c>
-      <c r="M491" s="22">
+      <c r="L491" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M491" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N491" s="22">
+      <c r="N491" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O491" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L491=0,VLOOKUP(C491,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C491,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P491" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31892,7 +31936,7 @@
       </c>
       <c r="Q491" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.25">
@@ -31924,27 +31968,28 @@
       <c r="I492" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J492" s="15" t="s">
-        <v>316</v>
+      <c r="J492" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K492" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L492" s="27">
-        <v>0</v>
-      </c>
-      <c r="M492" s="22">
+      <c r="L492" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M492" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N492" s="22">
+      <c r="N492" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O492" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L492=0,VLOOKUP(C492,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C492,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P492" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -31952,7 +31997,7 @@
       </c>
       <c r="Q492" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>13.799999999999999</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.25">
@@ -31984,27 +32029,28 @@
       <c r="I493" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J493" s="15" t="s">
-        <v>316</v>
+      <c r="J493" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K493" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L493" s="27">
-        <v>0</v>
-      </c>
-      <c r="M493" s="22">
+      <c r="L493" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M493" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N493" s="22">
+      <c r="N493" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O493" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L493=0,VLOOKUP(C493,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C493,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P493" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32012,7 +32058,7 @@
       </c>
       <c r="Q493" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.799999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.25">
@@ -32044,27 +32090,28 @@
       <c r="I494" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J494" s="15" t="s">
-        <v>317</v>
+      <c r="J494" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K494" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L494" s="27">
-        <v>0</v>
-      </c>
-      <c r="M494" s="22">
+      <c r="L494" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M494" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N494" s="22">
+      <c r="N494" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O494" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L494=0,VLOOKUP(C494,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C494,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P494" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32072,7 +32119,7 @@
       </c>
       <c r="Q494" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>16.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.25">
@@ -32104,27 +32151,28 @@
       <c r="I495" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J495" s="15" t="s">
-        <v>317</v>
+      <c r="J495" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K495" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L495" s="27">
-        <v>0</v>
-      </c>
-      <c r="M495" s="22">
+      <c r="L495" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M495" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N495" s="22">
+      <c r="N495" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O495" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L495=0,VLOOKUP(C495,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C495,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P495" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32132,7 +32180,7 @@
       </c>
       <c r="Q495" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>13.799999999999999</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.25">
@@ -32164,27 +32212,28 @@
       <c r="I496" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J496" s="15" t="s">
-        <v>317</v>
+      <c r="J496" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K496" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L496" s="27">
-        <v>0</v>
-      </c>
-      <c r="M496" s="22">
+      <c r="L496" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M496" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N496" s="22">
+      <c r="N496" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O496" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L496=0,VLOOKUP(C496,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C496,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P496" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32192,7 +32241,7 @@
       </c>
       <c r="Q496" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>10.799999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.25">
@@ -32224,27 +32273,28 @@
       <c r="I497" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J497" s="15" t="s">
-        <v>316</v>
+      <c r="J497" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K497" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L497" s="27">
-        <v>0</v>
-      </c>
-      <c r="M497" s="22">
+      <c r="L497" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M497" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N497" s="22">
+      <c r="N497" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O497" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L497=0,VLOOKUP(C497,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C497,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P497" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32252,7 +32302,7 @@
       </c>
       <c r="Q497" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="498" spans="1:17" x14ac:dyDescent="0.25">
@@ -32284,27 +32334,28 @@
       <c r="I498" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J498" s="15" t="s">
-        <v>316</v>
+      <c r="J498" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K498" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L498" s="27">
-        <v>0</v>
-      </c>
-      <c r="M498" s="22">
+      <c r="L498" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M498" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N498" s="22">
+      <c r="N498" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O498" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L498=0,VLOOKUP(C498,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C498,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P498" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32312,7 +32363,7 @@
       </c>
       <c r="Q498" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.25">
@@ -32344,27 +32395,28 @@
       <c r="I499" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J499" s="15" t="s">
-        <v>316</v>
+      <c r="J499" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K499" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L499" s="27">
-        <v>0</v>
-      </c>
-      <c r="M499" s="22">
+      <c r="L499" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M499" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N499" s="22">
+      <c r="N499" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O499" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L499=0,VLOOKUP(C499,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C499,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P499" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32372,7 +32424,7 @@
       </c>
       <c r="Q499" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.25">
@@ -32404,27 +32456,28 @@
       <c r="I500" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J500" s="15" t="s">
-        <v>316</v>
+      <c r="J500" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K500" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L500" s="27">
-        <v>0</v>
-      </c>
-      <c r="M500" s="22">
+      <c r="L500" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M500" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N500" s="22">
+      <c r="N500" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O500" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L500=0,VLOOKUP(C500,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C500,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P500" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32432,7 +32485,7 @@
       </c>
       <c r="Q500" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.25">
@@ -32464,27 +32517,28 @@
       <c r="I501" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J501" s="15" t="s">
-        <v>316</v>
+      <c r="J501" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K501" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L501" s="27">
-        <v>0</v>
-      </c>
-      <c r="M501" s="22">
+      <c r="L501" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M501" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N501" s="22">
+      <c r="N501" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O501" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L501=0,VLOOKUP(C501,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C501,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P501" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32492,7 +32546,7 @@
       </c>
       <c r="Q501" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.25">
@@ -32524,27 +32578,28 @@
       <c r="I502" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J502" s="15" t="s">
-        <v>316</v>
+      <c r="J502" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K502" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L502" s="27">
-        <v>0</v>
-      </c>
-      <c r="M502" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N502" s="22">
+      <c r="L502" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M502" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N502" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O502" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L502=0,VLOOKUP(C502,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C502,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P502" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32552,7 +32607,7 @@
       </c>
       <c r="Q502" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.25">
@@ -32583,27 +32638,28 @@
       <c r="I503" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J503" s="15" t="s">
-        <v>317</v>
+      <c r="J503" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K503" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L503" s="27">
-        <v>0</v>
-      </c>
-      <c r="M503" s="22">
+      <c r="L503" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M503" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N503" s="22">
+      <c r="N503" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O503" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L503=0,VLOOKUP(C503,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C503,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P503" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32611,7 +32667,7 @@
       </c>
       <c r="Q503" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>22.400000000000002</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="504" spans="1:17" x14ac:dyDescent="0.25">
@@ -32642,27 +32698,28 @@
       <c r="I504" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J504" s="15" t="s">
-        <v>317</v>
+      <c r="J504" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K504" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L504" s="27">
-        <v>0</v>
-      </c>
-      <c r="M504" s="22">
+      <c r="L504" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M504" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N504" s="22">
+      <c r="N504" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O504" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L504=0,VLOOKUP(C504,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C504,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P504" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32670,7 +32727,7 @@
       </c>
       <c r="Q504" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18.400000000000002</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.25">
@@ -32701,27 +32758,28 @@
       <c r="I505" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J505" s="15" t="s">
-        <v>317</v>
+      <c r="J505" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K505" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L505" s="27">
-        <v>0</v>
-      </c>
-      <c r="M505" s="22">
+      <c r="L505" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M505" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N505" s="22">
+      <c r="N505" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O505" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L505=0,VLOOKUP(C505,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C505,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P505" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32729,7 +32787,7 @@
       </c>
       <c r="Q505" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.25">
@@ -32760,27 +32818,28 @@
       <c r="I506" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J506" s="15" t="s">
-        <v>317</v>
+      <c r="J506" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K506" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L506" s="27">
-        <v>0</v>
-      </c>
-      <c r="M506" s="22">
+      <c r="L506" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M506" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N506" s="22">
+      <c r="N506" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O506" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L506=0,VLOOKUP(C506,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C506,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P506" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32788,7 +32847,7 @@
       </c>
       <c r="Q506" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.25">
@@ -32820,27 +32879,28 @@
       <c r="I507" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J507" s="15" t="s">
-        <v>317</v>
+      <c r="J507" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K507" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L507" s="27">
-        <v>0</v>
-      </c>
-      <c r="M507" s="22">
+      <c r="L507" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M507" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N507" s="22">
+      <c r="N507" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O507" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L507=0,VLOOKUP(C507,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C507,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P507" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32848,7 +32908,7 @@
       </c>
       <c r="Q507" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>11.200000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.25">
@@ -32880,27 +32940,28 @@
       <c r="I508" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J508" s="15" t="s">
-        <v>317</v>
+      <c r="J508" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K508" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L508" s="27">
-        <v>0</v>
-      </c>
-      <c r="M508" s="22">
+      <c r="L508" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M508" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N508" s="22">
+      <c r="N508" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O508" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L508=0,VLOOKUP(C508,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C508,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P508" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32908,7 +32969,7 @@
       </c>
       <c r="Q508" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>9.2000000000000011</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="509" spans="1:17" x14ac:dyDescent="0.25">
@@ -32940,27 +33001,28 @@
       <c r="I509" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J509" s="15" t="s">
-        <v>317</v>
+      <c r="J509" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K509" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L509" s="27">
-        <v>0</v>
-      </c>
-      <c r="M509" s="22">
+      <c r="L509" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M509" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N509" s="22">
+      <c r="N509" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O509" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L509=0,VLOOKUP(C509,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C509,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P509" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -32968,7 +33030,7 @@
       </c>
       <c r="Q509" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="510" spans="1:17" x14ac:dyDescent="0.25">
@@ -33000,27 +33062,28 @@
       <c r="I510" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J510" s="15" t="s">
-        <v>317</v>
+      <c r="J510" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K510" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L510" s="27">
-        <v>0</v>
-      </c>
-      <c r="M510" s="22">
+      <c r="L510" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M510" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N510" s="22">
+      <c r="N510" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O510" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L510=0,VLOOKUP(C510,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C510,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P510" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33028,7 +33091,7 @@
       </c>
       <c r="Q510" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.25">
@@ -33060,27 +33123,28 @@
       <c r="I511" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J511" s="15" t="s">
-        <v>317</v>
+      <c r="J511" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K511" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L511" s="27">
-        <v>0</v>
-      </c>
-      <c r="M511" s="22">
+      <c r="L511" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M511" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N511" s="22">
+      <c r="N511" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O511" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L511=0,VLOOKUP(C511,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C511,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P511" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33088,7 +33152,7 @@
       </c>
       <c r="Q511" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:17" x14ac:dyDescent="0.25">
@@ -33120,27 +33184,28 @@
       <c r="I512" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J512" s="15" t="s">
-        <v>317</v>
+      <c r="J512" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K512" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L512" s="27">
-        <v>0</v>
-      </c>
-      <c r="M512" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N512" s="22">
+      <c r="L512" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M512" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N512" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O512" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L512=0,VLOOKUP(C512,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C512,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P512" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33148,7 +33213,7 @@
       </c>
       <c r="Q512" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.25">
@@ -33180,27 +33245,28 @@
       <c r="I513" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J513" s="15" t="s">
-        <v>317</v>
+      <c r="J513" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K513" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L513" s="27">
-        <v>0</v>
-      </c>
-      <c r="M513" s="22">
+      <c r="L513" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M513" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N513" s="22">
+      <c r="N513" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O513" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L513=0,VLOOKUP(C513,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C513,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P513" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33208,7 +33274,7 @@
       </c>
       <c r="Q513" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.25">
@@ -33240,27 +33306,28 @@
       <c r="I514" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J514" s="15" t="s">
-        <v>317</v>
+      <c r="J514" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K514" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L514" s="27">
-        <v>0</v>
-      </c>
-      <c r="M514" s="22">
+      <c r="L514" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M514" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N514" s="22">
+      <c r="N514" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O514" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L514=0,VLOOKUP(C514,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C514,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P514" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33268,7 +33335,7 @@
       </c>
       <c r="Q514" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.25">
@@ -33300,27 +33367,28 @@
       <c r="I515" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J515" s="15" t="s">
-        <v>317</v>
+      <c r="J515" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Men</v>
       </c>
       <c r="K515" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L515" s="27">
-        <v>0</v>
-      </c>
-      <c r="M515" s="22">
+      <c r="L515" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M515" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
       </c>
-      <c r="N515" s="22">
+      <c r="N515" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O515" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L515=0,VLOOKUP(C515,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C515,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P515" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33328,7 +33396,7 @@
       </c>
       <c r="Q515" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.25">
@@ -33360,27 +33428,28 @@
       <c r="I516" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J516" s="15" t="s">
-        <v>316</v>
+      <c r="J516" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K516" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L516" s="27">
-        <v>0</v>
-      </c>
-      <c r="M516" s="22">
+      <c r="L516" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M516" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N516" s="22">
+      <c r="N516" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O516" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L516=0,VLOOKUP(C516,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C516,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P516" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33388,7 +33457,7 @@
       </c>
       <c r="Q516" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>22.400000000000002</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.25">
@@ -33420,27 +33489,28 @@
       <c r="I517" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J517" s="15" t="s">
-        <v>316</v>
+      <c r="J517" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K517" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L517" s="27">
-        <v>0</v>
-      </c>
-      <c r="M517" s="22">
+      <c r="L517" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M517" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
       </c>
-      <c r="N517" s="22">
+      <c r="N517" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O517" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L517=0,VLOOKUP(C517,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C517,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P517" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33448,7 +33518,7 @@
       </c>
       <c r="Q517" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>18.400000000000002</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.25">
@@ -33480,27 +33550,28 @@
       <c r="I518" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J518" s="15" t="s">
-        <v>316</v>
+      <c r="J518" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K518" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L518" s="27">
-        <v>0</v>
-      </c>
-      <c r="M518" s="22">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
-      </c>
-      <c r="N518" s="22">
+      <c r="L518" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M518" s="13">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N518" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O518" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L518=0,VLOOKUP(C518,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C518,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P518" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33508,7 +33579,7 @@
       </c>
       <c r="Q518" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.25">
@@ -33540,27 +33611,28 @@
       <c r="I519" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J519" s="15" t="s">
-        <v>316</v>
+      <c r="J519" s="16" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:H,6,FALSE)</f>
+        <v>Women</v>
       </c>
       <c r="K519" s="26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L519" s="27">
-        <v>0</v>
-      </c>
-      <c r="M519" s="22">
+      <c r="L519" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="M519" s="13">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
       </c>
-      <c r="N519" s="22">
+      <c r="N519" s="13">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
       <c r="O519" s="18">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L519=0,VLOOKUP(C519,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C519,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P519" s="18">
         <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
@@ -33568,7 +33640,7 @@
       </c>
       <c r="Q519" s="19">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
@@ -33620,8 +33692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38540,7 +38612,7 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Moorhouse.Alexandra</v>
       </c>
-      <c r="D137" s="30">
+      <c r="D137" s="29">
         <v>32480</v>
       </c>
       <c r="E137" s="2">
@@ -39274,7 +39346,7 @@
         <v>317</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" ref="K157:K211" si="3">$K$1</f>
+        <f t="shared" ref="K157:K212" si="3">$K$1</f>
         <v>44197</v>
       </c>
       <c r="L157" s="2">
@@ -39617,13 +39689,16 @@
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
         <v>Scully.Mark</v>
       </c>
-      <c r="D167" s="30">
+      <c r="D167" s="29">
         <v>25027</v>
       </c>
       <c r="E167" s="2">
         <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>52</v>
       </c>
+      <c r="F167" t="s">
+        <v>416</v>
+      </c>
       <c r="G167" t="s">
         <v>198</v>
       </c>
@@ -41224,14 +41299,39 @@
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="C212" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D212" s="1"/>
+        <v>Hillock.Richard</v>
+      </c>
+      <c r="D212" s="1">
+        <v>25231</v>
+      </c>
       <c r="E212" s="2">
         <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <v>51</v>
+      </c>
+      <c r="F212" t="s">
+        <v>49</v>
+      </c>
+      <c r="G212" t="s">
+        <v>198</v>
+      </c>
+      <c r="H212" t="s">
+        <v>317</v>
+      </c>
+      <c r="K212" s="29">
+        <f t="shared" si="3"/>
+        <v>44197</v>
+      </c>
+      <c r="L212" s="2">
+        <f>ROUNDDOWN((K212-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
